--- a/leetcode/1. statistics/leetcode.xlsx
+++ b/leetcode/1. statistics/leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8385" tabRatio="1000" firstSheet="4" activeTab="12"/>
+    <workbookView windowWidth="19770" windowHeight="8385" tabRatio="1000" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="14" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859">
   <si>
     <t>算法大纲</t>
   </si>
@@ -1856,6 +1856,12 @@
   </si>
   <si>
     <t>思路稍微有点点绕：以当前字符为中心，分别向左右两侧扩展，然后将左右两侧相同的字符相乘，再进行累加</t>
+  </si>
+  <si>
+    <t>将字符串拆分为若干长度为 k 的组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">强密码检验器 II </t>
   </si>
   <si>
     <t>爬楼梯</t>
@@ -3187,10 +3193,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3224,13 +3230,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3238,22 +3237,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3261,7 +3268,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3283,31 +3290,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3321,17 +3320,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3346,14 +3352,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3404,7 +3410,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3422,25 +3530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3452,25 +3542,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3482,61 +3566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3549,36 +3585,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3607,69 +3613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3694,6 +3637,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3704,16 +3701,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3722,131 +3728,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4136,7 +4142,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -5292,10 +5298,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -6157,6 +6163,34 @@
       </c>
       <c r="E64" s="21" t="s">
         <v>496</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="3">
+        <v>2138</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="3">
+        <v>2299</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -6228,7 +6262,7 @@
         <v>71</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>42</v>
@@ -6246,7 +6280,7 @@
         <v>300</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
@@ -6264,14 +6298,14 @@
         <v>486</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="21" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -6284,7 +6318,7 @@
         <v>718</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
@@ -6302,7 +6336,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>42</v>
@@ -6320,7 +6354,7 @@
         <v>674</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>42</v>
@@ -6338,7 +6372,7 @@
         <v>474</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -6349,14 +6383,14 @@
         <v>1049</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="21" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -6369,14 +6403,14 @@
         <v>221</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="21" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -6389,14 +6423,14 @@
         <v>1277</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="21" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -6409,14 +6443,14 @@
         <v>62</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="21" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -6429,14 +6463,14 @@
         <v>63</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="21" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -6449,14 +6483,14 @@
         <v>91</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="27" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -6487,7 +6521,7 @@
         <v>97</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
@@ -6505,14 +6539,14 @@
         <v>120</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="27" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -6532,7 +6566,7 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="21" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -6545,14 +6579,14 @@
         <v>714</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="21" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -6565,7 +6599,7 @@
         <v>139</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
@@ -6583,7 +6617,7 @@
         <v>152</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
@@ -6601,14 +6635,14 @@
         <v>198</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="21" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -6621,14 +6655,14 @@
         <v>213</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="21" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -6669,7 +6703,7 @@
         <v>413</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
@@ -6687,14 +6721,14 @@
         <v>873</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="21" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -6707,18 +6741,18 @@
         <v>2110</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="27" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -6729,18 +6763,18 @@
         <v>813</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="27" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H30" s="32"/>
       <c r="I30" s="3"/>
@@ -6751,14 +6785,14 @@
         <v>2106</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="27" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="21"/>
@@ -6771,14 +6805,14 @@
         <v>416</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="27" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="21"/>
@@ -6791,18 +6825,18 @@
         <v>2063</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="27" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -6813,14 +6847,14 @@
         <v>698</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="27" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="21"/>
@@ -6833,7 +6867,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C35" s="32" t="s">
         <v>51</v>
@@ -6853,13 +6887,13 @@
         <v>1109</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="20"/>
@@ -6869,18 +6903,18 @@
         <v>1727</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="51" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F37" s="59"/>
       <c r="G37" s="60" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -6891,14 +6925,14 @@
         <v>518</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="21" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
@@ -6911,14 +6945,14 @@
         <v>935</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="27" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="21"/>
@@ -6931,13 +6965,13 @@
         <v>1024</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="41" ht="42.75" spans="1:10">
@@ -6945,14 +6979,14 @@
         <v>1043</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="21" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
@@ -6965,13 +6999,13 @@
         <v>1685</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C42" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -6979,14 +7013,14 @@
         <v>1986</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C43" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="27" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -6999,14 +7033,14 @@
         <v>377</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C44" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="21" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
@@ -7019,14 +7053,14 @@
         <v>1371</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="27" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
@@ -7039,14 +7073,14 @@
         <v>650</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C46" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="21" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
@@ -7059,14 +7093,14 @@
         <v>64</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C47" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="21" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
@@ -7079,14 +7113,14 @@
         <v>279</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C48" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="27" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
@@ -7099,14 +7133,14 @@
         <v>1749</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C49" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="21" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
@@ -7119,14 +7153,14 @@
         <v>368</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="21" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
@@ -7139,13 +7173,13 @@
         <v>467</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C51" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -7153,14 +7187,14 @@
         <v>795</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C52" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="27" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
@@ -7173,14 +7207,14 @@
         <v>1186</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C53" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="21" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
@@ -7193,14 +7227,14 @@
         <v>1177</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="21" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
@@ -7213,14 +7247,14 @@
         <v>1014</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C55" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D55" s="34"/>
       <c r="E55" s="21" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="34"/>
@@ -8098,7 +8132,7 @@
         <v>355</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
@@ -8111,7 +8145,7 @@
         <v>460</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>51</v>
@@ -8124,7 +8158,7 @@
         <v>622</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -8137,7 +8171,7 @@
         <v>641</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
@@ -8150,7 +8184,7 @@
         <v>705</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -8163,7 +8197,7 @@
         <v>706</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -8176,7 +8210,7 @@
         <v>707</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -8189,7 +8223,7 @@
         <v>1206</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>51</v>
@@ -8202,7 +8236,7 @@
         <v>1472</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
@@ -8215,7 +8249,7 @@
         <v>1797</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>35</v>
@@ -8281,13 +8315,13 @@
         <v>69</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C3" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8295,7 +8329,7 @@
         <v>633</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>42</v>
@@ -8306,7 +8340,7 @@
         <v>441</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>42</v>
@@ -8317,10 +8351,10 @@
         <v>34</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:5">
@@ -8328,10 +8362,10 @@
         <v>153</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="9" ht="57" spans="1:5">
@@ -8339,13 +8373,13 @@
         <v>378</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8353,13 +8387,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="27" spans="1:6">
@@ -8367,13 +8401,13 @@
         <v>1201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="F11" s="32"/>
     </row>
@@ -8382,13 +8416,13 @@
         <v>1351</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8396,13 +8430,13 @@
         <v>275</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F13" s="56" t="s">
         <v>53</v>
@@ -8413,13 +8447,13 @@
         <v>35</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C14" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8427,13 +8461,13 @@
         <v>2300</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8441,13 +8475,13 @@
         <v>240</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -8512,7 +8546,7 @@
         <v>219</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>42</v>
@@ -8523,7 +8557,7 @@
         <v>643</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
@@ -8534,13 +8568,13 @@
         <v>1876</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8548,13 +8582,13 @@
         <v>1984</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8562,7 +8596,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -8573,7 +8607,7 @@
         <v>187</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -8584,7 +8618,7 @@
         <v>209</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -8595,13 +8629,13 @@
         <v>220</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" ht="71.25" spans="1:7">
@@ -8609,13 +8643,13 @@
         <v>395</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>100</v>
@@ -8626,13 +8660,13 @@
         <v>424</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8640,7 +8674,7 @@
         <v>438</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
@@ -8651,13 +8685,13 @@
         <v>567</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8665,13 +8699,13 @@
         <v>930</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8679,13 +8713,13 @@
         <v>978</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8693,13 +8727,13 @@
         <v>1004</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F17" s="32"/>
     </row>
@@ -8708,13 +8742,13 @@
         <v>1052</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8722,13 +8756,13 @@
         <v>1208</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8736,13 +8770,13 @@
         <v>1234</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8750,7 +8784,7 @@
         <v>1423</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
@@ -8761,13 +8795,13 @@
         <v>1456</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="23" ht="42.75" spans="1:5">
@@ -8775,13 +8809,13 @@
         <v>1493</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8789,13 +8823,13 @@
         <v>1658</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8803,13 +8837,13 @@
         <v>1696</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -8817,13 +8851,13 @@
         <v>1838</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8831,13 +8865,13 @@
         <v>2024</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:9">
@@ -8845,14 +8879,14 @@
         <v>2104</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="35" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -8864,13 +8898,13 @@
         <v>1525</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8878,7 +8912,7 @@
         <v>904</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
@@ -8889,13 +8923,13 @@
         <v>643</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="42.75" spans="1:5">
@@ -8903,13 +8937,13 @@
         <v>1248</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="33" ht="42.75" spans="1:5">
@@ -8917,13 +8951,13 @@
         <v>1234</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -8931,13 +8965,13 @@
         <v>1156</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -9000,7 +9034,7 @@
         <v>167</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -9016,7 +9050,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="21" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -9025,7 +9059,7 @@
         <v>1903</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -9036,13 +9070,13 @@
         <v>234</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9050,10 +9084,10 @@
         <v>1712</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:6">
@@ -9061,14 +9095,14 @@
         <v>9</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="27" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -9077,14 +9111,14 @@
         <v>205</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="27" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -9093,14 +9127,14 @@
         <v>881</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="27" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -9109,14 +9143,14 @@
         <v>475</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="27" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -9125,14 +9159,14 @@
         <v>825</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="27" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -9141,14 +9175,14 @@
         <v>713</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="27" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -9157,14 +9191,14 @@
         <v>923</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="27" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -9173,13 +9207,13 @@
         <v>922</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -9187,14 +9221,14 @@
         <v>345</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="27" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -9203,14 +9237,14 @@
         <v>1768</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="27" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -9219,14 +9253,14 @@
         <v>165</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="21" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -9235,14 +9269,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="21" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -9251,14 +9285,14 @@
         <v>1679</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="21" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -9267,14 +9301,14 @@
         <v>392</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="21" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -9283,14 +9317,14 @@
         <v>283</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="27" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -9299,14 +9333,14 @@
         <v>1855</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="21" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -9315,14 +9349,14 @@
         <v>1662</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="21" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -9331,14 +9365,14 @@
         <v>849</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="27" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F25" s="3"/>
     </row>
@@ -9687,7 +9721,7 @@
         <v>334</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>35</v>
@@ -9703,7 +9737,7 @@
         <v>1262</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
@@ -9717,14 +9751,14 @@
         <v>915</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="31" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -9735,14 +9769,14 @@
         <v>775</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="27" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
@@ -9753,7 +9787,7 @@
         <v>2177</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>35</v>
@@ -9769,7 +9803,7 @@
         <v>485</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>42</v>
@@ -9785,14 +9819,14 @@
         <v>628</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="27" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -26189,16 +26223,16 @@
         <v>495</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
@@ -26209,14 +26243,14 @@
         <v>1796</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C12" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="27" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
@@ -26227,14 +26261,14 @@
         <v>2037</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="27" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -27120,13 +27154,13 @@
         <v>1590</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -27134,13 +27168,13 @@
         <v>1991</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -27148,13 +27182,13 @@
         <v>238</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -27162,7 +27196,7 @@
         <v>1652</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -27176,13 +27210,13 @@
         <v>1664</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -27244,13 +27278,13 @@
         <v>406</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -27258,13 +27292,13 @@
         <v>435</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -27272,13 +27306,13 @@
         <v>452</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6" customFormat="1"/>
@@ -27287,7 +27321,7 @@
         <v>56</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -27298,13 +27332,13 @@
         <v>986</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -27312,13 +27346,13 @@
         <v>1905</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -27326,7 +27360,7 @@
         <v>840</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
@@ -27337,13 +27371,13 @@
         <v>498</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:5">
@@ -27351,13 +27385,13 @@
         <v>1162</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -27365,13 +27399,13 @@
         <v>1020</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -27379,13 +27413,13 @@
         <v>419</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:6">
@@ -27393,14 +27427,14 @@
         <v>36</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="21" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -27409,14 +27443,14 @@
         <v>646</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="27" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -27424,13 +27458,13 @@
         <v>1672</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="1:5">
@@ -27438,13 +27472,13 @@
         <v>598</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="19" s="33" customFormat="1" ht="28.5" spans="1:5">
@@ -27452,13 +27486,13 @@
         <v>1901</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -27466,7 +27500,7 @@
         <v>832</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>42</v>
@@ -27480,7 +27514,7 @@
         <v>997</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>42</v>
@@ -27494,13 +27528,13 @@
         <v>1232</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -27508,7 +27542,7 @@
         <v>1893</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>42</v>
@@ -27522,13 +27556,13 @@
         <v>1337</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:5">
@@ -27536,13 +27570,13 @@
         <v>1139</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -27550,13 +27584,13 @@
         <v>519</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="27" ht="71.25" spans="1:5">
@@ -27564,13 +27598,13 @@
         <v>1504</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="28" ht="28.5" spans="1:5">
@@ -27578,13 +27612,13 @@
         <v>1282</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -27598,7 +27632,7 @@
         <v>42</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -27606,13 +27640,13 @@
         <v>1041</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -27620,13 +27654,13 @@
         <v>1424</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -27634,13 +27668,13 @@
         <v>1854</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -27701,13 +27735,13 @@
         <v>318</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:5">
@@ -27715,13 +27749,13 @@
         <v>128</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:5">
@@ -27729,7 +27763,7 @@
         <v>287</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -27741,10 +27775,10 @@
         <v>1711</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="31"/>
@@ -27754,7 +27788,7 @@
         <v>692</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -27765,13 +27799,13 @@
         <v>890</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="9" ht="42.75" spans="1:5">
@@ -27779,13 +27813,13 @@
         <v>525</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -27793,13 +27827,13 @@
         <v>442</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -27807,13 +27841,13 @@
         <v>2085</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -27821,13 +27855,13 @@
         <v>974</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -27835,7 +27869,7 @@
         <v>2099</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
@@ -27846,13 +27880,13 @@
         <v>916</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -27860,7 +27894,7 @@
         <v>781</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>35</v>
@@ -27871,13 +27905,13 @@
         <v>523</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -27885,13 +27919,13 @@
         <v>1935</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -27899,13 +27933,13 @@
         <v>451</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="19" ht="42.75" spans="1:5">
@@ -27913,13 +27947,13 @@
         <v>1684</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -27927,13 +27961,13 @@
         <v>1394</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="21" ht="71.25" spans="1:5">
@@ -27941,13 +27975,13 @@
         <v>697</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -27955,13 +27989,13 @@
         <v>1331</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -27969,13 +28003,13 @@
         <v>1640</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -27983,13 +28017,13 @@
         <v>1481</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -27997,13 +28031,13 @@
         <v>1497</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -28011,13 +28045,13 @@
         <v>2190</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -28025,13 +28059,13 @@
         <v>2260</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -28039,13 +28073,13 @@
         <v>1338</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -28053,13 +28087,13 @@
         <v>888</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -28067,13 +28101,13 @@
         <v>1557</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="31" ht="42.75" spans="1:5">
@@ -28081,13 +28115,13 @@
         <v>2248</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="32" ht="28.5" spans="1:5">
@@ -28095,13 +28129,13 @@
         <v>2287</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
   </sheetData>
@@ -28162,13 +28196,13 @@
         <v>215</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="57" spans="1:5">
@@ -28176,13 +28210,13 @@
         <v>389</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:5">
@@ -28190,13 +28224,13 @@
         <v>268</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -28204,14 +28238,14 @@
         <v>1654</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="18" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -28219,7 +28253,7 @@
         <v>1752</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -28230,13 +28264,13 @@
         <v>1812</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
   </sheetData>
@@ -28254,8 +28288,8 @@
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/leetcode/1. statistics/leetcode.xlsx
+++ b/leetcode/1. statistics/leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8385" tabRatio="1000" firstSheet="2" activeTab="12"/>
+    <workbookView windowWidth="19770" windowHeight="8385" tabRatio="1000" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="14" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868">
   <si>
     <t>算法大纲</t>
   </si>
@@ -1864,6 +1864,23 @@
     <t xml:space="preserve">强密码检验器 II </t>
   </si>
   <si>
+    <t>括号的最大嵌套深度</t>
+  </si>
+  <si>
+    <t>模拟：记录两个字段
+1.当前位置的括号深度
+2.最大的括号深度</t>
+  </si>
+  <si>
+    <t>十-二进制数的最少数目</t>
+  </si>
+  <si>
+    <t>找到字符串中最大的数字即可</t>
+  </si>
+  <si>
+    <t>三除数</t>
+  </si>
+  <si>
     <t>爬楼梯</t>
   </si>
   <si>
@@ -2199,6 +2216,15 @@
   </si>
   <si>
     <t>curMax 记录当前观光的最高评分</t>
+  </si>
+  <si>
+    <t>全 0 子数组的数目</t>
+  </si>
+  <si>
+    <t>动态规划的持续优化
+1. 数组记录状态
+2. 三个变量记录状态
+3. 两个变量记录状态</t>
   </si>
   <si>
     <t>设计推特</t>
@@ -2687,6 +2713,12 @@
 2. 双指针，推荐</t>
   </si>
   <si>
+    <t>删除有序数组中的重复项 II</t>
+  </si>
+  <si>
+    <t>快慢双指针</t>
+  </si>
+  <si>
     <t>递增的三元子序列</t>
   </si>
   <si>
@@ -3193,10 +3225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3230,22 +3262,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3260,15 +3321,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3290,15 +3350,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3320,21 +3374,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -3344,22 +3383,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3410,7 +3442,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3422,13 +3520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3440,19 +3538,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3464,25 +3574,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3494,97 +3616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3613,6 +3645,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3637,41 +3708,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3690,36 +3742,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3728,131 +3760,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4142,7 +4174,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4395,7 +4427,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -5298,10 +5330,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -6191,6 +6223,48 @@
       </c>
       <c r="E66" s="21" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="67" ht="42.75" spans="1:5">
+      <c r="A67" s="3">
+        <v>1614</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="3">
+        <v>1689</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="3">
+        <v>1952</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -6209,7 +6283,7 @@
   <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6262,7 +6336,7 @@
         <v>71</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>42</v>
@@ -6280,7 +6354,7 @@
         <v>300</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
@@ -6298,14 +6372,14 @@
         <v>486</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="21" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -6318,7 +6392,7 @@
         <v>718</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
@@ -6336,7 +6410,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>42</v>
@@ -6354,7 +6428,7 @@
         <v>674</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>42</v>
@@ -6372,7 +6446,7 @@
         <v>474</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -6383,14 +6457,14 @@
         <v>1049</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="21" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -6403,14 +6477,14 @@
         <v>221</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="21" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -6423,14 +6497,14 @@
         <v>1277</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="21" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -6443,14 +6517,14 @@
         <v>62</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="21" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -6463,14 +6537,14 @@
         <v>63</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="21" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -6483,14 +6557,14 @@
         <v>91</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="27" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -6521,7 +6595,7 @@
         <v>97</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
@@ -6539,14 +6613,14 @@
         <v>120</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="27" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -6566,7 +6640,7 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="21" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -6579,14 +6653,14 @@
         <v>714</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="21" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -6599,7 +6673,7 @@
         <v>139</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
@@ -6617,7 +6691,7 @@
         <v>152</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
@@ -6635,14 +6709,14 @@
         <v>198</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="21" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -6655,14 +6729,14 @@
         <v>213</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="21" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -6703,7 +6777,7 @@
         <v>413</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
@@ -6721,14 +6795,14 @@
         <v>873</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="21" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -6741,18 +6815,18 @@
         <v>2110</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="27" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -6763,18 +6837,18 @@
         <v>813</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="27" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="H30" s="32"/>
       <c r="I30" s="3"/>
@@ -6785,14 +6859,14 @@
         <v>2106</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="27" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="21"/>
@@ -6805,14 +6879,14 @@
         <v>416</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="27" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="21"/>
@@ -6825,18 +6899,18 @@
         <v>2063</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="27" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -6847,14 +6921,14 @@
         <v>698</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="27" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="21"/>
@@ -6867,7 +6941,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="C35" s="32" t="s">
         <v>51</v>
@@ -6887,13 +6961,13 @@
         <v>1109</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="20"/>
@@ -6903,18 +6977,18 @@
         <v>1727</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="51" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="F37" s="59"/>
       <c r="G37" s="60" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -6925,14 +6999,14 @@
         <v>518</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="21" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
@@ -6945,14 +7019,14 @@
         <v>935</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="27" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="21"/>
@@ -6965,13 +7039,13 @@
         <v>1024</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="41" ht="42.75" spans="1:10">
@@ -6979,14 +7053,14 @@
         <v>1043</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="21" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
@@ -6999,13 +7073,13 @@
         <v>1685</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C42" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -7013,14 +7087,14 @@
         <v>1986</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C43" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="27" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -7033,14 +7107,14 @@
         <v>377</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="C44" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="21" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
@@ -7053,14 +7127,14 @@
         <v>1371</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="27" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
@@ -7073,14 +7147,14 @@
         <v>650</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C46" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="21" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
@@ -7093,14 +7167,14 @@
         <v>64</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="C47" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="21" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
@@ -7113,14 +7187,14 @@
         <v>279</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C48" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="27" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
@@ -7133,14 +7207,14 @@
         <v>1749</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C49" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="21" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
@@ -7153,14 +7227,14 @@
         <v>368</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="21" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
@@ -7173,13 +7247,13 @@
         <v>467</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C51" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -7187,14 +7261,14 @@
         <v>795</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="C52" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="27" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
@@ -7207,14 +7281,14 @@
         <v>1186</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="C53" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="21" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
@@ -7227,14 +7301,14 @@
         <v>1177</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="21" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
@@ -7247,25 +7321,33 @@
         <v>1014</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="C55" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D55" s="34"/>
       <c r="E55" s="21" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="34"/>
       <c r="H55" s="34"/>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="3"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="3"/>
+    <row r="56" ht="57" spans="1:10">
+      <c r="A56" s="3">
+        <v>2348</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>592</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>35</v>
+      </c>
       <c r="D56" s="3"/>
-      <c r="E56" s="21"/>
+      <c r="E56" s="21" t="s">
+        <v>593</v>
+      </c>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
       <c r="H56" s="3"/>
@@ -8132,7 +8214,7 @@
         <v>355</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
@@ -8145,7 +8227,7 @@
         <v>460</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>51</v>
@@ -8158,7 +8240,7 @@
         <v>622</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -8171,7 +8253,7 @@
         <v>641</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
@@ -8184,7 +8266,7 @@
         <v>705</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -8197,7 +8279,7 @@
         <v>706</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -8210,7 +8292,7 @@
         <v>707</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -8223,7 +8305,7 @@
         <v>1206</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>51</v>
@@ -8236,7 +8318,7 @@
         <v>1472</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
@@ -8249,7 +8331,7 @@
         <v>1797</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>35</v>
@@ -8315,13 +8397,13 @@
         <v>69</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="C3" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8329,7 +8411,7 @@
         <v>633</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>42</v>
@@ -8340,7 +8422,7 @@
         <v>441</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>42</v>
@@ -8351,10 +8433,10 @@
         <v>34</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:5">
@@ -8362,10 +8444,10 @@
         <v>153</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" ht="57" spans="1:5">
@@ -8373,13 +8455,13 @@
         <v>378</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8387,13 +8469,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="27" spans="1:6">
@@ -8401,13 +8483,13 @@
         <v>1201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="F11" s="32"/>
     </row>
@@ -8416,13 +8498,13 @@
         <v>1351</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8430,13 +8512,13 @@
         <v>275</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="F13" s="56" t="s">
         <v>53</v>
@@ -8447,13 +8529,13 @@
         <v>35</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="C14" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8461,13 +8543,13 @@
         <v>2300</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8475,13 +8557,13 @@
         <v>240</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -8546,7 +8628,7 @@
         <v>219</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>42</v>
@@ -8557,7 +8639,7 @@
         <v>643</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
@@ -8568,13 +8650,13 @@
         <v>1876</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8582,13 +8664,13 @@
         <v>1984</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8596,7 +8678,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -8607,7 +8689,7 @@
         <v>187</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -8618,7 +8700,7 @@
         <v>209</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -8629,13 +8711,13 @@
         <v>220</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
     </row>
     <row r="11" ht="71.25" spans="1:7">
@@ -8643,13 +8725,13 @@
         <v>395</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>100</v>
@@ -8660,13 +8742,13 @@
         <v>424</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8674,7 +8756,7 @@
         <v>438</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
@@ -8685,13 +8767,13 @@
         <v>567</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8699,13 +8781,13 @@
         <v>930</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8713,13 +8795,13 @@
         <v>978</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8727,13 +8809,13 @@
         <v>1004</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="F17" s="32"/>
     </row>
@@ -8742,13 +8824,13 @@
         <v>1052</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8756,13 +8838,13 @@
         <v>1208</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8770,13 +8852,13 @@
         <v>1234</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8784,7 +8866,7 @@
         <v>1423</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
@@ -8795,13 +8877,13 @@
         <v>1456</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="23" ht="42.75" spans="1:5">
@@ -8809,13 +8891,13 @@
         <v>1493</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8823,13 +8905,13 @@
         <v>1658</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8837,13 +8919,13 @@
         <v>1696</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -8851,13 +8933,13 @@
         <v>1838</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8865,13 +8947,13 @@
         <v>2024</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:9">
@@ -8879,14 +8961,14 @@
         <v>2104</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="35" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -8898,13 +8980,13 @@
         <v>1525</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8912,7 +8994,7 @@
         <v>904</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
@@ -8923,13 +9005,13 @@
         <v>643</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="42.75" spans="1:5">
@@ -8937,13 +9019,13 @@
         <v>1248</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
     <row r="33" ht="42.75" spans="1:5">
@@ -8951,13 +9033,13 @@
         <v>1234</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -8965,13 +9047,13 @@
         <v>1156</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -8989,8 +9071,8 @@
   <sheetPr/>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -9034,7 +9116,7 @@
         <v>167</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -9050,7 +9132,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="21" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -9059,7 +9141,7 @@
         <v>1903</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -9070,13 +9152,13 @@
         <v>234</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9084,10 +9166,10 @@
         <v>1712</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:6">
@@ -9095,14 +9177,14 @@
         <v>9</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="27" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -9111,14 +9193,14 @@
         <v>205</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="27" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -9127,14 +9209,14 @@
         <v>881</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="27" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -9143,14 +9225,14 @@
         <v>475</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="27" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -9159,14 +9241,14 @@
         <v>825</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="27" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -9175,14 +9257,14 @@
         <v>713</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="27" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -9191,14 +9273,14 @@
         <v>923</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="27" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -9207,13 +9289,13 @@
         <v>922</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -9221,14 +9303,14 @@
         <v>345</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="27" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -9237,14 +9319,14 @@
         <v>1768</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="27" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -9253,14 +9335,14 @@
         <v>165</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="21" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -9269,14 +9351,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="21" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -9285,14 +9367,14 @@
         <v>1679</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="21" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -9301,14 +9383,14 @@
         <v>392</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="21" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -9317,14 +9399,14 @@
         <v>283</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="27" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -9333,14 +9415,14 @@
         <v>1855</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="21" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -9349,14 +9431,14 @@
         <v>1662</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="21" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -9365,21 +9447,31 @@
         <v>849</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="27" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="3">
+        <v>80</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>725</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D26" s="3"/>
+      <c r="E26" s="21" t="s">
+        <v>726</v>
+      </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6">
@@ -9721,7 +9813,7 @@
         <v>334</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>35</v>
@@ -9737,7 +9829,7 @@
         <v>1262</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
@@ -9751,14 +9843,14 @@
         <v>915</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="31" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -9769,14 +9861,14 @@
         <v>775</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="27" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
@@ -9787,7 +9879,7 @@
         <v>2177</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>35</v>
@@ -9803,7 +9895,7 @@
         <v>485</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>42</v>
@@ -9819,14 +9911,14 @@
         <v>628</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="27" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -26223,16 +26315,16 @@
         <v>495</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
@@ -26243,14 +26335,14 @@
         <v>1796</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="C12" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="27" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
@@ -26261,14 +26353,14 @@
         <v>2037</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="27" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -27154,13 +27246,13 @@
         <v>1590</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -27168,13 +27260,13 @@
         <v>1991</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -27182,13 +27274,13 @@
         <v>238</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -27196,7 +27288,7 @@
         <v>1652</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -27210,13 +27302,13 @@
         <v>1664</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -27278,13 +27370,13 @@
         <v>406</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -27292,13 +27384,13 @@
         <v>435</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -27306,13 +27398,13 @@
         <v>452</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6" customFormat="1"/>
@@ -27321,7 +27413,7 @@
         <v>56</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -27332,13 +27424,13 @@
         <v>986</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -27346,13 +27438,13 @@
         <v>1905</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -27360,7 +27452,7 @@
         <v>840</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
@@ -27371,13 +27463,13 @@
         <v>498</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:5">
@@ -27385,13 +27477,13 @@
         <v>1162</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -27399,13 +27491,13 @@
         <v>1020</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -27413,13 +27505,13 @@
         <v>419</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:6">
@@ -27427,14 +27519,14 @@
         <v>36</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="21" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -27443,14 +27535,14 @@
         <v>646</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="27" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -27458,13 +27550,13 @@
         <v>1672</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="1:5">
@@ -27472,13 +27564,13 @@
         <v>598</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
     </row>
     <row r="19" s="33" customFormat="1" ht="28.5" spans="1:5">
@@ -27486,13 +27578,13 @@
         <v>1901</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -27500,7 +27592,7 @@
         <v>832</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>42</v>
@@ -27514,7 +27606,7 @@
         <v>997</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>42</v>
@@ -27528,13 +27620,13 @@
         <v>1232</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -27542,7 +27634,7 @@
         <v>1893</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>42</v>
@@ -27556,13 +27648,13 @@
         <v>1337</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:5">
@@ -27570,13 +27662,13 @@
         <v>1139</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -27584,13 +27676,13 @@
         <v>519</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
     </row>
     <row r="27" ht="71.25" spans="1:5">
@@ -27598,13 +27690,13 @@
         <v>1504</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
     </row>
     <row r="28" ht="28.5" spans="1:5">
@@ -27612,13 +27704,13 @@
         <v>1282</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -27632,7 +27724,7 @@
         <v>42</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -27640,13 +27732,13 @@
         <v>1041</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -27654,13 +27746,13 @@
         <v>1424</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -27668,13 +27760,13 @@
         <v>1854</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -27735,13 +27827,13 @@
         <v>318</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:5">
@@ -27749,13 +27841,13 @@
         <v>128</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:5">
@@ -27763,7 +27855,7 @@
         <v>287</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -27775,10 +27867,10 @@
         <v>1711</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="31"/>
@@ -27788,7 +27880,7 @@
         <v>692</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -27799,13 +27891,13 @@
         <v>890</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
     </row>
     <row r="9" ht="42.75" spans="1:5">
@@ -27813,13 +27905,13 @@
         <v>525</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -27827,13 +27919,13 @@
         <v>442</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -27841,13 +27933,13 @@
         <v>2085</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -27855,13 +27947,13 @@
         <v>974</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -27869,7 +27961,7 @@
         <v>2099</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
@@ -27880,13 +27972,13 @@
         <v>916</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -27894,7 +27986,7 @@
         <v>781</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>35</v>
@@ -27905,13 +27997,13 @@
         <v>523</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -27919,13 +28011,13 @@
         <v>1935</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -27933,13 +28025,13 @@
         <v>451</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
     </row>
     <row r="19" ht="42.75" spans="1:5">
@@ -27947,13 +28039,13 @@
         <v>1684</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -27961,13 +28053,13 @@
         <v>1394</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
     </row>
     <row r="21" ht="71.25" spans="1:5">
@@ -27975,13 +28067,13 @@
         <v>697</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -27989,13 +28081,13 @@
         <v>1331</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -28003,13 +28095,13 @@
         <v>1640</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -28017,13 +28109,13 @@
         <v>1481</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -28031,13 +28123,13 @@
         <v>1497</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -28045,13 +28137,13 @@
         <v>2190</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -28059,13 +28151,13 @@
         <v>2260</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -28073,13 +28165,13 @@
         <v>1338</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>839</v>
+        <v>848</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -28087,13 +28179,13 @@
         <v>888</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -28101,13 +28193,13 @@
         <v>1557</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
     </row>
     <row r="31" ht="42.75" spans="1:5">
@@ -28115,13 +28207,13 @@
         <v>2248</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
     </row>
     <row r="32" ht="28.5" spans="1:5">
@@ -28129,13 +28221,13 @@
         <v>2287</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
     </row>
   </sheetData>
@@ -28196,13 +28288,13 @@
         <v>215</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="57" spans="1:5">
@@ -28210,13 +28302,13 @@
         <v>389</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:5">
@@ -28224,13 +28316,13 @@
         <v>268</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -28238,14 +28330,14 @@
         <v>1654</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>854</v>
+        <v>863</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="18" t="s">
-        <v>855</v>
+        <v>864</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -28253,7 +28345,7 @@
         <v>1752</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -28264,13 +28356,13 @@
         <v>1812</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>858</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode/1. statistics/leetcode.xlsx
+++ b/leetcode/1. statistics/leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8385" tabRatio="1000" activeTab="12"/>
+    <workbookView windowWidth="19770" windowHeight="8385" tabRatio="1000" firstSheet="4" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="14" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872">
   <si>
     <t>算法大纲</t>
   </si>
@@ -2255,6 +2255,12 @@
   </si>
   <si>
     <t>设计一个验证系统</t>
+  </si>
+  <si>
+    <t>区域和检索 - 数组可修改</t>
+  </si>
+  <si>
+    <t>性能略低</t>
   </si>
   <si>
     <t>x 的平方根</t>
@@ -3164,6 +3170,12 @@
 升级：数组计数</t>
   </si>
   <si>
+    <t>数组中的 k-diff 数对</t>
+  </si>
+  <si>
+    <t>很精妙的思维，巧妙的实现了去重</t>
+  </si>
+  <si>
     <t>数组中的第K个最大元素</t>
   </si>
   <si>
@@ -3226,8 +3238,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -3262,27 +3274,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3290,13 +3281,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3313,10 +3303,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3328,7 +3325,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3350,9 +3386,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3369,29 +3404,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3442,7 +3454,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3454,13 +3496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3472,7 +3508,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3484,61 +3532,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3556,7 +3556,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3574,13 +3616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3592,31 +3628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3641,21 +3653,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3693,6 +3690,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3710,15 +3737,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3728,17 +3746,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3748,10 +3760,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3760,135 +3772,135 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4053,6 +4065,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4446,7 +4464,7 @@
       <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="74" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
@@ -4460,113 +4478,113 @@
       <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="74" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="75" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="75" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="76" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="75" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="76" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="75" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="76" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="75" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="75" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="75" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="76" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="75" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="75" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="76" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="75" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="77" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="74" t="s">
+      <c r="A21" s="76" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="75" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="76" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4735,8 +4753,8 @@
         <v>28</v>
       </c>
       <c r="B1" s="47"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:6">
@@ -4875,7 +4893,7 @@
       <c r="E10" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="64" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5062,7 +5080,7 @@
       <c r="A3" s="3">
         <v>204</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="63" t="s">
         <v>361</v>
       </c>
       <c r="C3" s="32" t="s">
@@ -5332,8 +5350,8 @@
   <sheetPr/>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67:E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -6289,7 +6307,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="32.625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="60" customWidth="1"/>
     <col min="3" max="4" width="9" style="5"/>
     <col min="5" max="5" width="68.125" style="39" customWidth="1"/>
     <col min="6" max="6" width="5.625" style="39" customWidth="1"/>
@@ -6445,7 +6463,7 @@
       <c r="A9" s="3">
         <v>474</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="60" t="s">
         <v>511</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -6986,8 +7004,8 @@
       <c r="E37" s="51" t="s">
         <v>554</v>
       </c>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60" t="s">
+      <c r="F37" s="61"/>
+      <c r="G37" s="62" t="s">
         <v>555</v>
       </c>
       <c r="H37" s="3"/>
@@ -8172,25 +8190,26 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="43.625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="57"/>
+    <col min="2" max="2" width="43.625" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
@@ -8335,6 +8354,20 @@
       </c>
       <c r="C12" s="32" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="57">
+        <v>307</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>604</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -8397,13 +8430,13 @@
         <v>69</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C3" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8411,7 +8444,7 @@
         <v>633</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>42</v>
@@ -8422,7 +8455,7 @@
         <v>441</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>42</v>
@@ -8433,10 +8466,10 @@
         <v>34</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:5">
@@ -8444,10 +8477,10 @@
         <v>153</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" ht="57" spans="1:5">
@@ -8455,13 +8488,13 @@
         <v>378</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8469,13 +8502,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="27" spans="1:6">
@@ -8483,13 +8516,13 @@
         <v>1201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F11" s="32"/>
     </row>
@@ -8498,13 +8531,13 @@
         <v>1351</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8512,13 +8545,13 @@
         <v>275</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F13" s="56" t="s">
         <v>53</v>
@@ -8529,13 +8562,13 @@
         <v>35</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C14" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8543,13 +8576,13 @@
         <v>2300</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8557,13 +8590,13 @@
         <v>240</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -8628,7 +8661,7 @@
         <v>219</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>42</v>
@@ -8639,7 +8672,7 @@
         <v>643</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
@@ -8650,13 +8683,13 @@
         <v>1876</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8664,13 +8697,13 @@
         <v>1984</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8678,7 +8711,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -8689,7 +8722,7 @@
         <v>187</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -8700,7 +8733,7 @@
         <v>209</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -8711,13 +8744,13 @@
         <v>220</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="11" ht="71.25" spans="1:7">
@@ -8725,13 +8758,13 @@
         <v>395</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>100</v>
@@ -8742,13 +8775,13 @@
         <v>424</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8756,7 +8789,7 @@
         <v>438</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
@@ -8767,13 +8800,13 @@
         <v>567</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8781,13 +8814,13 @@
         <v>930</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8795,13 +8828,13 @@
         <v>978</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8809,13 +8842,13 @@
         <v>1004</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F17" s="32"/>
     </row>
@@ -8824,13 +8857,13 @@
         <v>1052</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8838,13 +8871,13 @@
         <v>1208</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8852,13 +8885,13 @@
         <v>1234</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8866,7 +8899,7 @@
         <v>1423</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
@@ -8877,13 +8910,13 @@
         <v>1456</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="23" ht="42.75" spans="1:5">
@@ -8891,13 +8924,13 @@
         <v>1493</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8905,13 +8938,13 @@
         <v>1658</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8919,13 +8952,13 @@
         <v>1696</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -8933,13 +8966,13 @@
         <v>1838</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8947,13 +8980,13 @@
         <v>2024</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:9">
@@ -8961,14 +8994,14 @@
         <v>2104</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="35" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -8980,13 +9013,13 @@
         <v>1525</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8994,7 +9027,7 @@
         <v>904</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
@@ -9005,13 +9038,13 @@
         <v>643</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="42.75" spans="1:5">
@@ -9019,13 +9052,13 @@
         <v>1248</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="33" ht="42.75" spans="1:5">
@@ -9033,13 +9066,13 @@
         <v>1234</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -9047,13 +9080,13 @@
         <v>1156</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -9116,7 +9149,7 @@
         <v>167</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -9132,7 +9165,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="21" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -9141,7 +9174,7 @@
         <v>1903</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -9152,13 +9185,13 @@
         <v>234</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9166,10 +9199,10 @@
         <v>1712</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:6">
@@ -9177,14 +9210,14 @@
         <v>9</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="27" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -9193,14 +9226,14 @@
         <v>205</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="27" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -9209,14 +9242,14 @@
         <v>881</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="27" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -9225,14 +9258,14 @@
         <v>475</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="27" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -9241,14 +9274,14 @@
         <v>825</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="27" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -9257,14 +9290,14 @@
         <v>713</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="27" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -9273,14 +9306,14 @@
         <v>923</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="27" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -9289,13 +9322,13 @@
         <v>922</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -9303,14 +9336,14 @@
         <v>345</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="27" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -9319,14 +9352,14 @@
         <v>1768</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="27" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -9335,14 +9368,14 @@
         <v>165</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="21" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -9351,14 +9384,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="21" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -9367,14 +9400,14 @@
         <v>1679</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="21" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -9383,14 +9416,14 @@
         <v>392</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="21" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -9399,14 +9432,14 @@
         <v>283</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="27" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -9415,14 +9448,14 @@
         <v>1855</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="21" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -9431,14 +9464,14 @@
         <v>1662</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="21" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -9447,14 +9480,14 @@
         <v>849</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="27" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F25" s="3"/>
     </row>
@@ -9463,14 +9496,14 @@
         <v>80</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="21" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -9813,7 +9846,7 @@
         <v>334</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>35</v>
@@ -9829,7 +9862,7 @@
         <v>1262</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
@@ -9843,14 +9876,14 @@
         <v>915</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="31" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -9861,14 +9894,14 @@
         <v>775</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="27" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
@@ -9879,7 +9912,7 @@
         <v>2177</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>35</v>
@@ -9895,7 +9928,7 @@
         <v>485</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>42</v>
@@ -9911,14 +9944,14 @@
         <v>628</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="27" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -26315,16 +26348,16 @@
         <v>495</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
@@ -26335,14 +26368,14 @@
         <v>1796</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C12" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="27" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
@@ -26353,14 +26386,14 @@
         <v>2037</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="27" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -27140,7 +27173,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
-      <c r="E1" s="71"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
@@ -27246,13 +27279,13 @@
         <v>1590</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -27260,13 +27293,13 @@
         <v>1991</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -27274,13 +27307,13 @@
         <v>238</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -27288,7 +27321,7 @@
         <v>1652</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -27302,13 +27335,13 @@
         <v>1664</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -27370,13 +27403,13 @@
         <v>406</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -27384,13 +27417,13 @@
         <v>435</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -27398,13 +27431,13 @@
         <v>452</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6" customFormat="1"/>
@@ -27413,7 +27446,7 @@
         <v>56</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -27424,13 +27457,13 @@
         <v>986</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -27438,13 +27471,13 @@
         <v>1905</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -27452,7 +27485,7 @@
         <v>840</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
@@ -27463,13 +27496,13 @@
         <v>498</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:5">
@@ -27477,13 +27510,13 @@
         <v>1162</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -27491,13 +27524,13 @@
         <v>1020</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -27505,13 +27538,13 @@
         <v>419</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:6">
@@ -27519,14 +27552,14 @@
         <v>36</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="21" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -27535,14 +27568,14 @@
         <v>646</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="27" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -27550,13 +27583,13 @@
         <v>1672</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="1:5">
@@ -27564,13 +27597,13 @@
         <v>598</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="19" s="33" customFormat="1" ht="28.5" spans="1:5">
@@ -27578,13 +27611,13 @@
         <v>1901</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -27592,7 +27625,7 @@
         <v>832</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>42</v>
@@ -27606,7 +27639,7 @@
         <v>997</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>42</v>
@@ -27620,13 +27653,13 @@
         <v>1232</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -27634,7 +27667,7 @@
         <v>1893</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>42</v>
@@ -27648,13 +27681,13 @@
         <v>1337</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:5">
@@ -27662,13 +27695,13 @@
         <v>1139</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -27676,13 +27709,13 @@
         <v>519</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="27" ht="71.25" spans="1:5">
@@ -27690,13 +27723,13 @@
         <v>1504</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="28" ht="28.5" spans="1:5">
@@ -27704,13 +27737,13 @@
         <v>1282</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -27724,7 +27757,7 @@
         <v>42</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -27732,13 +27765,13 @@
         <v>1041</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -27746,13 +27779,13 @@
         <v>1424</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -27760,13 +27793,13 @@
         <v>1854</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -27781,10 +27814,10 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -27827,13 +27860,13 @@
         <v>318</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:5">
@@ -27841,13 +27874,13 @@
         <v>128</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:5">
@@ -27855,7 +27888,7 @@
         <v>287</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -27867,10 +27900,10 @@
         <v>1711</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="31"/>
@@ -27880,7 +27913,7 @@
         <v>692</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -27891,13 +27924,13 @@
         <v>890</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="9" ht="42.75" spans="1:5">
@@ -27905,13 +27938,13 @@
         <v>525</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -27919,13 +27952,13 @@
         <v>442</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -27933,13 +27966,13 @@
         <v>2085</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -27947,13 +27980,13 @@
         <v>974</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -27961,7 +27994,7 @@
         <v>2099</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
@@ -27972,13 +28005,13 @@
         <v>916</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -27986,7 +28019,7 @@
         <v>781</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>35</v>
@@ -27997,13 +28030,13 @@
         <v>523</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -28011,13 +28044,13 @@
         <v>1935</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -28025,13 +28058,13 @@
         <v>451</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="19" ht="42.75" spans="1:5">
@@ -28039,13 +28072,13 @@
         <v>1684</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -28053,13 +28086,13 @@
         <v>1394</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="21" ht="71.25" spans="1:5">
@@ -28067,13 +28100,13 @@
         <v>697</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -28081,13 +28114,13 @@
         <v>1331</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -28095,13 +28128,13 @@
         <v>1640</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -28109,13 +28142,13 @@
         <v>1481</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -28123,13 +28156,13 @@
         <v>1497</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -28137,13 +28170,13 @@
         <v>2190</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -28151,13 +28184,13 @@
         <v>2260</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -28165,13 +28198,13 @@
         <v>1338</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -28179,13 +28212,13 @@
         <v>888</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -28193,13 +28226,13 @@
         <v>1557</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="31" ht="42.75" spans="1:5">
@@ -28207,13 +28240,13 @@
         <v>2248</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="32" ht="28.5" spans="1:5">
@@ -28221,13 +28254,27 @@
         <v>2287</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>856</v>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3">
+        <v>532</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>859</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>860</v>
       </c>
     </row>
   </sheetData>
@@ -28288,13 +28335,13 @@
         <v>215</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="57" spans="1:5">
@@ -28302,13 +28349,13 @@
         <v>389</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:5">
@@ -28316,13 +28363,13 @@
         <v>268</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -28330,14 +28377,14 @@
         <v>1654</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="18" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -28345,7 +28392,7 @@
         <v>1752</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -28356,13 +28403,13 @@
         <v>1812</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
     </row>
   </sheetData>
@@ -28599,7 +28646,7 @@
       <c r="C15" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="72" t="s">
         <v>67</v>
       </c>
       <c r="F15" s="32" t="s">
@@ -28706,10 +28753,10 @@
       <c r="A4" s="5">
         <v>990</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="71" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -28720,10 +28767,10 @@
       <c r="A5" s="5">
         <v>1319</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="71" t="s">
         <v>35</v>
       </c>
     </row>
@@ -28734,7 +28781,7 @@
       <c r="B6" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="71" t="s">
         <v>35</v>
       </c>
     </row>
@@ -28745,7 +28792,7 @@
       <c r="B7" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="71" t="s">
         <v>35</v>
       </c>
     </row>
@@ -29262,7 +29309,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="32" style="58" customWidth="1"/>
+    <col min="2" max="2" width="32" style="60" customWidth="1"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="35.875" style="39" customWidth="1"/>
   </cols>
@@ -29304,7 +29351,7 @@
       </c>
     </row>
     <row r="4" ht="15" spans="1:4">
-      <c r="A4" s="67">
+      <c r="A4" s="69">
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -29705,7 +29752,7 @@
       <c r="C35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="66" t="s">
         <v>178</v>
       </c>
     </row>
@@ -29719,7 +29766,7 @@
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="64" t="s">
+      <c r="D36" s="66" t="s">
         <v>180</v>
       </c>
     </row>
@@ -29885,7 +29932,7 @@
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="7"/>
@@ -30317,7 +30364,7 @@
       <c r="A38" s="3">
         <v>105</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="64" t="s">
         <v>225</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -30359,7 +30406,7 @@
       <c r="A41" s="3">
         <v>965</v>
       </c>
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="64" t="s">
         <v>231</v>
       </c>
       <c r="C41" s="32" t="s">
@@ -30389,7 +30436,7 @@
       <c r="A43" s="3">
         <v>1104</v>
       </c>
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="64" t="s">
         <v>235</v>
       </c>
       <c r="C43" s="32" t="s">
@@ -30404,7 +30451,7 @@
       <c r="A44" s="3">
         <v>863</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="64" t="s">
         <v>237</v>
       </c>
       <c r="C44" s="32" t="s">
@@ -30419,7 +30466,7 @@
       <c r="A45" s="3">
         <v>2096</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="64" t="s">
         <v>239</v>
       </c>
       <c r="C45" s="32" t="s">
@@ -30434,7 +30481,7 @@
       <c r="A46" s="3">
         <v>429</v>
       </c>
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="64" t="s">
         <v>240</v>
       </c>
       <c r="C46" s="32" t="s">
@@ -30449,7 +30496,7 @@
       <c r="A47" s="3">
         <v>331</v>
       </c>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="64" t="s">
         <v>242</v>
       </c>
       <c r="C47" s="32" t="s">
@@ -30467,7 +30514,7 @@
       <c r="A48" s="3">
         <v>958</v>
       </c>
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="64" t="s">
         <v>244</v>
       </c>
       <c r="C48" s="32" t="s">
@@ -30482,7 +30529,7 @@
       <c r="A49" s="3">
         <v>655</v>
       </c>
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="64" t="s">
         <v>246</v>
       </c>
       <c r="C49" s="32" t="s">
@@ -30497,7 +30544,7 @@
       <c r="A50" s="3">
         <v>1008</v>
       </c>
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="64" t="s">
         <v>248</v>
       </c>
       <c r="C50" s="32" t="s">
@@ -30512,7 +30559,7 @@
       <c r="A51" s="3">
         <v>107</v>
       </c>
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="64" t="s">
         <v>249</v>
       </c>
       <c r="C51" s="32" t="s">
@@ -30527,7 +30574,7 @@
       <c r="A52" s="3">
         <v>654</v>
       </c>
-      <c r="B52" s="62" t="s">
+      <c r="B52" s="64" t="s">
         <v>251</v>
       </c>
       <c r="C52" s="32" t="s">
@@ -30642,10 +30689,10 @@
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
@@ -30653,17 +30700,17 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="67" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="68" t="s">
         <v>16</v>
       </c>
     </row>
@@ -30692,7 +30739,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="36.375" style="58" customWidth="1"/>
+    <col min="2" max="2" width="36.375" style="60" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="48" style="39" customWidth="1"/>
     <col min="6" max="6" width="21.75" style="3" customWidth="1"/>
@@ -30703,8 +30750,8 @@
         <v>28</v>
       </c>
       <c r="B1" s="47"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5">
@@ -30830,7 +30877,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="61" t="s">
         <v>275</v>
       </c>
       <c r="F9" s="34"/>
@@ -31068,7 +31115,7 @@
       <c r="C25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="65" t="s">
         <v>302</v>
       </c>
     </row>
@@ -31093,7 +31140,7 @@
       <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="65" t="s">
         <v>305</v>
       </c>
     </row>
@@ -31150,7 +31197,7 @@
       <c r="C31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E31" s="66" t="s">
         <v>312</v>
       </c>
     </row>
@@ -31192,7 +31239,7 @@
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="64" t="s">
+      <c r="E34" s="66" t="s">
         <v>317</v>
       </c>
       <c r="F34" s="32" t="s">

--- a/leetcode/1. statistics/leetcode.xlsx
+++ b/leetcode/1. statistics/leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8385" tabRatio="1000" firstSheet="4" activeTab="21"/>
+    <workbookView windowWidth="19770" windowHeight="8535" tabRatio="1000" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="14" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875">
   <si>
     <t>算法大纲</t>
   </si>
@@ -1267,6 +1267,12 @@
   <si>
     <t>1. 加法 超时
 2. 除法： 注意边界问题</t>
+  </si>
+  <si>
+    <t>任务调度器 II</t>
+  </si>
+  <si>
+    <t>1. 逆向思维贪心</t>
   </si>
   <si>
     <t>理解</t>
@@ -1506,6 +1512,9 @@
   </si>
   <si>
     <t>托普利茨矩阵</t>
+  </si>
+  <si>
+    <t>第 k 个缺失的正整数</t>
   </si>
   <si>
     <t>找出数组的最大公约数</t>
@@ -3239,10 +3248,10 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3273,6 +3282,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF008000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -3282,21 +3297,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3318,7 +3318,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3326,22 +3326,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3362,9 +3346,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3386,8 +3377,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3404,6 +3396,29 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3460,7 +3475,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3472,13 +3571,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3490,19 +3601,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3514,55 +3619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3574,7 +3631,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3586,49 +3643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3660,47 +3675,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3737,6 +3713,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3749,8 +3734,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3760,10 +3775,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3772,131 +3787,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4066,12 +4081,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4094,6 +4103,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
@@ -4659,7 +4674,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4681,7 +4696,7 @@
         <v>241</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
@@ -4695,7 +4710,7 @@
         <v>169</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>42</v>
@@ -4706,18 +4721,18 @@
         <v>14</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -4753,8 +4768,8 @@
         <v>28</v>
       </c>
       <c r="B1" s="47"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:6">
@@ -4794,14 +4809,14 @@
         <v>1593</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="21" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4809,14 +4824,14 @@
         <v>46</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="27" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:5">
@@ -4824,14 +4839,14 @@
         <v>1239</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="27" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4839,14 +4854,14 @@
         <v>131</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="21" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4854,14 +4869,14 @@
         <v>40</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="27" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4869,14 +4884,14 @@
         <v>216</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="27" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" ht="42.75" spans="1:6">
@@ -4884,17 +4899,17 @@
         <v>473</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="F10" s="64" t="s">
-        <v>350</v>
+        <v>351</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:5">
@@ -4902,14 +4917,14 @@
         <v>90</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="21" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4917,14 +4932,14 @@
         <v>949</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="27" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4932,14 +4947,14 @@
         <v>77</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="21" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" ht="42.75" spans="1:5">
@@ -4947,14 +4962,14 @@
         <v>2048</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="27" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:5">
@@ -4962,13 +4977,13 @@
         <v>1443</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5034,10 +5049,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -5080,14 +5095,14 @@
       <c r="A3" s="3">
         <v>204</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>361</v>
+      <c r="B3" s="61" t="s">
+        <v>363</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5095,13 +5110,13 @@
         <v>1726</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5109,13 +5124,13 @@
         <v>1980</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5134,13 +5149,13 @@
         <v>2171</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5148,13 +5163,13 @@
         <v>1094</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>100</v>
@@ -5165,13 +5180,13 @@
         <v>1925</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:5">
@@ -5179,13 +5194,13 @@
         <v>1551</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5193,7 +5208,7 @@
         <v>1775</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>42</v>
@@ -5210,7 +5225,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5218,13 +5233,13 @@
         <v>93</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5232,7 +5247,7 @@
         <v>989</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>42</v>
@@ -5243,13 +5258,13 @@
         <v>2029</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5257,13 +5272,13 @@
         <v>60</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="1:6">
@@ -5271,13 +5286,13 @@
         <v>1509</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>53</v>
@@ -5288,14 +5303,14 @@
         <v>1963</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="27" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -5304,13 +5319,13 @@
         <v>1191</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5318,13 +5333,13 @@
         <v>390</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5332,7 +5347,21 @@
         <v>766</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>392</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3">
+        <v>1539</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -5394,13 +5423,13 @@
         <v>1979</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5408,7 +5437,7 @@
         <v>162</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>35</v>
@@ -5419,7 +5448,7 @@
         <v>1047</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>42</v>
@@ -5430,7 +5459,7 @@
         <v>118</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>42</v>
@@ -5441,7 +5470,7 @@
         <v>648</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>35</v>
@@ -5452,7 +5481,7 @@
         <v>1781</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>35</v>
@@ -5463,7 +5492,7 @@
         <v>326</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>42</v>
@@ -5474,13 +5503,13 @@
         <v>1408</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5488,13 +5517,13 @@
         <v>462</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5502,7 +5531,7 @@
         <v>1464</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>42</v>
@@ -5513,13 +5542,13 @@
         <v>1961</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5527,13 +5556,13 @@
         <v>1894</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:5">
@@ -5541,13 +5570,13 @@
         <v>1967</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5555,13 +5584,13 @@
         <v>539</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5569,13 +5598,13 @@
         <v>539</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5583,7 +5612,7 @@
         <v>838</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>35</v>
@@ -5594,13 +5623,13 @@
         <v>551</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5608,13 +5637,13 @@
         <v>1025</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5622,13 +5651,13 @@
         <v>1718</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5636,7 +5665,7 @@
         <v>1909</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>42</v>
@@ -5647,13 +5676,13 @@
         <v>2178</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" ht="28.5" spans="1:5">
@@ -5661,13 +5690,13 @@
         <v>502</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5675,13 +5704,13 @@
         <v>1791</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5689,13 +5718,13 @@
         <v>1154</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" ht="57" spans="1:5">
@@ -5703,13 +5732,13 @@
         <v>1253</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5717,7 +5746,7 @@
         <v>1491</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>42</v>
@@ -5728,13 +5757,13 @@
         <v>1968</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5742,7 +5771,7 @@
         <v>1021</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>42</v>
@@ -5753,13 +5782,13 @@
         <v>43</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5767,7 +5796,7 @@
         <v>2032</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
@@ -5781,13 +5810,13 @@
         <v>1103</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:5">
@@ -5795,13 +5824,13 @@
         <v>1688</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" ht="28.5" spans="1:5">
@@ -5809,13 +5838,13 @@
         <v>383</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5823,13 +5852,13 @@
         <v>357</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C36" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" ht="42.75" spans="1:5">
@@ -5837,13 +5866,13 @@
         <v>977</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -5851,13 +5880,13 @@
         <v>1295</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -5865,13 +5894,13 @@
         <v>1389</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -5879,7 +5908,7 @@
         <v>1503</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C40" s="32" t="s">
         <v>35</v>
@@ -5893,7 +5922,7 @@
         <v>2200</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C41" s="32" t="s">
         <v>35</v>
@@ -5907,13 +5936,13 @@
         <v>217</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -5921,13 +5950,13 @@
         <v>2239</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -5935,7 +5964,7 @@
         <v>941</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>42</v>
@@ -5949,13 +5978,13 @@
         <v>1619</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -5963,13 +5992,13 @@
         <v>1450</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -5977,13 +6006,13 @@
         <v>1929</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -5991,13 +6020,13 @@
         <v>1941</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="49" ht="57" spans="1:5">
@@ -6005,13 +6034,13 @@
         <v>443</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C49" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -6019,13 +6048,13 @@
         <v>1541</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C50" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -6033,13 +6062,13 @@
         <v>1832</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -6047,13 +6076,13 @@
         <v>999</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -6061,13 +6090,13 @@
         <v>1431</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -6075,13 +6104,13 @@
         <v>1475</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -6089,13 +6118,13 @@
         <v>884</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -6103,13 +6132,13 @@
         <v>1566</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -6117,7 +6146,7 @@
         <v>127</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>51</v>
@@ -6128,13 +6157,13 @@
         <v>1054</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C58" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -6142,7 +6171,7 @@
         <v>2154</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>42</v>
@@ -6153,13 +6182,13 @@
         <v>1550</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -6167,7 +6196,7 @@
         <v>575</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>42</v>
@@ -6178,13 +6207,13 @@
         <v>1716</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -6192,13 +6221,13 @@
         <v>1869</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" ht="28.5" spans="1:5">
@@ -6206,13 +6235,13 @@
         <v>1638</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -6220,7 +6249,7 @@
         <v>2138</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>42</v>
@@ -6234,7 +6263,7 @@
         <v>2299</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>42</v>
@@ -6248,13 +6277,13 @@
         <v>1614</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -6262,13 +6291,13 @@
         <v>1689</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -6276,13 +6305,13 @@
         <v>1952</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -6307,7 +6336,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="32.625" style="60" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="58" customWidth="1"/>
     <col min="3" max="4" width="9" style="5"/>
     <col min="5" max="5" width="68.125" style="39" customWidth="1"/>
     <col min="6" max="6" width="5.625" style="39" customWidth="1"/>
@@ -6354,7 +6383,7 @@
         <v>71</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>42</v>
@@ -6372,7 +6401,7 @@
         <v>300</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
@@ -6390,14 +6419,14 @@
         <v>486</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="21" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -6410,7 +6439,7 @@
         <v>718</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
@@ -6428,7 +6457,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>42</v>
@@ -6446,7 +6475,7 @@
         <v>674</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>42</v>
@@ -6463,8 +6492,8 @@
       <c r="A9" s="3">
         <v>474</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>511</v>
+      <c r="B9" s="58" t="s">
+        <v>514</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -6475,14 +6504,14 @@
         <v>1049</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="21" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -6495,14 +6524,14 @@
         <v>221</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="21" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -6515,14 +6544,14 @@
         <v>1277</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="21" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -6535,14 +6564,14 @@
         <v>62</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="21" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -6555,14 +6584,14 @@
         <v>63</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="21" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -6575,14 +6604,14 @@
         <v>91</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="27" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -6613,7 +6642,7 @@
         <v>97</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
@@ -6631,14 +6660,14 @@
         <v>120</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="27" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -6658,7 +6687,7 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="21" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -6671,14 +6700,14 @@
         <v>714</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="21" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -6691,7 +6720,7 @@
         <v>139</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
@@ -6709,7 +6738,7 @@
         <v>152</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
@@ -6727,14 +6756,14 @@
         <v>198</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="21" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -6747,14 +6776,14 @@
         <v>213</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="21" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -6795,7 +6824,7 @@
         <v>413</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
@@ -6813,14 +6842,14 @@
         <v>873</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="21" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -6833,18 +6862,18 @@
         <v>2110</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="27" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -6855,18 +6884,18 @@
         <v>813</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="27" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H30" s="32"/>
       <c r="I30" s="3"/>
@@ -6877,14 +6906,14 @@
         <v>2106</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="27" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="21"/>
@@ -6897,14 +6926,14 @@
         <v>416</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="27" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="21"/>
@@ -6917,18 +6946,18 @@
         <v>2063</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="27" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -6939,14 +6968,14 @@
         <v>698</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="27" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="21"/>
@@ -6959,7 +6988,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C35" s="32" t="s">
         <v>51</v>
@@ -6979,13 +7008,13 @@
         <v>1109</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="20"/>
@@ -6995,18 +7024,18 @@
         <v>1727</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="51" t="s">
-        <v>554</v>
-      </c>
-      <c r="F37" s="61"/>
-      <c r="G37" s="62" t="s">
-        <v>555</v>
+        <v>557</v>
+      </c>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60" t="s">
+        <v>558</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -7017,14 +7046,14 @@
         <v>518</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="21" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
@@ -7037,14 +7066,14 @@
         <v>935</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="27" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="21"/>
@@ -7057,13 +7086,13 @@
         <v>1024</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41" ht="42.75" spans="1:10">
@@ -7071,14 +7100,14 @@
         <v>1043</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="21" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
@@ -7091,13 +7120,13 @@
         <v>1685</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C42" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -7105,14 +7134,14 @@
         <v>1986</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C43" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="27" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -7125,14 +7154,14 @@
         <v>377</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C44" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="21" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
@@ -7145,14 +7174,14 @@
         <v>1371</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="27" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
@@ -7165,14 +7194,14 @@
         <v>650</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C46" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="21" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
@@ -7185,14 +7214,14 @@
         <v>64</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C47" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="21" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
@@ -7205,14 +7234,14 @@
         <v>279</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C48" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="27" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
@@ -7225,14 +7254,14 @@
         <v>1749</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C49" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="21" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
@@ -7245,14 +7274,14 @@
         <v>368</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="21" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
@@ -7265,13 +7294,13 @@
         <v>467</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C51" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -7279,14 +7308,14 @@
         <v>795</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C52" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="27" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
@@ -7299,14 +7328,14 @@
         <v>1186</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C53" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="21" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
@@ -7319,14 +7348,14 @@
         <v>1177</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="21" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
@@ -7339,14 +7368,14 @@
         <v>1014</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C55" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D55" s="34"/>
       <c r="E55" s="21" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="34"/>
@@ -7357,14 +7386,14 @@
         <v>2348</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C56" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="21" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
@@ -8198,8 +8227,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="57"/>
-    <col min="2" max="2" width="43.625" style="58" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="43.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8207,9 +8236,9 @@
         <v>28</v>
       </c>
       <c r="B1" s="48"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
@@ -8233,7 +8262,7 @@
         <v>355</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
@@ -8246,7 +8275,7 @@
         <v>460</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>51</v>
@@ -8259,7 +8288,7 @@
         <v>622</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -8272,7 +8301,7 @@
         <v>641</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
@@ -8285,7 +8314,7 @@
         <v>705</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -8298,7 +8327,7 @@
         <v>706</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -8311,7 +8340,7 @@
         <v>707</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -8324,7 +8353,7 @@
         <v>1206</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>51</v>
@@ -8337,7 +8366,7 @@
         <v>1472</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
@@ -8350,24 +8379,24 @@
         <v>1797</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="57">
+      <c r="A13" s="3">
         <v>307</v>
       </c>
-      <c r="B13" s="58" t="s">
-        <v>604</v>
+      <c r="B13" s="5" t="s">
+        <v>607</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -8430,13 +8459,13 @@
         <v>69</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C3" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8444,7 +8473,7 @@
         <v>633</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>42</v>
@@ -8455,7 +8484,7 @@
         <v>441</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>42</v>
@@ -8466,10 +8495,10 @@
         <v>34</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:5">
@@ -8477,10 +8506,10 @@
         <v>153</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="9" ht="57" spans="1:5">
@@ -8488,13 +8517,13 @@
         <v>378</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8502,13 +8531,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="27" spans="1:6">
@@ -8516,13 +8545,13 @@
         <v>1201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="F11" s="32"/>
     </row>
@@ -8531,13 +8560,13 @@
         <v>1351</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8545,13 +8574,13 @@
         <v>275</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="F13" s="56" t="s">
         <v>53</v>
@@ -8562,13 +8591,13 @@
         <v>35</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="C14" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8576,13 +8605,13 @@
         <v>2300</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8590,13 +8619,13 @@
         <v>240</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -8661,7 +8690,7 @@
         <v>219</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>42</v>
@@ -8672,7 +8701,7 @@
         <v>643</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
@@ -8683,13 +8712,13 @@
         <v>1876</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8697,13 +8726,13 @@
         <v>1984</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8711,7 +8740,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -8722,7 +8751,7 @@
         <v>187</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -8733,7 +8762,7 @@
         <v>209</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -8744,13 +8773,13 @@
         <v>220</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" ht="71.25" spans="1:7">
@@ -8758,13 +8787,13 @@
         <v>395</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>100</v>
@@ -8775,13 +8804,13 @@
         <v>424</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8789,7 +8818,7 @@
         <v>438</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
@@ -8800,13 +8829,13 @@
         <v>567</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8814,13 +8843,13 @@
         <v>930</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8828,13 +8857,13 @@
         <v>978</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8842,13 +8871,13 @@
         <v>1004</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="F17" s="32"/>
     </row>
@@ -8857,13 +8886,13 @@
         <v>1052</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8871,13 +8900,13 @@
         <v>1208</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8885,13 +8914,13 @@
         <v>1234</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8899,7 +8928,7 @@
         <v>1423</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
@@ -8910,13 +8939,13 @@
         <v>1456</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="23" ht="42.75" spans="1:5">
@@ -8924,13 +8953,13 @@
         <v>1493</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8938,13 +8967,13 @@
         <v>1658</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8952,13 +8981,13 @@
         <v>1696</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -8966,13 +8995,13 @@
         <v>1838</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8980,13 +9009,13 @@
         <v>2024</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:9">
@@ -8994,14 +9023,14 @@
         <v>2104</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="35" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -9013,13 +9042,13 @@
         <v>1525</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9027,7 +9056,7 @@
         <v>904</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
@@ -9038,13 +9067,13 @@
         <v>643</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="42.75" spans="1:5">
@@ -9052,13 +9081,13 @@
         <v>1248</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="33" ht="42.75" spans="1:5">
@@ -9066,13 +9095,13 @@
         <v>1234</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -9080,13 +9109,13 @@
         <v>1156</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -9149,7 +9178,7 @@
         <v>167</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -9165,7 +9194,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="21" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -9174,7 +9203,7 @@
         <v>1903</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -9185,13 +9214,13 @@
         <v>234</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9199,10 +9228,10 @@
         <v>1712</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:6">
@@ -9210,14 +9239,14 @@
         <v>9</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="27" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -9226,14 +9255,14 @@
         <v>205</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="27" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -9242,14 +9271,14 @@
         <v>881</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="27" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -9258,14 +9287,14 @@
         <v>475</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="27" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -9274,14 +9303,14 @@
         <v>825</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="27" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -9290,14 +9319,14 @@
         <v>713</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="27" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -9306,14 +9335,14 @@
         <v>923</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="27" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -9322,13 +9351,13 @@
         <v>922</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -9336,14 +9365,14 @@
         <v>345</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="27" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -9352,14 +9381,14 @@
         <v>1768</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="27" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -9368,14 +9397,14 @@
         <v>165</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="21" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -9384,14 +9413,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="21" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -9400,14 +9429,14 @@
         <v>1679</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="21" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -9416,14 +9445,14 @@
         <v>392</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="21" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -9432,14 +9461,14 @@
         <v>283</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="27" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -9448,14 +9477,14 @@
         <v>1855</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="21" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -9464,14 +9493,14 @@
         <v>1662</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="21" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -9480,14 +9509,14 @@
         <v>849</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="27" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="F25" s="3"/>
     </row>
@@ -9496,14 +9525,14 @@
         <v>80</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="21" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -9846,7 +9875,7 @@
         <v>334</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>35</v>
@@ -9862,7 +9891,7 @@
         <v>1262</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
@@ -9876,14 +9905,14 @@
         <v>915</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="31" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -9894,14 +9923,14 @@
         <v>775</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="27" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
@@ -9912,7 +9941,7 @@
         <v>2177</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>35</v>
@@ -9928,7 +9957,7 @@
         <v>485</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>42</v>
@@ -9944,14 +9973,14 @@
         <v>628</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="27" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -26348,16 +26377,16 @@
         <v>495</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
@@ -26368,14 +26397,14 @@
         <v>1796</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C12" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="27" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
@@ -26386,14 +26415,14 @@
         <v>2037</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="27" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -27279,13 +27308,13 @@
         <v>1590</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -27293,13 +27322,13 @@
         <v>1991</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -27307,13 +27336,13 @@
         <v>238</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -27321,7 +27350,7 @@
         <v>1652</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -27335,13 +27364,13 @@
         <v>1664</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -27403,13 +27432,13 @@
         <v>406</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -27417,13 +27446,13 @@
         <v>435</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -27431,13 +27460,13 @@
         <v>452</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="6" customFormat="1"/>
@@ -27446,7 +27475,7 @@
         <v>56</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -27457,13 +27486,13 @@
         <v>986</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -27471,13 +27500,13 @@
         <v>1905</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -27485,7 +27514,7 @@
         <v>840</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
@@ -27496,13 +27525,13 @@
         <v>498</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:5">
@@ -27510,13 +27539,13 @@
         <v>1162</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -27524,13 +27553,13 @@
         <v>1020</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -27538,13 +27567,13 @@
         <v>419</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:6">
@@ -27552,14 +27581,14 @@
         <v>36</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="21" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -27568,14 +27597,14 @@
         <v>646</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="27" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -27583,13 +27612,13 @@
         <v>1672</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="1:5">
@@ -27597,13 +27626,13 @@
         <v>598</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="19" s="33" customFormat="1" ht="28.5" spans="1:5">
@@ -27611,13 +27640,13 @@
         <v>1901</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -27625,7 +27654,7 @@
         <v>832</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>42</v>
@@ -27639,13 +27668,13 @@
         <v>997</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -27653,13 +27682,13 @@
         <v>1232</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -27667,13 +27696,13 @@
         <v>1893</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -27681,13 +27710,13 @@
         <v>1337</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:5">
@@ -27695,13 +27724,13 @@
         <v>1139</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -27709,13 +27738,13 @@
         <v>519</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="27" ht="71.25" spans="1:5">
@@ -27723,13 +27752,13 @@
         <v>1504</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="28" ht="28.5" spans="1:5">
@@ -27737,13 +27766,13 @@
         <v>1282</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -27751,13 +27780,13 @@
         <v>766</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -27765,13 +27794,13 @@
         <v>1041</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -27779,13 +27808,13 @@
         <v>1424</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -27793,13 +27822,13 @@
         <v>1854</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -27816,8 +27845,8 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -27860,13 +27889,13 @@
         <v>318</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:5">
@@ -27874,13 +27903,13 @@
         <v>128</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:5">
@@ -27888,7 +27917,7 @@
         <v>287</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -27900,10 +27929,10 @@
         <v>1711</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="31"/>
@@ -27913,7 +27942,7 @@
         <v>692</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -27924,13 +27953,13 @@
         <v>890</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
     </row>
     <row r="9" ht="42.75" spans="1:5">
@@ -27938,13 +27967,13 @@
         <v>525</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -27952,13 +27981,13 @@
         <v>442</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -27966,13 +27995,13 @@
         <v>2085</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -27980,13 +28009,13 @@
         <v>974</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -27994,7 +28023,7 @@
         <v>2099</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
@@ -28005,13 +28034,13 @@
         <v>916</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -28019,7 +28048,7 @@
         <v>781</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>35</v>
@@ -28030,13 +28059,13 @@
         <v>523</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -28044,13 +28073,13 @@
         <v>1935</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -28058,13 +28087,13 @@
         <v>451</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="19" ht="42.75" spans="1:5">
@@ -28072,13 +28101,13 @@
         <v>1684</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -28086,13 +28115,13 @@
         <v>1394</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="21" ht="71.25" spans="1:5">
@@ -28100,13 +28129,13 @@
         <v>697</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -28114,13 +28143,13 @@
         <v>1331</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -28128,13 +28157,13 @@
         <v>1640</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -28142,13 +28171,13 @@
         <v>1481</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -28156,13 +28185,13 @@
         <v>1497</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -28170,13 +28199,13 @@
         <v>2190</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -28184,13 +28213,13 @@
         <v>2260</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -28198,13 +28227,13 @@
         <v>1338</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -28212,13 +28241,13 @@
         <v>888</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -28226,13 +28255,13 @@
         <v>1557</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="31" ht="42.75" spans="1:5">
@@ -28240,13 +28269,13 @@
         <v>2248</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
     </row>
     <row r="32" ht="28.5" spans="1:5">
@@ -28254,13 +28283,13 @@
         <v>2287</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -28268,13 +28297,13 @@
         <v>532</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
   </sheetData>
@@ -28335,13 +28364,13 @@
         <v>215</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="57" spans="1:5">
@@ -28349,13 +28378,13 @@
         <v>389</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:5">
@@ -28363,13 +28392,13 @@
         <v>268</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -28377,14 +28406,14 @@
         <v>1654</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="18" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -28392,7 +28421,7 @@
         <v>1752</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -28403,13 +28432,13 @@
         <v>1812</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -29309,7 +29338,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="32" style="60" customWidth="1"/>
+    <col min="2" max="2" width="32" style="58" customWidth="1"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="35.875" style="39" customWidth="1"/>
   </cols>
@@ -29752,7 +29781,7 @@
       <c r="C35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="64" t="s">
         <v>178</v>
       </c>
     </row>
@@ -29766,7 +29795,7 @@
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="64" t="s">
         <v>180</v>
       </c>
     </row>
@@ -29932,7 +29961,7 @@
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
       <c r="E1" s="7"/>
@@ -30364,7 +30393,7 @@
       <c r="A38" s="3">
         <v>105</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="62" t="s">
         <v>225</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -30406,7 +30435,7 @@
       <c r="A41" s="3">
         <v>965</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="62" t="s">
         <v>231</v>
       </c>
       <c r="C41" s="32" t="s">
@@ -30436,7 +30465,7 @@
       <c r="A43" s="3">
         <v>1104</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="62" t="s">
         <v>235</v>
       </c>
       <c r="C43" s="32" t="s">
@@ -30451,7 +30480,7 @@
       <c r="A44" s="3">
         <v>863</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="62" t="s">
         <v>237</v>
       </c>
       <c r="C44" s="32" t="s">
@@ -30466,7 +30495,7 @@
       <c r="A45" s="3">
         <v>2096</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="62" t="s">
         <v>239</v>
       </c>
       <c r="C45" s="32" t="s">
@@ -30481,7 +30510,7 @@
       <c r="A46" s="3">
         <v>429</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="62" t="s">
         <v>240</v>
       </c>
       <c r="C46" s="32" t="s">
@@ -30496,7 +30525,7 @@
       <c r="A47" s="3">
         <v>331</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="62" t="s">
         <v>242</v>
       </c>
       <c r="C47" s="32" t="s">
@@ -30514,7 +30543,7 @@
       <c r="A48" s="3">
         <v>958</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="62" t="s">
         <v>244</v>
       </c>
       <c r="C48" s="32" t="s">
@@ -30529,7 +30558,7 @@
       <c r="A49" s="3">
         <v>655</v>
       </c>
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="62" t="s">
         <v>246</v>
       </c>
       <c r="C49" s="32" t="s">
@@ -30544,7 +30573,7 @@
       <c r="A50" s="3">
         <v>1008</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="62" t="s">
         <v>248</v>
       </c>
       <c r="C50" s="32" t="s">
@@ -30559,7 +30588,7 @@
       <c r="A51" s="3">
         <v>107</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="62" t="s">
         <v>249</v>
       </c>
       <c r="C51" s="32" t="s">
@@ -30574,7 +30603,7 @@
       <c r="A52" s="3">
         <v>654</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="62" t="s">
         <v>251</v>
       </c>
       <c r="C52" s="32" t="s">
@@ -30689,10 +30718,10 @@
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
@@ -30731,15 +30760,15 @@
   <sheetPr/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="36.375" style="60" customWidth="1"/>
+    <col min="2" max="2" width="36.375" style="58" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="48" style="39" customWidth="1"/>
     <col min="6" max="6" width="21.75" style="3" customWidth="1"/>
@@ -30750,8 +30779,8 @@
         <v>28</v>
       </c>
       <c r="B1" s="47"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5">
@@ -30877,7 +30906,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="59" t="s">
         <v>275</v>
       </c>
       <c r="F9" s="34"/>
@@ -31115,7 +31144,7 @@
       <c r="C25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="63" t="s">
         <v>302</v>
       </c>
     </row>
@@ -31140,7 +31169,7 @@
       <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="63" t="s">
         <v>305</v>
       </c>
     </row>
@@ -31197,7 +31226,7 @@
       <c r="C31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="64" t="s">
         <v>312</v>
       </c>
     </row>
@@ -31239,7 +31268,7 @@
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="64" t="s">
         <v>317</v>
       </c>
       <c r="F34" s="32" t="s">
@@ -31333,6 +31362,20 @@
       <c r="D40" s="3"/>
       <c r="E40" s="21" t="s">
         <v>329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="65">
+        <v>2365</v>
+      </c>
+      <c r="B41" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="C41" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/leetcode/1. statistics/leetcode.xlsx
+++ b/leetcode/1. statistics/leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8535" tabRatio="1000" firstSheet="4" activeTab="8"/>
+    <workbookView windowWidth="19770" windowHeight="8115" tabRatio="1000" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="14" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880">
   <si>
     <t>算法大纲</t>
   </si>
@@ -1888,6 +1888,13 @@
   </si>
   <si>
     <t>三除数</t>
+  </si>
+  <si>
+    <t>错误的集合</t>
+  </si>
+  <si>
+    <t>1. 计数法，设置一个新的数组，统计每个数字的数量，放回计数为2与计数为0的数组
+2. 排序法</t>
   </si>
   <si>
     <t>爬楼梯</t>
@@ -2917,6 +2924,9 @@
     <t>翻转图像</t>
   </si>
   <si>
+    <t>模拟，先替换位置，然后替换值</t>
+  </si>
+  <si>
     <t>找到小镇的法官</t>
   </si>
   <si>
@@ -3001,6 +3011,12 @@
     <t>暴力，以及查分数组</t>
   </si>
   <si>
+    <t>滑动谜题</t>
+  </si>
+  <si>
+    <t>BFS算法，将所有的可能依次列举出来</t>
+  </si>
+  <si>
     <t>最大单词长度乘积</t>
   </si>
   <si>
@@ -3161,7 +3177,10 @@
     <t>可以到达所有点的最少点数目</t>
   </si>
   <si>
-    <t>哈希去重</t>
+    <t>思路：哈希去重
+1. 两个集合：FromSet 记录所有的起点，ToSet 记录所有的终点
+2. 遍历 FromSet，如果 ToSet 存在同样的节点，那么就移除 Fromset 当中的该元素
+3. 最后返回 FromSet</t>
   </si>
   <si>
     <t>多个数组求交集</t>
@@ -3246,10 +3265,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -3289,73 +3308,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3377,11 +3330,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3402,6 +3377,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3410,7 +3422,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3418,7 +3437,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3469,43 +3488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3529,7 +3518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3541,7 +3530,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3559,67 +3638,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3631,19 +3656,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3676,7 +3695,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3697,16 +3755,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3714,8 +3772,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3730,55 +3788,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3787,135 +3806,135 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4104,9 +4123,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4460,7 +4476,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -4479,7 +4495,7 @@
       <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
@@ -4493,33 +4509,33 @@
       <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="73" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="74" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="74" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="75" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="74" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="75" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4529,77 +4545,77 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="75" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="74" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="74" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="74" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="75" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="75" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="74" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="74" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="75" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="74" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="74" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="76" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="75" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="74" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="75" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4750,7 +4766,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -4764,13 +4780,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
@@ -5377,10 +5393,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67:E69"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -6312,6 +6328,20 @@
       </c>
       <c r="E69" s="21" t="s">
         <v>374</v>
+      </c>
+    </row>
+    <row r="70" ht="42.75" spans="1:5">
+      <c r="A70" s="3">
+        <v>645</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -6383,7 +6413,7 @@
         <v>71</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>42</v>
@@ -6401,7 +6431,7 @@
         <v>300</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
@@ -6419,14 +6449,14 @@
         <v>486</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="21" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -6439,7 +6469,7 @@
         <v>718</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
@@ -6457,7 +6487,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>42</v>
@@ -6475,7 +6505,7 @@
         <v>674</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>42</v>
@@ -6493,7 +6523,7 @@
         <v>474</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -6504,14 +6534,14 @@
         <v>1049</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="21" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -6524,14 +6554,14 @@
         <v>221</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="21" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -6544,14 +6574,14 @@
         <v>1277</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="21" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -6564,14 +6594,14 @@
         <v>62</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="21" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -6584,14 +6614,14 @@
         <v>63</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="21" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -6604,14 +6634,14 @@
         <v>91</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="27" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -6642,7 +6672,7 @@
         <v>97</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
@@ -6660,14 +6690,14 @@
         <v>120</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="27" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -6687,7 +6717,7 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="21" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -6700,14 +6730,14 @@
         <v>714</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="21" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -6720,7 +6750,7 @@
         <v>139</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
@@ -6738,7 +6768,7 @@
         <v>152</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
@@ -6756,14 +6786,14 @@
         <v>198</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="21" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -6776,14 +6806,14 @@
         <v>213</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="21" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -6824,7 +6854,7 @@
         <v>413</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
@@ -6842,14 +6872,14 @@
         <v>873</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="21" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -6862,18 +6892,18 @@
         <v>2110</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="27" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -6884,18 +6914,18 @@
         <v>813</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="27" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H30" s="32"/>
       <c r="I30" s="3"/>
@@ -6906,14 +6936,14 @@
         <v>2106</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="27" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="21"/>
@@ -6926,14 +6956,14 @@
         <v>416</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="27" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="21"/>
@@ -6946,18 +6976,18 @@
         <v>2063</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="27" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -6968,14 +6998,14 @@
         <v>698</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="27" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="21"/>
@@ -6988,7 +7018,7 @@
         <v>44</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C35" s="32" t="s">
         <v>51</v>
@@ -7008,13 +7038,13 @@
         <v>1109</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="20"/>
@@ -7024,18 +7054,18 @@
         <v>1727</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="51" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F37" s="59"/>
       <c r="G37" s="60" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -7046,14 +7076,14 @@
         <v>518</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="21" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
@@ -7066,14 +7096,14 @@
         <v>935</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="27" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="21"/>
@@ -7086,13 +7116,13 @@
         <v>1024</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="41" ht="42.75" spans="1:10">
@@ -7100,14 +7130,14 @@
         <v>1043</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="21" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
@@ -7120,13 +7150,13 @@
         <v>1685</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C42" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -7134,14 +7164,14 @@
         <v>1986</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C43" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="27" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -7154,14 +7184,14 @@
         <v>377</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C44" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="21" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
@@ -7174,14 +7204,14 @@
         <v>1371</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="27" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
@@ -7194,14 +7224,14 @@
         <v>650</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C46" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="21" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
@@ -7214,14 +7244,14 @@
         <v>64</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C47" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="21" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
@@ -7234,14 +7264,14 @@
         <v>279</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C48" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="27" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
@@ -7254,14 +7284,14 @@
         <v>1749</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C49" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="21" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
@@ -7274,14 +7304,14 @@
         <v>368</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="21" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
@@ -7294,13 +7324,13 @@
         <v>467</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C51" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -7308,14 +7338,14 @@
         <v>795</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C52" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="27" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
@@ -7328,14 +7358,14 @@
         <v>1186</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C53" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="21" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
@@ -7348,14 +7378,14 @@
         <v>1177</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="21" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
@@ -7368,14 +7398,14 @@
         <v>1014</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C55" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D55" s="34"/>
       <c r="E55" s="21" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="34"/>
@@ -7386,14 +7416,14 @@
         <v>2348</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C56" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="21" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
@@ -8262,7 +8292,7 @@
         <v>355</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
@@ -8275,7 +8305,7 @@
         <v>460</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>51</v>
@@ -8288,7 +8318,7 @@
         <v>622</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -8301,7 +8331,7 @@
         <v>641</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
@@ -8314,7 +8344,7 @@
         <v>705</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -8327,7 +8357,7 @@
         <v>706</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -8340,7 +8370,7 @@
         <v>707</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -8353,7 +8383,7 @@
         <v>1206</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>51</v>
@@ -8366,7 +8396,7 @@
         <v>1472</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
@@ -8379,7 +8409,7 @@
         <v>1797</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>35</v>
@@ -8390,13 +8420,13 @@
         <v>307</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -8459,13 +8489,13 @@
         <v>69</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C3" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8473,7 +8503,7 @@
         <v>633</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>42</v>
@@ -8484,7 +8514,7 @@
         <v>441</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>42</v>
@@ -8495,10 +8525,10 @@
         <v>34</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:5">
@@ -8506,10 +8536,10 @@
         <v>153</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="9" ht="57" spans="1:5">
@@ -8517,13 +8547,13 @@
         <v>378</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8531,13 +8561,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="27" spans="1:6">
@@ -8545,13 +8575,13 @@
         <v>1201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F11" s="32"/>
     </row>
@@ -8560,13 +8590,13 @@
         <v>1351</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8574,13 +8604,13 @@
         <v>275</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F13" s="56" t="s">
         <v>53</v>
@@ -8591,13 +8621,13 @@
         <v>35</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C14" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8605,13 +8635,13 @@
         <v>2300</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8619,13 +8649,13 @@
         <v>240</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -8690,7 +8720,7 @@
         <v>219</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>42</v>
@@ -8701,7 +8731,7 @@
         <v>643</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
@@ -8712,13 +8742,13 @@
         <v>1876</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8726,13 +8756,13 @@
         <v>1984</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8740,7 +8770,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -8751,7 +8781,7 @@
         <v>187</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -8762,7 +8792,7 @@
         <v>209</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -8773,13 +8803,13 @@
         <v>220</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11" ht="71.25" spans="1:7">
@@ -8787,13 +8817,13 @@
         <v>395</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>100</v>
@@ -8804,13 +8834,13 @@
         <v>424</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8818,7 +8848,7 @@
         <v>438</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
@@ -8829,13 +8859,13 @@
         <v>567</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8843,13 +8873,13 @@
         <v>930</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8857,13 +8887,13 @@
         <v>978</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8871,13 +8901,13 @@
         <v>1004</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F17" s="32"/>
     </row>
@@ -8886,13 +8916,13 @@
         <v>1052</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8900,13 +8930,13 @@
         <v>1208</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8914,13 +8944,13 @@
         <v>1234</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8928,7 +8958,7 @@
         <v>1423</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
@@ -8939,13 +8969,13 @@
         <v>1456</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="23" ht="42.75" spans="1:5">
@@ -8953,13 +8983,13 @@
         <v>1493</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8967,13 +8997,13 @@
         <v>1658</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8981,13 +9011,13 @@
         <v>1696</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -8995,13 +9025,13 @@
         <v>1838</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -9009,13 +9039,13 @@
         <v>2024</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:9">
@@ -9023,14 +9053,14 @@
         <v>2104</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="35" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -9042,13 +9072,13 @@
         <v>1525</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9056,7 +9086,7 @@
         <v>904</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
@@ -9067,13 +9097,13 @@
         <v>643</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="42.75" spans="1:5">
@@ -9081,13 +9111,13 @@
         <v>1248</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="33" ht="42.75" spans="1:5">
@@ -9095,13 +9125,13 @@
         <v>1234</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -9109,13 +9139,13 @@
         <v>1156</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -9134,7 +9164,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -9178,7 +9208,7 @@
         <v>167</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -9194,7 +9224,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="21" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -9203,7 +9233,7 @@
         <v>1903</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -9214,13 +9244,13 @@
         <v>234</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9228,10 +9258,10 @@
         <v>1712</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:6">
@@ -9239,14 +9269,14 @@
         <v>9</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="27" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -9255,14 +9285,14 @@
         <v>205</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="27" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -9271,14 +9301,14 @@
         <v>881</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="27" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -9287,14 +9317,14 @@
         <v>475</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="27" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -9303,14 +9333,14 @@
         <v>825</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="27" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -9319,14 +9349,14 @@
         <v>713</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="27" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -9335,14 +9365,14 @@
         <v>923</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="27" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -9351,13 +9381,13 @@
         <v>922</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -9365,14 +9395,14 @@
         <v>345</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="27" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -9381,14 +9411,14 @@
         <v>1768</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="27" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -9397,14 +9427,14 @@
         <v>165</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="21" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -9413,14 +9443,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="21" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -9429,14 +9459,14 @@
         <v>1679</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="21" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -9445,14 +9475,14 @@
         <v>392</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="21" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -9461,14 +9491,14 @@
         <v>283</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="27" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -9477,14 +9507,14 @@
         <v>1855</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="21" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -9493,14 +9523,14 @@
         <v>1662</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="21" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -9509,14 +9539,14 @@
         <v>849</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="27" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="F25" s="3"/>
     </row>
@@ -9525,14 +9555,14 @@
         <v>80</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="21" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -9875,7 +9905,7 @@
         <v>334</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>35</v>
@@ -9891,7 +9921,7 @@
         <v>1262</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
@@ -9905,14 +9935,14 @@
         <v>915</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="31" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -9923,14 +9953,14 @@
         <v>775</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="27" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
@@ -9941,7 +9971,7 @@
         <v>2177</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>35</v>
@@ -9957,7 +9987,7 @@
         <v>485</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>42</v>
@@ -9973,14 +10003,14 @@
         <v>628</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="27" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -26377,16 +26407,16 @@
         <v>495</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
@@ -26397,14 +26427,14 @@
         <v>1796</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C12" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="27" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
@@ -26415,14 +26445,14 @@
         <v>2037</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="27" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -27202,7 +27232,7 @@
       <c r="B1" s="47"/>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
-      <c r="E1" s="73"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
@@ -27308,13 +27338,13 @@
         <v>1590</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -27322,13 +27352,13 @@
         <v>1991</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -27336,13 +27366,13 @@
         <v>238</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -27350,7 +27380,7 @@
         <v>1652</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -27364,13 +27394,13 @@
         <v>1664</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -27386,10 +27416,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -27432,13 +27462,13 @@
         <v>406</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -27446,13 +27476,13 @@
         <v>435</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -27460,13 +27490,13 @@
         <v>452</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="6" customFormat="1"/>
@@ -27475,7 +27505,7 @@
         <v>56</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -27486,13 +27516,13 @@
         <v>986</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -27500,13 +27530,13 @@
         <v>1905</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -27514,7 +27544,7 @@
         <v>840</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
@@ -27525,13 +27555,13 @@
         <v>498</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:5">
@@ -27539,13 +27569,13 @@
         <v>1162</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -27553,13 +27583,13 @@
         <v>1020</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -27567,13 +27597,13 @@
         <v>419</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:6">
@@ -27581,14 +27611,14 @@
         <v>36</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="21" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -27597,14 +27627,14 @@
         <v>646</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="27" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -27612,13 +27642,13 @@
         <v>1672</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="1:5">
@@ -27626,13 +27656,13 @@
         <v>598</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="19" s="33" customFormat="1" ht="28.5" spans="1:5">
@@ -27640,13 +27670,13 @@
         <v>1901</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -27654,13 +27684,13 @@
         <v>832</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>21</v>
+        <v>788</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -27668,7 +27698,7 @@
         <v>997</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>42</v>
@@ -27682,13 +27712,13 @@
         <v>1232</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -27696,7 +27726,7 @@
         <v>1893</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>42</v>
@@ -27710,13 +27740,13 @@
         <v>1337</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:5">
@@ -27724,13 +27754,13 @@
         <v>1139</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -27738,13 +27768,13 @@
         <v>519</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="27" ht="71.25" spans="1:5">
@@ -27752,13 +27782,13 @@
         <v>1504</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="28" ht="28.5" spans="1:5">
@@ -27766,13 +27796,13 @@
         <v>1282</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -27786,7 +27816,7 @@
         <v>42</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -27794,13 +27824,13 @@
         <v>1041</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -27808,13 +27838,13 @@
         <v>1424</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -27822,13 +27852,27 @@
         <v>1854</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>806</v>
+        <v>809</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3">
+        <v>773</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -27845,8 +27889,8 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -27889,13 +27933,13 @@
         <v>318</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:5">
@@ -27903,13 +27947,13 @@
         <v>128</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:5">
@@ -27917,7 +27961,7 @@
         <v>287</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -27929,10 +27973,10 @@
         <v>1711</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="31"/>
@@ -27942,7 +27986,7 @@
         <v>692</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -27953,13 +27997,13 @@
         <v>890</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
     </row>
     <row r="9" ht="42.75" spans="1:5">
@@ -27967,13 +28011,13 @@
         <v>525</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -27981,13 +28025,13 @@
         <v>442</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -27995,13 +28039,13 @@
         <v>2085</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -28009,13 +28053,13 @@
         <v>974</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -28023,7 +28067,7 @@
         <v>2099</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
@@ -28034,13 +28078,13 @@
         <v>916</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -28048,7 +28092,7 @@
         <v>781</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>35</v>
@@ -28059,13 +28103,13 @@
         <v>523</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -28073,13 +28117,13 @@
         <v>1935</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -28087,13 +28131,13 @@
         <v>451</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
     </row>
     <row r="19" ht="42.75" spans="1:5">
@@ -28101,13 +28145,13 @@
         <v>1684</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -28115,13 +28159,13 @@
         <v>1394</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
     </row>
     <row r="21" ht="71.25" spans="1:5">
@@ -28129,13 +28173,13 @@
         <v>697</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -28143,13 +28187,13 @@
         <v>1331</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -28157,13 +28201,13 @@
         <v>1640</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -28171,13 +28215,13 @@
         <v>1481</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -28185,13 +28229,13 @@
         <v>1497</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -28199,13 +28243,13 @@
         <v>2190</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -28213,13 +28257,13 @@
         <v>2260</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -28227,13 +28271,13 @@
         <v>1338</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -28241,27 +28285,27 @@
         <v>888</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="30" ht="85.5" spans="1:5">
       <c r="A30" s="3">
         <v>1557</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
     </row>
     <row r="31" ht="42.75" spans="1:5">
@@ -28269,13 +28313,13 @@
         <v>2248</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
     </row>
     <row r="32" ht="28.5" spans="1:5">
@@ -28283,13 +28327,13 @@
         <v>2287</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -28297,13 +28341,13 @@
         <v>532</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -28364,13 +28408,13 @@
         <v>215</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="57" spans="1:5">
@@ -28378,13 +28422,13 @@
         <v>389</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:5">
@@ -28392,13 +28436,13 @@
         <v>268</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -28406,14 +28450,14 @@
         <v>1654</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="18" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -28421,7 +28465,7 @@
         <v>1752</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -28432,13 +28476,13 @@
         <v>1812</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -28675,7 +28719,7 @@
       <c r="C15" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="72" t="s">
+      <c r="E15" s="71" t="s">
         <v>67</v>
       </c>
       <c r="F15" s="32" t="s">
@@ -28782,10 +28826,10 @@
       <c r="A4" s="5">
         <v>990</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="70" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -28796,10 +28840,10 @@
       <c r="A5" s="5">
         <v>1319</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="70" t="s">
         <v>35</v>
       </c>
     </row>
@@ -28810,7 +28854,7 @@
       <c r="B6" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="70" t="s">
         <v>35</v>
       </c>
     </row>
@@ -28821,7 +28865,7 @@
       <c r="B7" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="70" t="s">
         <v>35</v>
       </c>
     </row>
@@ -29380,7 +29424,7 @@
       </c>
     </row>
     <row r="4" ht="15" spans="1:4">
-      <c r="A4" s="69">
+      <c r="A4" s="68">
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -29943,8 +29987,8 @@
   <sheetPr/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -30729,17 +30773,17 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="66" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="66" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="67" t="s">
         <v>16</v>
       </c>
     </row>
@@ -30760,10 +30804,10 @@
   <sheetPr/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -31365,13 +31409,13 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="65">
+      <c r="A41" s="5">
         <v>2365</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="65" t="s">
         <v>330</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E41" s="39" t="s">

--- a/leetcode/1. statistics/leetcode.xlsx
+++ b/leetcode/1. statistics/leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8115" tabRatio="1000" firstSheet="4" activeTab="6"/>
+    <workbookView windowWidth="19770" windowHeight="8115" tabRatio="1000" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="14" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881">
   <si>
     <t>算法大纲</t>
   </si>
@@ -1199,7 +1199,7 @@
     <t>使数组唯一的最小增量</t>
   </si>
   <si>
-    <t>有点看不懂</t>
+    <t>核心的思想仍然是计数法</t>
   </si>
   <si>
     <t>在 D 天内送达包裹的能力</t>
@@ -1934,7 +1934,7 @@
     <t>统计全为 1 的正方形子矩阵</t>
   </si>
   <si>
-    <t>最多正方形</t>
+    <t>最多正方形，类似于221题，但是推导会比较抽象，难理解</t>
   </si>
   <si>
     <t>不同路径</t>
@@ -2060,6 +2060,9 @@
   </si>
   <si>
     <t>通配符匹配</t>
+  </si>
+  <si>
+    <t>有点看不懂</t>
   </si>
   <si>
     <t>航班预订统计</t>
@@ -3265,10 +3268,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -3314,6 +3317,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -3337,16 +3347,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3357,6 +3360,36 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3377,29 +3410,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3414,21 +3432,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3437,7 +3440,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3488,13 +3491,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3506,19 +3521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3530,7 +3539,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3542,37 +3611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3584,43 +3623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3638,31 +3641,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3700,17 +3703,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3754,6 +3753,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3769,22 +3777,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3794,10 +3797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3806,131 +3809,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6359,8 +6362,8 @@
   <sheetPr/>
   <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7025,7 +7028,7 @@
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="27" t="s">
-        <v>309</v>
+        <v>556</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="21"/>
@@ -7038,13 +7041,13 @@
         <v>1109</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="20"/>
@@ -7054,18 +7057,18 @@
         <v>1727</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="51" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F37" s="59"/>
       <c r="G37" s="60" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -7076,14 +7079,14 @@
         <v>518</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="21" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
@@ -7096,14 +7099,14 @@
         <v>935</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="27" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="21"/>
@@ -7116,13 +7119,13 @@
         <v>1024</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="41" ht="42.75" spans="1:10">
@@ -7130,14 +7133,14 @@
         <v>1043</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="21" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
@@ -7150,13 +7153,13 @@
         <v>1685</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C42" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -7164,14 +7167,14 @@
         <v>1986</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C43" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="27" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -7184,14 +7187,14 @@
         <v>377</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C44" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="21" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
@@ -7204,14 +7207,14 @@
         <v>1371</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="27" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
@@ -7224,14 +7227,14 @@
         <v>650</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C46" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="21" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
@@ -7244,14 +7247,14 @@
         <v>64</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C47" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="21" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
@@ -7264,14 +7267,14 @@
         <v>279</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C48" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="27" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
@@ -7284,14 +7287,14 @@
         <v>1749</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C49" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="21" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
@@ -7304,14 +7307,14 @@
         <v>368</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="21" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
@@ -7324,13 +7327,13 @@
         <v>467</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C51" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -7338,14 +7341,14 @@
         <v>795</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C52" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="27" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
@@ -7358,14 +7361,14 @@
         <v>1186</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C53" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="21" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
@@ -7378,14 +7381,14 @@
         <v>1177</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="21" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
@@ -7398,14 +7401,14 @@
         <v>1014</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C55" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D55" s="34"/>
       <c r="E55" s="21" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="34"/>
@@ -7416,14 +7419,14 @@
         <v>2348</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C56" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="21" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
@@ -8292,7 +8295,7 @@
         <v>355</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
@@ -8305,7 +8308,7 @@
         <v>460</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>51</v>
@@ -8318,7 +8321,7 @@
         <v>622</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -8331,7 +8334,7 @@
         <v>641</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
@@ -8344,7 +8347,7 @@
         <v>705</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -8357,7 +8360,7 @@
         <v>706</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -8370,7 +8373,7 @@
         <v>707</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -8383,7 +8386,7 @@
         <v>1206</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>51</v>
@@ -8396,7 +8399,7 @@
         <v>1472</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
@@ -8409,7 +8412,7 @@
         <v>1797</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>35</v>
@@ -8420,13 +8423,13 @@
         <v>307</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -8489,13 +8492,13 @@
         <v>69</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C3" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8503,7 +8506,7 @@
         <v>633</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>42</v>
@@ -8514,7 +8517,7 @@
         <v>441</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>42</v>
@@ -8525,10 +8528,10 @@
         <v>34</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:5">
@@ -8536,10 +8539,10 @@
         <v>153</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" ht="57" spans="1:5">
@@ -8547,13 +8550,13 @@
         <v>378</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8561,13 +8564,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="27" spans="1:6">
@@ -8575,13 +8578,13 @@
         <v>1201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F11" s="32"/>
     </row>
@@ -8590,13 +8593,13 @@
         <v>1351</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8604,13 +8607,13 @@
         <v>275</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F13" s="56" t="s">
         <v>53</v>
@@ -8621,13 +8624,13 @@
         <v>35</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C14" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8635,13 +8638,13 @@
         <v>2300</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8649,13 +8652,13 @@
         <v>240</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -8720,7 +8723,7 @@
         <v>219</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>42</v>
@@ -8731,7 +8734,7 @@
         <v>643</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
@@ -8742,13 +8745,13 @@
         <v>1876</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8756,13 +8759,13 @@
         <v>1984</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8770,7 +8773,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -8781,7 +8784,7 @@
         <v>187</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -8792,7 +8795,7 @@
         <v>209</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -8803,13 +8806,13 @@
         <v>220</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="11" ht="71.25" spans="1:7">
@@ -8817,13 +8820,13 @@
         <v>395</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>100</v>
@@ -8834,13 +8837,13 @@
         <v>424</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8848,7 +8851,7 @@
         <v>438</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
@@ -8859,13 +8862,13 @@
         <v>567</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8873,13 +8876,13 @@
         <v>930</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8887,13 +8890,13 @@
         <v>978</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8901,13 +8904,13 @@
         <v>1004</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F17" s="32"/>
     </row>
@@ -8916,13 +8919,13 @@
         <v>1052</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8930,13 +8933,13 @@
         <v>1208</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8944,13 +8947,13 @@
         <v>1234</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8958,7 +8961,7 @@
         <v>1423</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
@@ -8969,13 +8972,13 @@
         <v>1456</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="23" ht="42.75" spans="1:5">
@@ -8983,13 +8986,13 @@
         <v>1493</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8997,13 +9000,13 @@
         <v>1658</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -9011,13 +9014,13 @@
         <v>1696</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -9025,13 +9028,13 @@
         <v>1838</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -9039,13 +9042,13 @@
         <v>2024</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:9">
@@ -9053,14 +9056,14 @@
         <v>2104</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="35" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -9072,13 +9075,13 @@
         <v>1525</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9086,7 +9089,7 @@
         <v>904</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
@@ -9097,13 +9100,13 @@
         <v>643</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="42.75" spans="1:5">
@@ -9111,13 +9114,13 @@
         <v>1248</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="33" ht="42.75" spans="1:5">
@@ -9125,13 +9128,13 @@
         <v>1234</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -9139,13 +9142,13 @@
         <v>1156</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -9208,7 +9211,7 @@
         <v>167</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -9224,7 +9227,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="21" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -9233,7 +9236,7 @@
         <v>1903</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -9244,13 +9247,13 @@
         <v>234</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9258,10 +9261,10 @@
         <v>1712</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:6">
@@ -9269,14 +9272,14 @@
         <v>9</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="27" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -9285,14 +9288,14 @@
         <v>205</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="27" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -9301,14 +9304,14 @@
         <v>881</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="27" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -9317,14 +9320,14 @@
         <v>475</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="27" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -9333,14 +9336,14 @@
         <v>825</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="27" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -9349,14 +9352,14 @@
         <v>713</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="27" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -9365,14 +9368,14 @@
         <v>923</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="27" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -9381,13 +9384,13 @@
         <v>922</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -9395,14 +9398,14 @@
         <v>345</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="27" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -9411,14 +9414,14 @@
         <v>1768</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="27" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -9427,14 +9430,14 @@
         <v>165</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="21" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -9443,14 +9446,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="21" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -9459,14 +9462,14 @@
         <v>1679</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="21" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -9475,14 +9478,14 @@
         <v>392</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="21" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -9491,14 +9494,14 @@
         <v>283</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="27" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -9507,14 +9510,14 @@
         <v>1855</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="21" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -9523,14 +9526,14 @@
         <v>1662</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="21" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -9539,14 +9542,14 @@
         <v>849</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="27" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F25" s="3"/>
     </row>
@@ -9555,14 +9558,14 @@
         <v>80</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="21" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -9905,7 +9908,7 @@
         <v>334</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>35</v>
@@ -9921,7 +9924,7 @@
         <v>1262</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
@@ -9935,14 +9938,14 @@
         <v>915</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="31" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -9953,14 +9956,14 @@
         <v>775</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="27" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
@@ -9971,7 +9974,7 @@
         <v>2177</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>35</v>
@@ -9987,7 +9990,7 @@
         <v>485</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>42</v>
@@ -10003,14 +10006,14 @@
         <v>628</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="27" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -26407,16 +26410,16 @@
         <v>495</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
@@ -26427,14 +26430,14 @@
         <v>1796</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C12" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="27" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
@@ -26445,14 +26448,14 @@
         <v>2037</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="27" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -27338,13 +27341,13 @@
         <v>1590</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -27352,13 +27355,13 @@
         <v>1991</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -27366,13 +27369,13 @@
         <v>238</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -27380,7 +27383,7 @@
         <v>1652</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -27394,13 +27397,13 @@
         <v>1664</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -27462,13 +27465,13 @@
         <v>406</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -27476,13 +27479,13 @@
         <v>435</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -27490,13 +27493,13 @@
         <v>452</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="6" customFormat="1"/>
@@ -27505,7 +27508,7 @@
         <v>56</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -27516,13 +27519,13 @@
         <v>986</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -27530,13 +27533,13 @@
         <v>1905</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -27544,7 +27547,7 @@
         <v>840</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
@@ -27555,13 +27558,13 @@
         <v>498</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:5">
@@ -27569,13 +27572,13 @@
         <v>1162</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -27583,13 +27586,13 @@
         <v>1020</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -27597,13 +27600,13 @@
         <v>419</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:6">
@@ -27611,14 +27614,14 @@
         <v>36</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="21" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -27627,14 +27630,14 @@
         <v>646</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="27" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -27642,13 +27645,13 @@
         <v>1672</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="1:5">
@@ -27656,13 +27659,13 @@
         <v>598</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="19" s="33" customFormat="1" ht="28.5" spans="1:5">
@@ -27670,13 +27673,13 @@
         <v>1901</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -27684,13 +27687,13 @@
         <v>832</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -27698,7 +27701,7 @@
         <v>997</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>42</v>
@@ -27712,13 +27715,13 @@
         <v>1232</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -27726,7 +27729,7 @@
         <v>1893</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>42</v>
@@ -27740,13 +27743,13 @@
         <v>1337</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:5">
@@ -27754,13 +27757,13 @@
         <v>1139</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -27768,13 +27771,13 @@
         <v>519</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="27" ht="71.25" spans="1:5">
@@ -27782,13 +27785,13 @@
         <v>1504</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="28" ht="28.5" spans="1:5">
@@ -27796,13 +27799,13 @@
         <v>1282</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -27816,7 +27819,7 @@
         <v>42</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -27824,13 +27827,13 @@
         <v>1041</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -27838,13 +27841,13 @@
         <v>1424</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -27852,13 +27855,13 @@
         <v>1854</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -27866,13 +27869,13 @@
         <v>773</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -27933,13 +27936,13 @@
         <v>318</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:5">
@@ -27947,13 +27950,13 @@
         <v>128</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:5">
@@ -27961,7 +27964,7 @@
         <v>287</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -27973,10 +27976,10 @@
         <v>1711</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="31"/>
@@ -27986,7 +27989,7 @@
         <v>692</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -27997,13 +28000,13 @@
         <v>890</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="9" ht="42.75" spans="1:5">
@@ -28011,13 +28014,13 @@
         <v>525</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -28025,13 +28028,13 @@
         <v>442</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -28039,13 +28042,13 @@
         <v>2085</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -28053,13 +28056,13 @@
         <v>974</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -28067,7 +28070,7 @@
         <v>2099</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
@@ -28078,13 +28081,13 @@
         <v>916</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -28092,7 +28095,7 @@
         <v>781</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>35</v>
@@ -28103,13 +28106,13 @@
         <v>523</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -28117,13 +28120,13 @@
         <v>1935</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -28131,13 +28134,13 @@
         <v>451</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="19" ht="42.75" spans="1:5">
@@ -28145,13 +28148,13 @@
         <v>1684</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -28159,13 +28162,13 @@
         <v>1394</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="21" ht="71.25" spans="1:5">
@@ -28173,13 +28176,13 @@
         <v>697</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -28187,13 +28190,13 @@
         <v>1331</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -28201,13 +28204,13 @@
         <v>1640</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -28215,13 +28218,13 @@
         <v>1481</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -28229,13 +28232,13 @@
         <v>1497</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -28243,13 +28246,13 @@
         <v>2190</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -28257,13 +28260,13 @@
         <v>2260</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -28271,13 +28274,13 @@
         <v>1338</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -28285,13 +28288,13 @@
         <v>888</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="30" ht="85.5" spans="1:5">
@@ -28299,13 +28302,13 @@
         <v>1557</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="31" ht="42.75" spans="1:5">
@@ -28313,13 +28316,13 @@
         <v>2248</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="32" ht="28.5" spans="1:5">
@@ -28327,13 +28330,13 @@
         <v>2287</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -28341,13 +28344,13 @@
         <v>532</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -28408,13 +28411,13 @@
         <v>215</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="57" spans="1:5">
@@ -28422,13 +28425,13 @@
         <v>389</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:5">
@@ -28436,13 +28439,13 @@
         <v>268</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -28450,14 +28453,14 @@
         <v>1654</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="18" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -28465,7 +28468,7 @@
         <v>1752</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -28476,13 +28479,13 @@
         <v>1812</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -29987,8 +29990,8 @@
   <sheetPr/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -30805,9 +30808,9 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/leetcode/1. statistics/leetcode.xlsx
+++ b/leetcode/1. statistics/leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8115" tabRatio="1000" firstSheet="4" activeTab="13"/>
+    <workbookView windowWidth="19770" windowHeight="8535" tabRatio="1000" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="14" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="其他" sheetId="21" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">链表!$A$2:$C$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">链表!$A$2:$C$35</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888">
   <si>
     <t>算法大纲</t>
   </si>
@@ -609,6 +609,13 @@
     <t>求取余数，然后拼接字符串</t>
   </si>
   <si>
+    <t>长度为 3 的不同回文子序列</t>
+  </si>
+  <si>
+    <t>方法一：使用Set进行去重
+方法二：（优化思路）方法一存在重复遍历字符串的情况，所以优化思路是通过一次遍历，记录不容阶段字符的不同数量，类似动态规划</t>
+  </si>
+  <si>
     <t>合并两个有序链表</t>
   </si>
   <si>
@@ -665,13 +672,10 @@
     <t>先序遍历二叉树，然后构建链表</t>
   </si>
   <si>
-    <t>填充每个节点的下一个右侧节点指针</t>
+    <t>填充每个节点的下一个右侧节点指针 II</t>
   </si>
   <si>
     <t>二叉树的层次遍历</t>
-  </si>
-  <si>
-    <t>填充每个节点的下一个右侧节点指针 II</t>
   </si>
   <si>
     <t>复制带随机指针的链表</t>
@@ -803,6 +807,9 @@
     </r>
   </si>
   <si>
+    <t>填充每个节点的下一个右侧节点指针</t>
+  </si>
+  <si>
     <t>层序遍历即可</t>
   </si>
   <si>
@@ -1056,6 +1063,12 @@
   </si>
   <si>
     <t>BFS 遍历每一层，从右侧开始，遍历到最左侧</t>
+  </si>
+  <si>
+    <t>统计二叉树中好节点的数目</t>
+  </si>
+  <si>
+    <t>深度优先搜索，很不错的题</t>
   </si>
   <si>
     <t>目录</t>
@@ -1509,9 +1522,6 @@
   </si>
   <si>
     <t>数学等差数列</t>
-  </si>
-  <si>
-    <t>托普利茨矩阵</t>
   </si>
   <si>
     <t>第 k 个缺失的正整数</t>
@@ -2796,6 +2806,13 @@
     <t>排序，然后求取绝对值累加和</t>
   </si>
   <si>
+    <t>按照频率将数组升序排序</t>
+  </si>
+  <si>
+    <t>1. 统计字符频次
+2. 排序</t>
+  </si>
+  <si>
     <t>使数组和能被 P 整除</t>
   </si>
   <si>
@@ -2993,6 +3010,9 @@
     <t>通过Map记录对应的分组id，如果List达到上限，就放入新的List</t>
   </si>
   <si>
+    <t>托普利茨矩阵</t>
+  </si>
+  <si>
     <t>数组的遍历</t>
   </si>
   <si>
@@ -3018,6 +3038,9 @@
   </si>
   <si>
     <t>BFS算法，将所有的可能依次列举出来</t>
+  </si>
+  <si>
+    <t>将一维数组转变成二维数组</t>
   </si>
   <si>
     <t>最大单词长度乘积</t>
@@ -3268,10 +3291,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -3311,14 +3334,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3333,46 +3394,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3393,17 +3416,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3416,8 +3430,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3433,14 +3464,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3491,13 +3514,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3509,13 +3628,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3527,55 +3664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3587,67 +3676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3659,13 +3688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3694,22 +3717,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3738,17 +3756,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3758,6 +3772,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3776,31 +3814,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3809,131 +3832,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4226,7 +4249,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4693,7 +4716,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4701,7 +4724,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>51</v>
@@ -4715,7 +4738,7 @@
         <v>241</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
@@ -4729,7 +4752,7 @@
         <v>169</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>42</v>
@@ -4740,18 +4763,18 @@
         <v>14</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -4816,7 +4839,7 @@
         <v>257</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>42</v>
@@ -4828,14 +4851,14 @@
         <v>1593</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="21" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4843,14 +4866,14 @@
         <v>46</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="27" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:5">
@@ -4858,14 +4881,14 @@
         <v>1239</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="27" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4873,14 +4896,14 @@
         <v>131</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="21" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4888,14 +4911,14 @@
         <v>40</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="27" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4903,14 +4926,14 @@
         <v>216</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="27" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" ht="42.75" spans="1:6">
@@ -4918,17 +4941,17 @@
         <v>473</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="21" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F10" s="62" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:5">
@@ -4936,14 +4959,14 @@
         <v>90</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="21" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4951,14 +4974,14 @@
         <v>949</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="27" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4966,14 +4989,14 @@
         <v>77</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="21" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" ht="42.75" spans="1:5">
@@ -4981,14 +5004,14 @@
         <v>2048</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="27" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:5">
@@ -4996,13 +5019,13 @@
         <v>1443</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5068,10 +5091,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A21" sqref="$A21:$XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -5115,13 +5138,13 @@
         <v>204</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5129,13 +5152,13 @@
         <v>1726</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5143,13 +5166,13 @@
         <v>1980</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5157,7 +5180,7 @@
         <v>397</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>35</v>
@@ -5168,13 +5191,13 @@
         <v>2171</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5182,13 +5205,13 @@
         <v>1094</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>100</v>
@@ -5199,13 +5222,13 @@
         <v>1925</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:5">
@@ -5213,13 +5236,13 @@
         <v>1551</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5227,7 +5250,7 @@
         <v>1775</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>42</v>
@@ -5238,13 +5261,13 @@
         <v>179</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5252,13 +5275,13 @@
         <v>93</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5266,7 +5289,7 @@
         <v>989</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>42</v>
@@ -5277,13 +5300,13 @@
         <v>2029</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5291,13 +5314,13 @@
         <v>60</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="1:6">
@@ -5305,13 +5328,13 @@
         <v>1509</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>53</v>
@@ -5322,14 +5345,14 @@
         <v>1963</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="27" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -5338,13 +5361,13 @@
         <v>1191</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5352,34 +5375,26 @@
         <v>390</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
-        <v>766</v>
+        <v>1539</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3">
-        <v>1539</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="C22" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E21" s="21" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5442,13 +5457,13 @@
         <v>1979</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5456,7 +5471,7 @@
         <v>162</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>35</v>
@@ -5467,7 +5482,7 @@
         <v>1047</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>42</v>
@@ -5478,7 +5493,7 @@
         <v>118</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>42</v>
@@ -5489,7 +5504,7 @@
         <v>648</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>35</v>
@@ -5500,7 +5515,7 @@
         <v>1781</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>35</v>
@@ -5511,7 +5526,7 @@
         <v>326</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>42</v>
@@ -5522,13 +5537,13 @@
         <v>1408</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5536,13 +5551,13 @@
         <v>462</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5550,7 +5565,7 @@
         <v>1464</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>42</v>
@@ -5561,13 +5576,13 @@
         <v>1961</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5575,13 +5590,13 @@
         <v>1894</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:5">
@@ -5589,13 +5604,13 @@
         <v>1967</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5603,13 +5618,13 @@
         <v>539</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5617,13 +5632,13 @@
         <v>539</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5631,7 +5646,7 @@
         <v>838</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>35</v>
@@ -5642,13 +5657,13 @@
         <v>551</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5656,13 +5671,13 @@
         <v>1025</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5670,13 +5685,13 @@
         <v>1718</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5684,7 +5699,7 @@
         <v>1909</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>42</v>
@@ -5695,13 +5710,13 @@
         <v>2178</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" ht="28.5" spans="1:5">
@@ -5709,13 +5724,13 @@
         <v>502</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5723,13 +5738,13 @@
         <v>1791</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5737,13 +5752,13 @@
         <v>1154</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" ht="57" spans="1:5">
@@ -5751,13 +5766,13 @@
         <v>1253</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5765,7 +5780,7 @@
         <v>1491</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>42</v>
@@ -5776,13 +5791,13 @@
         <v>1968</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5790,7 +5805,7 @@
         <v>1021</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>42</v>
@@ -5801,13 +5816,13 @@
         <v>43</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5815,7 +5830,7 @@
         <v>2032</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
@@ -5829,13 +5844,13 @@
         <v>1103</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:5">
@@ -5843,13 +5858,13 @@
         <v>1688</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" ht="28.5" spans="1:5">
@@ -5857,13 +5872,13 @@
         <v>383</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5871,13 +5886,13 @@
         <v>357</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C36" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="37" ht="42.75" spans="1:5">
@@ -5885,13 +5900,13 @@
         <v>977</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -5899,13 +5914,13 @@
         <v>1295</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -5913,13 +5928,13 @@
         <v>1389</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -5927,7 +5942,7 @@
         <v>1503</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C40" s="32" t="s">
         <v>35</v>
@@ -5941,7 +5956,7 @@
         <v>2200</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C41" s="32" t="s">
         <v>35</v>
@@ -5955,13 +5970,13 @@
         <v>217</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -5969,13 +5984,13 @@
         <v>2239</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -5983,7 +5998,7 @@
         <v>941</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>42</v>
@@ -5997,13 +6012,13 @@
         <v>1619</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -6011,13 +6026,13 @@
         <v>1450</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -6025,13 +6040,13 @@
         <v>1929</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -6039,13 +6054,13 @@
         <v>1941</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="49" ht="57" spans="1:5">
@@ -6053,13 +6068,13 @@
         <v>443</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C49" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -6067,13 +6082,13 @@
         <v>1541</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C50" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -6081,13 +6096,13 @@
         <v>1832</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -6095,13 +6110,13 @@
         <v>999</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -6109,13 +6124,13 @@
         <v>1431</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -6123,13 +6138,13 @@
         <v>1475</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -6137,13 +6152,13 @@
         <v>884</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -6151,13 +6166,13 @@
         <v>1566</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -6165,7 +6180,7 @@
         <v>127</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>51</v>
@@ -6176,13 +6191,13 @@
         <v>1054</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C58" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -6190,7 +6205,7 @@
         <v>2154</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>42</v>
@@ -6201,13 +6216,13 @@
         <v>1550</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -6215,7 +6230,7 @@
         <v>575</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>42</v>
@@ -6226,13 +6241,13 @@
         <v>1716</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -6240,13 +6255,13 @@
         <v>1869</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64" ht="28.5" spans="1:5">
@@ -6254,13 +6269,13 @@
         <v>1638</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -6268,7 +6283,7 @@
         <v>2138</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>42</v>
@@ -6282,7 +6297,7 @@
         <v>2299</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>42</v>
@@ -6296,13 +6311,13 @@
         <v>1614</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -6310,13 +6325,13 @@
         <v>1689</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -6324,13 +6339,13 @@
         <v>1952</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" ht="42.75" spans="1:5">
@@ -6338,13 +6353,13 @@
         <v>645</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -6362,8 +6377,8 @@
   <sheetPr/>
   <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6416,7 +6431,7 @@
         <v>71</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>42</v>
@@ -6434,7 +6449,7 @@
         <v>300</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
@@ -6452,14 +6467,14 @@
         <v>486</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="21" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -6472,7 +6487,7 @@
         <v>718</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
@@ -6490,7 +6505,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>42</v>
@@ -6508,7 +6523,7 @@
         <v>674</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>42</v>
@@ -6526,7 +6541,7 @@
         <v>474</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -6537,14 +6552,14 @@
         <v>1049</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="21" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -6557,14 +6572,14 @@
         <v>221</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="21" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -6577,14 +6592,14 @@
         <v>1277</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="21" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
@@ -6597,14 +6612,14 @@
         <v>62</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="21" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -6617,14 +6632,14 @@
         <v>63</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="21" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -6637,14 +6652,14 @@
         <v>91</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="27" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -6657,7 +6672,7 @@
         <v>96</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
@@ -6675,7 +6690,7 @@
         <v>97</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
@@ -6693,14 +6708,14 @@
         <v>120</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="27" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -6713,14 +6728,14 @@
         <v>122</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="21" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -6733,14 +6748,14 @@
         <v>714</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="21" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -6753,7 +6768,7 @@
         <v>139</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
@@ -6771,7 +6786,7 @@
         <v>152</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
@@ -6789,14 +6804,14 @@
         <v>198</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="21" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -6809,14 +6824,14 @@
         <v>213</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="21" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -6857,7 +6872,7 @@
         <v>413</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
@@ -6875,14 +6890,14 @@
         <v>873</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="21" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -6895,18 +6910,18 @@
         <v>2110</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="27" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -6917,18 +6932,18 @@
         <v>813</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="27" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H30" s="32"/>
       <c r="I30" s="3"/>
@@ -6939,14 +6954,14 @@
         <v>2106</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="27" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="21"/>
@@ -6959,14 +6974,14 @@
         <v>416</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="27" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="21"/>
@@ -6979,18 +6994,18 @@
         <v>2063</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="27" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -7001,14 +7016,14 @@
         <v>698</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="27" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="21"/>
@@ -7021,14 +7036,14 @@
         <v>44</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C35" s="32" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="27" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="21"/>
@@ -7041,13 +7056,13 @@
         <v>1109</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="20"/>
@@ -7057,18 +7072,18 @@
         <v>1727</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="51" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="F37" s="59"/>
       <c r="G37" s="60" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -7079,14 +7094,14 @@
         <v>518</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="21" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
@@ -7099,14 +7114,14 @@
         <v>935</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="27" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="F39" s="27"/>
       <c r="G39" s="21"/>
@@ -7119,13 +7134,13 @@
         <v>1024</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="41" ht="42.75" spans="1:10">
@@ -7133,14 +7148,14 @@
         <v>1043</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="21" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
@@ -7153,13 +7168,13 @@
         <v>1685</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C42" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -7167,14 +7182,14 @@
         <v>1986</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C43" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="27" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -7187,14 +7202,14 @@
         <v>377</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C44" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="21" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
@@ -7207,14 +7222,14 @@
         <v>1371</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="27" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
@@ -7227,14 +7242,14 @@
         <v>650</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C46" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="21" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
@@ -7247,14 +7262,14 @@
         <v>64</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C47" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="21" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
@@ -7267,14 +7282,14 @@
         <v>279</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C48" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="27" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
@@ -7287,14 +7302,14 @@
         <v>1749</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C49" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="21" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
@@ -7307,14 +7322,14 @@
         <v>368</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="21" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
@@ -7327,13 +7342,13 @@
         <v>467</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C51" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -7341,14 +7356,14 @@
         <v>795</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C52" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="27" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
@@ -7361,14 +7376,14 @@
         <v>1186</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C53" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="21" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
@@ -7381,14 +7396,14 @@
         <v>1177</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="21" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
@@ -7401,14 +7416,14 @@
         <v>1014</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C55" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D55" s="34"/>
       <c r="E55" s="21" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="34"/>
@@ -7419,14 +7434,14 @@
         <v>2348</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C56" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="21" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
@@ -8295,7 +8310,7 @@
         <v>355</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
@@ -8308,7 +8323,7 @@
         <v>460</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>51</v>
@@ -8321,7 +8336,7 @@
         <v>622</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -8334,7 +8349,7 @@
         <v>641</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
@@ -8347,7 +8362,7 @@
         <v>705</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -8360,7 +8375,7 @@
         <v>706</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -8373,7 +8388,7 @@
         <v>707</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -8386,7 +8401,7 @@
         <v>1206</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>51</v>
@@ -8399,7 +8414,7 @@
         <v>1472</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
@@ -8412,7 +8427,7 @@
         <v>1797</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>35</v>
@@ -8423,13 +8438,13 @@
         <v>307</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -8492,13 +8507,13 @@
         <v>69</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C3" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8506,7 +8521,7 @@
         <v>633</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>42</v>
@@ -8517,7 +8532,7 @@
         <v>441</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>42</v>
@@ -8528,10 +8543,10 @@
         <v>34</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:5">
@@ -8539,10 +8554,10 @@
         <v>153</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" ht="57" spans="1:5">
@@ -8550,13 +8565,13 @@
         <v>378</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8564,13 +8579,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="27" spans="1:6">
@@ -8578,13 +8593,13 @@
         <v>1201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="F11" s="32"/>
     </row>
@@ -8593,13 +8608,13 @@
         <v>1351</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8607,13 +8622,13 @@
         <v>275</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="F13" s="56" t="s">
         <v>53</v>
@@ -8624,13 +8639,13 @@
         <v>35</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C14" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8638,13 +8653,13 @@
         <v>2300</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8652,13 +8667,13 @@
         <v>240</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -8723,7 +8738,7 @@
         <v>219</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>42</v>
@@ -8734,7 +8749,7 @@
         <v>643</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
@@ -8745,13 +8760,13 @@
         <v>1876</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8759,13 +8774,13 @@
         <v>1984</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8773,7 +8788,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -8784,7 +8799,7 @@
         <v>187</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -8795,7 +8810,7 @@
         <v>209</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -8806,13 +8821,13 @@
         <v>220</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" ht="71.25" spans="1:7">
@@ -8820,13 +8835,13 @@
         <v>395</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>100</v>
@@ -8837,13 +8852,13 @@
         <v>424</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8851,7 +8866,7 @@
         <v>438</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
@@ -8862,13 +8877,13 @@
         <v>567</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8876,13 +8891,13 @@
         <v>930</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8890,13 +8905,13 @@
         <v>978</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8904,13 +8919,13 @@
         <v>1004</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="F17" s="32"/>
     </row>
@@ -8919,13 +8934,13 @@
         <v>1052</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8933,13 +8948,13 @@
         <v>1208</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8947,13 +8962,13 @@
         <v>1234</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8961,7 +8976,7 @@
         <v>1423</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
@@ -8972,13 +8987,13 @@
         <v>1456</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="23" ht="42.75" spans="1:5">
@@ -8986,13 +9001,13 @@
         <v>1493</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -9000,13 +9015,13 @@
         <v>1658</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -9014,13 +9029,13 @@
         <v>1696</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -9028,13 +9043,13 @@
         <v>1838</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -9042,13 +9057,13 @@
         <v>2024</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:9">
@@ -9056,14 +9071,14 @@
         <v>2104</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="35" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -9075,13 +9090,13 @@
         <v>1525</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9089,7 +9104,7 @@
         <v>904</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
@@ -9100,13 +9115,13 @@
         <v>643</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="42.75" spans="1:5">
@@ -9114,13 +9129,13 @@
         <v>1248</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="33" ht="42.75" spans="1:5">
@@ -9128,13 +9143,13 @@
         <v>1234</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -9142,13 +9157,13 @@
         <v>1156</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -9211,7 +9226,7 @@
         <v>167</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -9222,12 +9237,12 @@
         <v>581</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="21" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -9236,7 +9251,7 @@
         <v>1903</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -9247,13 +9262,13 @@
         <v>234</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9261,10 +9276,10 @@
         <v>1712</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:6">
@@ -9272,14 +9287,14 @@
         <v>9</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="27" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -9288,14 +9303,14 @@
         <v>205</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="27" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -9304,14 +9319,14 @@
         <v>881</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="27" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -9320,14 +9335,14 @@
         <v>475</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="27" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -9336,14 +9351,14 @@
         <v>825</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="27" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -9352,14 +9367,14 @@
         <v>713</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="27" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -9368,14 +9383,14 @@
         <v>923</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="27" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -9384,13 +9399,13 @@
         <v>922</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -9398,14 +9413,14 @@
         <v>345</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="27" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -9414,14 +9429,14 @@
         <v>1768</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="27" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -9430,14 +9445,14 @@
         <v>165</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="21" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -9446,14 +9461,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="21" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -9462,14 +9477,14 @@
         <v>1679</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="21" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -9478,14 +9493,14 @@
         <v>392</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="21" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -9494,14 +9509,14 @@
         <v>283</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="27" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -9510,14 +9525,14 @@
         <v>1855</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="21" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -9526,14 +9541,14 @@
         <v>1662</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="21" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -9542,14 +9557,14 @@
         <v>849</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="27" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="F25" s="3"/>
     </row>
@@ -9558,14 +9573,14 @@
         <v>80</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="21" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -9861,7 +9876,7 @@
   <dimension ref="A1:XFD87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="$A10:$XFD10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.375" defaultRowHeight="14.25"/>
@@ -9908,7 +9923,7 @@
         <v>334</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>35</v>
@@ -9924,7 +9939,7 @@
         <v>1262</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
@@ -9938,14 +9953,14 @@
         <v>915</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="31" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -9956,14 +9971,14 @@
         <v>775</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="27" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
@@ -9974,7 +9989,7 @@
         <v>2177</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>35</v>
@@ -9990,7 +10005,7 @@
         <v>485</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>42</v>
@@ -10006,14 +10021,14 @@
         <v>628</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="27" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -26410,16 +26425,16 @@
         <v>495</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
@@ -26430,14 +26445,14 @@
         <v>1796</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C12" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="27" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
@@ -26448,25 +26463,33 @@
         <v>2037</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="27" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="34"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="34"/>
+    <row r="14" ht="28.5" spans="1:8">
+      <c r="A14" s="34">
+        <v>1636</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>755</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>42</v>
+      </c>
       <c r="D14" s="34"/>
-      <c r="E14" s="21"/>
+      <c r="E14" s="21" t="s">
+        <v>756</v>
+      </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -27341,13 +27364,13 @@
         <v>1590</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -27355,13 +27378,13 @@
         <v>1991</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -27369,13 +27392,13 @@
         <v>238</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -27383,7 +27406,7 @@
         <v>1652</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -27397,13 +27420,13 @@
         <v>1664</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="C9" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -27419,10 +27442,10 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -27465,13 +27488,13 @@
         <v>406</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -27479,13 +27502,13 @@
         <v>435</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -27493,13 +27516,13 @@
         <v>452</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="6" customFormat="1"/>
@@ -27508,7 +27531,7 @@
         <v>56</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -27519,13 +27542,13 @@
         <v>986</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -27533,13 +27556,13 @@
         <v>1905</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -27547,7 +27570,7 @@
         <v>840</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
@@ -27558,13 +27581,13 @@
         <v>498</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:5">
@@ -27572,13 +27595,13 @@
         <v>1162</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -27586,13 +27609,13 @@
         <v>1020</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -27600,13 +27623,13 @@
         <v>419</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:6">
@@ -27614,14 +27637,14 @@
         <v>36</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="21" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -27630,14 +27653,14 @@
         <v>646</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="27" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -27645,13 +27668,13 @@
         <v>1672</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="1:5">
@@ -27659,13 +27682,13 @@
         <v>598</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
     </row>
     <row r="19" s="33" customFormat="1" ht="28.5" spans="1:5">
@@ -27673,13 +27696,13 @@
         <v>1901</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -27687,13 +27710,13 @@
         <v>832</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -27701,13 +27724,13 @@
         <v>997</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -27715,13 +27738,13 @@
         <v>1232</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -27729,13 +27752,13 @@
         <v>1893</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -27743,13 +27766,13 @@
         <v>1337</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:5">
@@ -27757,13 +27780,13 @@
         <v>1139</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -27771,13 +27794,13 @@
         <v>519</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="27" ht="71.25" spans="1:5">
@@ -27785,13 +27808,13 @@
         <v>1504</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="28" ht="28.5" spans="1:5">
@@ -27799,13 +27822,13 @@
         <v>1282</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -27813,13 +27836,13 @@
         <v>766</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>394</v>
+        <v>809</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -27827,13 +27850,13 @@
         <v>1041</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -27841,13 +27864,13 @@
         <v>1424</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -27855,13 +27878,13 @@
         <v>1854</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -27869,13 +27892,27 @@
         <v>773</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>812</v>
+        <v>818</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>819</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -27892,8 +27929,8 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -27936,13 +27973,13 @@
         <v>318</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:5">
@@ -27950,13 +27987,13 @@
         <v>128</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:5">
@@ -27964,7 +28001,7 @@
         <v>287</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -27976,10 +28013,10 @@
         <v>1711</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="31"/>
@@ -27989,7 +28026,7 @@
         <v>692</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -28000,13 +28037,13 @@
         <v>890</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
     </row>
     <row r="9" ht="42.75" spans="1:5">
@@ -28014,13 +28051,13 @@
         <v>525</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -28028,13 +28065,13 @@
         <v>442</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -28042,13 +28079,13 @@
         <v>2085</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -28056,13 +28093,13 @@
         <v>974</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -28070,7 +28107,7 @@
         <v>2099</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
@@ -28081,13 +28118,13 @@
         <v>916</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -28095,7 +28132,7 @@
         <v>781</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="C15" s="32" t="s">
         <v>35</v>
@@ -28106,13 +28143,13 @@
         <v>523</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>836</v>
+        <v>843</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -28120,13 +28157,13 @@
         <v>1935</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -28134,13 +28171,13 @@
         <v>451</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
     </row>
     <row r="19" ht="42.75" spans="1:5">
@@ -28148,13 +28185,13 @@
         <v>1684</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="C19" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -28162,13 +28199,13 @@
         <v>1394</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="C20" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
     </row>
     <row r="21" ht="71.25" spans="1:5">
@@ -28176,13 +28213,13 @@
         <v>697</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>844</v>
+        <v>851</v>
       </c>
       <c r="C21" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>845</v>
+        <v>852</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -28190,13 +28227,13 @@
         <v>1331</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>846</v>
+        <v>853</v>
       </c>
       <c r="C22" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -28204,13 +28241,13 @@
         <v>1640</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>849</v>
+        <v>856</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -28218,13 +28255,13 @@
         <v>1481</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>851</v>
+        <v>858</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -28232,13 +28269,13 @@
         <v>1497</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>853</v>
+        <v>860</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -28246,13 +28283,13 @@
         <v>2190</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>854</v>
+        <v>861</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -28260,13 +28297,13 @@
         <v>2260</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -28274,13 +28311,13 @@
         <v>1338</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -28288,13 +28325,13 @@
         <v>888</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
     </row>
     <row r="30" ht="85.5" spans="1:5">
@@ -28302,13 +28339,13 @@
         <v>1557</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
     </row>
     <row r="31" ht="42.75" spans="1:5">
@@ -28316,13 +28353,13 @@
         <v>2248</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
     </row>
     <row r="32" ht="28.5" spans="1:5">
@@ -28330,13 +28367,13 @@
         <v>2287</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -28344,13 +28381,13 @@
         <v>532</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -28411,13 +28448,13 @@
         <v>215</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="57" spans="1:5">
@@ -28425,13 +28462,13 @@
         <v>389</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:5">
@@ -28439,13 +28476,13 @@
         <v>268</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -28453,14 +28490,14 @@
         <v>1654</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="18" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -28468,7 +28505,7 @@
         <v>1752</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -28479,13 +28516,13 @@
         <v>1812</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
     </row>
   </sheetData>
@@ -28885,10 +28922,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -29363,6 +29400,20 @@
         <v>134</v>
       </c>
     </row>
+    <row r="33" ht="57" spans="1:5">
+      <c r="A33" s="3">
+        <v>1930</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1:E1" location="主页!A1" display="主页"/>
@@ -29376,10 +29427,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -29417,13 +29468,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:4">
@@ -29431,7 +29482,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
@@ -29443,7 +29494,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -29455,13 +29506,13 @@
         <v>23</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I6" s="5"/>
     </row>
@@ -29470,7 +29521,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -29482,13 +29533,13 @@
         <v>82</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -29496,13 +29547,13 @@
         <v>83</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -29510,7 +29561,7 @@
         <v>86</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
@@ -29522,13 +29573,13 @@
         <v>92</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -29536,13 +29587,13 @@
         <v>109</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -29550,99 +29601,97 @@
         <v>114</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>154</v>
-      </c>
+      <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" ht="28.5" spans="1:4">
+      <c r="A18" s="3">
+        <v>160</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="21"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3">
-        <v>142</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" ht="28.5" spans="1:4">
+      <c r="D18" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="3">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>160</v>
-      </c>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>42</v>
@@ -29651,10 +29700,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>42</v>
@@ -29663,22 +29712,22 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3">
-        <v>237</v>
+        <v>328</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
@@ -29687,10 +29736,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
@@ -29699,62 +29748,62 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="21"/>
+      <c r="D25" s="21" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3">
-        <v>445</v>
+        <v>725</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" ht="27" spans="1:4">
       <c r="A27" s="3">
-        <v>725</v>
+        <v>876</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3">
+        <v>2095</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="21"/>
-    </row>
-    <row r="28" ht="27" spans="1:4">
-      <c r="A28" s="3">
-        <v>876</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>170</v>
-      </c>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3">
-        <v>2095</v>
+        <v>1019</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>35</v>
@@ -29763,34 +29812,33 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3">
-        <v>1019</v>
+        <v>1171</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="21"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:3">
       <c r="A31" s="3">
-        <v>1171</v>
+        <v>1669</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3">
-        <v>1669</v>
+        <v>1721</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>35</v>
@@ -29798,53 +29846,47 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3">
-        <v>1721</v>
+        <v>2130</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" s="3">
-        <v>2130</v>
+        <v>2181</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="D34" s="64" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" ht="28.5" spans="1:4">
       <c r="A35" s="3">
-        <v>2181</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>177</v>
+        <v>817</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>180</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="64" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" ht="28.5" spans="1:4">
-      <c r="A36" s="3">
-        <v>817</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="64" t="s">
-        <v>180</v>
-      </c>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3"/>
@@ -29966,13 +30008,8 @@
       <c r="B60" s="20"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="3"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:C36"/>
+  <autoFilter ref="A2:C35"/>
   <sortState ref="A3:E36">
     <sortCondition ref="C6" customList="简单，中等，困难"/>
   </sortState>
@@ -29988,10 +30025,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -30035,13 +30072,13 @@
         <v>116</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -30049,7 +30086,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
@@ -30060,7 +30097,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
@@ -30071,7 +30108,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
@@ -30082,7 +30119,7 @@
         <v>104</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -30093,7 +30130,7 @@
         <v>108</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>42</v>
@@ -30104,7 +30141,7 @@
         <v>110</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>42</v>
@@ -30115,7 +30152,7 @@
         <v>111</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>42</v>
@@ -30126,13 +30163,13 @@
         <v>112</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -30140,7 +30177,7 @@
         <v>144</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>42</v>
@@ -30151,7 +30188,7 @@
         <v>145</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
@@ -30162,7 +30199,7 @@
         <v>226</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>42</v>
@@ -30173,7 +30210,7 @@
         <v>235</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>42</v>
@@ -30184,7 +30221,7 @@
         <v>257</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>42</v>
@@ -30195,7 +30232,7 @@
         <v>404</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>42</v>
@@ -30206,7 +30243,7 @@
         <v>501</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>42</v>
@@ -30217,7 +30254,7 @@
         <v>530</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>42</v>
@@ -30228,13 +30265,13 @@
         <v>543</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -30242,13 +30279,13 @@
         <v>572</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -30256,7 +30293,7 @@
         <v>606</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>42</v>
@@ -30267,13 +30304,13 @@
         <v>617</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -30281,13 +30318,13 @@
         <v>637</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -30295,7 +30332,7 @@
         <v>653</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>42</v>
@@ -30306,7 +30343,7 @@
         <v>671</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>42</v>
@@ -30317,13 +30354,13 @@
         <v>700</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -30342,13 +30379,13 @@
         <v>783</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" ht="57" spans="1:5">
@@ -30356,13 +30393,13 @@
         <v>872</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -30370,7 +30407,7 @@
         <v>897</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>42</v>
@@ -30381,7 +30418,7 @@
         <v>938</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
@@ -30392,7 +30429,7 @@
         <v>95</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -30400,7 +30437,7 @@
         <v>96</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -30408,7 +30445,7 @@
         <v>98</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -30416,13 +30453,13 @@
         <v>102</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -30430,10 +30467,10 @@
         <v>103</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -30441,13 +30478,13 @@
         <v>105</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -30455,13 +30492,13 @@
         <v>106</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -30469,13 +30506,13 @@
         <v>1325</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -30483,14 +30520,14 @@
         <v>965</v>
       </c>
       <c r="B41" s="62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C41" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="32"/>
       <c r="E41" s="27" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" ht="28.5" spans="1:5">
@@ -30498,14 +30535,14 @@
         <v>662</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C42" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="32"/>
       <c r="E42" s="27" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -30513,14 +30550,14 @@
         <v>1104</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C43" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="21" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -30528,14 +30565,14 @@
         <v>863</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C44" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="21" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -30543,14 +30580,14 @@
         <v>2096</v>
       </c>
       <c r="B45" s="62" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="32"/>
       <c r="E45" s="21" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -30558,14 +30595,14 @@
         <v>429</v>
       </c>
       <c r="B46" s="62" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C46" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="27" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -30573,14 +30610,14 @@
         <v>331</v>
       </c>
       <c r="B47" s="62" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C47" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="49" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F47" s="32" t="s">
         <v>100</v>
@@ -30591,14 +30628,14 @@
         <v>958</v>
       </c>
       <c r="B48" s="62" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C48" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="32"/>
       <c r="E48" s="21" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -30606,14 +30643,14 @@
         <v>655</v>
       </c>
       <c r="B49" s="62" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C49" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D49" s="32"/>
       <c r="E49" s="21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -30621,14 +30658,14 @@
         <v>1008</v>
       </c>
       <c r="B50" s="62" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C50" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="32"/>
       <c r="E50" s="27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" ht="57" spans="1:5">
@@ -30636,14 +30673,14 @@
         <v>107</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C51" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D51" s="32"/>
       <c r="E51" s="27" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -30651,14 +30688,14 @@
         <v>654</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C52" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D52" s="32"/>
       <c r="E52" s="27" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" ht="42.75" spans="1:5">
@@ -30666,14 +30703,14 @@
         <v>889</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C53" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="32"/>
       <c r="E53" s="21" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -30681,14 +30718,14 @@
         <v>669</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="32"/>
       <c r="E54" s="21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" ht="57" spans="1:6">
@@ -30696,14 +30733,14 @@
         <v>236</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C55" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D55" s="32"/>
       <c r="E55" s="27" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F55" s="32" t="s">
         <v>53</v>
@@ -30714,13 +30751,13 @@
         <v>687</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -30728,13 +30765,27 @@
         <v>513</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>262</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="3">
+        <v>1448</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -30772,7 +30823,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -30852,14 +30903,14 @@
         <v>409</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="21" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
@@ -30867,14 +30918,14 @@
         <v>455</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="50" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F4" s="34"/>
     </row>
@@ -30883,14 +30934,14 @@
         <v>561</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="21" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F5" s="34"/>
     </row>
@@ -30899,14 +30950,14 @@
         <v>605</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="31" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F6" s="34"/>
     </row>
@@ -30915,14 +30966,14 @@
         <v>680</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="31" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F7" s="34"/>
     </row>
@@ -30931,14 +30982,14 @@
         <v>860</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="31" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F8" s="34"/>
     </row>
@@ -30947,14 +30998,14 @@
         <v>976</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="59" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F9" s="34"/>
     </row>
@@ -30963,14 +31014,14 @@
         <v>1005</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="21" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F10" s="34"/>
     </row>
@@ -30979,14 +31030,14 @@
         <v>1013</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="21" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F11" s="34"/>
     </row>
@@ -30995,7 +31046,7 @@
         <v>1221</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>42</v>
@@ -31011,7 +31062,7 @@
         <v>1323</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
@@ -31024,7 +31075,7 @@
         <v>1710</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>42</v>
@@ -31032,7 +31083,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="50"/>
       <c r="F14" s="3" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -31040,7 +31091,7 @@
         <v>2144</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>42</v>
@@ -31053,14 +31104,14 @@
         <v>11</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="27" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -31068,14 +31119,14 @@
         <v>45</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="31" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -31083,14 +31134,14 @@
         <v>55</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="31" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -31098,14 +31149,14 @@
         <v>122</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="21" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="1:5">
@@ -31113,14 +31164,14 @@
         <v>134</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="21" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -31128,14 +31179,14 @@
         <v>179</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="31" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -31143,14 +31194,14 @@
         <v>316</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="31" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -31158,7 +31209,7 @@
         <v>376</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
@@ -31171,14 +31222,14 @@
         <v>397</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="50" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -31186,13 +31237,13 @@
         <v>581</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -31200,7 +31251,7 @@
         <v>621</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
@@ -31211,13 +31262,13 @@
         <v>763</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="63" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -31225,14 +31276,14 @@
         <v>879</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="31" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -31240,14 +31291,14 @@
         <v>945</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="21" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -31255,7 +31306,7 @@
         <v>1011</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>35</v>
@@ -31268,13 +31319,13 @@
         <v>1647</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -31282,14 +31333,14 @@
         <v>2091</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="27" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -31297,7 +31348,7 @@
         <v>1833</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>35</v>
@@ -31310,13 +31361,13 @@
         <v>670</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="64" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F34" s="32" t="s">
         <v>100</v>
@@ -31327,14 +31378,14 @@
         <v>594</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="21" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" ht="28.5" spans="1:5">
@@ -31342,14 +31393,14 @@
         <v>1737</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="21" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" s="3" customFormat="1" spans="1:5">
@@ -31357,13 +31408,13 @@
         <v>1800</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -31371,14 +31422,14 @@
         <v>1029</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="27" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" ht="28.5" spans="1:5">
@@ -31386,14 +31437,14 @@
         <v>2090</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="21" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" ht="28.5" spans="1:5">
@@ -31401,14 +31452,14 @@
         <v>1936</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="21" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -31416,13 +31467,13 @@
         <v>2365</v>
       </c>
       <c r="B41" s="65" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:5">

--- a/leetcode/1. statistics/leetcode.xlsx
+++ b/leetcode/1. statistics/leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8535" tabRatio="1000" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="1000" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="14" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="911">
   <si>
     <t>算法大纲</t>
   </si>
@@ -619,6 +619,12 @@
     <t>验证回文串 II</t>
   </si>
   <si>
+    <t>自定义字符串排序</t>
+  </si>
+  <si>
+    <t>统计原字符串的每个字符的个数，然后根据order的顺序进行重新 排序</t>
+  </si>
+  <si>
     <t>合并两个有序链表</t>
   </si>
   <si>
@@ -1075,6 +1081,9 @@
   </si>
   <si>
     <t>深度优先搜索，很不错的题</t>
+  </si>
+  <si>
+    <t>判断根结点是否等于子结点之和</t>
   </si>
   <si>
     <t>目录</t>
@@ -1549,6 +1558,12 @@
     <t>特殊数组的特征值</t>
   </si>
   <si>
+    <t>反转两次的数字</t>
+  </si>
+  <si>
+    <t>对10取余数，判断是否为0</t>
+  </si>
+  <si>
     <t>找出数组的最大公约数</t>
   </si>
   <si>
@@ -1933,6 +1948,9 @@
   </si>
   <si>
     <t>数组计数法</t>
+  </si>
+  <si>
+    <t>旅行终点站</t>
   </si>
   <si>
     <t>爬楼梯</t>
@@ -3347,11 +3365,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3396,13 +3414,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3416,85 +3427,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3510,7 +3444,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3519,6 +3500,43 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3539,6 +3557,17 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3569,7 +3598,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3581,13 +3718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3599,31 +3730,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3635,25 +3754,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3665,85 +3766,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3787,35 +3816,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3827,6 +3827,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3869,16 +3878,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3887,131 +3916,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4774,7 +4803,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4782,7 +4811,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>51</v>
@@ -4796,7 +4825,7 @@
         <v>241</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
@@ -4810,7 +4839,7 @@
         <v>169</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>42</v>
@@ -4821,18 +4850,18 @@
         <v>14</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -4897,7 +4926,7 @@
         <v>257</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>42</v>
@@ -4909,14 +4938,14 @@
         <v>1593</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="22" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4924,14 +4953,14 @@
         <v>46</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="28" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:5">
@@ -4939,14 +4968,14 @@
         <v>1239</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="28" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4954,14 +4983,14 @@
         <v>131</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="22" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4969,14 +4998,14 @@
         <v>40</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="28" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4984,14 +5013,14 @@
         <v>216</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="28" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" ht="42.75" spans="1:6">
@@ -4999,17 +5028,17 @@
         <v>473</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="22" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:5">
@@ -5017,14 +5046,14 @@
         <v>90</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="22" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5032,14 +5061,14 @@
         <v>949</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="28" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5047,14 +5076,14 @@
         <v>77</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="22" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" ht="42.75" spans="1:5">
@@ -5062,14 +5091,14 @@
         <v>2048</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="28" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:5">
@@ -5077,13 +5106,13 @@
         <v>1443</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5149,10 +5178,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -5196,13 +5225,13 @@
         <v>204</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5210,13 +5239,13 @@
         <v>1726</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5224,13 +5253,13 @@
         <v>1980</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5238,7 +5267,7 @@
         <v>397</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>35</v>
@@ -5249,13 +5278,13 @@
         <v>2171</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5263,13 +5292,13 @@
         <v>1094</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>100</v>
@@ -5280,13 +5309,13 @@
         <v>1925</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:5">
@@ -5294,13 +5323,13 @@
         <v>1551</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5308,7 +5337,7 @@
         <v>1775</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>42</v>
@@ -5319,13 +5348,13 @@
         <v>179</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5333,13 +5362,13 @@
         <v>93</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5347,7 +5376,7 @@
         <v>989</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>42</v>
@@ -5358,13 +5387,13 @@
         <v>2029</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5372,13 +5401,13 @@
         <v>60</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="1:6">
@@ -5386,13 +5415,13 @@
         <v>1509</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F17" s="33" t="s">
         <v>53</v>
@@ -5403,14 +5432,14 @@
         <v>1963</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="28" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -5419,13 +5448,13 @@
         <v>1191</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5433,13 +5462,13 @@
         <v>390</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5447,7 +5476,7 @@
         <v>1539</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>42</v>
@@ -5461,13 +5490,13 @@
         <v>1362</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5475,13 +5504,27 @@
         <v>1608</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>382</v>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3">
+        <v>2119</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -5497,10 +5540,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -5543,13 +5586,13 @@
         <v>1979</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5557,7 +5600,7 @@
         <v>162</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>35</v>
@@ -5568,7 +5611,7 @@
         <v>1047</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>42</v>
@@ -5579,7 +5622,7 @@
         <v>118</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>42</v>
@@ -5590,7 +5633,7 @@
         <v>648</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>35</v>
@@ -5601,7 +5644,7 @@
         <v>1781</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>35</v>
@@ -5612,7 +5655,7 @@
         <v>326</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>42</v>
@@ -5623,13 +5666,13 @@
         <v>1408</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5637,13 +5680,13 @@
         <v>462</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5651,7 +5694,7 @@
         <v>1464</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>42</v>
@@ -5662,13 +5705,13 @@
         <v>1961</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5676,13 +5719,13 @@
         <v>1894</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:5">
@@ -5690,13 +5733,13 @@
         <v>1967</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5704,13 +5747,13 @@
         <v>539</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5718,13 +5761,13 @@
         <v>539</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5732,7 +5775,7 @@
         <v>838</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>35</v>
@@ -5743,13 +5786,13 @@
         <v>551</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5757,13 +5800,13 @@
         <v>1025</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5771,13 +5814,13 @@
         <v>1718</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5785,7 +5828,7 @@
         <v>1909</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>42</v>
@@ -5796,13 +5839,13 @@
         <v>2178</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" ht="28.5" spans="1:5">
@@ -5810,13 +5853,13 @@
         <v>502</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5824,13 +5867,13 @@
         <v>1791</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5838,13 +5881,13 @@
         <v>1154</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" ht="57" spans="1:5">
@@ -5852,13 +5895,13 @@
         <v>1253</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5866,7 +5909,7 @@
         <v>1491</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>42</v>
@@ -5877,13 +5920,13 @@
         <v>1968</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5891,7 +5934,7 @@
         <v>1021</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>42</v>
@@ -5902,13 +5945,13 @@
         <v>43</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5916,7 +5959,7 @@
         <v>2032</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
@@ -5930,13 +5973,13 @@
         <v>1103</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:5">
@@ -5944,13 +5987,13 @@
         <v>1688</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="35" ht="28.5" spans="1:5">
@@ -5958,13 +6001,13 @@
         <v>383</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5972,13 +6015,13 @@
         <v>357</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C36" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" ht="42.75" spans="1:5">
@@ -5986,13 +6029,13 @@
         <v>977</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6000,13 +6043,13 @@
         <v>1295</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6014,13 +6057,13 @@
         <v>1389</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -6028,7 +6071,7 @@
         <v>1503</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>35</v>
@@ -6042,7 +6085,7 @@
         <v>2200</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>35</v>
@@ -6056,13 +6099,13 @@
         <v>217</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -6070,13 +6113,13 @@
         <v>2239</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -6084,7 +6127,7 @@
         <v>941</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>42</v>
@@ -6098,13 +6141,13 @@
         <v>1619</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -6112,13 +6155,13 @@
         <v>1450</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -6126,13 +6169,13 @@
         <v>1929</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -6140,13 +6183,13 @@
         <v>1941</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="49" ht="57" spans="1:5">
@@ -6154,13 +6197,13 @@
         <v>443</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -6168,13 +6211,13 @@
         <v>1541</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -6182,13 +6225,13 @@
         <v>1832</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -6196,13 +6239,13 @@
         <v>999</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -6210,13 +6253,13 @@
         <v>1431</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -6224,13 +6267,13 @@
         <v>1475</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -6238,13 +6281,13 @@
         <v>884</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -6252,13 +6295,13 @@
         <v>1566</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -6266,7 +6309,7 @@
         <v>127</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>51</v>
@@ -6277,13 +6320,13 @@
         <v>1054</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C58" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -6291,7 +6334,7 @@
         <v>2154</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>42</v>
@@ -6302,13 +6345,13 @@
         <v>1550</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -6316,7 +6359,7 @@
         <v>575</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>42</v>
@@ -6327,13 +6370,13 @@
         <v>1716</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -6341,13 +6384,13 @@
         <v>1869</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="64" ht="28.5" spans="1:5">
@@ -6355,13 +6398,13 @@
         <v>1638</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -6369,7 +6412,7 @@
         <v>2138</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>42</v>
@@ -6383,7 +6426,7 @@
         <v>2299</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>42</v>
@@ -6397,13 +6440,13 @@
         <v>1614</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -6411,13 +6454,13 @@
         <v>1689</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -6425,13 +6468,13 @@
         <v>1952</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="70" ht="42.75" spans="1:5">
@@ -6439,13 +6482,13 @@
         <v>645</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -6453,13 +6496,24 @@
         <v>2206</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>520</v>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="3">
+        <v>1436</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6477,8 +6531,8 @@
   <sheetPr/>
   <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6531,7 +6585,7 @@
         <v>71</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>42</v>
@@ -6549,7 +6603,7 @@
         <v>300</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
@@ -6567,14 +6621,14 @@
         <v>486</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="22" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -6587,7 +6641,7 @@
         <v>718</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
@@ -6605,7 +6659,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>42</v>
@@ -6623,7 +6677,7 @@
         <v>674</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>42</v>
@@ -6641,7 +6695,7 @@
         <v>474</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -6652,14 +6706,14 @@
         <v>1049</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="22" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
@@ -6672,14 +6726,14 @@
         <v>221</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="22" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
@@ -6692,14 +6746,14 @@
         <v>1277</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="22" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
@@ -6712,14 +6766,14 @@
         <v>62</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="22" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -6732,14 +6786,14 @@
         <v>63</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="22" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -6752,14 +6806,14 @@
         <v>91</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="28" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -6772,7 +6826,7 @@
         <v>96</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
@@ -6790,7 +6844,7 @@
         <v>97</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
@@ -6808,14 +6862,14 @@
         <v>120</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="28" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -6828,14 +6882,14 @@
         <v>122</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="22" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
@@ -6848,14 +6902,14 @@
         <v>714</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="22" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
@@ -6868,7 +6922,7 @@
         <v>139</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
@@ -6886,7 +6940,7 @@
         <v>152</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
@@ -6904,14 +6958,14 @@
         <v>198</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="22" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
@@ -6924,14 +6978,14 @@
         <v>213</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="22" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
@@ -6972,7 +7026,7 @@
         <v>413</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
@@ -6990,14 +7044,14 @@
         <v>873</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="22" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
@@ -7010,18 +7064,18 @@
         <v>2110</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="28" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="28" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -7032,18 +7086,18 @@
         <v>813</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="28" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="28" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="3"/>
@@ -7054,14 +7108,14 @@
         <v>2106</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="28" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="F31" s="28"/>
       <c r="G31" s="22"/>
@@ -7074,14 +7128,14 @@
         <v>416</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="28" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" s="22"/>
@@ -7094,18 +7148,18 @@
         <v>2063</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="28" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F33" s="28"/>
       <c r="G33" s="28" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -7116,14 +7170,14 @@
         <v>698</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="28" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="22"/>
@@ -7136,14 +7190,14 @@
         <v>44</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C35" s="33" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="28" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="F35" s="28"/>
       <c r="G35" s="22"/>
@@ -7156,13 +7210,13 @@
         <v>1109</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="21"/>
@@ -7172,18 +7226,18 @@
         <v>1727</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="52" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="F37" s="60"/>
       <c r="G37" s="61" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -7194,14 +7248,14 @@
         <v>518</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="22" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
@@ -7214,14 +7268,14 @@
         <v>935</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="28" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="22"/>
@@ -7234,13 +7288,13 @@
         <v>1024</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="41" ht="42.75" spans="1:10">
@@ -7248,14 +7302,14 @@
         <v>1043</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="22" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
@@ -7268,13 +7322,13 @@
         <v>1685</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -7282,14 +7336,14 @@
         <v>1986</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="28" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
@@ -7302,14 +7356,14 @@
         <v>377</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="22" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
@@ -7322,14 +7376,14 @@
         <v>1371</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="28" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
@@ -7342,14 +7396,14 @@
         <v>650</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="22" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
@@ -7362,14 +7416,14 @@
         <v>64</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="22" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
@@ -7382,14 +7436,14 @@
         <v>279</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C48" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="28" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
@@ -7402,14 +7456,14 @@
         <v>1749</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="22" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
@@ -7422,14 +7476,14 @@
         <v>368</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="22" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
@@ -7442,13 +7496,13 @@
         <v>467</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="52" ht="57" spans="1:10">
@@ -7456,14 +7510,14 @@
         <v>795</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="28" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
@@ -7476,14 +7530,14 @@
         <v>1186</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="C53" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="22" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
@@ -7496,14 +7550,14 @@
         <v>1177</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="22" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
@@ -7516,14 +7570,14 @@
         <v>1014</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C55" s="43" t="s">
         <v>35</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="22" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
@@ -7534,14 +7588,14 @@
         <v>2348</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C56" s="43" t="s">
         <v>35</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="22" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
@@ -7554,13 +7608,13 @@
         <v>1218</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -8412,7 +8466,7 @@
         <v>355</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
@@ -8425,7 +8479,7 @@
         <v>460</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>51</v>
@@ -8438,7 +8492,7 @@
         <v>622</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -8451,7 +8505,7 @@
         <v>641</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
@@ -8464,7 +8518,7 @@
         <v>705</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -8477,7 +8531,7 @@
         <v>706</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -8490,7 +8544,7 @@
         <v>707</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -8503,7 +8557,7 @@
         <v>1206</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>51</v>
@@ -8516,7 +8570,7 @@
         <v>1472</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
@@ -8529,7 +8583,7 @@
         <v>1797</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>35</v>
@@ -8540,13 +8594,13 @@
         <v>307</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -8609,13 +8663,13 @@
         <v>69</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8623,7 +8677,7 @@
         <v>633</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>42</v>
@@ -8634,7 +8688,7 @@
         <v>441</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>42</v>
@@ -8645,10 +8699,10 @@
         <v>34</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:5">
@@ -8656,10 +8710,10 @@
         <v>153</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9" ht="57" spans="1:5">
@@ -8667,13 +8721,13 @@
         <v>378</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8681,13 +8735,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="27" spans="1:6">
@@ -8695,13 +8749,13 @@
         <v>1201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="F11" s="33"/>
     </row>
@@ -8710,13 +8764,13 @@
         <v>1351</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8724,13 +8778,13 @@
         <v>275</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="F13" s="57" t="s">
         <v>53</v>
@@ -8741,13 +8795,13 @@
         <v>35</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8755,13 +8809,13 @@
         <v>2300</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8769,13 +8823,13 @@
         <v>240</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -8840,7 +8894,7 @@
         <v>219</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>42</v>
@@ -8851,7 +8905,7 @@
         <v>643</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
@@ -8862,13 +8916,13 @@
         <v>1876</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8876,13 +8930,13 @@
         <v>1984</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8890,7 +8944,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -8901,7 +8955,7 @@
         <v>187</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -8912,7 +8966,7 @@
         <v>209</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -8923,13 +8977,13 @@
         <v>220</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" ht="71.25" spans="1:7">
@@ -8937,13 +8991,13 @@
         <v>395</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>100</v>
@@ -8954,13 +9008,13 @@
         <v>424</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8968,7 +9022,7 @@
         <v>438</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
@@ -8979,13 +9033,13 @@
         <v>567</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8993,13 +9047,13 @@
         <v>930</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9007,13 +9061,13 @@
         <v>978</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -9021,13 +9075,13 @@
         <v>1004</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="F17" s="33"/>
     </row>
@@ -9036,13 +9090,13 @@
         <v>1052</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9050,13 +9104,13 @@
         <v>1208</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9064,13 +9118,13 @@
         <v>1234</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9078,7 +9132,7 @@
         <v>1423</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
@@ -9089,13 +9143,13 @@
         <v>1456</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="23" ht="42.75" spans="1:5">
@@ -9103,13 +9157,13 @@
         <v>1493</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -9117,13 +9171,13 @@
         <v>1658</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -9131,13 +9185,13 @@
         <v>1696</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -9145,13 +9199,13 @@
         <v>1838</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -9159,13 +9213,13 @@
         <v>2024</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:9">
@@ -9173,14 +9227,14 @@
         <v>2104</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="36" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -9192,13 +9246,13 @@
         <v>1525</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9206,7 +9260,7 @@
         <v>904</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>35</v>
@@ -9217,13 +9271,13 @@
         <v>643</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="42.75" spans="1:5">
@@ -9231,13 +9285,13 @@
         <v>1248</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
     </row>
     <row r="33" ht="42.75" spans="1:5">
@@ -9245,13 +9299,13 @@
         <v>1234</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -9259,13 +9313,13 @@
         <v>1156</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="C34" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -9328,7 +9382,7 @@
         <v>167</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -9339,12 +9393,12 @@
         <v>581</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="22" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -9353,7 +9407,7 @@
         <v>1903</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -9364,13 +9418,13 @@
         <v>234</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9378,10 +9432,10 @@
         <v>1712</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:6">
@@ -9389,14 +9443,14 @@
         <v>9</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="28" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -9405,14 +9459,14 @@
         <v>205</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="28" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -9421,14 +9475,14 @@
         <v>881</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="28" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -9437,14 +9491,14 @@
         <v>475</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="28" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -9453,14 +9507,14 @@
         <v>825</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="28" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -9469,14 +9523,14 @@
         <v>713</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="28" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -9485,14 +9539,14 @@
         <v>923</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="28" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -9501,13 +9555,13 @@
         <v>922</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -9515,14 +9569,14 @@
         <v>345</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="28" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -9531,14 +9585,14 @@
         <v>1768</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="28" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -9547,14 +9601,14 @@
         <v>165</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="22" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -9563,14 +9617,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="22" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -9579,14 +9633,14 @@
         <v>1679</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="22" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -9595,14 +9649,14 @@
         <v>392</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="22" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -9611,14 +9665,14 @@
         <v>283</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="28" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -9627,14 +9681,14 @@
         <v>1855</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="22" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -9643,14 +9697,14 @@
         <v>1662</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="22" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -9659,14 +9713,14 @@
         <v>849</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="28" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="F25" s="3"/>
     </row>
@@ -9675,14 +9729,14 @@
         <v>80</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="22" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -9691,14 +9745,14 @@
         <v>16</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="22" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -10035,7 +10089,7 @@
         <v>334</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>35</v>
@@ -10051,7 +10105,7 @@
         <v>1262</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -10065,14 +10119,14 @@
         <v>915</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="32" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
@@ -10083,14 +10137,14 @@
         <v>775</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="28" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
@@ -10101,7 +10155,7 @@
         <v>2177</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>35</v>
@@ -10117,7 +10171,7 @@
         <v>485</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="C8" s="43" t="s">
         <v>42</v>
@@ -10133,14 +10187,14 @@
         <v>628</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="28" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
@@ -26537,16 +26591,16 @@
         <v>495</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
@@ -26557,14 +26611,14 @@
         <v>1796</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="28" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
@@ -26575,14 +26629,14 @@
         <v>2037</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="28" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
@@ -26593,14 +26647,14 @@
         <v>1636</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="C14" s="43" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="22" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
@@ -27476,13 +27530,13 @@
         <v>1590</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -27490,13 +27544,13 @@
         <v>1991</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -27504,13 +27558,13 @@
         <v>238</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -27518,7 +27572,7 @@
         <v>1652</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -27532,13 +27586,13 @@
         <v>1664</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -27600,13 +27654,13 @@
         <v>406</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -27614,13 +27668,13 @@
         <v>435</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -27628,13 +27682,13 @@
         <v>452</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
     </row>
     <row r="6" customFormat="1"/>
@@ -27643,7 +27697,7 @@
         <v>56</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -27654,13 +27708,13 @@
         <v>986</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -27668,13 +27722,13 @@
         <v>1905</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -27682,7 +27736,7 @@
         <v>840</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
@@ -27693,13 +27747,13 @@
         <v>498</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:5">
@@ -27707,13 +27761,13 @@
         <v>1162</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -27721,13 +27775,13 @@
         <v>1020</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -27735,13 +27789,13 @@
         <v>419</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:6">
@@ -27749,14 +27803,14 @@
         <v>36</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="22" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -27765,14 +27819,14 @@
         <v>646</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="28" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -27780,13 +27834,13 @@
         <v>1672</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
     </row>
     <row r="18" ht="28.5" spans="1:5">
@@ -27794,13 +27848,13 @@
         <v>598</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
     </row>
     <row r="19" s="34" customFormat="1" ht="28.5" spans="1:5">
@@ -27808,13 +27862,13 @@
         <v>1901</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -27822,13 +27876,13 @@
         <v>832</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -27836,13 +27890,13 @@
         <v>997</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -27850,13 +27904,13 @@
         <v>1232</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -27864,13 +27918,13 @@
         <v>1893</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -27878,13 +27932,13 @@
         <v>1337</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:5">
@@ -27892,13 +27946,13 @@
         <v>1139</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -27906,13 +27960,13 @@
         <v>519</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="27" ht="71.25" spans="1:5">
@@ -27920,13 +27974,13 @@
         <v>1504</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
     </row>
     <row r="28" ht="28.5" spans="1:5">
@@ -27934,13 +27988,13 @@
         <v>1282</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -27948,13 +28002,13 @@
         <v>766</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -27962,13 +28016,13 @@
         <v>1041</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -27976,13 +28030,13 @@
         <v>1424</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -27990,13 +28044,13 @@
         <v>1854</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -28004,13 +28058,13 @@
         <v>773</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -28018,7 +28072,7 @@
         <v>2022</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>42</v>
@@ -28085,13 +28139,13 @@
         <v>318</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:5">
@@ -28099,13 +28153,13 @@
         <v>128</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:5">
@@ -28113,7 +28167,7 @@
         <v>287</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -28125,10 +28179,10 @@
         <v>1711</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="32"/>
@@ -28138,7 +28192,7 @@
         <v>692</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -28149,13 +28203,13 @@
         <v>890</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
     </row>
     <row r="9" ht="42.75" spans="1:5">
@@ -28163,13 +28217,13 @@
         <v>525</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -28177,13 +28231,13 @@
         <v>442</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -28191,13 +28245,13 @@
         <v>2085</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -28205,13 +28259,13 @@
         <v>974</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -28219,7 +28273,7 @@
         <v>2099</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
@@ -28230,13 +28284,13 @@
         <v>916</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -28244,7 +28298,7 @@
         <v>781</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>35</v>
@@ -28255,13 +28309,13 @@
         <v>523</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -28269,13 +28323,13 @@
         <v>1935</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -28283,13 +28337,13 @@
         <v>451</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
     </row>
     <row r="19" ht="42.75" spans="1:5">
@@ -28297,13 +28351,13 @@
         <v>1684</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -28311,13 +28365,13 @@
         <v>1394</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
     </row>
     <row r="21" ht="71.25" spans="1:5">
@@ -28325,13 +28379,13 @@
         <v>697</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -28339,13 +28393,13 @@
         <v>1331</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -28353,13 +28407,13 @@
         <v>1640</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -28367,13 +28421,13 @@
         <v>1481</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -28381,13 +28435,13 @@
         <v>1497</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -28395,13 +28449,13 @@
         <v>2190</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -28409,13 +28463,13 @@
         <v>2260</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -28423,13 +28477,13 @@
         <v>1338</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -28437,13 +28491,13 @@
         <v>888</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
     </row>
     <row r="30" ht="85.5" spans="1:5">
@@ -28451,13 +28505,13 @@
         <v>1557</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
     </row>
     <row r="31" ht="42.75" spans="1:5">
@@ -28465,13 +28519,13 @@
         <v>2248</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
     </row>
     <row r="32" ht="28.5" spans="1:5">
@@ -28479,13 +28533,13 @@
         <v>2287</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -28493,13 +28547,13 @@
         <v>532</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -28507,13 +28561,13 @@
         <v>939</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
     </row>
     <row r="35" spans="1:16384">
@@ -44960,13 +45014,13 @@
         <v>215</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="57" spans="1:5">
@@ -44974,13 +45028,13 @@
         <v>389</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:5">
@@ -44988,13 +45042,13 @@
         <v>268</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -45002,14 +45056,14 @@
         <v>1654</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="18" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -45017,7 +45071,7 @@
         <v>1752</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -45028,13 +45082,13 @@
         <v>1812</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -45042,13 +45096,13 @@
         <v>969</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
     </row>
   </sheetData>
@@ -45066,8 +45120,8 @@
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -45448,10 +45502,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -45952,6 +46006,20 @@
       </c>
       <c r="E34" s="22" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="35" ht="28.5" spans="1:5">
+      <c r="A35" s="3">
+        <v>791</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -46008,13 +46076,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:4">
@@ -46022,13 +46090,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -46036,7 +46104,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -46048,13 +46116,13 @@
         <v>23</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I6" s="5"/>
     </row>
@@ -46063,7 +46131,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -46075,13 +46143,13 @@
         <v>82</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -46089,13 +46157,13 @@
         <v>83</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -46103,7 +46171,7 @@
         <v>86</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
@@ -46115,13 +46183,13 @@
         <v>92</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -46129,13 +46197,13 @@
         <v>109</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -46143,13 +46211,13 @@
         <v>114</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -46157,13 +46225,13 @@
         <v>117</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -46171,7 +46239,7 @@
         <v>138</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
@@ -46183,7 +46251,7 @@
         <v>141</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>42</v>
@@ -46195,7 +46263,7 @@
         <v>142</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
@@ -46207,13 +46275,13 @@
         <v>160</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -46221,7 +46289,7 @@
         <v>203</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>42</v>
@@ -46233,7 +46301,7 @@
         <v>206</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>42</v>
@@ -46245,7 +46313,7 @@
         <v>237</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>42</v>
@@ -46257,7 +46325,7 @@
         <v>328</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
@@ -46269,7 +46337,7 @@
         <v>382</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
@@ -46281,7 +46349,7 @@
         <v>430</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
@@ -46293,13 +46361,13 @@
         <v>445</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -46307,7 +46375,7 @@
         <v>725</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
@@ -46319,13 +46387,13 @@
         <v>876</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -46333,7 +46401,7 @@
         <v>2095</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>35</v>
@@ -46345,7 +46413,7 @@
         <v>1019</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>35</v>
@@ -46357,7 +46425,7 @@
         <v>1171</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>35</v>
@@ -46369,7 +46437,7 @@
         <v>1669</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>35</v>
@@ -46380,7 +46448,7 @@
         <v>1721</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>35</v>
@@ -46391,7 +46459,7 @@
         <v>2130</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>35</v>
@@ -46402,13 +46470,13 @@
         <v>2181</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="65" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" ht="28.5" spans="1:4">
@@ -46416,13 +46484,13 @@
         <v>817</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="65" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -46551,7 +46619,9 @@
       <c r="C60" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:C35"/>
+  <autoFilter ref="A2:C35">
+    <extLst/>
+  </autoFilter>
   <sortState ref="A3:E36">
     <sortCondition ref="C6" customList="简单，中等，困难"/>
   </sortState>
@@ -46567,10 +46637,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -46614,13 +46684,13 @@
         <v>116</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -46628,7 +46698,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
@@ -46639,7 +46709,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
@@ -46650,7 +46720,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
@@ -46661,7 +46731,7 @@
         <v>104</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -46672,7 +46742,7 @@
         <v>108</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>42</v>
@@ -46683,7 +46753,7 @@
         <v>110</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>42</v>
@@ -46694,7 +46764,7 @@
         <v>111</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>42</v>
@@ -46705,13 +46775,13 @@
         <v>112</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -46719,7 +46789,7 @@
         <v>144</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>42</v>
@@ -46730,7 +46800,7 @@
         <v>145</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
@@ -46741,7 +46811,7 @@
         <v>226</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>42</v>
@@ -46752,7 +46822,7 @@
         <v>235</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>42</v>
@@ -46763,7 +46833,7 @@
         <v>257</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>42</v>
@@ -46774,7 +46844,7 @@
         <v>404</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>42</v>
@@ -46785,7 +46855,7 @@
         <v>501</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>42</v>
@@ -46796,7 +46866,7 @@
         <v>530</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>42</v>
@@ -46807,13 +46877,13 @@
         <v>543</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -46821,13 +46891,13 @@
         <v>572</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -46835,7 +46905,7 @@
         <v>606</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>42</v>
@@ -46846,13 +46916,13 @@
         <v>617</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -46860,13 +46930,13 @@
         <v>637</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -46874,7 +46944,7 @@
         <v>653</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>42</v>
@@ -46885,7 +46955,7 @@
         <v>671</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>42</v>
@@ -46896,13 +46966,13 @@
         <v>700</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -46921,13 +46991,13 @@
         <v>783</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" ht="57" spans="1:5">
@@ -46935,13 +47005,13 @@
         <v>872</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -46949,7 +47019,7 @@
         <v>897</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>42</v>
@@ -46960,7 +47030,7 @@
         <v>938</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
@@ -46971,7 +47041,7 @@
         <v>95</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -46979,7 +47049,7 @@
         <v>96</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -46987,7 +47057,7 @@
         <v>98</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -46995,13 +47065,13 @@
         <v>102</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -47009,10 +47079,10 @@
         <v>103</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -47020,13 +47090,13 @@
         <v>105</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -47034,13 +47104,13 @@
         <v>106</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -47048,13 +47118,13 @@
         <v>1325</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -47062,14 +47132,14 @@
         <v>965</v>
       </c>
       <c r="B41" s="63" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="33"/>
       <c r="E41" s="28" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" ht="28.5" spans="1:5">
@@ -47077,14 +47147,14 @@
         <v>662</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="33"/>
       <c r="E42" s="28" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -47092,14 +47162,14 @@
         <v>1104</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="33"/>
       <c r="E43" s="22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -47107,14 +47177,14 @@
         <v>863</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="33"/>
       <c r="E44" s="22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -47122,14 +47192,14 @@
         <v>2096</v>
       </c>
       <c r="B45" s="63" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="33"/>
       <c r="E45" s="22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -47137,14 +47207,14 @@
         <v>429</v>
       </c>
       <c r="B46" s="63" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D46" s="33"/>
       <c r="E46" s="28" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -47152,14 +47222,14 @@
         <v>331</v>
       </c>
       <c r="B47" s="63" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="33"/>
       <c r="E47" s="50" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F47" s="33" t="s">
         <v>100</v>
@@ -47170,14 +47240,14 @@
         <v>958</v>
       </c>
       <c r="B48" s="63" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C48" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="33"/>
       <c r="E48" s="22" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -47185,14 +47255,14 @@
         <v>655</v>
       </c>
       <c r="B49" s="63" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D49" s="33"/>
       <c r="E49" s="22" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -47200,14 +47270,14 @@
         <v>1008</v>
       </c>
       <c r="B50" s="63" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="33"/>
       <c r="E50" s="28" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" ht="57" spans="1:5">
@@ -47215,14 +47285,14 @@
         <v>107</v>
       </c>
       <c r="B51" s="63" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D51" s="33"/>
       <c r="E51" s="28" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -47230,14 +47300,14 @@
         <v>654</v>
       </c>
       <c r="B52" s="63" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D52" s="33"/>
       <c r="E52" s="28" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" ht="42.75" spans="1:5">
@@ -47245,14 +47315,14 @@
         <v>889</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C53" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="33"/>
       <c r="E53" s="22" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -47260,14 +47330,14 @@
         <v>669</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="33"/>
       <c r="E54" s="22" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" ht="57" spans="1:6">
@@ -47275,14 +47345,14 @@
         <v>236</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C55" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D55" s="33"/>
       <c r="E55" s="28" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F55" s="33" t="s">
         <v>53</v>
@@ -47293,13 +47363,13 @@
         <v>687</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -47307,13 +47377,13 @@
         <v>513</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -47321,13 +47391,27 @@
         <v>1448</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>268</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="3">
+        <v>2236</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -47365,7 +47449,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -47445,14 +47529,14 @@
         <v>409</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="22" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
@@ -47460,14 +47544,14 @@
         <v>455</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="51" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F4" s="35"/>
     </row>
@@ -47476,14 +47560,14 @@
         <v>561</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="22" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F5" s="35"/>
     </row>
@@ -47492,14 +47576,14 @@
         <v>605</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="32" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F6" s="35"/>
     </row>
@@ -47508,14 +47592,14 @@
         <v>680</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="32" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F7" s="35"/>
     </row>
@@ -47524,14 +47608,14 @@
         <v>860</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="32" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F8" s="35"/>
     </row>
@@ -47540,14 +47624,14 @@
         <v>976</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="60" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F9" s="35"/>
     </row>
@@ -47556,14 +47640,14 @@
         <v>1005</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="22" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F10" s="35"/>
     </row>
@@ -47572,14 +47656,14 @@
         <v>1013</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="22" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F11" s="35"/>
     </row>
@@ -47588,7 +47672,7 @@
         <v>1221</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>42</v>
@@ -47604,7 +47688,7 @@
         <v>1323</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
@@ -47617,7 +47701,7 @@
         <v>1710</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>42</v>
@@ -47625,7 +47709,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="51"/>
       <c r="F14" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -47633,7 +47717,7 @@
         <v>2144</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>42</v>
@@ -47646,14 +47730,14 @@
         <v>11</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="28" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -47661,14 +47745,14 @@
         <v>45</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="32" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -47676,14 +47760,14 @@
         <v>55</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="32" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -47691,14 +47775,14 @@
         <v>122</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="22" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="1:5">
@@ -47706,14 +47790,14 @@
         <v>134</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="22" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -47721,14 +47805,14 @@
         <v>179</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="32" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -47736,14 +47820,14 @@
         <v>316</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="32" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -47751,7 +47835,7 @@
         <v>376</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
@@ -47764,14 +47848,14 @@
         <v>397</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="51" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -47779,13 +47863,13 @@
         <v>581</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -47793,7 +47877,7 @@
         <v>621</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
@@ -47804,13 +47888,13 @@
         <v>763</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -47818,14 +47902,14 @@
         <v>879</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="32" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -47833,14 +47917,14 @@
         <v>945</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="22" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -47848,7 +47932,7 @@
         <v>1011</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>35</v>
@@ -47861,13 +47945,13 @@
         <v>1647</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -47875,14 +47959,14 @@
         <v>2091</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="28" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -47890,7 +47974,7 @@
         <v>1833</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>35</v>
@@ -47903,13 +47987,13 @@
         <v>670</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="65" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F34" s="33" t="s">
         <v>100</v>
@@ -47920,14 +48004,14 @@
         <v>594</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="22" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" ht="28.5" spans="1:5">
@@ -47935,14 +48019,14 @@
         <v>1737</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="22" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" s="3" customFormat="1" spans="1:5">
@@ -47950,13 +48034,13 @@
         <v>1800</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -47964,14 +48048,14 @@
         <v>1029</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="28" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" ht="28.5" spans="1:5">
@@ -47979,14 +48063,14 @@
         <v>2090</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="22" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" ht="28.5" spans="1:5">
@@ -47994,14 +48078,14 @@
         <v>1936</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="22" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -48009,13 +48093,13 @@
         <v>2365</v>
       </c>
       <c r="B41" s="66" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" ht="28.5" spans="1:5">
@@ -48023,14 +48107,14 @@
         <v>1946</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="22" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="1:5">

--- a/leetcode/1. statistics/leetcode.xlsx
+++ b/leetcode/1. statistics/leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="1000" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12420" tabRatio="1000" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="14" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="935">
   <si>
     <t>算法大纲</t>
   </si>
@@ -1328,40 +1328,109 @@
     <t>·</t>
   </si>
   <si>
+    <t>电话号码的字母组合</t>
+  </si>
+  <si>
+    <t>回溯+灵活应用</t>
+  </si>
+  <si>
+    <t>经典</t>
+  </si>
+  <si>
+    <t>括号生成</t>
+  </si>
+  <si>
+    <t>组合总和</t>
+  </si>
+  <si>
+    <t>回溯+元素重复使用</t>
+  </si>
+  <si>
+    <t>组合总和 II</t>
+  </si>
+  <si>
+    <t>排序+去重+回溯</t>
+  </si>
+  <si>
+    <t>经典（推荐多做几遍）</t>
+  </si>
+  <si>
+    <t>全排列</t>
+  </si>
+  <si>
+    <t>回溯+剪枝</t>
+  </si>
+  <si>
+    <t>全排列 II</t>
+  </si>
+  <si>
+    <t>回溯+剪枝+去除使用元素</t>
+  </si>
+  <si>
+    <t>经典（剪枝会有一定的难度）</t>
+  </si>
+  <si>
+    <t>N 皇后</t>
+  </si>
+  <si>
+    <t>暂时不想做</t>
+  </si>
+  <si>
+    <t>组合</t>
+  </si>
+  <si>
+    <t>基本回溯</t>
+  </si>
+  <si>
+    <t>子集</t>
+  </si>
+  <si>
+    <t>最简单的回溯</t>
+  </si>
+  <si>
+    <t>子集 II</t>
+  </si>
+  <si>
+    <t>类似40题</t>
+  </si>
+  <si>
+    <t>分割回文串</t>
+  </si>
+  <si>
+    <t>回溯+灵活应用（字符串分割）</t>
+  </si>
+  <si>
+    <t>牛逼</t>
+  </si>
+  <si>
+    <t>单词拆分 II</t>
+  </si>
+  <si>
+    <t>还没有仔细看</t>
+  </si>
+  <si>
+    <t>单词搜索 II</t>
+  </si>
+  <si>
+    <t>组合总和 III</t>
+  </si>
+  <si>
+    <t>9个数字凑成目标和的不同组合</t>
+  </si>
+  <si>
+    <t>回溯，但整体与树的深度优先便利十分相似</t>
+  </si>
+  <si>
     <t>拆分字符串使唯一子字符串的数目最大</t>
   </si>
   <si>
     <t>回溯+字符串，动态获取结果</t>
   </si>
   <si>
-    <t>全排列</t>
-  </si>
-  <si>
-    <t>无重复字符串</t>
-  </si>
-  <si>
     <t>串联字符串的最大长度</t>
   </si>
   <si>
     <t>虽然用自己的回溯解出来了，但是效率相對有一點點低</t>
-  </si>
-  <si>
-    <t>分割回文串</t>
-  </si>
-  <si>
-    <t>字符 + 回溯</t>
-  </si>
-  <si>
-    <t>组合总和 II</t>
-  </si>
-  <si>
-    <t>排序+去重+回溯</t>
-  </si>
-  <si>
-    <t>组合总和 III</t>
-  </si>
-  <si>
-    <t>9个数字凑成目标和的不同组合</t>
   </si>
   <si>
     <t>火柴拼正方形</t>
@@ -1375,23 +1444,10 @@
     <t>很重要的一种回溯类型</t>
   </si>
   <si>
-    <t>子集 II</t>
-  </si>
-  <si>
-    <t>解法：
-1. 回溯+剪枝（去重）</t>
-  </si>
-  <si>
     <t>给定数字能组成的最大时间</t>
   </si>
   <si>
     <t>回溯+条件选择</t>
-  </si>
-  <si>
-    <t>组合</t>
-  </si>
-  <si>
-    <t>基本回溯</t>
   </si>
   <si>
     <t>下一个更大的数值平衡数</t>
@@ -2914,6 +2970,15 @@
     <t>用最少数量的箭引爆气球</t>
   </si>
   <si>
+    <t>单词搜索</t>
+  </si>
+  <si>
+    <t>图的DFS算法</t>
+  </si>
+  <si>
+    <t>经典的DFS</t>
+  </si>
+  <si>
     <t>合并区间</t>
   </si>
   <si>
@@ -3357,6 +3422,12 @@
   </si>
   <si>
     <t>恶心的排序</t>
+  </si>
+  <si>
+    <t>格雷编码</t>
+  </si>
+  <si>
+    <t>没看懂</t>
   </si>
 </sst>
 </file>
@@ -3560,12 +3631,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4336,7 +4407,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4589,7 +4660,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -4876,10 +4947,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -4921,239 +4992,355 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
-        <v>257</v>
+        <v>17</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>349</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="3">
-        <v>1593</v>
+        <v>22</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="22" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3">
-        <v>46</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>351</v>
+        <v>39</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>353</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="28" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="6" ht="28.5" spans="1:5">
+      <c r="E5" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3">
-        <v>1239</v>
+        <v>40</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="28" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>356</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
-        <v>131</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>355</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>358</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="22" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="28" t="s">
-        <v>358</v>
+        <v>361</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
-        <v>216</v>
+        <v>51</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="28" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="10" ht="42.75" spans="1:6">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="3">
-        <v>473</v>
+        <v>77</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="F10" s="63" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="11" ht="28.5" spans="1:5">
+        <v>366</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="3">
-        <v>90</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>364</v>
+        <v>78</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>367</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="22" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="3">
-        <v>949</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>366</v>
+        <v>90</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>369</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="28" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>356</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="3">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="22" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="14" ht="42.75" spans="1:5">
+        <v>372</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
-        <v>2048</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>370</v>
+        <v>140</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>374</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="28" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:5">
+      <c r="E14" s="22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
+        <v>212</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
+        <v>216</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="28" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3">
+        <v>257</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3">
+        <v>1593</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="1:5">
+      <c r="A19" s="3">
+        <v>1239</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="28" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="20" ht="42.75" spans="1:6">
+      <c r="A20" s="3">
+        <v>473</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3">
+        <v>949</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="28" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" ht="42.75" spans="1:5">
+      <c r="A22" s="3">
+        <v>2048</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="28" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:5">
+      <c r="A23" s="3">
         <v>1443</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B23" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="E23" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3"/>
@@ -5164,6 +5351,46 @@
       <c r="A25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5180,8 +5407,8 @@
   <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -5225,13 +5452,13 @@
         <v>204</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5239,13 +5466,13 @@
         <v>1726</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5253,13 +5480,13 @@
         <v>1980</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5278,13 +5505,13 @@
         <v>2171</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5292,13 +5519,13 @@
         <v>1094</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>100</v>
@@ -5309,13 +5536,13 @@
         <v>1925</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:5">
@@ -5323,13 +5550,13 @@
         <v>1551</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5337,7 +5564,7 @@
         <v>1775</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>42</v>
@@ -5354,7 +5581,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5362,13 +5589,13 @@
         <v>93</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5376,7 +5603,7 @@
         <v>989</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>42</v>
@@ -5387,13 +5614,13 @@
         <v>2029</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5401,13 +5628,13 @@
         <v>60</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="1:6">
@@ -5415,13 +5642,13 @@
         <v>1509</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="F17" s="33" t="s">
         <v>53</v>
@@ -5432,14 +5659,14 @@
         <v>1963</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="28" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -5448,13 +5675,13 @@
         <v>1191</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5462,13 +5689,13 @@
         <v>390</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5476,7 +5703,7 @@
         <v>1539</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>42</v>
@@ -5490,13 +5717,13 @@
         <v>1362</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5504,13 +5731,13 @@
         <v>1608</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5518,13 +5745,13 @@
         <v>2119</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -5586,13 +5813,13 @@
         <v>1979</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5600,7 +5827,7 @@
         <v>162</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>35</v>
@@ -5611,7 +5838,7 @@
         <v>1047</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>42</v>
@@ -5622,7 +5849,7 @@
         <v>118</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>42</v>
@@ -5633,7 +5860,7 @@
         <v>648</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>35</v>
@@ -5644,7 +5871,7 @@
         <v>1781</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>35</v>
@@ -5655,7 +5882,7 @@
         <v>326</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>42</v>
@@ -5666,13 +5893,13 @@
         <v>1408</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5680,13 +5907,13 @@
         <v>462</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5694,7 +5921,7 @@
         <v>1464</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>42</v>
@@ -5705,13 +5932,13 @@
         <v>1961</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5719,13 +5946,13 @@
         <v>1894</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:5">
@@ -5733,13 +5960,13 @@
         <v>1967</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5747,13 +5974,13 @@
         <v>539</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5761,13 +5988,13 @@
         <v>539</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5775,7 +6002,7 @@
         <v>838</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>35</v>
@@ -5786,13 +6013,13 @@
         <v>551</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5800,13 +6027,13 @@
         <v>1025</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5814,13 +6041,13 @@
         <v>1718</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5828,7 +6055,7 @@
         <v>1909</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>42</v>
@@ -5839,13 +6066,13 @@
         <v>2178</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" ht="28.5" spans="1:5">
@@ -5853,13 +6080,13 @@
         <v>502</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5867,13 +6094,13 @@
         <v>1791</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5881,13 +6108,13 @@
         <v>1154</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" ht="57" spans="1:5">
@@ -5895,13 +6122,13 @@
         <v>1253</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5909,7 +6136,7 @@
         <v>1491</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>42</v>
@@ -5920,13 +6147,13 @@
         <v>1968</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5934,7 +6161,7 @@
         <v>1021</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>42</v>
@@ -5945,13 +6172,13 @@
         <v>43</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5959,7 +6186,7 @@
         <v>2032</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
@@ -5973,13 +6200,13 @@
         <v>1103</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:5">
@@ -5987,13 +6214,13 @@
         <v>1688</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" ht="28.5" spans="1:5">
@@ -6001,13 +6228,13 @@
         <v>383</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6015,13 +6242,13 @@
         <v>357</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="C36" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" ht="42.75" spans="1:5">
@@ -6029,13 +6256,13 @@
         <v>977</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6043,13 +6270,13 @@
         <v>1295</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6057,13 +6284,13 @@
         <v>1389</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -6071,7 +6298,7 @@
         <v>1503</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>35</v>
@@ -6085,7 +6312,7 @@
         <v>2200</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>35</v>
@@ -6099,13 +6326,13 @@
         <v>217</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -6113,13 +6340,13 @@
         <v>2239</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -6127,7 +6354,7 @@
         <v>941</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>42</v>
@@ -6141,13 +6368,13 @@
         <v>1619</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -6155,13 +6382,13 @@
         <v>1450</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -6169,13 +6396,13 @@
         <v>1929</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -6183,13 +6410,13 @@
         <v>1941</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" ht="57" spans="1:5">
@@ -6197,13 +6424,13 @@
         <v>443</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -6211,13 +6438,13 @@
         <v>1541</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -6225,13 +6452,13 @@
         <v>1832</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -6239,13 +6466,13 @@
         <v>999</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -6253,13 +6480,13 @@
         <v>1431</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -6267,13 +6494,13 @@
         <v>1475</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -6281,13 +6508,13 @@
         <v>884</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -6295,13 +6522,13 @@
         <v>1566</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -6309,7 +6536,7 @@
         <v>127</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>51</v>
@@ -6320,13 +6547,13 @@
         <v>1054</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="C58" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -6334,7 +6561,7 @@
         <v>2154</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>42</v>
@@ -6345,13 +6572,13 @@
         <v>1550</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -6359,7 +6586,7 @@
         <v>575</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>42</v>
@@ -6370,13 +6597,13 @@
         <v>1716</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -6384,13 +6611,13 @@
         <v>1869</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" ht="28.5" spans="1:5">
@@ -6398,13 +6625,13 @@
         <v>1638</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -6412,7 +6639,7 @@
         <v>2138</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>42</v>
@@ -6426,7 +6653,7 @@
         <v>2299</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>42</v>
@@ -6440,13 +6667,13 @@
         <v>1614</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -6454,13 +6681,13 @@
         <v>1689</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -6468,13 +6695,13 @@
         <v>1952</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
     </row>
     <row r="70" ht="42.75" spans="1:5">
@@ -6482,13 +6709,13 @@
         <v>645</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -6496,13 +6723,13 @@
         <v>2206</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -6510,7 +6737,7 @@
         <v>1436</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>42</v>
@@ -6585,7 +6812,7 @@
         <v>71</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>42</v>
@@ -6603,7 +6830,7 @@
         <v>300</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
@@ -6621,14 +6848,14 @@
         <v>486</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="22" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
@@ -6641,7 +6868,7 @@
         <v>718</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
@@ -6659,7 +6886,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>42</v>
@@ -6677,7 +6904,7 @@
         <v>674</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>42</v>
@@ -6695,7 +6922,7 @@
         <v>474</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -6706,14 +6933,14 @@
         <v>1049</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="22" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
@@ -6726,14 +6953,14 @@
         <v>221</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="22" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
@@ -6746,14 +6973,14 @@
         <v>1277</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="22" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
@@ -6766,14 +6993,14 @@
         <v>62</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="22" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -6786,14 +7013,14 @@
         <v>63</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="22" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -6806,14 +7033,14 @@
         <v>91</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="28" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -6844,7 +7071,7 @@
         <v>97</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
@@ -6862,14 +7089,14 @@
         <v>120</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="28" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -6889,7 +7116,7 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="22" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
@@ -6902,14 +7129,14 @@
         <v>714</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="22" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
@@ -6922,7 +7149,7 @@
         <v>139</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
@@ -6940,7 +7167,7 @@
         <v>152</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
@@ -6958,14 +7185,14 @@
         <v>198</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="22" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
@@ -6978,14 +7205,14 @@
         <v>213</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="22" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
@@ -7026,7 +7253,7 @@
         <v>413</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
@@ -7044,14 +7271,14 @@
         <v>873</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="22" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
@@ -7064,18 +7291,18 @@
         <v>2110</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="28" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="28" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -7086,18 +7313,18 @@
         <v>813</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="28" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="28" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="3"/>
@@ -7108,14 +7335,14 @@
         <v>2106</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="28" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="F31" s="28"/>
       <c r="G31" s="22"/>
@@ -7128,14 +7355,14 @@
         <v>416</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="28" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" s="22"/>
@@ -7148,18 +7375,18 @@
         <v>2063</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="28" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="F33" s="28"/>
       <c r="G33" s="28" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -7170,14 +7397,14 @@
         <v>698</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="28" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="22"/>
@@ -7190,14 +7417,14 @@
         <v>44</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="C35" s="33" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="28" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="F35" s="28"/>
       <c r="G35" s="22"/>
@@ -7210,13 +7437,13 @@
         <v>1109</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="21"/>
@@ -7226,18 +7453,18 @@
         <v>1727</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="52" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="F37" s="60"/>
       <c r="G37" s="61" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -7248,14 +7475,14 @@
         <v>518</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="22" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
@@ -7268,14 +7495,14 @@
         <v>935</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="28" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="22"/>
@@ -7288,13 +7515,13 @@
         <v>1024</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
     </row>
     <row r="41" ht="42.75" spans="1:10">
@@ -7302,14 +7529,14 @@
         <v>1043</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="22" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
@@ -7322,13 +7549,13 @@
         <v>1685</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -7336,14 +7563,14 @@
         <v>1986</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="28" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
@@ -7356,14 +7583,14 @@
         <v>377</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="22" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
@@ -7376,14 +7603,14 @@
         <v>1371</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="28" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
@@ -7396,14 +7623,14 @@
         <v>650</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>596</v>
+        <v>615</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="22" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
@@ -7416,14 +7643,14 @@
         <v>64</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="22" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
@@ -7436,14 +7663,14 @@
         <v>279</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="C48" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="28" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
@@ -7456,14 +7683,14 @@
         <v>1749</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="22" t="s">
-        <v>603</v>
+        <v>622</v>
       </c>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
@@ -7476,14 +7703,14 @@
         <v>368</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="22" t="s">
-        <v>605</v>
+        <v>624</v>
       </c>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
@@ -7496,13 +7723,13 @@
         <v>467</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>607</v>
+        <v>626</v>
       </c>
     </row>
     <row r="52" ht="57" spans="1:10">
@@ -7510,14 +7737,14 @@
         <v>795</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="28" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
@@ -7530,14 +7757,14 @@
         <v>1186</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="C53" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="22" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
@@ -7550,14 +7777,14 @@
         <v>1177</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="22" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
@@ -7570,14 +7797,14 @@
         <v>1014</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="C55" s="43" t="s">
         <v>35</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="22" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
@@ -7588,14 +7815,14 @@
         <v>2348</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="C56" s="43" t="s">
         <v>35</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="22" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
@@ -7608,13 +7835,13 @@
         <v>1218</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -8466,7 +8693,7 @@
         <v>355</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
@@ -8479,7 +8706,7 @@
         <v>460</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>51</v>
@@ -8492,7 +8719,7 @@
         <v>622</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -8505,7 +8732,7 @@
         <v>641</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
@@ -8518,7 +8745,7 @@
         <v>705</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -8531,7 +8758,7 @@
         <v>706</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -8544,7 +8771,7 @@
         <v>707</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -8557,7 +8784,7 @@
         <v>1206</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>51</v>
@@ -8570,7 +8797,7 @@
         <v>1472</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
@@ -8583,7 +8810,7 @@
         <v>1797</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>35</v>
@@ -8594,13 +8821,13 @@
         <v>307</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -8663,13 +8890,13 @@
         <v>69</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>633</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8677,7 +8904,7 @@
         <v>633</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>42</v>
@@ -8688,7 +8915,7 @@
         <v>441</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>635</v>
+        <v>654</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>42</v>
@@ -8699,10 +8926,10 @@
         <v>34</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>636</v>
+        <v>655</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>637</v>
+        <v>656</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:5">
@@ -8710,10 +8937,10 @@
         <v>153</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
     </row>
     <row r="9" ht="57" spans="1:5">
@@ -8721,13 +8948,13 @@
         <v>378</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8735,13 +8962,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>643</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="27" spans="1:6">
@@ -8749,13 +8976,13 @@
         <v>1201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="F11" s="33"/>
     </row>
@@ -8764,13 +8991,13 @@
         <v>1351</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>647</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8778,13 +9005,13 @@
         <v>275</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>647</v>
+        <v>666</v>
       </c>
       <c r="F13" s="57" t="s">
         <v>53</v>
@@ -8795,13 +9022,13 @@
         <v>35</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>42</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8809,13 +9036,13 @@
         <v>2300</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8823,13 +9050,13 @@
         <v>240</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -8894,7 +9121,7 @@
         <v>219</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>42</v>
@@ -8905,7 +9132,7 @@
         <v>643</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
@@ -8916,13 +9143,13 @@
         <v>1876</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8930,13 +9157,13 @@
         <v>1984</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8944,7 +9171,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -8955,7 +9182,7 @@
         <v>187</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
@@ -8966,7 +9193,7 @@
         <v>209</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
@@ -8977,13 +9204,13 @@
         <v>220</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" ht="71.25" spans="1:7">
@@ -8991,13 +9218,13 @@
         <v>395</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>100</v>
@@ -9008,13 +9235,13 @@
         <v>424</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -9022,7 +9249,7 @@
         <v>438</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
@@ -9033,13 +9260,13 @@
         <v>567</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9047,13 +9274,13 @@
         <v>930</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9061,13 +9288,13 @@
         <v>978</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -9075,13 +9302,13 @@
         <v>1004</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="F17" s="33"/>
     </row>
@@ -9090,13 +9317,13 @@
         <v>1052</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9104,13 +9331,13 @@
         <v>1208</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9118,13 +9345,13 @@
         <v>1234</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9132,7 +9359,7 @@
         <v>1423</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
@@ -9143,13 +9370,13 @@
         <v>1456</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>687</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" ht="42.75" spans="1:5">
@@ -9157,13 +9384,13 @@
         <v>1493</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -9171,13 +9398,13 @@
         <v>1658</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>690</v>
+        <v>709</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>691</v>
+        <v>710</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -9185,13 +9412,13 @@
         <v>1696</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>692</v>
+        <v>711</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>693</v>
+        <v>712</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -9199,13 +9426,13 @@
         <v>1838</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>694</v>
+        <v>713</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>695</v>
+        <v>714</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -9213,13 +9440,13 @@
         <v>2024</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>696</v>
+        <v>715</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>697</v>
+        <v>716</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:9">
@@ -9227,14 +9454,14 @@
         <v>2104</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="36" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -9246,13 +9473,13 @@
         <v>1525</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9260,7 +9487,7 @@
         <v>904</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>35</v>
@@ -9271,13 +9498,13 @@
         <v>643</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>704</v>
+        <v>723</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="42.75" spans="1:5">
@@ -9285,13 +9512,13 @@
         <v>1248</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
     </row>
     <row r="33" ht="42.75" spans="1:5">
@@ -9299,13 +9526,13 @@
         <v>1234</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>707</v>
+        <v>726</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -9313,13 +9540,13 @@
         <v>1156</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>708</v>
+        <v>727</v>
       </c>
       <c r="C34" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -9382,7 +9609,7 @@
         <v>167</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -9398,7 +9625,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="22" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -9407,7 +9634,7 @@
         <v>1903</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -9418,13 +9645,13 @@
         <v>234</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9432,10 +9659,10 @@
         <v>1712</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>715</v>
+        <v>734</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:6">
@@ -9443,14 +9670,14 @@
         <v>9</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>717</v>
+        <v>736</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="28" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -9459,14 +9686,14 @@
         <v>205</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="28" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -9475,14 +9702,14 @@
         <v>881</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>721</v>
+        <v>740</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="28" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -9491,14 +9718,14 @@
         <v>475</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="28" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -9507,14 +9734,14 @@
         <v>825</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>725</v>
+        <v>744</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="28" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -9523,14 +9750,14 @@
         <v>713</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="28" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -9539,14 +9766,14 @@
         <v>923</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="28" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -9555,13 +9782,13 @@
         <v>922</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -9569,14 +9796,14 @@
         <v>345</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="28" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -9585,14 +9812,14 @@
         <v>1768</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>735</v>
+        <v>754</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="28" t="s">
-        <v>736</v>
+        <v>755</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -9601,14 +9828,14 @@
         <v>165</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>737</v>
+        <v>756</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="22" t="s">
-        <v>738</v>
+        <v>757</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -9617,14 +9844,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>739</v>
+        <v>758</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="22" t="s">
-        <v>740</v>
+        <v>759</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -9633,14 +9860,14 @@
         <v>1679</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>741</v>
+        <v>760</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="22" t="s">
-        <v>742</v>
+        <v>761</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -9649,14 +9876,14 @@
         <v>392</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>743</v>
+        <v>762</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="22" t="s">
-        <v>744</v>
+        <v>763</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -9665,14 +9892,14 @@
         <v>283</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>745</v>
+        <v>764</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="28" t="s">
-        <v>746</v>
+        <v>765</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -9681,14 +9908,14 @@
         <v>1855</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="22" t="s">
-        <v>748</v>
+        <v>767</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -9697,14 +9924,14 @@
         <v>1662</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="22" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -9713,14 +9940,14 @@
         <v>849</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="28" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="F25" s="3"/>
     </row>
@@ -9729,14 +9956,14 @@
         <v>80</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="22" t="s">
-        <v>754</v>
+        <v>773</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -9745,14 +9972,14 @@
         <v>16</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>755</v>
+        <v>774</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="22" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -10089,7 +10316,7 @@
         <v>334</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>757</v>
+        <v>776</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>35</v>
@@ -10105,7 +10332,7 @@
         <v>1262</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>758</v>
+        <v>777</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -10119,14 +10346,14 @@
         <v>915</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="32" t="s">
-        <v>760</v>
+        <v>779</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
@@ -10137,14 +10364,14 @@
         <v>775</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>761</v>
+        <v>780</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="28" t="s">
-        <v>762</v>
+        <v>781</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
@@ -10155,7 +10382,7 @@
         <v>2177</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>763</v>
+        <v>782</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>35</v>
@@ -10171,7 +10398,7 @@
         <v>485</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>764</v>
+        <v>783</v>
       </c>
       <c r="C8" s="43" t="s">
         <v>42</v>
@@ -10187,14 +10414,14 @@
         <v>628</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>765</v>
+        <v>784</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="28" t="s">
-        <v>766</v>
+        <v>785</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
@@ -26591,16 +26818,16 @@
         <v>495</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>767</v>
+        <v>786</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>768</v>
+        <v>787</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>769</v>
+        <v>788</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
@@ -26611,14 +26838,14 @@
         <v>1796</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="28" t="s">
-        <v>771</v>
+        <v>790</v>
       </c>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
@@ -26629,14 +26856,14 @@
         <v>2037</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>772</v>
+        <v>791</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="28" t="s">
-        <v>773</v>
+        <v>792</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
@@ -26647,14 +26874,14 @@
         <v>1636</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>774</v>
+        <v>793</v>
       </c>
       <c r="C14" s="43" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="22" t="s">
-        <v>775</v>
+        <v>794</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
@@ -27530,13 +27757,13 @@
         <v>1590</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>777</v>
+        <v>796</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -27544,13 +27771,13 @@
         <v>1991</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>778</v>
+        <v>797</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>779</v>
+        <v>798</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -27558,13 +27785,13 @@
         <v>238</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>781</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -27572,7 +27799,7 @@
         <v>1652</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>782</v>
+        <v>801</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -27586,13 +27813,13 @@
         <v>1664</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>783</v>
+        <v>802</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>784</v>
+        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -27608,29 +27835,29 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="42.125" style="21" customWidth="1"/>
-    <col min="3" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="36" style="22" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="36" style="22" customWidth="1"/>
+    <col min="5" max="5" width="21.75" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
@@ -27642,93 +27869,109 @@
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="35" t="s">
+      <c r="D2" s="35" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>406</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>785</v>
+        <v>804</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="D3" s="32" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3">
         <v>435</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>787</v>
+        <v>806</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="32" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="D4" s="32" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3">
         <v>452</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>788</v>
+        <v>807</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1"/>
+      <c r="D5" s="32" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:5">
+      <c r="A6">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>808</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>809</v>
+      </c>
+      <c r="E6" t="s">
+        <v>810</v>
+      </c>
+    </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3">
         <v>56</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>789</v>
+        <v>811</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8" s="3">
         <v>986</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>790</v>
+        <v>812</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="D8" s="28" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="3">
         <v>1905</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>792</v>
+        <v>814</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="36" t="s">
-        <v>793</v>
+      <c r="D9" s="36" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -27736,354 +27979,352 @@
         <v>840</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>794</v>
+        <v>816</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:4">
       <c r="A11" s="3">
         <v>498</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>795</v>
+        <v>817</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="28" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="12" ht="28.5" spans="1:5">
+      <c r="D11" s="28" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" spans="1:4">
       <c r="A12" s="3">
         <v>1162</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>797</v>
+        <v>819</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="D12" s="28" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="3">
         <v>1020</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>799</v>
+        <v>821</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="D13" s="22" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="3">
         <v>419</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>801</v>
+        <v>823</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:6">
+      <c r="D14" s="22" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:5">
       <c r="A15" s="3">
         <v>36</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>802</v>
+        <v>824</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="22" t="s">
-        <v>803</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" customFormat="1" ht="27" spans="1:5">
+      <c r="D15" s="22" t="s">
+        <v>825</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" customFormat="1" ht="27" spans="1:4">
       <c r="A16" s="3">
         <v>646</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>804</v>
+        <v>826</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="28" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="D16" s="28" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="3">
         <v>1672</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>806</v>
+        <v>828</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="28" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="18" ht="28.5" spans="1:5">
+      <c r="D17" s="28" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" spans="1:4">
       <c r="A18" s="3">
         <v>598</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>808</v>
+        <v>830</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="19" s="34" customFormat="1" ht="28.5" spans="1:5">
+      <c r="D18" s="22" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="19" s="34" customFormat="1" ht="28.5" spans="1:4">
       <c r="A19" s="34">
         <v>1901</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>810</v>
+        <v>832</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="38" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="D19" s="38" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="3">
         <v>832</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>812</v>
+        <v>834</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="28" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="D20" s="28" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="3">
         <v>997</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>814</v>
+        <v>836</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="28" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="D21" s="28" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="3">
         <v>1232</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>815</v>
+        <v>837</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22" s="28" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="3">
         <v>1893</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>817</v>
+        <v>839</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="D23" s="28" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="3">
         <v>1337</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>818</v>
+        <v>840</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="25" ht="27" spans="1:5">
+      <c r="D24" s="22" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="1:4">
       <c r="A25" s="3">
         <v>1139</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>820</v>
+        <v>842</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="28" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="D25" s="28" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="3">
         <v>519</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>822</v>
+        <v>844</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="28" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="27" ht="71.25" spans="1:5">
+      <c r="D26" s="28" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="27" ht="71.25" spans="1:4">
       <c r="A27" s="3">
         <v>1504</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>824</v>
+        <v>846</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="28" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="28" ht="28.5" spans="1:5">
+      <c r="D27" s="28" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="28" ht="28.5" spans="1:4">
       <c r="A28" s="3">
         <v>1282</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>826</v>
+        <v>848</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="22" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="D28" s="22" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="3">
         <v>766</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>828</v>
+        <v>850</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="22" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="D29" s="22" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="3">
         <v>1041</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>830</v>
+        <v>852</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="28" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="D30" s="28" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="3">
         <v>1424</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>832</v>
+        <v>854</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="28" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="D31" s="28" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="3">
         <v>1854</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>834</v>
+        <v>856</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="22" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="D32" s="22" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="3">
         <v>773</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>836</v>
+        <v>858</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="22" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="D33" s="22" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="3">
         <v>2022</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>838</v>
+        <v>860</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="D34" s="22" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1:E1" location="主页!A1" display="主页"/>
+    <hyperlink ref="A1:D1" location="主页!A1" display="主页"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -28139,13 +28380,13 @@
         <v>318</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>839</v>
+        <v>861</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>840</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:5">
@@ -28153,13 +28394,13 @@
         <v>128</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>841</v>
+        <v>863</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>842</v>
+        <v>864</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:5">
@@ -28167,7 +28408,7 @@
         <v>287</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>843</v>
+        <v>865</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
@@ -28179,10 +28420,10 @@
         <v>1711</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>844</v>
+        <v>866</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>845</v>
+        <v>867</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="32"/>
@@ -28192,7 +28433,7 @@
         <v>692</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>846</v>
+        <v>868</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>35</v>
@@ -28203,13 +28444,13 @@
         <v>890</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>847</v>
+        <v>869</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>848</v>
+        <v>870</v>
       </c>
     </row>
     <row r="9" ht="42.75" spans="1:5">
@@ -28217,13 +28458,13 @@
         <v>525</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>849</v>
+        <v>871</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>850</v>
+        <v>872</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -28231,13 +28472,13 @@
         <v>442</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>851</v>
+        <v>873</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>852</v>
+        <v>874</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -28245,13 +28486,13 @@
         <v>2085</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>853</v>
+        <v>875</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>854</v>
+        <v>876</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -28259,13 +28500,13 @@
         <v>974</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>855</v>
+        <v>877</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>856</v>
+        <v>878</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -28273,7 +28514,7 @@
         <v>2099</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>857</v>
+        <v>879</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
@@ -28284,13 +28525,13 @@
         <v>916</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>858</v>
+        <v>880</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>859</v>
+        <v>881</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -28298,7 +28539,7 @@
         <v>781</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>860</v>
+        <v>882</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>35</v>
@@ -28309,13 +28550,13 @@
         <v>523</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>861</v>
+        <v>883</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>862</v>
+        <v>884</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -28323,13 +28564,13 @@
         <v>1935</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>863</v>
+        <v>885</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -28337,13 +28578,13 @@
         <v>451</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>864</v>
+        <v>886</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>865</v>
+        <v>887</v>
       </c>
     </row>
     <row r="19" ht="42.75" spans="1:5">
@@ -28351,13 +28592,13 @@
         <v>1684</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>866</v>
+        <v>888</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>867</v>
+        <v>889</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -28365,13 +28606,13 @@
         <v>1394</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>868</v>
+        <v>890</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>869</v>
+        <v>891</v>
       </c>
     </row>
     <row r="21" ht="71.25" spans="1:5">
@@ -28379,13 +28620,13 @@
         <v>697</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>870</v>
+        <v>892</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>871</v>
+        <v>893</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -28393,13 +28634,13 @@
         <v>1331</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>872</v>
+        <v>894</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>873</v>
+        <v>895</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -28407,13 +28648,13 @@
         <v>1640</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>874</v>
+        <v>896</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>875</v>
+        <v>897</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -28421,13 +28662,13 @@
         <v>1481</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>876</v>
+        <v>898</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>877</v>
+        <v>899</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -28435,13 +28676,13 @@
         <v>1497</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>878</v>
+        <v>900</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>879</v>
+        <v>901</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -28449,13 +28690,13 @@
         <v>2190</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>880</v>
+        <v>902</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>881</v>
+        <v>903</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -28463,13 +28704,13 @@
         <v>2260</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>882</v>
+        <v>904</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>883</v>
+        <v>905</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -28477,13 +28718,13 @@
         <v>1338</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>884</v>
+        <v>906</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>885</v>
+        <v>907</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -28491,13 +28732,13 @@
         <v>888</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>886</v>
+        <v>908</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>887</v>
+        <v>909</v>
       </c>
     </row>
     <row r="30" ht="85.5" spans="1:5">
@@ -28505,13 +28746,13 @@
         <v>1557</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>888</v>
+        <v>910</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>889</v>
+        <v>911</v>
       </c>
     </row>
     <row r="31" ht="42.75" spans="1:5">
@@ -28519,13 +28760,13 @@
         <v>2248</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>890</v>
+        <v>912</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>891</v>
+        <v>913</v>
       </c>
     </row>
     <row r="32" ht="28.5" spans="1:5">
@@ -28533,13 +28774,13 @@
         <v>2287</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>892</v>
+        <v>914</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>893</v>
+        <v>915</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -28547,13 +28788,13 @@
         <v>532</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>894</v>
+        <v>916</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>895</v>
+        <v>917</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -28561,13 +28802,13 @@
         <v>939</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>896</v>
+        <v>918</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>897</v>
+        <v>919</v>
       </c>
     </row>
     <row r="35" spans="1:16384">
@@ -44969,10 +45210,10 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -45014,13 +45255,13 @@
         <v>215</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>898</v>
+        <v>920</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>899</v>
+        <v>921</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="57" spans="1:5">
@@ -45028,13 +45269,13 @@
         <v>389</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>900</v>
+        <v>922</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>901</v>
+        <v>923</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:5">
@@ -45042,13 +45283,13 @@
         <v>268</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>902</v>
+        <v>924</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>903</v>
+        <v>925</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -45056,14 +45297,14 @@
         <v>1654</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>904</v>
+        <v>926</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="18" t="s">
-        <v>905</v>
+        <v>927</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -45071,7 +45312,7 @@
         <v>1752</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>906</v>
+        <v>928</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -45082,13 +45323,13 @@
         <v>1812</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>907</v>
+        <v>929</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>908</v>
+        <v>930</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -45096,13 +45337,27 @@
         <v>969</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>909</v>
+        <v>931</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>910</v>
+        <v>932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
+        <v>89</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>934</v>
       </c>
     </row>
   </sheetData>
@@ -45121,7 +45376,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -45504,8 +45759,8 @@
   <sheetPr/>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -46639,8 +46894,8 @@
   <sheetPr/>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/leetcode/1. statistics/leetcode.xlsx
+++ b/leetcode/1. statistics/leetcode.xlsx
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="1021">
   <si>
     <t>算法大纲</t>
   </si>
@@ -1331,9 +1331,6 @@
     <t>二叉树的中序遍历</t>
   </si>
   <si>
-    <t>相同的树</t>
-  </si>
-  <si>
     <t>对称二叉树</t>
   </si>
   <si>
@@ -1439,9 +1436,6 @@
     <t>二叉搜索树的范围和</t>
   </si>
   <si>
-    <t xml:space="preserve"> 验证二叉搜索树</t>
-  </si>
-  <si>
     <t>二叉树的层序遍历</t>
   </si>
   <si>
@@ -1457,15 +1451,9 @@
     <t>从前序与中序遍历序列构造二叉树</t>
   </si>
   <si>
-    <t>递归构建</t>
-  </si>
-  <si>
     <t>从中序与后序遍历序列构造二叉树</t>
   </si>
   <si>
-    <t>BFS构建二叉树</t>
-  </si>
-  <si>
     <t>删除给定值的叶子节点</t>
   </si>
   <si>
@@ -1527,11 +1515,6 @@
   </si>
   <si>
     <t>二叉树的层序遍历 II</t>
-  </si>
-  <si>
-    <t>BFS
-1. 使用queue去遍历
-2. 每一层的List中，都想索引0的位置中添加新的遍历结果</t>
   </si>
   <si>
     <t>最大二叉树</t>
@@ -1889,9 +1872,6 @@
   </si>
   <si>
     <t>回溯：很新颖，关于重新构建二叉树（得到所有的二叉树种类）</t>
-  </si>
-  <si>
-    <t>很新颖的题</t>
   </si>
   <si>
     <t>分割回文串</t>
@@ -3720,6 +3700,78 @@
   </si>
   <si>
     <t>递归迭代遍历</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典（很好）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证二叉搜索树</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点绕，但是仍然比较经典</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>相同的树</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复二叉搜索树</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉搜索树的特点：节点左子树都小于当前节点，节点 右子树都大于当前节点</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典（但是太绕了）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS 构建</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS 构建</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS 构建</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊艳</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次向list中插入的位置是0，从而实现了树的自下而上的遍历效果</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -3896,7 +3948,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4179,13 +4231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4240,7 +4286,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4540,7 +4610,7 @@
       <c r="C1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="117" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4554,7 +4624,7 @@
       <c r="C2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="99"/>
+      <c r="D2" s="118"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
@@ -4751,14 +4821,14 @@
         <v>409</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="22" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4766,14 +4836,14 @@
         <v>455</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="52" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F4" s="35"/>
     </row>
@@ -4782,14 +4852,14 @@
         <v>561</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="22" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F5" s="35"/>
     </row>
@@ -4798,14 +4868,14 @@
         <v>605</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="32" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F6" s="35"/>
     </row>
@@ -4814,14 +4884,14 @@
         <v>680</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="32" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F7" s="35"/>
     </row>
@@ -4830,14 +4900,14 @@
         <v>860</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="32" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F8" s="35"/>
     </row>
@@ -4846,14 +4916,14 @@
         <v>976</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="64" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F9" s="35"/>
     </row>
@@ -4862,14 +4932,14 @@
         <v>1005</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="22" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F10" s="35"/>
     </row>
@@ -4878,14 +4948,14 @@
         <v>1013</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="22" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F11" s="35"/>
     </row>
@@ -4894,7 +4964,7 @@
         <v>1221</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>50</v>
@@ -4910,7 +4980,7 @@
         <v>1323</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>50</v>
@@ -4923,7 +4993,7 @@
         <v>1710</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>50</v>
@@ -4931,7 +5001,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="52"/>
       <c r="F14" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -4939,7 +5009,7 @@
         <v>2144</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>50</v>
@@ -4952,14 +5022,14 @@
         <v>11</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="28" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -4967,14 +5037,14 @@
         <v>45</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="32" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -4982,14 +5052,14 @@
         <v>55</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="32" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -5004,7 +5074,7 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="22" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -5012,14 +5082,14 @@
         <v>134</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="22" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -5027,14 +5097,14 @@
         <v>179</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="32" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -5042,14 +5112,14 @@
         <v>316</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="32" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -5057,7 +5127,7 @@
         <v>376</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>40</v>
@@ -5070,14 +5140,14 @@
         <v>397</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="52" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -5085,13 +5155,13 @@
         <v>581</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -5099,7 +5169,7 @@
         <v>621</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>40</v>
@@ -5110,13 +5180,13 @@
         <v>763</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="65" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -5124,14 +5194,14 @@
         <v>879</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="32" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -5139,14 +5209,14 @@
         <v>945</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="22" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -5154,7 +5224,7 @@
         <v>1011</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>40</v>
@@ -5167,13 +5237,13 @@
         <v>1647</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="66" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -5181,14 +5251,14 @@
         <v>2091</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="28" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -5196,7 +5266,7 @@
         <v>1833</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>40</v>
@@ -5209,13 +5279,13 @@
         <v>670</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E34" s="66" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F34" s="33" t="s">
         <v>250</v>
@@ -5226,14 +5296,14 @@
         <v>594</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="22" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -5241,14 +5311,14 @@
         <v>1737</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="22" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -5256,13 +5326,13 @@
         <v>1800</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -5270,14 +5340,14 @@
         <v>1029</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="28" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -5285,14 +5355,14 @@
         <v>2090</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="22" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -5300,14 +5370,14 @@
         <v>1936</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="22" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -5315,13 +5385,13 @@
         <v>2365</v>
       </c>
       <c r="B41" s="67" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E41" s="41" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -5329,14 +5399,14 @@
         <v>1946</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="22" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -5449,7 +5519,7 @@
         <v>33</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5471,7 +5541,7 @@
         <v>241</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>40</v>
@@ -5485,7 +5555,7 @@
         <v>169</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>50</v>
@@ -5496,18 +5566,18 @@
         <v>14</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -5521,10 +5591,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5567,13 +5637,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>42</v>
@@ -5584,13 +5654,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>42</v>
@@ -5601,13 +5671,13 @@
         <v>39</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>42</v>
@@ -5618,16 +5688,16 @@
         <v>40</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5635,13 +5705,13 @@
         <v>46</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>42</v>
@@ -5652,16 +5722,16 @@
         <v>47</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5669,13 +5739,13 @@
         <v>51</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5683,13 +5753,13 @@
         <v>77</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>42</v>
@@ -5700,13 +5770,13 @@
         <v>78</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>42</v>
@@ -5717,16 +5787,16 @@
         <v>90</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -5734,179 +5804,182 @@
         <v>95</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="61" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>508</v>
+        <v>1003</v>
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>131</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>511</v>
-      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>40</v>
       </c>
+      <c r="D16" s="22" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>212</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>513</v>
+        <v>216</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>509</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>514</v>
+      <c r="D17" s="28" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>216</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>515</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>516</v>
+        <v>257</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>257</v>
+        <v>1593</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>340</v>
+        <v>512</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>1593</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>518</v>
-      </c>
-      <c r="C20" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="C20" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D20" s="28" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>1239</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>520</v>
+        <v>473</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>516</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D21" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>473</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>522</v>
+        <v>949</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>519</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>523</v>
-      </c>
-      <c r="E22" s="62" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D22" s="28" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>949</v>
+        <v>2048</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>2048</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>527</v>
-      </c>
-      <c r="C24" s="33" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="28" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>1443</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" t="s">
-        <v>530</v>
-      </c>
+      <c r="D24" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
@@ -5943,10 +6016,6 @@
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="C35" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -6007,13 +6076,13 @@
         <v>204</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -6021,13 +6090,13 @@
         <v>1726</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -6035,13 +6104,13 @@
         <v>1980</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -6049,7 +6118,7 @@
         <v>397</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>40</v>
@@ -6060,13 +6129,13 @@
         <v>2171</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -6074,13 +6143,13 @@
         <v>1094</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>250</v>
@@ -6091,13 +6160,13 @@
         <v>1925</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -6105,13 +6174,13 @@
         <v>1551</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -6119,7 +6188,7 @@
         <v>1775</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>50</v>
@@ -6130,13 +6199,13 @@
         <v>179</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -6144,13 +6213,13 @@
         <v>93</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -6158,7 +6227,7 @@
         <v>989</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>50</v>
@@ -6169,13 +6238,13 @@
         <v>2029</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -6183,13 +6252,13 @@
         <v>60</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
@@ -6197,13 +6266,13 @@
         <v>1509</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F17" s="33" t="s">
         <v>201</v>
@@ -6214,14 +6283,14 @@
         <v>1963</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="28" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -6230,13 +6299,13 @@
         <v>1191</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -6244,13 +6313,13 @@
         <v>390</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -6258,7 +6327,7 @@
         <v>1539</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>50</v>
@@ -6272,13 +6341,13 @@
         <v>1362</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -6286,13 +6355,13 @@
         <v>1608</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -6300,13 +6369,13 @@
         <v>2119</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -6367,13 +6436,13 @@
         <v>1979</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -6381,7 +6450,7 @@
         <v>162</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>40</v>
@@ -6392,7 +6461,7 @@
         <v>1047</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>50</v>
@@ -6403,7 +6472,7 @@
         <v>118</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>50</v>
@@ -6414,7 +6483,7 @@
         <v>648</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>40</v>
@@ -6425,7 +6494,7 @@
         <v>1781</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>40</v>
@@ -6436,7 +6505,7 @@
         <v>326</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>50</v>
@@ -6447,13 +6516,13 @@
         <v>1408</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -6461,13 +6530,13 @@
         <v>462</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -6475,7 +6544,7 @@
         <v>1464</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>50</v>
@@ -6486,13 +6555,13 @@
         <v>1961</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -6500,13 +6569,13 @@
         <v>1894</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -6514,13 +6583,13 @@
         <v>1967</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -6528,13 +6597,13 @@
         <v>539</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -6542,13 +6611,13 @@
         <v>539</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -6556,7 +6625,7 @@
         <v>838</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>40</v>
@@ -6567,13 +6636,13 @@
         <v>551</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -6581,13 +6650,13 @@
         <v>1025</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -6595,13 +6664,13 @@
         <v>1718</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -6609,7 +6678,7 @@
         <v>1909</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>50</v>
@@ -6620,13 +6689,13 @@
         <v>2178</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -6634,13 +6703,13 @@
         <v>502</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -6648,13 +6717,13 @@
         <v>1791</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -6662,13 +6731,13 @@
         <v>1154</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="57" x14ac:dyDescent="0.2">
@@ -6676,13 +6745,13 @@
         <v>1253</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -6690,7 +6759,7 @@
         <v>1491</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>50</v>
@@ -6701,13 +6770,13 @@
         <v>1968</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -6715,7 +6784,7 @@
         <v>1021</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>50</v>
@@ -6726,13 +6795,13 @@
         <v>43</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -6740,7 +6809,7 @@
         <v>2032</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>50</v>
@@ -6754,13 +6823,13 @@
         <v>1103</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -6768,13 +6837,13 @@
         <v>1688</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -6782,13 +6851,13 @@
         <v>383</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -6796,13 +6865,13 @@
         <v>357</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C36" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -6810,13 +6879,13 @@
         <v>977</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -6824,13 +6893,13 @@
         <v>1295</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -6838,13 +6907,13 @@
         <v>1389</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -6852,7 +6921,7 @@
         <v>1503</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>40</v>
@@ -6866,7 +6935,7 @@
         <v>2200</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>40</v>
@@ -6880,13 +6949,13 @@
         <v>217</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -6894,13 +6963,13 @@
         <v>2239</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -6908,7 +6977,7 @@
         <v>941</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>50</v>
@@ -6922,13 +6991,13 @@
         <v>1619</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -6936,13 +7005,13 @@
         <v>1450</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -6950,13 +7019,13 @@
         <v>1929</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -6964,13 +7033,13 @@
         <v>1941</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="57" x14ac:dyDescent="0.2">
@@ -6978,13 +7047,13 @@
         <v>443</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -6992,13 +7061,13 @@
         <v>1541</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -7006,13 +7075,13 @@
         <v>1832</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -7020,13 +7089,13 @@
         <v>999</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -7034,13 +7103,13 @@
         <v>1431</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -7048,13 +7117,13 @@
         <v>1475</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -7062,13 +7131,13 @@
         <v>884</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -7076,13 +7145,13 @@
         <v>1566</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -7090,7 +7159,7 @@
         <v>127</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>37</v>
@@ -7101,13 +7170,13 @@
         <v>1054</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C58" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -7115,7 +7184,7 @@
         <v>2154</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>50</v>
@@ -7126,13 +7195,13 @@
         <v>1550</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -7140,7 +7209,7 @@
         <v>575</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>50</v>
@@ -7151,13 +7220,13 @@
         <v>1716</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -7165,13 +7234,13 @@
         <v>1869</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -7179,13 +7248,13 @@
         <v>1638</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -7193,7 +7262,7 @@
         <v>2138</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>50</v>
@@ -7207,7 +7276,7 @@
         <v>2299</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>50</v>
@@ -7221,13 +7290,13 @@
         <v>1614</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -7235,13 +7304,13 @@
         <v>1689</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -7249,13 +7318,13 @@
         <v>1952</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -7263,13 +7332,13 @@
         <v>645</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -7277,13 +7346,13 @@
         <v>2206</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -7291,7 +7360,7 @@
         <v>1436</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>50</v>
@@ -7352,7 +7421,7 @@
         <v>355</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>40</v>
@@ -7365,7 +7434,7 @@
         <v>460</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>37</v>
@@ -7378,7 +7447,7 @@
         <v>622</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>40</v>
@@ -7391,7 +7460,7 @@
         <v>641</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>40</v>
@@ -7404,7 +7473,7 @@
         <v>705</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>40</v>
@@ -7417,7 +7486,7 @@
         <v>706</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>40</v>
@@ -7430,7 +7499,7 @@
         <v>707</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>40</v>
@@ -7443,7 +7512,7 @@
         <v>1206</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>37</v>
@@ -7456,7 +7525,7 @@
         <v>1472</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>40</v>
@@ -7469,7 +7538,7 @@
         <v>1797</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>40</v>
@@ -7480,13 +7549,13 @@
         <v>307</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -7548,13 +7617,13 @@
         <v>69</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="100" t="s">
-        <v>697</v>
+      <c r="E3" s="119" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7562,34 +7631,34 @@
         <v>633</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C4" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="100"/>
+      <c r="E4" s="119"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
         <v>441</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C5" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="100"/>
+      <c r="E5" s="119"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="34">
         <v>34</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
@@ -7597,10 +7666,10 @@
         <v>153</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="57" x14ac:dyDescent="0.2">
@@ -7608,13 +7677,13 @@
         <v>378</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -7622,13 +7691,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.2">
@@ -7636,13 +7705,13 @@
         <v>1201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F11" s="33"/>
     </row>
@@ -7651,13 +7720,13 @@
         <v>1351</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C12" s="58" t="s">
         <v>50</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -7665,13 +7734,13 @@
         <v>275</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F13" s="58" t="s">
         <v>201</v>
@@ -7682,13 +7751,13 @@
         <v>35</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="C14" s="58" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -7696,13 +7765,13 @@
         <v>2300</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -7710,13 +7779,13 @@
         <v>240</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -7780,7 +7849,7 @@
         <v>219</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>50</v>
@@ -7791,7 +7860,7 @@
         <v>643</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>50</v>
@@ -7802,13 +7871,13 @@
         <v>1876</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -7816,13 +7885,13 @@
         <v>1984</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -7830,7 +7899,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>40</v>
@@ -7841,7 +7910,7 @@
         <v>187</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>40</v>
@@ -7852,7 +7921,7 @@
         <v>209</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>40</v>
@@ -7863,13 +7932,13 @@
         <v>220</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
@@ -7877,13 +7946,13 @@
         <v>395</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>250</v>
@@ -7894,13 +7963,13 @@
         <v>424</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -7908,7 +7977,7 @@
         <v>438</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>40</v>
@@ -7919,13 +7988,13 @@
         <v>567</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -7933,13 +8002,13 @@
         <v>930</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -7947,13 +8016,13 @@
         <v>978</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -7961,13 +8030,13 @@
         <v>1004</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="F17" s="33"/>
     </row>
@@ -7976,13 +8045,13 @@
         <v>1052</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -7990,13 +8059,13 @@
         <v>1208</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -8004,13 +8073,13 @@
         <v>1234</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -8018,7 +8087,7 @@
         <v>1423</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>40</v>
@@ -8029,13 +8098,13 @@
         <v>1456</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -8043,13 +8112,13 @@
         <v>1493</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -8057,13 +8126,13 @@
         <v>1658</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -8071,13 +8140,13 @@
         <v>1696</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -8085,13 +8154,13 @@
         <v>1838</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -8099,13 +8168,13 @@
         <v>2024</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="28" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
@@ -8113,14 +8182,14 @@
         <v>2104</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="37" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -8132,13 +8201,13 @@
         <v>1525</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -8146,7 +8215,7 @@
         <v>904</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>40</v>
@@ -8157,13 +8226,13 @@
         <v>643</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="32" spans="1:9" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
@@ -8171,13 +8240,13 @@
         <v>1248</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -8185,13 +8254,13 @@
         <v>1234</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -8199,13 +8268,13 @@
         <v>1156</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C34" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>
@@ -8267,7 +8336,7 @@
         <v>167</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -8278,12 +8347,12 @@
         <v>581</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="22" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -8292,7 +8361,7 @@
         <v>1903</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -8303,10 +8372,10 @@
         <v>1712</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.2">
@@ -8314,14 +8383,14 @@
         <v>9</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="28" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -8330,14 +8399,14 @@
         <v>205</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="28" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -8346,14 +8415,14 @@
         <v>881</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="28" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -8362,14 +8431,14 @@
         <v>475</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="28" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -8378,14 +8447,14 @@
         <v>825</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="28" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -8394,14 +8463,14 @@
         <v>713</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="28" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -8410,14 +8479,14 @@
         <v>923</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="28" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -8426,13 +8495,13 @@
         <v>922</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -8440,14 +8509,14 @@
         <v>345</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="28" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -8456,14 +8525,14 @@
         <v>1768</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="28" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -8472,14 +8541,14 @@
         <v>165</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="22" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="F18" s="3"/>
     </row>
@@ -8488,14 +8557,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="22" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -8504,14 +8573,14 @@
         <v>1679</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="22" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -8520,14 +8589,14 @@
         <v>392</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="22" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -8536,14 +8605,14 @@
         <v>283</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="28" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -8552,14 +8621,14 @@
         <v>1855</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="22" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -8568,14 +8637,14 @@
         <v>1662</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="22" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -8584,14 +8653,14 @@
         <v>849</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="28" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F25" s="3"/>
     </row>
@@ -8600,14 +8669,14 @@
         <v>80</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="22" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -8616,14 +8685,14 @@
         <v>16</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="22" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -8959,7 +9028,7 @@
         <v>334</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>40</v>
@@ -8975,7 +9044,7 @@
         <v>1262</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -8989,14 +9058,14 @@
         <v>915</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="32" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
@@ -9007,14 +9076,14 @@
         <v>775</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="C6" s="44" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="28" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
@@ -9025,7 +9094,7 @@
         <v>2177</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="C7" s="44" t="s">
         <v>40</v>
@@ -9041,7 +9110,7 @@
         <v>485</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C8" s="44" t="s">
         <v>50</v>
@@ -9057,14 +9126,14 @@
         <v>628</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="28" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
@@ -25461,16 +25530,16 @@
         <v>495</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="C11" s="44" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
@@ -25481,14 +25550,14 @@
         <v>1796</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C12" s="44" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="28" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
@@ -25499,14 +25568,14 @@
         <v>2037</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C13" s="44" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="28" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
@@ -25517,14 +25586,14 @@
         <v>1636</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="22" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
@@ -25535,7 +25604,7 @@
         <v>747</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="C15" s="44" t="s">
         <v>50</v>
@@ -28270,13 +28339,13 @@
         <v>1590</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -28284,13 +28353,13 @@
         <v>1991</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -28298,13 +28367,13 @@
         <v>238</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -28312,7 +28381,7 @@
         <v>1652</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>50</v>
@@ -28326,13 +28395,13 @@
         <v>1664</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
@@ -28393,13 +28462,13 @@
         <v>406</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -28407,13 +28476,13 @@
         <v>435</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -28421,13 +28490,13 @@
         <v>452</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="6" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
@@ -28435,16 +28504,16 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="E6" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -28452,7 +28521,7 @@
         <v>56</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>40</v>
@@ -28463,13 +28532,13 @@
         <v>986</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -28477,13 +28546,13 @@
         <v>1905</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -28491,7 +28560,7 @@
         <v>840</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>40</v>
@@ -28502,13 +28571,13 @@
         <v>498</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -28516,13 +28585,13 @@
         <v>1162</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -28530,13 +28599,13 @@
         <v>1020</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -28544,13 +28613,13 @@
         <v>419</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -28558,13 +28627,13 @@
         <v>36</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -28573,13 +28642,13 @@
         <v>646</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -28587,13 +28656,13 @@
         <v>1672</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -28601,13 +28670,13 @@
         <v>598</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="34" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -28615,13 +28684,13 @@
         <v>1901</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -28629,13 +28698,13 @@
         <v>832</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -28643,13 +28712,13 @@
         <v>997</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -28657,13 +28726,13 @@
         <v>1232</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -28671,13 +28740,13 @@
         <v>1893</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -28685,13 +28754,13 @@
         <v>1337</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="27" x14ac:dyDescent="0.2">
@@ -28699,13 +28768,13 @@
         <v>1139</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -28713,13 +28782,13 @@
         <v>519</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
@@ -28727,13 +28796,13 @@
         <v>1504</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -28741,13 +28810,13 @@
         <v>1282</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -28755,13 +28824,13 @@
         <v>766</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -28769,13 +28838,13 @@
         <v>1041</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -28783,13 +28852,13 @@
         <v>1424</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -28797,13 +28866,13 @@
         <v>1854</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -28811,13 +28880,13 @@
         <v>773</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -28825,7 +28894,7 @@
         <v>2022</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>50</v>
@@ -28839,7 +28908,7 @@
         <v>867</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>50</v>
@@ -28905,13 +28974,13 @@
         <v>318</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -28919,13 +28988,13 @@
         <v>128</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -28933,7 +29002,7 @@
         <v>287</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>40</v>
@@ -28945,10 +29014,10 @@
         <v>1711</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="32"/>
@@ -28958,7 +29027,7 @@
         <v>692</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>40</v>
@@ -28969,13 +29038,13 @@
         <v>890</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -28983,13 +29052,13 @@
         <v>525</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -28997,13 +29066,13 @@
         <v>442</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -29011,13 +29080,13 @@
         <v>2085</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -29025,13 +29094,13 @@
         <v>974</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -29039,7 +29108,7 @@
         <v>2099</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>50</v>
@@ -29050,13 +29119,13 @@
         <v>916</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -29064,7 +29133,7 @@
         <v>781</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>40</v>
@@ -29075,13 +29144,13 @@
         <v>1935</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -29089,13 +29158,13 @@
         <v>451</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -29103,13 +29172,13 @@
         <v>1684</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -29117,13 +29186,13 @@
         <v>1394</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
@@ -29131,13 +29200,13 @@
         <v>697</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -29145,13 +29214,13 @@
         <v>1331</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -29159,13 +29228,13 @@
         <v>1640</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -29173,13 +29242,13 @@
         <v>1481</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -29187,13 +29256,13 @@
         <v>1497</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -29201,13 +29270,13 @@
         <v>2190</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -29215,13 +29284,13 @@
         <v>2260</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -29229,13 +29298,13 @@
         <v>1338</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -29243,13 +29312,13 @@
         <v>888</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
@@ -29257,13 +29326,13 @@
         <v>1557</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -29271,13 +29340,13 @@
         <v>2248</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -29285,13 +29354,13 @@
         <v>2287</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -29299,13 +29368,13 @@
         <v>532</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.2">
@@ -29313,13 +29382,13 @@
         <v>939</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.2">
@@ -45765,13 +45834,13 @@
         <v>215</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.2">
@@ -45779,13 +45848,13 @@
         <v>389</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="54.75" x14ac:dyDescent="0.2">
@@ -45793,13 +45862,13 @@
         <v>268</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -45807,14 +45876,14 @@
         <v>1654</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="18" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -45822,7 +45891,7 @@
         <v>1752</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>50</v>
@@ -45833,13 +45902,13 @@
         <v>1812</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -45847,13 +45916,13 @@
         <v>969</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -45861,13 +45930,13 @@
         <v>89</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
   </sheetData>
@@ -46889,12 +46958,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="109"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="107"/>
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -46911,7 +46980,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -46919,7 +46988,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>40</v>
@@ -46928,7 +46997,7 @@
         <v>292</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -46943,7 +47012,7 @@
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="9" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -46960,7 +47029,7 @@
         <v>291</v>
       </c>
       <c r="E5" s="91" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -46977,7 +47046,7 @@
         <v>295</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="I6" s="5"/>
     </row>
@@ -46992,10 +47061,10 @@
         <v>40</v>
       </c>
       <c r="D7" s="94" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -47003,16 +47072,16 @@
         <v>82</v>
       </c>
       <c r="B8" s="93" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="94" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -47029,7 +47098,7 @@
         <v>298</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -47043,10 +47112,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="94" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="E10" s="91" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -47060,27 +47129,27 @@
         <v>50</v>
       </c>
       <c r="D11" s="94" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="105" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="101">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="103" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="99">
         <v>92</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="100" t="s">
         <v>300</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="103" t="s">
-        <v>989</v>
-      </c>
-      <c r="E12" s="104" t="s">
-        <v>988</v>
+      <c r="D12" s="101" t="s">
+        <v>983</v>
+      </c>
+      <c r="E12" s="102" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -47088,7 +47157,7 @@
         <v>109</v>
       </c>
       <c r="B13" s="93" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>40</v>
@@ -47097,7 +47166,7 @@
         <v>301</v>
       </c>
       <c r="E13" s="91" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -47154,10 +47223,10 @@
         <v>50</v>
       </c>
       <c r="D17" s="94" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="E17" s="91" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -47165,16 +47234,16 @@
         <v>142</v>
       </c>
       <c r="B18" s="93" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="94" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="E18" s="91" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -47182,13 +47251,13 @@
         <v>143</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="94" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="E19" s="9"/>
     </row>
@@ -47212,16 +47281,16 @@
         <v>203</v>
       </c>
       <c r="B21" s="93" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="94" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="E21" s="91" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -47229,16 +47298,16 @@
         <v>234</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="110" t="s">
-        <v>996</v>
-      </c>
-      <c r="E22" s="111" t="s">
-        <v>995</v>
+      <c r="D22" s="108" t="s">
+        <v>990</v>
+      </c>
+      <c r="E22" s="109" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -47246,16 +47315,16 @@
         <v>237</v>
       </c>
       <c r="B23" s="93" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="94" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="E23" s="91" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -47269,10 +47338,10 @@
         <v>40</v>
       </c>
       <c r="D24" s="94" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="E24" s="91" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -47280,14 +47349,14 @@
         <v>382</v>
       </c>
       <c r="B25" s="93" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="91" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -47295,7 +47364,7 @@
         <v>430</v>
       </c>
       <c r="B26" s="93" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>40</v>
@@ -47308,7 +47377,7 @@
         <v>445</v>
       </c>
       <c r="B27" s="93" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>40</v>
@@ -47317,7 +47386,7 @@
         <v>312</v>
       </c>
       <c r="E27" s="91" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -47331,10 +47400,10 @@
         <v>40</v>
       </c>
       <c r="D28" s="94" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="E28" s="91" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -47351,7 +47420,7 @@
         <v>324</v>
       </c>
       <c r="E29" s="91" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.2">
@@ -47603,32 +47672,33 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="43.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="40.375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="9" style="3"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="42.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42.125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.75" style="120" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="121"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>31</v>
       </c>
@@ -47638,14 +47708,17 @@
       <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="91" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="122" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>94</v>
       </c>
@@ -47656,785 +47729,838 @@
         <v>50</v>
       </c>
       <c r="D3" s="94" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E3" s="91" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1002</v>
+      </c>
+      <c r="E3" s="122" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>98</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>363</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1004</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E4" s="121" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
+        <v>99</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E5" s="121" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>100</v>
       </c>
-      <c r="B5" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>101</v>
-      </c>
       <c r="B6" s="61" t="s">
-        <v>329</v>
+        <v>1008</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E6" s="121" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
+        <v>101</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E7" s="121" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>102</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B8" s="61" t="s">
+        <v>362</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="E8" s="121" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>103</v>
+      </c>
+      <c r="B9" s="61" t="s">
         <v>364</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <v>103</v>
-      </c>
-      <c r="B8" s="61" t="s">
+      <c r="E9" s="121" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>104</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E10" s="121" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>105</v>
+      </c>
+      <c r="B11" s="115" t="s">
         <v>366</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>104</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>330</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>105</v>
-      </c>
-      <c r="B10" s="117" t="s">
-        <v>368</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="95" t="s">
-        <v>369</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>106</v>
-      </c>
-      <c r="B11" s="112" t="s">
-        <v>370</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="D11" s="95" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E11" s="121" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
+        <v>106</v>
+      </c>
+      <c r="B12" s="110" t="s">
+        <v>367</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E12" s="121" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <v>107</v>
       </c>
-      <c r="B12" s="117" t="s">
-        <v>392</v>
-      </c>
-      <c r="C12" s="77" t="s">
+      <c r="B13" s="115" t="s">
+        <v>388</v>
+      </c>
+      <c r="C13" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="95" t="s">
-        <v>393</v>
-      </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+      <c r="D13" s="95" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E13" s="121" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F13" s="120" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>108</v>
       </c>
-      <c r="B13" s="61" t="s">
-        <v>331</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>110</v>
-      </c>
       <c r="B14" s="61" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="121" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="121"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="95" t="s">
-        <v>335</v>
-      </c>
-      <c r="E16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="121"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="E17" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="D17" s="95" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" s="121"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="E18" s="121"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" s="61" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="121"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
-        <v>226</v>
+        <v>145</v>
       </c>
       <c r="B20" s="61" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="121"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="10"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="E21" s="121"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
+        <v>235</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>338</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="121"/>
+    </row>
+    <row r="23" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
         <v>236</v>
       </c>
-      <c r="B22" s="112" t="s">
-        <v>400</v>
-      </c>
-      <c r="C22" s="77" t="s">
+      <c r="B23" s="110" t="s">
+        <v>395</v>
+      </c>
+      <c r="C23" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="95" t="s">
-        <v>401</v>
-      </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="9">
-        <v>257</v>
-      </c>
-      <c r="B23" s="61" t="s">
-        <v>340</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="9"/>
+      <c r="D23" s="95" t="s">
+        <v>396</v>
+      </c>
+      <c r="E23" s="121"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
-        <v>331</v>
-      </c>
-      <c r="B24" s="117" t="s">
-        <v>385</v>
-      </c>
-      <c r="C24" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="118" t="s">
-        <v>386</v>
-      </c>
-      <c r="E24" s="9"/>
+        <v>257</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="121"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
-        <v>404</v>
-      </c>
-      <c r="B25" s="61" t="s">
-        <v>341</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="9"/>
+        <v>331</v>
+      </c>
+      <c r="B25" s="115" t="s">
+        <v>381</v>
+      </c>
+      <c r="C25" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="116" t="s">
+        <v>382</v>
+      </c>
+      <c r="E25" s="121"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
-        <v>429</v>
-      </c>
-      <c r="B26" s="117" t="s">
-        <v>383</v>
-      </c>
-      <c r="C26" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="95" t="s">
-        <v>384</v>
-      </c>
-      <c r="E26" s="9"/>
+        <v>404</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="121"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
-        <v>501</v>
-      </c>
-      <c r="B27" s="61" t="s">
-        <v>342</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="9"/>
+        <v>429</v>
+      </c>
+      <c r="B27" s="115" t="s">
+        <v>379</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="95" t="s">
+        <v>380</v>
+      </c>
+      <c r="E27" s="121"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
-        <v>513</v>
-      </c>
-      <c r="B28" s="112" t="s">
-        <v>404</v>
+        <v>501</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>341</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="E28" s="9"/>
+        <v>50</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="121"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
-        <v>530</v>
-      </c>
-      <c r="B29" s="61" t="s">
-        <v>343</v>
+        <v>513</v>
+      </c>
+      <c r="B29" s="110" t="s">
+        <v>399</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E29" s="121"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="B30" s="61" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="95" t="s">
-        <v>345</v>
-      </c>
-      <c r="E30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="121"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
-        <v>572</v>
+        <v>543</v>
       </c>
       <c r="B31" s="61" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="E31" s="9"/>
+      <c r="D31" s="95" t="s">
+        <v>344</v>
+      </c>
+      <c r="E31" s="121"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
-        <v>606</v>
+        <v>572</v>
       </c>
       <c r="B32" s="61" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D32" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="E32" s="121"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B33" s="61" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="95" t="s">
-        <v>350</v>
-      </c>
-      <c r="E33" s="119"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D33" s="10"/>
+      <c r="E33" s="121"/>
+    </row>
+    <row r="34" spans="1:6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="B34" s="61" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D34" s="95" t="s">
+        <v>349</v>
+      </c>
+      <c r="E34" s="123"/>
+      <c r="F34" s="125"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B35" s="61" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D35" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E35" s="121"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
+        <v>653</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>352</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="121"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
         <v>654</v>
       </c>
-      <c r="B36" s="117" t="s">
-        <v>394</v>
-      </c>
-      <c r="C36" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="95" t="s">
-        <v>395</v>
-      </c>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
-        <v>655</v>
-      </c>
-      <c r="B37" s="117" t="s">
+      <c r="B37" s="115" t="s">
         <v>389</v>
       </c>
       <c r="C37" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="95" t="s">
         <v>390</v>
       </c>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E37" s="121"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
-        <v>662</v>
-      </c>
-      <c r="B38" s="76" t="s">
-        <v>376</v>
+        <v>655</v>
+      </c>
+      <c r="B38" s="115" t="s">
+        <v>385</v>
       </c>
       <c r="C38" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="95" t="s">
-        <v>377</v>
-      </c>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D38" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E38" s="121"/>
+    </row>
+    <row r="39" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
-        <v>669</v>
-      </c>
-      <c r="B39" s="112" t="s">
-        <v>398</v>
+        <v>662</v>
+      </c>
+      <c r="B39" s="76" t="s">
+        <v>372</v>
       </c>
       <c r="C39" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D39" s="95" t="s">
+        <v>373</v>
+      </c>
+      <c r="E39" s="121"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
+        <v>669</v>
+      </c>
+      <c r="B40" s="110" t="s">
+        <v>393</v>
+      </c>
+      <c r="C40" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="E40" s="121"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
         <v>671</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="B41" s="61" t="s">
+        <v>353</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="121"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
+        <v>687</v>
+      </c>
+      <c r="B42" s="110" t="s">
+        <v>397</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E42" s="121"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="9">
+        <v>700</v>
+      </c>
+      <c r="B43" s="61" t="s">
         <v>354</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="9">
-        <v>687</v>
-      </c>
-      <c r="B41" s="112" t="s">
-        <v>402</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
-        <v>700</v>
-      </c>
-      <c r="B42" s="61" t="s">
-        <v>355</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="9">
-        <v>703</v>
-      </c>
-      <c r="B43" s="61" t="s">
-        <v>191</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="D43" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E43" s="121"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
-        <v>783</v>
+        <v>703</v>
       </c>
       <c r="B44" s="61" t="s">
-        <v>357</v>
+        <v>191</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="10"/>
+      <c r="E44" s="121"/>
+    </row>
+    <row r="45" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A45" s="9">
+        <v>783</v>
+      </c>
+      <c r="B45" s="61" t="s">
+        <v>356</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E45" s="121"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
+        <v>863</v>
+      </c>
+      <c r="B46" s="115" t="s">
+        <v>376</v>
+      </c>
+      <c r="C46" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="E46" s="121"/>
+    </row>
+    <row r="47" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
+        <v>872</v>
+      </c>
+      <c r="B47" s="61" t="s">
         <v>358</v>
       </c>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="9">
-        <v>863</v>
-      </c>
-      <c r="B45" s="117" t="s">
-        <v>380</v>
-      </c>
-      <c r="C45" s="77" t="s">
+      <c r="C47" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="E47" s="124" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
+        <v>889</v>
+      </c>
+      <c r="B48" s="110" t="s">
+        <v>391</v>
+      </c>
+      <c r="C48" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:5" ht="57" x14ac:dyDescent="0.2">
-      <c r="A46" s="9">
-        <v>872</v>
-      </c>
-      <c r="B46" s="61" t="s">
-        <v>359</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="E46" s="77" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="9">
-        <v>889</v>
-      </c>
-      <c r="B47" s="112" t="s">
-        <v>396</v>
-      </c>
-      <c r="C47" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="9">
-        <v>897</v>
-      </c>
-      <c r="B48" s="61" t="s">
-        <v>361</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="9"/>
+      <c r="D48" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="E48" s="121"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
-        <v>938</v>
+        <v>897</v>
       </c>
       <c r="B49" s="61" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D49" s="10"/>
-      <c r="E49" s="9"/>
+      <c r="E49" s="121"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
-        <v>958</v>
-      </c>
-      <c r="B50" s="117" t="s">
-        <v>387</v>
-      </c>
-      <c r="C50" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="E50" s="9"/>
+        <v>938</v>
+      </c>
+      <c r="B50" s="61" t="s">
+        <v>361</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="121"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
-        <v>965</v>
-      </c>
-      <c r="B51" s="117" t="s">
-        <v>374</v>
+        <v>958</v>
+      </c>
+      <c r="B51" s="115" t="s">
+        <v>383</v>
       </c>
       <c r="C51" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" s="95" t="s">
-        <v>375</v>
-      </c>
-      <c r="E51" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="E51" s="121"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
-        <v>1008</v>
-      </c>
-      <c r="B52" s="117" t="s">
-        <v>391</v>
+        <v>965</v>
+      </c>
+      <c r="B52" s="115" t="s">
+        <v>370</v>
       </c>
       <c r="C52" s="77" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D52" s="95" t="s">
-        <v>390</v>
-      </c>
-      <c r="E52" s="9"/>
+        <v>371</v>
+      </c>
+      <c r="E52" s="121"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
-        <v>1104</v>
-      </c>
-      <c r="B53" s="117" t="s">
-        <v>378</v>
+        <v>1008</v>
+      </c>
+      <c r="B53" s="115" t="s">
+        <v>387</v>
       </c>
       <c r="C53" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="E53" s="9"/>
+      <c r="D53" s="95" t="s">
+        <v>386</v>
+      </c>
+      <c r="E53" s="121"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
-        <v>1325</v>
-      </c>
-      <c r="B54" s="112" t="s">
-        <v>372</v>
-      </c>
-      <c r="C54" s="9" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B54" s="115" t="s">
+        <v>374</v>
+      </c>
+      <c r="C54" s="77" t="s">
         <v>40</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="E54" s="77" t="s">
-        <v>201</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="E54" s="121"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
-        <v>1448</v>
-      </c>
-      <c r="B55" s="112" t="s">
-        <v>406</v>
+        <v>1325</v>
+      </c>
+      <c r="B55" s="110" t="s">
+        <v>368</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="E55" s="9"/>
+        <v>369</v>
+      </c>
+      <c r="E55" s="124" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
-        <v>2096</v>
-      </c>
-      <c r="B56" s="117" t="s">
-        <v>382</v>
-      </c>
-      <c r="C56" s="77" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B56" s="110" t="s">
+        <v>401</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="E56" s="9"/>
+        <v>402</v>
+      </c>
+      <c r="E56" s="121"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
+        <v>2096</v>
+      </c>
+      <c r="B57" s="115" t="s">
+        <v>378</v>
+      </c>
+      <c r="C57" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="E57" s="121"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="9">
         <v>2236</v>
       </c>
-      <c r="B57" s="112" t="s">
-        <v>408</v>
-      </c>
-      <c r="C57" s="9" t="s">
+      <c r="B58" s="110" t="s">
+        <v>403</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D58" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="E57" s="9"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
+      <c r="E58" s="121"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59" s="98"/>
     </row>
   </sheetData>
   <sortState ref="A3:E58">
@@ -48473,7 +48599,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">

--- a/leetcode/1. statistics/leetcode.xlsx
+++ b/leetcode/1. statistics/leetcode.xlsx
@@ -3857,12 +3857,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4354,7 +4354,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4601,7 +4601,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4616,11 +4616,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4640,7 +4637,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4655,7 +4652,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5046,7 +5043,7 @@
       <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="117" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="28" t="s">
@@ -5060,43 +5057,43 @@
       <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="118" t="s">
+      <c r="C2" s="117" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="118" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="118" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="119" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="118" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="119" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="119" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" ht="142.5" spans="1:3">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="119" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -5107,75 +5104,75 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="118" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="118" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="118" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="119" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="119" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="119" t="s">
+      <c r="A15" s="118" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="118" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="120" t="s">
+      <c r="A17" s="119" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="119" t="s">
+      <c r="A18" s="118" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="119" t="s">
+      <c r="A19" s="118" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="120" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="120" t="s">
+      <c r="A21" s="119" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="119" t="s">
+      <c r="A22" s="118" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="120" t="s">
+      <c r="A23" s="119" t="s">
         <v>29</v>
       </c>
     </row>
@@ -26811,12 +26808,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="110"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="109"/>
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5">
@@ -26837,7 +26834,7 @@
       </c>
     </row>
     <row r="3" ht="15" spans="1:5">
-      <c r="A3" s="111">
+      <c r="A3" s="110">
         <v>2</v>
       </c>
       <c r="B3" s="75" t="s">
@@ -26913,7 +26910,7 @@
       <c r="C7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="92" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="76" t="s">
@@ -26930,7 +26927,7 @@
       <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="92" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="76" t="s">
@@ -26947,7 +26944,7 @@
       <c r="C9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="92" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="76" t="s">
@@ -26964,7 +26961,7 @@
       <c r="C10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="93" t="s">
+      <c r="D10" s="92" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="76" t="s">
@@ -26981,27 +26978,27 @@
       <c r="C11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="92" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="76" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" s="106" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A12" s="112">
+    <row r="12" s="105" customFormat="1" ht="28.5" spans="1:5">
+      <c r="A12" s="111">
         <v>92</v>
       </c>
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="D12" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="114" t="s">
+      <c r="E12" s="113" t="s">
         <v>58</v>
       </c>
     </row>
@@ -27032,7 +27029,7 @@
       <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="92" t="s">
         <v>62</v>
       </c>
       <c r="E14" s="9"/>
@@ -27047,7 +27044,7 @@
       <c r="C15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="92" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="9"/>
@@ -27075,7 +27072,7 @@
       <c r="C17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="92" t="s">
         <v>67</v>
       </c>
       <c r="E17" s="76" t="s">
@@ -27092,7 +27089,7 @@
       <c r="C18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="93" t="s">
+      <c r="D18" s="92" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="76" t="s">
@@ -27109,7 +27106,7 @@
       <c r="C19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="93" t="s">
+      <c r="D19" s="92" t="s">
         <v>71</v>
       </c>
       <c r="E19" s="9"/>
@@ -27139,7 +27136,7 @@
       <c r="C21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="93" t="s">
+      <c r="D21" s="92" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="76" t="s">
@@ -27156,7 +27153,7 @@
       <c r="C22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="115" t="s">
+      <c r="D22" s="114" t="s">
         <v>76</v>
       </c>
       <c r="E22" s="74" t="s">
@@ -27173,7 +27170,7 @@
       <c r="C23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="93" t="s">
+      <c r="D23" s="92" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="76" t="s">
@@ -27190,7 +27187,7 @@
       <c r="C24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="93" t="s">
+      <c r="D24" s="92" t="s">
         <v>79</v>
       </c>
       <c r="E24" s="76" t="s">
@@ -27252,7 +27249,7 @@
       <c r="C28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="93" t="s">
+      <c r="D28" s="92" t="s">
         <v>52</v>
       </c>
       <c r="E28" s="76" t="s">
@@ -27269,7 +27266,7 @@
       <c r="C29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="116" t="s">
+      <c r="D29" s="115" t="s">
         <v>85</v>
       </c>
       <c r="E29" s="76" t="s">
@@ -27286,7 +27283,7 @@
       <c r="C30" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="93" t="s">
+      <c r="D30" s="92" t="s">
         <v>87</v>
       </c>
       <c r="E30" s="9"/>
@@ -27327,7 +27324,7 @@
       <c r="C33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="117"/>
+      <c r="D33" s="116"/>
       <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5">
@@ -27340,7 +27337,7 @@
       <c r="C34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="117"/>
+      <c r="D34" s="116"/>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5">
@@ -27366,7 +27363,7 @@
       <c r="C36" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="117"/>
+      <c r="D36" s="116"/>
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5">
@@ -27379,7 +27376,7 @@
       <c r="C37" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="116" t="s">
+      <c r="D37" s="115" t="s">
         <v>95</v>
       </c>
       <c r="E37" s="9"/>
@@ -45193,8 +45190,8 @@
   <sheetPr/>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -45208,14 +45205,15 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="87" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="88"/>
       <c r="C1" s="89"/>
       <c r="D1" s="90"/>
-      <c r="E1" s="91"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="91"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
@@ -45230,14 +45228,14 @@
       <c r="D2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="76" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="9">
         <v>94</v>
       </c>
@@ -45247,14 +45245,15 @@
       <c r="C3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="E3" s="76" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="91"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="9">
         <v>98</v>
       </c>
@@ -45267,11 +45266,12 @@
       <c r="D4" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" ht="28.5" spans="1:5">
+      <c r="F4" s="91"/>
+    </row>
+    <row r="5" ht="28.5" spans="1:6">
       <c r="A5" s="9">
         <v>99</v>
       </c>
@@ -45284,11 +45284,12 @@
       <c r="D5" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="91"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="9">
         <v>100</v>
       </c>
@@ -45301,11 +45302,12 @@
       <c r="D6" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="91" t="s">
+      <c r="E6" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="91"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="9">
         <v>101</v>
       </c>
@@ -45318,11 +45320,12 @@
       <c r="D7" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="91"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="9">
         <v>102</v>
       </c>
@@ -45335,11 +45338,12 @@
       <c r="D8" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="91"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="9">
         <v>103</v>
       </c>
@@ -45352,11 +45356,12 @@
       <c r="D9" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="91"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="9">
         <v>104</v>
       </c>
@@ -45369,32 +45374,34 @@
       <c r="D10" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="91" t="s">
+      <c r="E10" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="91"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="9">
         <v>105</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="93" t="s">
         <v>111</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="91"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="9">
         <v>106</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="94" t="s">
         <v>114</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -45403,31 +45410,32 @@
       <c r="D12" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="91" t="s">
+      <c r="E12" s="9" t="s">
         <v>113</v>
       </c>
+      <c r="F12" s="91"/>
     </row>
     <row r="13" ht="28.5" spans="1:6">
       <c r="A13" s="9">
         <v>107</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="93" t="s">
         <v>116</v>
       </c>
       <c r="C13" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="91" t="s">
+      <c r="E13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="F13" s="91" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="9">
         <v>108</v>
       </c>
@@ -45438,11 +45446,12 @@
         <v>42</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="91" t="s">
+      <c r="E14" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="91"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="9">
         <v>110</v>
       </c>
@@ -45455,11 +45464,12 @@
       <c r="D15" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="91" t="s">
+      <c r="E15" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="91"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="9">
         <v>111</v>
       </c>
@@ -45472,11 +45482,12 @@
       <c r="D16" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="91" t="s">
+      <c r="E16" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="91"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="9">
         <v>112</v>
       </c>
@@ -45486,12 +45497,13 @@
       <c r="C17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="91" t="s">
+      <c r="E17" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="F17" s="91"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="9">
@@ -45506,14 +45518,14 @@
       <c r="D18" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="91" t="s">
+      <c r="E18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="86" t="s">
+      <c r="F18" s="91" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="9">
         <v>144</v>
       </c>
@@ -45526,11 +45538,12 @@
       <c r="D19" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="91" t="s">
+      <c r="E19" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="91"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="9">
         <v>145</v>
       </c>
@@ -45543,11 +45556,12 @@
       <c r="D20" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="91" t="s">
+      <c r="E20" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="91"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="9">
         <v>226</v>
       </c>
@@ -45560,47 +45574,48 @@
       <c r="D21" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="91" t="s">
+      <c r="E21" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="F21" s="91"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="9">
         <v>235</v>
       </c>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="98" t="s">
+      <c r="D22" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="99" t="s">
+      <c r="E22" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="100"/>
+      <c r="F22" s="99"/>
     </row>
     <row r="23" ht="57" spans="1:6">
       <c r="A23" s="9">
         <v>236</v>
       </c>
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="100" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="102" t="s">
+      <c r="D23" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="99" t="s">
+      <c r="E23" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="100"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="99"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="9">
         <v>257</v>
       </c>
@@ -45613,26 +45628,28 @@
       <c r="D24" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="91" t="s">
+      <c r="E24" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="91"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="9">
         <v>331</v>
       </c>
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>139</v>
       </c>
       <c r="C25" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="103" t="s">
+      <c r="D25" s="102" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="91"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" s="9"/>
+      <c r="F25" s="91"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="9">
         <v>404</v>
       </c>
@@ -45643,24 +45660,26 @@
         <v>42</v>
       </c>
       <c r="D26" s="10"/>
-      <c r="E26" s="91"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26" s="9"/>
+      <c r="F26" s="91"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="9">
         <v>429</v>
       </c>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>142</v>
       </c>
       <c r="C27" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="93" t="s">
+      <c r="D27" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="E27" s="91"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="9"/>
+      <c r="F27" s="91"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="9">
         <v>501</v>
       </c>
@@ -45671,13 +45690,14 @@
         <v>42</v>
       </c>
       <c r="D28" s="10"/>
-      <c r="E28" s="91"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" s="9"/>
+      <c r="F28" s="91"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="9">
         <v>513</v>
       </c>
-      <c r="B29" s="95" t="s">
+      <c r="B29" s="94" t="s">
         <v>145</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -45686,9 +45706,10 @@
       <c r="D29" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E29" s="91"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" s="9"/>
+      <c r="F29" s="91"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="9">
         <v>530</v>
       </c>
@@ -45699,9 +45720,10 @@
         <v>42</v>
       </c>
       <c r="D30" s="10"/>
-      <c r="E30" s="91"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" s="9"/>
+      <c r="F30" s="91"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="9">
         <v>543</v>
       </c>
@@ -45711,12 +45733,13 @@
       <c r="C31" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="93" t="s">
+      <c r="D31" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="E31" s="91"/>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="E31" s="9"/>
+      <c r="F31" s="91"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="9">
         <v>572</v>
       </c>
@@ -45729,9 +45752,10 @@
       <c r="D32" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E32" s="91"/>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="E32" s="9"/>
+      <c r="F32" s="91"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="9">
         <v>606</v>
       </c>
@@ -45742,7 +45766,8 @@
         <v>42</v>
       </c>
       <c r="D33" s="10"/>
-      <c r="E33" s="91"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="91"/>
     </row>
     <row r="34" customFormat="1" ht="28.5" spans="1:6">
       <c r="A34" s="9">
@@ -45754,13 +45779,13 @@
       <c r="C34" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="93" t="s">
+      <c r="D34" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="E34" s="104"/>
-      <c r="F34" s="105"/>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="E34" s="103"/>
+      <c r="F34" s="104"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="9">
         <v>637</v>
       </c>
@@ -45773,9 +45798,10 @@
       <c r="D35" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E35" s="91"/>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="E35" s="9"/>
+      <c r="F35" s="91"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="9">
         <v>653</v>
       </c>
@@ -45786,28 +45812,30 @@
         <v>42</v>
       </c>
       <c r="D36" s="10"/>
-      <c r="E36" s="91"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="E36" s="9"/>
+      <c r="F36" s="91"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="9">
         <v>654</v>
       </c>
-      <c r="B37" s="94" t="s">
+      <c r="B37" s="93" t="s">
         <v>158</v>
       </c>
       <c r="C37" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="93" t="s">
+      <c r="D37" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="E37" s="91"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="E37" s="9"/>
+      <c r="F37" s="91"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="9">
         <v>655</v>
       </c>
-      <c r="B38" s="94" t="s">
+      <c r="B38" s="93" t="s">
         <v>160</v>
       </c>
       <c r="C38" s="76" t="s">
@@ -45816,9 +45844,10 @@
       <c r="D38" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E38" s="91"/>
-    </row>
-    <row r="39" ht="28.5" spans="1:5">
+      <c r="E38" s="9"/>
+      <c r="F38" s="91"/>
+    </row>
+    <row r="39" ht="28.5" spans="1:6">
       <c r="A39" s="9">
         <v>662</v>
       </c>
@@ -45828,16 +45857,17 @@
       <c r="C39" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="93" t="s">
+      <c r="D39" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="E39" s="91"/>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="E39" s="9"/>
+      <c r="F39" s="91"/>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="9">
         <v>669</v>
       </c>
-      <c r="B40" s="95" t="s">
+      <c r="B40" s="94" t="s">
         <v>164</v>
       </c>
       <c r="C40" s="76" t="s">
@@ -45846,9 +45876,10 @@
       <c r="D40" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E40" s="91"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="E40" s="9"/>
+      <c r="F40" s="91"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="9">
         <v>671</v>
       </c>
@@ -45859,13 +45890,14 @@
         <v>42</v>
       </c>
       <c r="D41" s="10"/>
-      <c r="E41" s="91"/>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="E41" s="9"/>
+      <c r="F41" s="91"/>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="9">
         <v>687</v>
       </c>
-      <c r="B42" s="95" t="s">
+      <c r="B42" s="94" t="s">
         <v>167</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -45874,9 +45906,10 @@
       <c r="D42" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E42" s="91"/>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="E42" s="9"/>
+      <c r="F42" s="91"/>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="9">
         <v>700</v>
       </c>
@@ -45889,9 +45922,10 @@
       <c r="D43" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E43" s="91"/>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="E43" s="9"/>
+      <c r="F43" s="91"/>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="9">
         <v>703</v>
       </c>
@@ -45902,9 +45936,10 @@
         <v>42</v>
       </c>
       <c r="D44" s="10"/>
-      <c r="E44" s="91"/>
-    </row>
-    <row r="45" ht="57" spans="1:5">
+      <c r="E44" s="9"/>
+      <c r="F44" s="91"/>
+    </row>
+    <row r="45" ht="57" spans="1:6">
       <c r="A45" s="9">
         <v>783</v>
       </c>
@@ -45917,13 +45952,14 @@
       <c r="D45" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E45" s="91"/>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="E45" s="9"/>
+      <c r="F45" s="91"/>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="9">
         <v>863</v>
       </c>
-      <c r="B46" s="94" t="s">
+      <c r="B46" s="93" t="s">
         <v>174</v>
       </c>
       <c r="C46" s="76" t="s">
@@ -45932,9 +45968,10 @@
       <c r="D46" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E46" s="91"/>
-    </row>
-    <row r="47" ht="57" spans="1:5">
+      <c r="E46" s="9"/>
+      <c r="F46" s="91"/>
+    </row>
+    <row r="47" ht="57" spans="1:6">
       <c r="A47" s="9">
         <v>872</v>
       </c>
@@ -45947,15 +45984,16 @@
       <c r="D47" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E47" s="92" t="s">
+      <c r="E47" s="76" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="48" ht="42.75" spans="1:5">
+      <c r="F47" s="91"/>
+    </row>
+    <row r="48" ht="42.75" spans="1:6">
       <c r="A48" s="9">
         <v>889</v>
       </c>
-      <c r="B48" s="95" t="s">
+      <c r="B48" s="94" t="s">
         <v>179</v>
       </c>
       <c r="C48" s="76" t="s">
@@ -45964,9 +46002,10 @@
       <c r="D48" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E48" s="91"/>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="E48" s="9"/>
+      <c r="F48" s="91"/>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="9">
         <v>897</v>
       </c>
@@ -45977,9 +46016,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="10"/>
-      <c r="E49" s="91"/>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="E49" s="9"/>
+      <c r="F49" s="91"/>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="9">
         <v>938</v>
       </c>
@@ -45990,13 +46030,14 @@
         <v>42</v>
       </c>
       <c r="D50" s="10"/>
-      <c r="E50" s="91"/>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="E50" s="9"/>
+      <c r="F50" s="91"/>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="9">
         <v>958</v>
       </c>
-      <c r="B51" s="94" t="s">
+      <c r="B51" s="93" t="s">
         <v>183</v>
       </c>
       <c r="C51" s="76" t="s">
@@ -46005,43 +46046,46 @@
       <c r="D51" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E51" s="91"/>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="E51" s="9"/>
+      <c r="F51" s="91"/>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="9">
         <v>965</v>
       </c>
-      <c r="B52" s="94" t="s">
+      <c r="B52" s="93" t="s">
         <v>185</v>
       </c>
       <c r="C52" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="93" t="s">
+      <c r="D52" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="E52" s="91"/>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="E52" s="9"/>
+      <c r="F52" s="91"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="9">
         <v>1008</v>
       </c>
-      <c r="B53" s="94" t="s">
+      <c r="B53" s="93" t="s">
         <v>187</v>
       </c>
       <c r="C53" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="93" t="s">
+      <c r="D53" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="E53" s="91"/>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="E53" s="9"/>
+      <c r="F53" s="91"/>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="9">
         <v>1104</v>
       </c>
-      <c r="B54" s="94" t="s">
+      <c r="B54" s="93" t="s">
         <v>188</v>
       </c>
       <c r="C54" s="76" t="s">
@@ -46050,13 +46094,14 @@
       <c r="D54" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="E54" s="91"/>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="E54" s="9"/>
+      <c r="F54" s="91"/>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="9">
         <v>1325</v>
       </c>
-      <c r="B55" s="95" t="s">
+      <c r="B55" s="94" t="s">
         <v>190</v>
       </c>
       <c r="C55" s="9" t="s">
@@ -46065,15 +46110,16 @@
       <c r="D55" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E55" s="92" t="s">
+      <c r="E55" s="76" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" s="91"/>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="9">
         <v>1448</v>
       </c>
-      <c r="B56" s="95" t="s">
+      <c r="B56" s="94" t="s">
         <v>192</v>
       </c>
       <c r="C56" s="9" t="s">
@@ -46082,13 +46128,14 @@
       <c r="D56" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E56" s="91"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="E56" s="9"/>
+      <c r="F56" s="91"/>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="9">
         <v>2096</v>
       </c>
-      <c r="B57" s="94" t="s">
+      <c r="B57" s="93" t="s">
         <v>194</v>
       </c>
       <c r="C57" s="76" t="s">
@@ -46097,13 +46144,14 @@
       <c r="D57" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E57" s="91"/>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="E57" s="9"/>
+      <c r="F57" s="91"/>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="9">
         <v>2236</v>
       </c>
-      <c r="B58" s="95" t="s">
+      <c r="B58" s="94" t="s">
         <v>195</v>
       </c>
       <c r="C58" s="9" t="s">
@@ -46112,7 +46160,8 @@
       <c r="D58" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="E58" s="91"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="91"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59"/>

--- a/leetcode/1. statistics/leetcode.xlsx
+++ b/leetcode/1. statistics/leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="1000" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="14" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="1065">
   <si>
     <t>算法大纲</t>
   </si>
@@ -566,6 +566,42 @@
     <t>DFS 遍历</t>
   </si>
   <si>
+    <t>二叉搜索树的范围和</t>
+  </si>
+  <si>
+    <t>DFS和BFS的简单应用</t>
+  </si>
+  <si>
+    <t>单值二叉树</t>
+  </si>
+  <si>
+    <t>递归判断值是否相等</t>
+  </si>
+  <si>
+    <t>二叉树寻路</t>
+  </si>
+  <si>
+    <t>构建二叉树，然后寻找到合适的路径</t>
+  </si>
+  <si>
+    <t>删除给定值的叶子节点</t>
+  </si>
+  <si>
+    <t>递归</t>
+  </si>
+  <si>
+    <t>统计二叉树中好节点的数目</t>
+  </si>
+  <si>
+    <t>深度优先搜索，很不错的题</t>
+  </si>
+  <si>
+    <t>从二叉树一个节点到另一个节点每一步的方向</t>
+  </si>
+  <si>
+    <t>树的反向搜素 +回溯</t>
+  </si>
+  <si>
     <t>特性</t>
   </si>
   <si>
@@ -576,9 +612,6 @@
   </si>
   <si>
     <t>相同的树</t>
-  </si>
-  <si>
-    <t>递归</t>
   </si>
   <si>
     <t>对称二叉树</t>
@@ -655,6 +688,23 @@
     <t>递归搜索满足条件的子树</t>
   </si>
   <si>
+    <t>叶子相似的树</t>
+  </si>
+  <si>
+    <t>思路：将所有的叶子节点按照属性存储进入到list中，然后判断叶子节点是否相同
+1. 递归
+2. 迭代：但是迭代的相率会比较低</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>二叉搜索树节点最小距离</t>
+  </si>
+  <si>
+    <t>我们知道二叉搜索树有个性质为二叉搜索树中序遍历得到的值序列是递增有序的，因此我们只要得到中序遍历后的值序列即能用上文提及的方法来解决。</t>
+  </si>
+  <si>
     <t>从前序与中序遍历序列构造二叉树</t>
   </si>
   <si>
@@ -696,15 +746,28 @@
     <t>寻找每一个区域的最大值，作为节点</t>
   </si>
   <si>
+    <t>递增顺序搜索树</t>
+  </si>
+  <si>
+    <t>1. 先按照中序遍历
+2. 开始构建二叉树</t>
+  </si>
+  <si>
+    <t>前序遍历构造二叉搜索树</t>
+  </si>
+  <si>
+    <t>DFS + 模拟</t>
+  </si>
+  <si>
+    <t>路径</t>
+  </si>
+  <si>
     <t>修剪二叉搜索树</t>
   </si>
   <si>
     <t>很巧妙的递归思想</t>
   </si>
   <si>
-    <t>路径</t>
-  </si>
-  <si>
     <t>路径总和</t>
   </si>
   <si>
@@ -717,12 +780,24 @@
     <t>回溯法</t>
   </si>
   <si>
+    <t>新颖</t>
+  </si>
+  <si>
     <t>二叉树的直径</t>
   </si>
   <si>
     <t>递归，求取左右子树的最大深度</t>
   </si>
   <si>
+    <t>二叉树中所有距离为 K 的结点</t>
+  </si>
+  <si>
+    <t>二叉树的完全性检验</t>
+  </si>
+  <si>
+    <t>给树节点编号，对比树的最大节点值</t>
+  </si>
+  <si>
     <t>验证二叉树的前序序列化</t>
   </si>
   <si>
@@ -732,94 +807,9 @@
     <t>输出二叉树</t>
   </si>
   <si>
-    <t>DFS + 模拟</t>
-  </si>
-  <si>
     <t>数据流中的第 K 大元素</t>
   </si>
   <si>
-    <t>二叉搜索树节点最小距离</t>
-  </si>
-  <si>
-    <t>我们知道二叉搜索树有个性质为二叉搜索树中序遍历得到的值序列是递增有序的，因此我们只要得到中序遍历后的值序列即能用上文提及的方法来解决。</t>
-  </si>
-  <si>
-    <t>二叉树中所有距离为 K 的结点</t>
-  </si>
-  <si>
-    <t>树的反向搜素 +回溯</t>
-  </si>
-  <si>
-    <t>叶子相似的树</t>
-  </si>
-  <si>
-    <t>思路：将所有的叶子节点按照属性存储进入到list中，然后判断叶子节点是否相同
-1. 递归
-2. 迭代：但是迭代的相率会比较低</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>递增顺序搜索树</t>
-  </si>
-  <si>
-    <t>二叉搜索树的范围和</t>
-  </si>
-  <si>
-    <t>二叉树的完全性检验</t>
-  </si>
-  <si>
-    <t>给树节点编号，对比树的最大节点值</t>
-  </si>
-  <si>
-    <t>单值二叉树</t>
-  </si>
-  <si>
-    <t>递归判断值是否相等</t>
-  </si>
-  <si>
-    <t>前序遍历构造二叉搜索树</t>
-  </si>
-  <si>
-    <t>二叉树寻路</t>
-  </si>
-  <si>
-    <t>构建二叉树，然后寻找到合适的路径</t>
-  </si>
-  <si>
-    <t>删除给定值的叶子节点</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ice</t>
-    </r>
-  </si>
-  <si>
-    <t>统计二叉树中好节点的数目</t>
-  </si>
-  <si>
-    <t>深度优先搜索，很不错的题</t>
-  </si>
-  <si>
-    <t>从二叉树一个节点到另一个节点每一步的方向</t>
-  </si>
-  <si>
     <t>忽略</t>
   </si>
   <si>
@@ -832,7 +822,10 @@
     <t>简单模拟</t>
   </si>
   <si>
-    <t>状态</t>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>基本使用</t>
   </si>
   <si>
     <t>优先队列的基本使用</t>
@@ -921,6 +914,9 @@
   <si>
     <t>1. 使用栈去记录左侧括号数
 2. 优化，使用计数法代替栈</t>
+  </si>
+  <si>
+    <t>状态</t>
   </si>
   <si>
     <t>最大单词长度乘积</t>
@@ -1367,9 +1363,6 @@
   </si>
   <si>
     <t>统计原字符串的每个字符的个数，然后根据order的顺序进行重新 排序</t>
-  </si>
-  <si>
-    <t>类型</t>
   </si>
   <si>
     <t>翻转图像</t>
@@ -2620,6 +2613,26 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ice</t>
+    </r>
+  </si>
+  <si>
     <t>使字符串平衡的最小交换次数</t>
   </si>
   <si>
@@ -3084,9 +3097,6 @@
   </si>
   <si>
     <t>x 的平方根</t>
-  </si>
-  <si>
-    <t>基本使用</t>
   </si>
   <si>
     <t>平方数之和</t>
@@ -4013,12 +4023,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4560,7 +4570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4843,6 +4853,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4861,12 +4872,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4879,14 +4884,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5248,7 +5268,7 @@
       <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="124" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="35" t="s">
@@ -5262,7 +5282,7 @@
       <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="124" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="37"/>
@@ -5362,7 +5382,7 @@
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="125" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5453,7 +5473,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>35</v>
@@ -5464,13 +5484,13 @@
         <v>1590</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5478,13 +5498,13 @@
         <v>1991</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5492,13 +5512,13 @@
         <v>238</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C6" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5506,7 +5526,7 @@
         <v>1652</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>43</v>
@@ -5520,13 +5540,13 @@
         <v>1664</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C9" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -5590,13 +5610,13 @@
         <v>44</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>96</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="12"/>
@@ -5607,13 +5627,13 @@
         <v>53</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="75" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>41</v>
@@ -5626,13 +5646,13 @@
         <v>62</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>41</v>
@@ -5645,13 +5665,13 @@
         <v>63</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>41</v>
@@ -5664,13 +5684,13 @@
         <v>64</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>41</v>
@@ -5683,13 +5703,13 @@
         <v>70</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>41</v>
@@ -5702,7 +5722,7 @@
         <v>72</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>96</v>
@@ -5716,13 +5736,13 @@
         <v>746</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>41</v>
@@ -5735,13 +5755,13 @@
         <v>91</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="74" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>41</v>
@@ -5754,13 +5774,13 @@
         <v>96</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>41</v>
@@ -5772,13 +5792,13 @@
         <v>97</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="75" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>41</v>
@@ -5791,13 +5811,13 @@
         <v>120</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>49</v>
@@ -5810,13 +5830,13 @@
         <v>121</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="75" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>41</v>
@@ -5829,13 +5849,13 @@
         <v>122</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>41</v>
@@ -5848,13 +5868,13 @@
         <v>123</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>62</v>
@@ -5867,13 +5887,13 @@
         <v>188</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>62</v>
@@ -5886,13 +5906,13 @@
         <v>309</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="75" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>62</v>
@@ -5905,13 +5925,13 @@
         <v>714</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="75" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>41</v>
@@ -5924,13 +5944,13 @@
         <v>2106</v>
       </c>
       <c r="B21" s="73" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="74" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>41</v>
@@ -5943,13 +5963,13 @@
         <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>41</v>
@@ -5962,13 +5982,13 @@
         <v>198</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>41</v>
@@ -5981,13 +6001,13 @@
         <v>213</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="75" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>41</v>
@@ -6000,13 +6020,13 @@
         <v>337</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="75" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>49</v>
@@ -6019,13 +6039,13 @@
         <v>221</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="75" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>41</v>
@@ -6038,16 +6058,16 @@
         <v>264</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="75" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -6057,13 +6077,13 @@
         <v>300</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="75" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>41</v>
@@ -6076,13 +6096,13 @@
         <v>1024</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="76" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>41</v>
@@ -6093,13 +6113,13 @@
         <v>343</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>41</v>
@@ -6112,13 +6132,13 @@
         <v>368</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="75" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>62</v>
@@ -6131,13 +6151,13 @@
         <v>139</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>41</v>
@@ -6150,13 +6170,13 @@
         <v>279</v>
       </c>
       <c r="B33" s="73" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>41</v>
@@ -6169,13 +6189,13 @@
         <v>322</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="75" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>41</v>
@@ -6188,13 +6208,13 @@
         <v>518</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="75" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>41</v>
@@ -6207,13 +6227,13 @@
         <v>377</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D36" s="75" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>41</v>
@@ -6226,13 +6246,13 @@
         <v>413</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="75" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>41</v>
@@ -6245,13 +6265,13 @@
         <v>416</v>
       </c>
       <c r="B38" s="73" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="74" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>41</v>
@@ -6264,13 +6284,13 @@
         <v>467</v>
       </c>
       <c r="B39" s="73" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="77" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>62</v>
@@ -6281,13 +6301,13 @@
         <v>474</v>
       </c>
       <c r="B40" s="78" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="75" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>62</v>
@@ -6298,13 +6318,13 @@
         <v>486</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="75" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>41</v>
@@ -6317,13 +6337,13 @@
         <v>877</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>41</v>
@@ -6336,13 +6356,13 @@
         <v>509</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D43" s="75" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>41</v>
@@ -6355,16 +6375,16 @@
         <v>516</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="75" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -6374,16 +6394,16 @@
         <v>523</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C45" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="46" s="12" customFormat="1" spans="1:5">
@@ -6391,13 +6411,13 @@
         <v>576</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C46" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>62</v>
@@ -6408,7 +6428,7 @@
         <v>583</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C47" s="46" t="s">
         <v>39</v>
@@ -6421,13 +6441,13 @@
         <v>650</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D48" s="75" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>41</v>
@@ -6440,13 +6460,13 @@
         <v>935</v>
       </c>
       <c r="B49" s="73" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D49" s="74" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="12"/>
@@ -6457,13 +6477,13 @@
         <v>494</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D50" s="75" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>41</v>
@@ -6476,13 +6496,13 @@
         <v>1049</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>41</v>
@@ -6495,13 +6515,13 @@
         <v>673</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D52" s="75" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>41</v>
@@ -6514,7 +6534,7 @@
         <v>674</v>
       </c>
       <c r="B53" s="73" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>43</v>
@@ -6529,13 +6549,13 @@
         <v>688</v>
       </c>
       <c r="B54" s="73" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>62</v>
@@ -6548,16 +6568,16 @@
         <v>698</v>
       </c>
       <c r="B55" s="73" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D55" s="74" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
@@ -6567,16 +6587,16 @@
         <v>718</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
@@ -6586,16 +6606,16 @@
         <v>740</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -6605,16 +6625,16 @@
         <v>795</v>
       </c>
       <c r="B58" s="73" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D58" s="74" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
@@ -6624,13 +6644,13 @@
         <v>873</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D59" s="75" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="12"/>
@@ -6641,13 +6661,13 @@
         <v>813</v>
       </c>
       <c r="B60" s="73" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D60" s="74" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E60" s="72" t="s">
         <v>62</v>
@@ -6660,13 +6680,13 @@
         <v>1014</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C61" s="72" t="s">
         <v>39</v>
       </c>
       <c r="D61" s="75" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>41</v>
@@ -6677,7 +6697,7 @@
         <v>1035</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C62" s="72" t="s">
         <v>39</v>
@@ -6690,13 +6710,13 @@
         <v>1043</v>
       </c>
       <c r="B63" s="73" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D63" s="75" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="12"/>
@@ -6707,13 +6727,13 @@
         <v>1109</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D64" s="75" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>41</v>
@@ -6724,7 +6744,7 @@
         <v>1143</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>39</v>
@@ -6737,13 +6757,13 @@
         <v>1177</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D66" s="75" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="12"/>
@@ -6754,16 +6774,16 @@
         <v>1186</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D67" s="75" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
@@ -6773,13 +6793,13 @@
         <v>1218</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D68" s="75" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>41</v>
@@ -6790,13 +6810,13 @@
         <v>1277</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D69" s="75" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="12"/>
@@ -6807,13 +6827,13 @@
         <v>1371</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D70" s="79" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="12"/>
@@ -6824,13 +6844,13 @@
         <v>1685</v>
       </c>
       <c r="B71" s="73" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D71" s="80" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E71" s="3"/>
     </row>
@@ -6839,16 +6859,16 @@
         <v>1727</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D72" s="81" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E72" s="82" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -6858,13 +6878,13 @@
         <v>1749</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D73" s="75" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>41</v>
@@ -6877,13 +6897,13 @@
         <v>1986</v>
       </c>
       <c r="B74" s="73" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D74" s="74" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="12"/>
@@ -6894,16 +6914,16 @@
         <v>2063</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D75" s="79" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E75" s="72" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
@@ -6913,16 +6933,16 @@
         <v>2110</v>
       </c>
       <c r="B76" s="73" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D76" s="74" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E76" s="72" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
@@ -6932,13 +6952,13 @@
         <v>2348</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C77" s="72" t="s">
         <v>39</v>
       </c>
       <c r="D77" s="75" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>41</v>
@@ -6951,13 +6971,13 @@
         <v>1504</v>
       </c>
       <c r="B78" s="73" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D78" s="83" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="12"/>
@@ -7525,10 +7545,10 @@
     </row>
     <row r="2" s="12" customFormat="1" ht="99" customHeight="1" spans="1:5">
       <c r="A2" s="12" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -7545,7 +7565,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>36</v>
@@ -7556,13 +7576,13 @@
         <v>990</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C4" s="70" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7570,7 +7590,7 @@
         <v>1319</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C5" s="70" t="s">
         <v>39</v>
@@ -7581,7 +7601,7 @@
         <v>886</v>
       </c>
       <c r="B6" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C6" s="70" t="s">
         <v>39</v>
@@ -7592,7 +7612,7 @@
         <v>721</v>
       </c>
       <c r="B7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C7" s="70" t="s">
         <v>39</v>
@@ -7647,7 +7667,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>35</v>
@@ -7658,14 +7678,14 @@
         <v>409</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="33" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
@@ -7673,14 +7693,14 @@
         <v>455</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="50" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F4" s="28"/>
     </row>
@@ -7689,14 +7709,14 @@
         <v>561</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="33" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="F5" s="28"/>
     </row>
@@ -7705,14 +7725,14 @@
         <v>605</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="34" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F6" s="28"/>
     </row>
@@ -7721,14 +7741,14 @@
         <v>680</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="34" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="F7" s="28"/>
     </row>
@@ -7737,14 +7757,14 @@
         <v>860</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="34" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F8" s="28"/>
     </row>
@@ -7753,14 +7773,14 @@
         <v>976</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="65" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="F9" s="28"/>
     </row>
@@ -7769,14 +7789,14 @@
         <v>1005</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="33" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="F10" s="28"/>
     </row>
@@ -7785,14 +7805,14 @@
         <v>1013</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="33" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F11" s="28"/>
     </row>
@@ -7801,7 +7821,7 @@
         <v>1221</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>43</v>
@@ -7817,7 +7837,7 @@
         <v>1323</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>43</v>
@@ -7830,7 +7850,7 @@
         <v>1710</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>43</v>
@@ -7838,7 +7858,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="50"/>
       <c r="F14" s="12" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7846,7 +7866,7 @@
         <v>2144</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>43</v>
@@ -7859,14 +7879,14 @@
         <v>11</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="35" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7874,14 +7894,14 @@
         <v>45</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="34" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7889,14 +7909,14 @@
         <v>55</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="34" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7904,14 +7924,14 @@
         <v>122</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="33" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="1:5">
@@ -7919,14 +7939,14 @@
         <v>134</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="33" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7934,14 +7954,14 @@
         <v>179</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="34" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7949,14 +7969,14 @@
         <v>316</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="34" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7964,7 +7984,7 @@
         <v>376</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>39</v>
@@ -7977,14 +7997,14 @@
         <v>397</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="50" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7992,13 +8012,13 @@
         <v>581</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="66" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8006,7 +8026,7 @@
         <v>621</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>39</v>
@@ -8017,13 +8037,13 @@
         <v>763</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="66" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -8031,14 +8051,14 @@
         <v>879</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="34" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -8046,14 +8066,14 @@
         <v>945</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="33" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -8061,7 +8081,7 @@
         <v>1011</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>39</v>
@@ -8074,13 +8094,13 @@
         <v>1647</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -8088,14 +8108,14 @@
         <v>2091</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="35" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -8103,7 +8123,7 @@
         <v>1833</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>39</v>
@@ -8116,16 +8136,16 @@
         <v>670</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E34" s="67" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" ht="28.5" spans="1:5">
@@ -8133,14 +8153,14 @@
         <v>594</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="33" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="36" ht="28.5" spans="1:5">
@@ -8148,14 +8168,14 @@
         <v>1737</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="33" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="37" s="12" customFormat="1" spans="1:5">
@@ -8163,13 +8183,13 @@
         <v>1800</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -8177,14 +8197,14 @@
         <v>1029</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="35" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="39" ht="28.5" spans="1:5">
@@ -8192,14 +8212,14 @@
         <v>2090</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="33" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="40" ht="28.5" spans="1:5">
@@ -8207,14 +8227,14 @@
         <v>1936</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="33" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -8222,13 +8242,13 @@
         <v>2365</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="42" ht="28.5" spans="1:5">
@@ -8236,14 +8256,14 @@
         <v>1946</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="33" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -8357,7 +8377,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8379,7 +8399,7 @@
         <v>241</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>39</v>
@@ -8393,7 +8413,7 @@
         <v>169</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C5" s="46" t="s">
         <v>43</v>
@@ -8404,18 +8424,18 @@
         <v>14</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C6" s="46" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="12" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -8476,13 +8496,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>41</v>
@@ -8493,13 +8513,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>41</v>
@@ -8510,13 +8530,13 @@
         <v>39</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="C5" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>41</v>
@@ -8527,16 +8547,16 @@
         <v>40</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="C6" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8544,13 +8564,13 @@
         <v>46</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C7" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>41</v>
@@ -8561,16 +8581,16 @@
         <v>47</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="C8" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8578,13 +8598,13 @@
         <v>51</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C9" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8592,13 +8612,13 @@
         <v>77</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>41</v>
@@ -8609,13 +8629,13 @@
         <v>78</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="C11" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>41</v>
@@ -8626,16 +8646,16 @@
         <v>90</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C12" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8643,16 +8663,16 @@
         <v>95</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="F13" s="12"/>
     </row>
@@ -8661,16 +8681,16 @@
         <v>131</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C14" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8678,7 +8698,7 @@
         <v>140</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="C15" s="46" t="s">
         <v>39</v>
@@ -8689,13 +8709,13 @@
         <v>212</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C16" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8703,13 +8723,13 @@
         <v>216</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="C17" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8717,13 +8737,13 @@
         <v>257</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>41</v>
@@ -8734,13 +8754,13 @@
         <v>1593</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -8748,13 +8768,13 @@
         <v>1239</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="21" ht="42.75" spans="1:5">
@@ -8762,16 +8782,16 @@
         <v>473</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="C21" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="E21" s="63" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -8779,13 +8799,13 @@
         <v>949</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="C22" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="23" ht="42.75" spans="1:4">
@@ -8793,13 +8813,13 @@
         <v>2048</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:4">
@@ -8807,13 +8827,13 @@
         <v>1443</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8905,7 +8925,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>35</v>
@@ -8916,13 +8936,13 @@
         <v>204</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8930,13 +8950,13 @@
         <v>1726</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8944,13 +8964,13 @@
         <v>1980</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C5" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8958,7 +8978,7 @@
         <v>397</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C6" s="46" t="s">
         <v>39</v>
@@ -8969,13 +8989,13 @@
         <v>2171</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="C7" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8983,16 +9003,16 @@
         <v>1094</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C8" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9000,13 +9020,13 @@
         <v>1925</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:5">
@@ -9014,13 +9034,13 @@
         <v>1551</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -9028,7 +9048,7 @@
         <v>1775</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>43</v>
@@ -9039,13 +9059,13 @@
         <v>179</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C12" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9053,13 +9073,13 @@
         <v>93</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="C13" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -9067,7 +9087,7 @@
         <v>989</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>43</v>
@@ -9078,13 +9098,13 @@
         <v>2029</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="C15" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9092,13 +9112,13 @@
         <v>60</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>96</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="1:6">
@@ -9106,16 +9126,16 @@
         <v>1509</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C17" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>195</v>
+        <v>727</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:6">
@@ -9123,14 +9143,14 @@
         <v>1963</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="35" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="F18" s="12"/>
     </row>
@@ -9139,13 +9159,13 @@
         <v>1191</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C19" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9153,13 +9173,13 @@
         <v>390</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -9167,7 +9187,7 @@
         <v>1539</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>43</v>
@@ -9181,13 +9201,13 @@
         <v>1362</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -9195,13 +9215,13 @@
         <v>1608</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -9209,13 +9229,13 @@
         <v>2119</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -9266,7 +9286,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>35</v>
@@ -9277,13 +9297,13 @@
         <v>1979</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9291,7 +9311,7 @@
         <v>162</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>39</v>
@@ -9302,7 +9322,7 @@
         <v>1047</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C5" s="46" t="s">
         <v>43</v>
@@ -9313,7 +9333,7 @@
         <v>118</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C6" s="46" t="s">
         <v>43</v>
@@ -9324,7 +9344,7 @@
         <v>648</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C7" s="46" t="s">
         <v>39</v>
@@ -9335,7 +9355,7 @@
         <v>1781</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="C8" s="46" t="s">
         <v>39</v>
@@ -9346,7 +9366,7 @@
         <v>326</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>43</v>
@@ -9357,13 +9377,13 @@
         <v>1408</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9371,13 +9391,13 @@
         <v>462</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C11" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -9385,7 +9405,7 @@
         <v>1464</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>43</v>
@@ -9396,13 +9416,13 @@
         <v>1961</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="C13" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9410,13 +9430,13 @@
         <v>1894</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C14" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:5">
@@ -9424,13 +9444,13 @@
         <v>1967</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C15" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9438,13 +9458,13 @@
         <v>539</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="C16" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -9452,13 +9472,13 @@
         <v>539</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C17" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9466,7 +9486,7 @@
         <v>838</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="C18" s="46" t="s">
         <v>39</v>
@@ -9477,13 +9497,13 @@
         <v>551</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="C19" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9491,13 +9511,13 @@
         <v>1025</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -9505,13 +9525,13 @@
         <v>1718</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="C21" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9519,7 +9539,7 @@
         <v>1909</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C22" s="46" t="s">
         <v>43</v>
@@ -9530,13 +9550,13 @@
         <v>2178</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row r="24" ht="28.5" spans="1:5">
@@ -9544,13 +9564,13 @@
         <v>502</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -9558,13 +9578,13 @@
         <v>1791</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -9572,13 +9592,13 @@
         <v>1154</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="C26" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
     </row>
     <row r="27" ht="57" spans="1:5">
@@ -9586,13 +9606,13 @@
         <v>1253</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="C27" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -9600,7 +9620,7 @@
         <v>1491</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C28" s="46" t="s">
         <v>43</v>
@@ -9611,13 +9631,13 @@
         <v>1968</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="C29" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9625,7 +9645,7 @@
         <v>1021</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>43</v>
@@ -9636,13 +9656,13 @@
         <v>43</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C31" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -9650,7 +9670,7 @@
         <v>2032</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>43</v>
@@ -9664,13 +9684,13 @@
         <v>1103</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:5">
@@ -9678,13 +9698,13 @@
         <v>1688</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="35" ht="28.5" spans="1:5">
@@ -9692,13 +9712,13 @@
         <v>383</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -9706,13 +9726,13 @@
         <v>357</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C36" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="37" ht="42.75" spans="1:5">
@@ -9720,13 +9740,13 @@
         <v>977</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -9734,13 +9754,13 @@
         <v>1295</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -9748,13 +9768,13 @@
         <v>1389</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -9762,7 +9782,7 @@
         <v>1503</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C40" s="46" t="s">
         <v>39</v>
@@ -9776,7 +9796,7 @@
         <v>2200</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C41" s="46" t="s">
         <v>39</v>
@@ -9790,13 +9810,13 @@
         <v>217</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -9804,13 +9824,13 @@
         <v>2239</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -9818,7 +9838,7 @@
         <v>941</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>43</v>
@@ -9832,13 +9852,13 @@
         <v>1619</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -9846,13 +9866,13 @@
         <v>1450</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -9860,13 +9880,13 @@
         <v>1929</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -9874,13 +9894,13 @@
         <v>1941</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
     </row>
     <row r="49" ht="57" spans="1:5">
@@ -9888,13 +9908,13 @@
         <v>443</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="C49" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -9902,13 +9922,13 @@
         <v>1541</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C50" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -9916,13 +9936,13 @@
         <v>1832</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -9930,13 +9950,13 @@
         <v>999</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -9944,13 +9964,13 @@
         <v>1431</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -9958,13 +9978,13 @@
         <v>1475</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -9972,13 +9992,13 @@
         <v>884</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -9986,13 +10006,13 @@
         <v>1566</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -10000,7 +10020,7 @@
         <v>127</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>96</v>
@@ -10011,13 +10031,13 @@
         <v>1054</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C58" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -10025,7 +10045,7 @@
         <v>2154</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>43</v>
@@ -10036,13 +10056,13 @@
         <v>1550</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -10050,7 +10070,7 @@
         <v>575</v>
       </c>
       <c r="B61" s="42" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>43</v>
@@ -10061,13 +10081,13 @@
         <v>1716</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -10075,13 +10095,13 @@
         <v>1869</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64" ht="28.5" spans="1:5">
@@ -10089,13 +10109,13 @@
         <v>1638</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -10103,7 +10123,7 @@
         <v>2138</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>43</v>
@@ -10117,7 +10137,7 @@
         <v>2299</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>43</v>
@@ -10131,13 +10151,13 @@
         <v>1614</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -10145,13 +10165,13 @@
         <v>1689</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -10159,13 +10179,13 @@
         <v>1952</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="70" ht="42.75" spans="1:5">
@@ -10173,13 +10193,13 @@
         <v>645</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -10187,13 +10207,13 @@
         <v>2206</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -10201,7 +10221,7 @@
         <v>1436</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>43</v>
@@ -10252,7 +10272,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>35</v>
@@ -10263,7 +10283,7 @@
         <v>355</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>39</v>
@@ -10276,7 +10296,7 @@
         <v>460</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>96</v>
@@ -10289,7 +10309,7 @@
         <v>622</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>39</v>
@@ -10302,7 +10322,7 @@
         <v>641</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>39</v>
@@ -10315,7 +10335,7 @@
         <v>705</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>39</v>
@@ -10328,7 +10348,7 @@
         <v>706</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>39</v>
@@ -10341,7 +10361,7 @@
         <v>707</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>39</v>
@@ -10354,7 +10374,7 @@
         <v>1206</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>96</v>
@@ -10367,7 +10387,7 @@
         <v>1472</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>39</v>
@@ -10380,7 +10400,7 @@
         <v>1797</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C12" s="46" t="s">
         <v>39</v>
@@ -10391,13 +10411,13 @@
         <v>307</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="C13" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -10449,7 +10469,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="E2" s="43" t="s">
         <v>35</v>
@@ -10460,13 +10480,13 @@
         <v>69</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="C3" s="57" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>864</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -10474,7 +10494,7 @@
         <v>633</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>43</v>
@@ -10485,7 +10505,7 @@
         <v>441</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C5" s="57" t="s">
         <v>43</v>
@@ -10496,10 +10516,10 @@
         <v>34</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:5">
@@ -10507,10 +10527,10 @@
         <v>153</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
     </row>
     <row r="9" ht="57" spans="1:5">
@@ -10518,13 +10538,13 @@
         <v>378</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10532,13 +10552,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" ht="27" spans="1:6">
@@ -10546,13 +10566,13 @@
         <v>1201</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="F11" s="46"/>
     </row>
@@ -10561,13 +10581,13 @@
         <v>1351</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10575,16 +10595,16 @@
         <v>275</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>195</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -10592,13 +10612,13 @@
         <v>35</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="59" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -10606,13 +10626,13 @@
         <v>2300</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -10620,13 +10640,13 @@
         <v>240</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="C16" s="43" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
     </row>
   </sheetData>
@@ -10691,10 +10711,10 @@
       </c>
     </row>
     <row r="3" ht="15" spans="1:6">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="114">
+      <c r="B3" s="119">
         <v>2</v>
       </c>
       <c r="C3" s="73" t="s">
@@ -10711,7 +10731,7 @@
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:6">
-      <c r="A4" s="107"/>
+      <c r="A4" s="112"/>
       <c r="B4" s="4">
         <v>21</v>
       </c>
@@ -10729,7 +10749,7 @@
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:6">
-      <c r="A5" s="107"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="4">
         <v>141</v>
       </c>
@@ -10747,7 +10767,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="107"/>
+      <c r="A6" s="112"/>
       <c r="B6" s="4">
         <v>142</v>
       </c>
@@ -10766,7 +10786,7 @@
       <c r="J6" s="14"/>
     </row>
     <row r="7" ht="28.5" spans="1:10">
-      <c r="A7" s="115"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="4">
         <v>160</v>
       </c>
@@ -10876,21 +10896,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" s="113" customFormat="1" ht="28.5" spans="1:6">
+    <row r="13" s="118" customFormat="1" ht="28.5" spans="1:6">
       <c r="A13" s="3"/>
-      <c r="B13" s="116">
+      <c r="B13" s="120">
         <v>92</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="110" t="s">
+      <c r="D13" s="109" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="109" t="s">
+      <c r="F13" s="108" t="s">
         <v>62</v>
       </c>
     </row>
@@ -11003,7 +11023,7 @@
       <c r="D20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="117" t="s">
+      <c r="E20" s="121" t="s">
         <v>74</v>
       </c>
       <c r="F20" s="72" t="s">
@@ -11123,7 +11143,7 @@
       <c r="D27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="118" t="s">
+      <c r="E27" s="122" t="s">
         <v>83</v>
       </c>
       <c r="F27" s="7" t="s">
@@ -11185,7 +11205,7 @@
       <c r="D31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="119"/>
+      <c r="E31" s="123"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6">
@@ -11199,7 +11219,7 @@
       <c r="D32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="119"/>
+      <c r="E32" s="123"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6">
@@ -11227,7 +11247,7 @@
       <c r="D34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="119"/>
+      <c r="E34" s="123"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6">
@@ -11241,7 +11261,7 @@
       <c r="D35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="118" t="s">
+      <c r="E35" s="122" t="s">
         <v>93</v>
       </c>
       <c r="F35" s="3"/>
@@ -11445,7 +11465,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>35</v>
@@ -11456,7 +11476,7 @@
         <v>219</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>43</v>
@@ -11467,7 +11487,7 @@
         <v>643</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>43</v>
@@ -11478,13 +11498,13 @@
         <v>1876</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11492,13 +11512,13 @@
         <v>1984</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -11506,7 +11526,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>39</v>
@@ -11517,7 +11537,7 @@
         <v>187</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>39</v>
@@ -11528,7 +11548,7 @@
         <v>209</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>39</v>
@@ -11539,13 +11559,13 @@
         <v>220</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="11" ht="71.25" spans="1:7">
@@ -11553,16 +11573,16 @@
         <v>395</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -11570,13 +11590,13 @@
         <v>424</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -11584,7 +11604,7 @@
         <v>438</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>39</v>
@@ -11595,13 +11615,13 @@
         <v>567</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -11609,13 +11629,13 @@
         <v>930</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -11623,13 +11643,13 @@
         <v>978</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -11637,13 +11657,13 @@
         <v>1004</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="F17" s="46"/>
     </row>
@@ -11652,13 +11672,13 @@
         <v>1052</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11666,13 +11686,13 @@
         <v>1208</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -11680,13 +11700,13 @@
         <v>1234</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -11694,7 +11714,7 @@
         <v>1423</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>39</v>
@@ -11705,13 +11725,13 @@
         <v>1456</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
     </row>
     <row r="23" ht="42.75" spans="1:5">
@@ -11719,13 +11739,13 @@
         <v>1493</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -11733,13 +11753,13 @@
         <v>1658</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -11747,13 +11767,13 @@
         <v>1696</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -11761,13 +11781,13 @@
         <v>1838</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -11775,13 +11795,13 @@
         <v>2024</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:9">
@@ -11789,14 +11809,14 @@
         <v>2104</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="C28" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="52" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
@@ -11808,13 +11828,13 @@
         <v>1525</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C29" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -11822,7 +11842,7 @@
         <v>904</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="C30" s="46" t="s">
         <v>39</v>
@@ -11833,13 +11853,13 @@
         <v>643</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="42.75" spans="1:5">
@@ -11847,13 +11867,13 @@
         <v>1248</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="C32" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
     </row>
     <row r="33" ht="42.75" spans="1:5">
@@ -11861,13 +11881,13 @@
         <v>1234</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="C33" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -11875,13 +11895,13 @@
         <v>1156</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="C34" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
     </row>
   </sheetData>
@@ -11933,7 +11953,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>35</v>
@@ -11945,7 +11965,7 @@
         <v>167</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -11956,12 +11976,12 @@
         <v>581</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="33" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="F4" s="12"/>
     </row>
@@ -11970,7 +11990,7 @@
         <v>1903</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -11981,10 +12001,10 @@
         <v>1712</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:6">
@@ -11992,14 +12012,14 @@
         <v>9</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="C8" s="46" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="35" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="F8" s="12"/>
     </row>
@@ -12008,14 +12028,14 @@
         <v>205</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="C9" s="46" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="35" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="F9" s="12"/>
     </row>
@@ -12024,14 +12044,14 @@
         <v>881</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="35" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -12040,14 +12060,14 @@
         <v>475</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="C11" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="35" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="F11" s="12"/>
     </row>
@@ -12056,14 +12076,14 @@
         <v>825</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="C12" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="35" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="F12" s="12"/>
     </row>
@@ -12072,14 +12092,14 @@
         <v>713</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="C13" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="35" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="F13" s="12"/>
     </row>
@@ -12088,14 +12108,14 @@
         <v>923</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="C14" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="35" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="F14" s="12"/>
     </row>
@@ -12104,13 +12124,13 @@
         <v>922</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="C15" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -12118,14 +12138,14 @@
         <v>345</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C16" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="35" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="F16" s="12"/>
     </row>
@@ -12134,14 +12154,14 @@
         <v>1768</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="C17" s="46" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="35" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="F17" s="12"/>
     </row>
@@ -12150,14 +12170,14 @@
         <v>165</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="C18" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="33" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="F18" s="12"/>
     </row>
@@ -12166,14 +12186,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C19" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="33" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="F19" s="12"/>
     </row>
@@ -12182,14 +12202,14 @@
         <v>1679</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="33" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="F20" s="12"/>
     </row>
@@ -12198,14 +12218,14 @@
         <v>392</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="C21" s="46" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="33" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="F21" s="12"/>
     </row>
@@ -12214,14 +12234,14 @@
         <v>283</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="C22" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="35" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="F22" s="12"/>
     </row>
@@ -12230,14 +12250,14 @@
         <v>1855</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="33" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="F23" s="12"/>
     </row>
@@ -12246,14 +12266,14 @@
         <v>1662</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="C24" s="46" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="33" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="F24" s="12"/>
     </row>
@@ -12262,14 +12282,14 @@
         <v>849</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="C25" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="35" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="F25" s="12"/>
     </row>
@@ -12278,14 +12298,14 @@
         <v>80</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="33" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="F26" s="12"/>
     </row>
@@ -12294,14 +12314,14 @@
         <v>16</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="33" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="F27" s="12"/>
     </row>
@@ -12310,16 +12330,16 @@
         <v>986</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -12635,7 +12655,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>35</v>
@@ -12649,7 +12669,7 @@
         <v>334</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>39</v>
@@ -12665,7 +12685,7 @@
         <v>1262</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -12679,14 +12699,14 @@
         <v>915</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="34" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -12697,14 +12717,14 @@
         <v>775</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="35" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
@@ -12715,7 +12735,7 @@
         <v>2177</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>39</v>
@@ -12731,7 +12751,7 @@
         <v>485</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>43</v>
@@ -12747,14 +12767,14 @@
         <v>628</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="35" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
@@ -29151,16 +29171,16 @@
         <v>495</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
@@ -29171,14 +29191,14 @@
         <v>1796</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="35" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
@@ -29189,14 +29209,14 @@
         <v>2037</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="35" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
@@ -29207,14 +29227,14 @@
         <v>1636</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="33" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
@@ -29225,7 +29245,7 @@
         <v>747</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>43</v>
@@ -30002,7 +30022,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>35</v>
@@ -30013,13 +30033,13 @@
         <v>215</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="1" ht="57" spans="1:5">
@@ -30027,13 +30047,13 @@
         <v>389</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:5">
@@ -30041,13 +30061,13 @@
         <v>268</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -30055,14 +30075,14 @@
         <v>1654</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="26" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -30070,7 +30090,7 @@
         <v>1752</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>43</v>
@@ -30081,13 +30101,13 @@
         <v>1812</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -30095,13 +30115,13 @@
         <v>969</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -30109,13 +30129,13 @@
         <v>89</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
     </row>
   </sheetData>
@@ -30178,7 +30198,7 @@
         <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
@@ -30189,13 +30209,13 @@
         <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -30203,7 +30223,7 @@
         <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
@@ -30214,7 +30234,7 @@
         <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -30225,7 +30245,7 @@
         <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="D7" t="s">
         <v>43</v>
@@ -30236,13 +30256,13 @@
         <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="D8" t="s">
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -30250,7 +30270,7 @@
         <v>183</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
@@ -30261,7 +30281,7 @@
         <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
@@ -30272,7 +30292,7 @@
         <v>196</v>
       </c>
       <c r="C11" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
@@ -30283,7 +30303,7 @@
         <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="D12" t="s">
         <v>39</v>
@@ -30294,7 +30314,7 @@
         <v>511</v>
       </c>
       <c r="C13" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
@@ -30305,7 +30325,7 @@
         <v>584</v>
       </c>
       <c r="C14" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="D14" t="s">
         <v>43</v>
@@ -30316,7 +30336,7 @@
         <v>586</v>
       </c>
       <c r="C15" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="D15" t="s">
         <v>43</v>
@@ -30327,7 +30347,7 @@
         <v>607</v>
       </c>
       <c r="C16" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
@@ -30338,13 +30358,13 @@
         <v>608</v>
       </c>
       <c r="C17" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="2:3">
@@ -30352,7 +30372,7 @@
         <v>626</v>
       </c>
       <c r="C18" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -30360,7 +30380,7 @@
         <v>627</v>
       </c>
       <c r="C19" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -30368,7 +30388,7 @@
         <v>1050</v>
       </c>
       <c r="C20" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -30376,7 +30396,7 @@
         <v>1084</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -30384,7 +30404,7 @@
         <v>1141</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -30392,7 +30412,7 @@
         <v>1148</v>
       </c>
       <c r="C23" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -30400,7 +30420,7 @@
         <v>1158</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -30408,7 +30428,7 @@
         <v>1393</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -30416,7 +30436,7 @@
         <v>1407</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -30424,7 +30444,7 @@
         <v>1527</v>
       </c>
       <c r="C27" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -30432,7 +30452,7 @@
         <v>1581</v>
       </c>
       <c r="C28" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -30440,7 +30460,7 @@
         <v>1587</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -30448,7 +30468,7 @@
         <v>1667</v>
       </c>
       <c r="C30" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -30456,7 +30476,7 @@
         <v>1693</v>
       </c>
       <c r="C31" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -30464,7 +30484,7 @@
         <v>1729</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -30472,7 +30492,7 @@
         <v>1741</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -30480,7 +30500,7 @@
         <v>1757</v>
       </c>
       <c r="C34" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -30488,7 +30508,7 @@
         <v>1795</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -30496,7 +30516,7 @@
         <v>1873</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -30504,7 +30524,7 @@
         <v>1890</v>
       </c>
       <c r="C37" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -30512,7 +30532,7 @@
         <v>1965</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
     </row>
   </sheetData>
@@ -30528,10 +30548,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A46" sqref="$A46:$XFD49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -30546,7 +30566,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>30</v>
       </c>
       <c r="C1"/>
@@ -30575,7 +30595,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="103" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="4">
@@ -30595,7 +30615,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="103"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="4">
         <v>144</v>
       </c>
@@ -30613,7 +30633,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="103"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="4">
         <v>145</v>
       </c>
@@ -30631,7 +30651,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="103"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="4">
         <v>102</v>
       </c>
@@ -30649,11 +30669,11 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="103"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="4">
         <v>107</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="105" t="s">
         <v>106</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -30667,7 +30687,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="103"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="4">
         <v>103</v>
       </c>
@@ -30685,11 +30705,11 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="103"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="4">
         <v>429</v>
       </c>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="105" t="s">
         <v>110</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -30703,11 +30723,11 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="103"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="4">
         <v>513</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="106" t="s">
         <v>112</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -30721,7 +30741,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="103"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="4">
         <v>637</v>
       </c>
@@ -30739,7 +30759,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="103"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="4">
         <v>653</v>
       </c>
@@ -30757,7 +30777,7 @@
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:6">
-      <c r="A13" s="103"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="4">
         <v>617</v>
       </c>
@@ -30773,7 +30793,7 @@
       <c r="F13" s="90"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="103"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="4">
         <v>606</v>
       </c>
@@ -30791,171 +30811,173 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="104"/>
+      <c r="B15" s="4">
+        <v>938</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="4">
-        <v>98</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="F15" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="104"/>
+      <c r="B16" s="4">
+        <v>965</v>
+      </c>
+      <c r="C16" s="105" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="104"/>
+      <c r="B17" s="4">
+        <v>1104</v>
+      </c>
+      <c r="C17" s="105" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E17" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="104"/>
+      <c r="B18" s="4">
+        <v>1325</v>
+      </c>
+      <c r="C18" s="106" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="107"/>
-      <c r="B16" s="4">
-        <v>100</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="3" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="104"/>
+      <c r="B19" s="4">
+        <v>1448</v>
+      </c>
+      <c r="C19" s="106" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="107"/>
-      <c r="B17" s="4">
-        <v>101</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="107"/>
-      <c r="B18" s="4">
-        <v>104</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="107"/>
-      <c r="B19" s="4">
-        <v>111</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="107"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="4">
-        <v>110</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>43</v>
+        <v>2096</v>
+      </c>
+      <c r="C20" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" ht="28.5" spans="1:6">
-      <c r="A21" s="107"/>
+    <row r="21" spans="1:6">
+      <c r="A21" s="103" t="s">
+        <v>134</v>
+      </c>
       <c r="B21" s="4">
-        <v>662</v>
-      </c>
-      <c r="C21" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="83" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" ht="28.5" spans="1:6">
-      <c r="A22" s="107"/>
+      <c r="E21" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="104"/>
       <c r="B22" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="107"/>
+      <c r="A23" s="104"/>
       <c r="B23" s="4">
-        <v>235</v>
-      </c>
-      <c r="C23" s="108" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="109" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="110" t="s">
-        <v>62</v>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="107"/>
+      <c r="A24" s="104"/>
       <c r="B24" s="4">
-        <v>501</v>
+        <v>104</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>139</v>
@@ -30963,15 +30985,17 @@
       <c r="D24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="92"/>
-      <c r="F24" s="110" t="s">
-        <v>49</v>
+      <c r="E24" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="107"/>
+      <c r="A25" s="104"/>
       <c r="B25" s="4">
-        <v>530</v>
+        <v>111</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>140</v>
@@ -30982,14 +31006,14 @@
       <c r="E25" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="F25" s="110" t="s">
-        <v>62</v>
+      <c r="F25" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="107"/>
+      <c r="A26" s="104"/>
       <c r="B26" s="4">
-        <v>572</v>
+        <v>110</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>142</v>
@@ -31000,172 +31024,170 @@
       <c r="E26" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F26" s="110" t="s">
+      <c r="F26" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" ht="57" spans="1:6">
-      <c r="A27" s="107"/>
+    <row r="27" ht="28.5" spans="1:6">
+      <c r="A27" s="104"/>
       <c r="B27" s="4">
-        <v>236</v>
-      </c>
-      <c r="C27" s="111" t="s">
+        <v>662</v>
+      </c>
+      <c r="C27" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="109" t="s">
+      <c r="D27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="91" t="s">
+      <c r="E27" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="F27" s="110" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="103"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" ht="28.5" spans="1:6">
+      <c r="A28" s="104"/>
       <c r="B28" s="4">
-        <v>671</v>
+        <v>99</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>146</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="103"/>
+      <c r="A29" s="104"/>
       <c r="B29" s="4">
-        <v>687</v>
-      </c>
-      <c r="C29" s="105" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="107" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>41</v>
+      <c r="E29" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="109" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="103"/>
+      <c r="A30" s="104"/>
       <c r="B30" s="4">
-        <v>700</v>
+        <v>501</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="E30" s="92"/>
+      <c r="F30" s="109" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="104"/>
+      <c r="B31" s="4">
+        <v>530</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="109" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="104"/>
+      <c r="B32" s="4">
+        <v>572</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F32" s="109" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="4">
-        <v>105</v>
-      </c>
-      <c r="C31" s="104" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="3" t="s">
+    <row r="33" ht="57" spans="1:6">
+      <c r="A33" s="104"/>
+      <c r="B33" s="4">
+        <v>236</v>
+      </c>
+      <c r="C33" s="110" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="103"/>
-      <c r="B32" s="4">
-        <v>106</v>
-      </c>
-      <c r="C32" s="105" t="s">
-        <v>154</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" ht="42.75" spans="1:6">
-      <c r="A33" s="103"/>
-      <c r="B33" s="4">
-        <v>889</v>
-      </c>
-      <c r="C33" s="105" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="F33" s="3"/>
+      <c r="F33" s="109" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="103"/>
+      <c r="A34" s="104"/>
       <c r="B34" s="4">
-        <v>116</v>
+        <v>671</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>157</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="109" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="104"/>
+      <c r="B35" s="4">
+        <v>687</v>
+      </c>
+      <c r="C35" s="106" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="103"/>
-      <c r="B35" s="4">
-        <v>108</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="E35" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="18"/>
       <c r="F35" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="103"/>
+      <c r="A36" s="104"/>
       <c r="B36" s="4">
-        <v>226</v>
+        <v>700</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>160</v>
@@ -31180,398 +31202,409 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="103"/>
+    <row r="37" ht="57" spans="1:6">
+      <c r="A37" s="104"/>
       <c r="B37" s="4">
-        <v>654</v>
-      </c>
-      <c r="C37" s="104" t="s">
+        <v>872</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" ht="57" spans="1:6">
+      <c r="A38" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="4">
+        <v>783</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="112"/>
+      <c r="B39" s="4">
+        <v>105</v>
+      </c>
+      <c r="C39" s="105" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="E37" s="83" t="s">
-        <v>163</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="103"/>
-      <c r="B38" s="4">
-        <v>669</v>
-      </c>
-      <c r="C38" s="105" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="102" t="s">
-        <v>166</v>
-      </c>
-      <c r="B39" s="4">
-        <v>112</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="E39" s="83" t="s">
         <v>168</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="103"/>
+      <c r="A40" s="112"/>
       <c r="B40" s="4">
-        <v>257</v>
-      </c>
-      <c r="C40" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" ht="42.75" spans="1:6">
       <c r="A41" s="112"/>
       <c r="B41" s="4">
-        <v>543</v>
-      </c>
-      <c r="C41" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="C41" s="106" t="s">
         <v>171</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="112"/>
+      <c r="B42" s="4">
+        <v>116</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="112"/>
+      <c r="B43" s="4">
+        <v>108</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="83" t="s">
-        <v>172</v>
-      </c>
-      <c r="F41" s="12" t="s">
+      <c r="E43" s="18"/>
+      <c r="F43" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="3"/>
-    </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="3"/>
+      <c r="A44" s="112"/>
       <c r="B44" s="4">
-        <v>331</v>
-      </c>
-      <c r="C44" s="104" t="s">
-        <v>173</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" s="91" t="s">
-        <v>174</v>
-      </c>
-      <c r="F44" s="3"/>
+        <v>226</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A45" s="112"/>
       <c r="B45" s="4">
-        <v>655</v>
-      </c>
-      <c r="C45" s="104" t="s">
-        <v>175</v>
+        <v>654</v>
+      </c>
+      <c r="C45" s="105" t="s">
+        <v>178</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="18" t="s">
-        <v>176</v>
+      <c r="E45" s="83" t="s">
+        <v>179</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" ht="28.5" spans="1:6">
+      <c r="A46" s="113"/>
       <c r="B46" s="4">
-        <v>703</v>
+        <v>897</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" ht="57" spans="1:6">
-      <c r="A47" s="3"/>
+      <c r="E46" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="113"/>
       <c r="B47" s="4">
-        <v>783</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="F47" s="3"/>
+        <v>1008</v>
+      </c>
+      <c r="C47" s="105" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="83" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="3"/>
+      <c r="A48" s="111" t="s">
+        <v>184</v>
+      </c>
       <c r="B48" s="4">
-        <v>863</v>
-      </c>
-      <c r="C48" s="104" t="s">
-        <v>180</v>
+        <v>669</v>
+      </c>
+      <c r="C48" s="106" t="s">
+        <v>185</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" ht="57" spans="1:6">
-      <c r="A49" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="112"/>
       <c r="B49" s="4">
-        <v>872</v>
+        <v>112</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>184</v>
+      <c r="E49" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="3"/>
-      <c r="F50" s="3"/>
+      <c r="A50" s="114"/>
+      <c r="B50" s="4">
+        <v>257</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="3"/>
+      <c r="A51" s="115" t="s">
+        <v>191</v>
+      </c>
       <c r="B51" s="4">
-        <v>897</v>
+        <v>543</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="3"/>
+      <c r="E51" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="116"/>
       <c r="B52" s="4">
-        <v>938</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="18"/>
-      <c r="F52" s="3"/>
+        <v>863</v>
+      </c>
+      <c r="C52" s="105" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="3"/>
+      <c r="A53" s="117" t="s">
+        <v>28</v>
+      </c>
       <c r="B53" s="4">
         <v>958</v>
       </c>
-      <c r="C53" s="104" t="s">
-        <v>187</v>
+      <c r="C53" s="105" t="s">
+        <v>195</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="F53" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="3"/>
+      <c r="A54" s="117"/>
       <c r="B54" s="4">
-        <v>965</v>
-      </c>
-      <c r="C54" s="104" t="s">
-        <v>189</v>
+        <v>331</v>
+      </c>
+      <c r="C54" s="105" t="s">
+        <v>197</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" s="83" t="s">
-        <v>190</v>
+        <v>39</v>
+      </c>
+      <c r="E54" s="91" t="s">
+        <v>198</v>
       </c>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="3"/>
+      <c r="A55" s="116"/>
       <c r="B55" s="4">
-        <v>1008</v>
-      </c>
-      <c r="C55" s="104" t="s">
-        <v>191</v>
+        <v>655</v>
+      </c>
+      <c r="C55" s="105" t="s">
+        <v>199</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="83" t="s">
-        <v>176</v>
-      </c>
-      <c r="F55" s="3"/>
+      <c r="E55" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3"/>
       <c r="B56" s="4">
-        <v>1104</v>
-      </c>
-      <c r="C56" s="104" t="s">
-        <v>192</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>193</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="18"/>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="3"/>
+      <c r="A57" s="93" t="s">
+        <v>201</v>
+      </c>
       <c r="B57" s="4">
-        <v>1325</v>
-      </c>
-      <c r="C57" s="105" t="s">
-        <v>194</v>
+        <v>404</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>195</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="3"/>
+      <c r="A58" s="95"/>
       <c r="B58" s="4">
-        <v>1448</v>
-      </c>
-      <c r="C58" s="105" t="s">
-        <v>196</v>
+        <v>2236</v>
+      </c>
+      <c r="C58" s="106" t="s">
+        <v>203</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="3"/>
-      <c r="B59" s="4">
-        <v>2096</v>
-      </c>
-      <c r="C59" s="104" t="s">
-        <v>198</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="B60" s="4">
-        <v>404</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="95"/>
-      <c r="B61" s="4">
-        <v>2236</v>
-      </c>
-      <c r="C61" s="105" t="s">
-        <v>201</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62" s="37"/>
+    <row r="59" spans="2:5">
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59" s="37"/>
     </row>
   </sheetData>
   <sortState ref="B3:G58">
     <sortCondition ref="B3"/>
   </sortState>
-  <mergeCells count="5">
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A15:A27"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A60:A61"/>
+  <mergeCells count="7">
+    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="A21:A37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A57:A58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="主页!A1" display="主页"/>
@@ -31585,250 +31618,255 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="5.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="47.375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="12" customWidth="1"/>
     <col min="5" max="5" width="39.5" style="33" customWidth="1"/>
     <col min="6" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="16"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="12">
+      <c r="A3" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="12">
         <v>703</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="46" t="s">
+      <c r="C4" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="12">
+      <c r="E4" s="35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="12">
         <v>2208</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="46" t="s">
+      <c r="C5" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="35" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="12">
+      <c r="E5" s="35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="12">
         <v>1209</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="46" t="s">
+      <c r="C6" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" ht="42.75" spans="1:5">
-      <c r="A6" s="12">
+      <c r="E6" s="33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" ht="42.75" spans="2:5">
+      <c r="B7" s="12">
         <v>402</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6" s="46" t="s">
+      <c r="C7" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="35" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="12">
+      <c r="E7" s="35" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="12">
         <v>1944</v>
       </c>
-      <c r="B7" s="46" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7" s="46" t="s">
+      <c r="C8" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" ht="28.5" spans="1:5">
-      <c r="A8" s="12">
+      <c r="E8" s="35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" spans="2:5">
+      <c r="B9" s="12">
         <v>735</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" s="46" t="s">
+      <c r="C9" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="12">
+      <c r="E9" s="33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="12">
         <v>1609</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="46" t="s">
+      <c r="C10" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="35" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="12">
+      <c r="E10" s="35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="12">
         <v>1006</v>
       </c>
-      <c r="B10" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="46" t="s">
+      <c r="C11" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="35" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" ht="42.75" spans="1:5">
-      <c r="A11" s="12">
+      <c r="E11" s="35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" ht="42.75" spans="2:5">
+      <c r="B12" s="12">
         <v>739</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="46" t="s">
+      <c r="C12" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="12">
+      <c r="E12" s="35" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="12">
         <v>856</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C12" s="46" t="s">
+      <c r="C13" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" ht="28.5" spans="1:5">
-      <c r="A13" s="12">
+      <c r="E13" s="33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="2:5">
+      <c r="B14" s="12">
         <v>1306</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C13" s="46" t="s">
+      <c r="C14" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="33" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" ht="57" spans="1:5">
-      <c r="A14" s="12">
+      <c r="E14" s="33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" ht="57" spans="2:5">
+      <c r="B15" s="12">
         <v>1091</v>
       </c>
-      <c r="B14" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" s="46" t="s">
+      <c r="C15" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="100" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" ht="57" spans="1:5">
-      <c r="A15" s="12">
+      <c r="E15" s="101" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" ht="57" spans="2:5">
+      <c r="B16" s="12">
         <v>2216</v>
       </c>
-      <c r="B15" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="46" t="s">
+      <c r="C16" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" ht="28.5" spans="1:5">
-      <c r="A16" s="12">
+      <c r="E16" s="35" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="2:5">
+      <c r="B17" s="12">
         <v>921</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="46"/>
+      <c r="E17" s="33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="46"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1:E1" location="主页!A1" display="主页"/>
+    <hyperlink ref="A1" location="主页!A1" display="主页"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -31875,7 +31913,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>35</v>
@@ -31886,13 +31924,13 @@
         <v>318</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:5">
@@ -31900,13 +31938,13 @@
         <v>128</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="1" spans="1:5">
@@ -31914,7 +31952,7 @@
         <v>287</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>39</v>
@@ -31926,10 +31964,10 @@
         <v>1711</v>
       </c>
       <c r="B6" s="99" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D6" s="98"/>
       <c r="E6" s="34"/>
@@ -31939,7 +31977,7 @@
         <v>692</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>39</v>
@@ -31950,13 +31988,13 @@
         <v>890</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" ht="42.75" spans="1:5">
@@ -31964,13 +32002,13 @@
         <v>525</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -31978,13 +32016,13 @@
         <v>442</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -31992,13 +32030,13 @@
         <v>2085</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C11" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -32006,13 +32044,13 @@
         <v>974</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -32020,7 +32058,7 @@
         <v>2099</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>43</v>
@@ -32031,13 +32069,13 @@
         <v>916</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C14" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -32045,7 +32083,7 @@
         <v>781</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C15" s="46" t="s">
         <v>39</v>
@@ -32056,13 +32094,13 @@
         <v>1935</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C16" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -32070,13 +32108,13 @@
         <v>451</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C17" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" ht="42.75" spans="1:5">
@@ -32084,13 +32122,13 @@
         <v>1684</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C18" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -32098,13 +32136,13 @@
         <v>1394</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C19" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" ht="71.25" spans="1:5">
@@ -32112,13 +32150,13 @@
         <v>697</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -32126,13 +32164,13 @@
         <v>1331</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C21" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -32140,13 +32178,13 @@
         <v>1640</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C22" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -32154,13 +32192,13 @@
         <v>1481</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -32168,13 +32206,13 @@
         <v>1497</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C24" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" ht="42.75" spans="1:5">
@@ -32182,13 +32220,13 @@
         <v>2190</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C25" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -32196,13 +32234,13 @@
         <v>2260</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C26" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -32210,13 +32248,13 @@
         <v>1338</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C27" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -32224,13 +32262,13 @@
         <v>888</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C28" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" ht="85.5" spans="1:5">
@@ -32238,13 +32276,13 @@
         <v>1557</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C29" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" ht="42.75" spans="1:5">
@@ -32252,13 +32290,13 @@
         <v>2248</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C30" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" ht="28.5" spans="1:5">
@@ -32266,13 +32304,13 @@
         <v>2287</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C31" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -32280,13 +32318,13 @@
         <v>532</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -32294,13 +32332,13 @@
         <v>939</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:16384">
@@ -48748,13 +48786,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -48762,13 +48800,13 @@
         <v>1576</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -48776,13 +48814,13 @@
         <v>1209</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -48790,13 +48828,13 @@
         <v>2000</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" ht="42.75" spans="2:5">
@@ -48804,13 +48842,13 @@
         <v>686</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="2:5">
@@ -48818,13 +48856,13 @@
         <v>1138</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -48832,7 +48870,7 @@
         <v>2129</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>43</v>
@@ -48843,13 +48881,13 @@
         <v>1784</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" ht="42.75" spans="2:5">
@@ -48857,13 +48895,13 @@
         <v>1440</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D11" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -48871,13 +48909,13 @@
         <v>1985</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" ht="42.75" spans="2:5">
@@ -48885,13 +48923,13 @@
         <v>1897</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -48899,13 +48937,13 @@
         <v>1880</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D14" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -48913,16 +48951,16 @@
         <v>784</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D15" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" ht="27" spans="2:5">
@@ -48930,13 +48968,13 @@
         <v>151</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D16" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -48944,13 +48982,13 @@
         <v>1694</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D17" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -48958,13 +48996,13 @@
         <v>2109</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D18" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" ht="42.75" spans="2:6">
@@ -48972,16 +49010,16 @@
         <v>696</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D19" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -48989,13 +49027,13 @@
         <v>1249</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D20" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" ht="57" spans="2:5">
@@ -49003,13 +49041,13 @@
         <v>792</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D21" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -49017,13 +49055,13 @@
         <v>1446</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D22" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" ht="28.5" spans="2:5">
@@ -49031,13 +49069,13 @@
         <v>709</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D23" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -49045,13 +49083,13 @@
         <v>434</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D24" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -49059,13 +49097,13 @@
         <v>459</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D25" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" ht="27" spans="2:5">
@@ -49073,13 +49111,13 @@
         <v>242</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D26" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -49087,7 +49125,7 @@
         <v>415</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D27" s="46" t="s">
         <v>43</v>
@@ -49101,13 +49139,13 @@
         <v>394</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D28" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -49115,13 +49153,13 @@
         <v>1668</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D29" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -49129,13 +49167,13 @@
         <v>1417</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D30" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -49143,13 +49181,13 @@
         <v>1592</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D31" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" ht="42.75" spans="2:5">
@@ -49157,13 +49195,13 @@
         <v>524</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D32" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -49171,13 +49209,13 @@
         <v>504</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D33" s="46" t="s">
         <v>43</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" ht="57" spans="2:5">
@@ -49185,13 +49223,13 @@
         <v>1930</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -49199,7 +49237,7 @@
         <v>680</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D35" s="46" t="s">
         <v>43</v>
@@ -49213,13 +49251,13 @@
         <v>791</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -49262,7 +49300,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>351</v>
+        <v>205</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>32</v>
@@ -49288,13 +49326,13 @@
         <v>832</v>
       </c>
       <c r="C3" s="73" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="83" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>49</v>
@@ -49306,16 +49344,16 @@
         <v>498</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="83" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -49324,13 +49362,13 @@
         <v>1424</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -49340,13 +49378,13 @@
         <v>1672</v>
       </c>
       <c r="C6" s="73" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>41</v>
@@ -49354,19 +49392,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="88" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B7" s="89">
         <v>79</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="90" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>41</v>
@@ -49378,13 +49416,13 @@
         <v>1905</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="91" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>41</v>
@@ -49396,13 +49434,13 @@
         <v>840</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>49</v>
@@ -49414,13 +49452,13 @@
         <v>1020</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>41</v>
@@ -49432,13 +49470,13 @@
         <v>419</v>
       </c>
       <c r="C11" s="73" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -49448,16 +49486,16 @@
         <v>1162</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="83" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -49466,31 +49504,31 @@
         <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="88" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B14" s="3">
         <v>56</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>41</v>
@@ -49502,13 +49540,13 @@
         <v>406</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="92" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>41</v>
@@ -49520,13 +49558,13 @@
         <v>435</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="92" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>41</v>
@@ -49538,13 +49576,13 @@
         <v>452</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="92" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>41</v>
@@ -49556,7 +49594,7 @@
         <v>646</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>39</v>
@@ -49570,13 +49608,13 @@
         <v>598</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -49586,13 +49624,13 @@
         <v>1901</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="83" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -49610,13 +49648,13 @@
         <v>997</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="83" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -49626,13 +49664,13 @@
         <v>1232</v>
       </c>
       <c r="C23" s="73" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E23" s="83" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -49642,13 +49680,13 @@
         <v>1893</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="83" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -49658,13 +49696,13 @@
         <v>1337</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F25" s="3"/>
     </row>
@@ -49674,13 +49712,13 @@
         <v>1139</v>
       </c>
       <c r="C26" s="73" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="83" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -49690,13 +49728,13 @@
         <v>519</v>
       </c>
       <c r="C27" s="73" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="83" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -49714,13 +49752,13 @@
         <v>1282</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F29" s="3"/>
     </row>
@@ -49730,13 +49768,13 @@
         <v>766</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F30" s="3"/>
     </row>
@@ -49746,13 +49784,13 @@
         <v>1041</v>
       </c>
       <c r="C31" s="73" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="83" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F31" s="3"/>
     </row>
@@ -49770,13 +49808,13 @@
         <v>773</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>96</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F34" s="3"/>
     </row>
@@ -49788,13 +49826,13 @@
         <v>2022</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F35" s="3"/>
     </row>
@@ -49804,13 +49842,13 @@
         <v>1854</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F36" s="3"/>
     </row>
@@ -49820,13 +49858,13 @@
         <v>867</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F37" s="3"/>
     </row>
@@ -49870,7 +49908,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -49938,7 +49976,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>36</v>
@@ -49949,13 +49987,13 @@
         <v>274</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" ht="42.75" spans="1:5">
@@ -49963,13 +50001,13 @@
         <v>962</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode/1. statistics/leetcode.xlsx
+++ b/leetcode/1. statistics/leetcode.xlsx
@@ -46,7 +46,7 @@
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="1065">
   <si>
     <t>算法大纲</t>
   </si>
@@ -837,17 +837,17 @@
     <t>优先队列降序排列，优先减点最大元素的一半</t>
   </si>
   <si>
-    <t>删除字符串中的所有相邻重复项 II</t>
-  </si>
-  <si>
-    <t>栈的灵活使用，不错的题</t>
-  </si>
-  <si>
     <t>移掉 K 位数字</t>
   </si>
   <si>
     <t>双端队列经典使用：
 如果当前的数字后一个数字大，那么就移除当前的数字</t>
+  </si>
+  <si>
+    <t>删除字符串中的所有相邻重复项 II</t>
+  </si>
+  <si>
+    <t>记录指针的移动情况，难点转变思维去记录指针</t>
   </si>
   <si>
     <t>队列中可以看到的人数</t>
@@ -4023,12 +4023,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4570,7 +4570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4884,25 +4884,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -5268,7 +5250,7 @@
       <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="118" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="35" t="s">
@@ -5282,7 +5264,7 @@
       <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="118" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="37"/>
@@ -5382,7 +5364,7 @@
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="125" t="s">
+      <c r="A20" s="119" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10711,10 +10693,10 @@
       </c>
     </row>
     <row r="3" ht="15" spans="1:6">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="119">
+      <c r="B3" s="113">
         <v>2</v>
       </c>
       <c r="C3" s="73" t="s">
@@ -10731,7 +10713,7 @@
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:6">
-      <c r="A4" s="112"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="4">
         <v>21</v>
       </c>
@@ -10749,7 +10731,7 @@
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:6">
-      <c r="A5" s="112"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="4">
         <v>141</v>
       </c>
@@ -10767,7 +10749,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="112"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="4">
         <v>142</v>
       </c>
@@ -10786,7 +10768,7 @@
       <c r="J6" s="14"/>
     </row>
     <row r="7" ht="28.5" spans="1:10">
-      <c r="A7" s="114"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="4">
         <v>160</v>
       </c>
@@ -10896,9 +10878,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" s="118" customFormat="1" ht="28.5" spans="1:6">
+    <row r="13" s="112" customFormat="1" ht="28.5" spans="1:6">
       <c r="A13" s="3"/>
-      <c r="B13" s="120">
+      <c r="B13" s="114">
         <v>92</v>
       </c>
       <c r="C13" s="107" t="s">
@@ -11023,7 +11005,7 @@
       <c r="D20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="121" t="s">
+      <c r="E20" s="115" t="s">
         <v>74</v>
       </c>
       <c r="F20" s="72" t="s">
@@ -11143,7 +11125,7 @@
       <c r="D27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="122" t="s">
+      <c r="E27" s="116" t="s">
         <v>83</v>
       </c>
       <c r="F27" s="7" t="s">
@@ -11205,7 +11187,7 @@
       <c r="D31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="123"/>
+      <c r="E31" s="117"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6">
@@ -11219,7 +11201,7 @@
       <c r="D32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="123"/>
+      <c r="E32" s="117"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6">
@@ -11247,7 +11229,7 @@
       <c r="D34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="123"/>
+      <c r="E34" s="117"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6">
@@ -11261,7 +11243,7 @@
       <c r="D35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="122" t="s">
+      <c r="E35" s="116" t="s">
         <v>93</v>
       </c>
       <c r="F35" s="3"/>
@@ -31221,7 +31203,7 @@
       </c>
     </row>
     <row r="38" ht="57" spans="1:6">
-      <c r="A38" s="111" t="s">
+      <c r="A38" s="103" t="s">
         <v>52</v>
       </c>
       <c r="B38" s="4">
@@ -31239,7 +31221,7 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="112"/>
+      <c r="A39" s="104"/>
       <c r="B39" s="4">
         <v>105</v>
       </c>
@@ -31257,7 +31239,7 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="112"/>
+      <c r="A40" s="104"/>
       <c r="B40" s="4">
         <v>106</v>
       </c>
@@ -31275,7 +31257,7 @@
       </c>
     </row>
     <row r="41" ht="42.75" spans="1:6">
-      <c r="A41" s="112"/>
+      <c r="A41" s="104"/>
       <c r="B41" s="4">
         <v>889</v>
       </c>
@@ -31291,7 +31273,7 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="112"/>
+      <c r="A42" s="104"/>
       <c r="B42" s="4">
         <v>116</v>
       </c>
@@ -31309,7 +31291,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="112"/>
+      <c r="A43" s="104"/>
       <c r="B43" s="4">
         <v>108</v>
       </c>
@@ -31325,7 +31307,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="112"/>
+      <c r="A44" s="104"/>
       <c r="B44" s="4">
         <v>226</v>
       </c>
@@ -31343,7 +31325,7 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="112"/>
+      <c r="A45" s="104"/>
       <c r="B45" s="4">
         <v>654</v>
       </c>
@@ -31361,7 +31343,7 @@
       </c>
     </row>
     <row r="46" ht="28.5" spans="1:6">
-      <c r="A46" s="113"/>
+      <c r="A46" s="104"/>
       <c r="B46" s="4">
         <v>897</v>
       </c>
@@ -31379,7 +31361,7 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="113"/>
+      <c r="A47" s="104"/>
       <c r="B47" s="4">
         <v>1008</v>
       </c>
@@ -31397,7 +31379,7 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="111" t="s">
+      <c r="A48" s="103" t="s">
         <v>184</v>
       </c>
       <c r="B48" s="4">
@@ -31417,7 +31399,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="112"/>
+      <c r="A49" s="104"/>
       <c r="B49" s="4">
         <v>112</v>
       </c>
@@ -31435,7 +31417,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="114"/>
+      <c r="A50" s="111"/>
       <c r="B50" s="4">
         <v>257</v>
       </c>
@@ -31453,7 +31435,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="115" t="s">
+      <c r="A51" s="93" t="s">
         <v>191</v>
       </c>
       <c r="B51" s="4">
@@ -31473,7 +31455,7 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="116"/>
+      <c r="A52" s="95"/>
       <c r="B52" s="4">
         <v>863</v>
       </c>
@@ -31488,7 +31470,7 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="117" t="s">
+      <c r="A53" s="94" t="s">
         <v>28</v>
       </c>
       <c r="B53" s="4">
@@ -31508,7 +31490,7 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="117"/>
+      <c r="A54" s="94"/>
       <c r="B54" s="4">
         <v>331</v>
       </c>
@@ -31524,7 +31506,7 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="116"/>
+      <c r="A55" s="95"/>
       <c r="B55" s="4">
         <v>655</v>
       </c>
@@ -31618,13 +31600,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="12"/>
     <col min="2" max="2" width="5.5" style="12" customWidth="1"/>
@@ -31642,7 +31624,7 @@
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="12" t="s">
         <v>205</v>
       </c>
@@ -31656,69 +31638,84 @@
         <v>34</v>
       </c>
       <c r="E2" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="B3" s="12">
+        <v>703</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="12">
-        <v>703</v>
+        <v>2208</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
+        <v>209</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" ht="42.75" spans="2:6">
       <c r="B5" s="12">
-        <v>2208</v>
+        <v>402</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+        <v>211</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="1:6">
+      <c r="A6" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="B6" s="12">
         <v>1209</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" ht="42.75" spans="2:5">
-      <c r="B7" s="12">
-        <v>402</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="35" t="s">
         <v>213</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -31865,6 +31862,9 @@
       <c r="C18" s="46"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A5"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="主页!A1" display="主页"/>
   </hyperlinks>
@@ -48814,7 +48814,7 @@
         <v>1209</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D5" s="46" t="s">
         <v>39</v>

--- a/leetcode/1. statistics/leetcode.xlsx
+++ b/leetcode/1. statistics/leetcode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="1000" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="1000" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="主页" sheetId="14" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="1081">
   <si>
     <t>算法大纲</t>
   </si>
@@ -2099,6 +2099,13 @@
     <t>排序+累加和</t>
   </si>
   <si>
+    <t>最长和谐子序列</t>
+  </si>
+  <si>
+    <t>1. 排序+滑动窗口+贪心
+2. 哈希统计每个数字出现的频率</t>
+  </si>
+  <si>
     <t>将数组分成和相等的三个部分</t>
   </si>
   <si>
@@ -2106,6 +2113,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 6 和 9 组成的最大数字</t>
+  </si>
+  <si>
+    <t>雪糕的最大数量</t>
   </si>
   <si>
     <t>盛最多水的容器</t>
@@ -2163,13 +2173,32 @@
     <t>不错的思路</t>
   </si>
   <si>
+    <t>最大交换</t>
+  </si>
+  <si>
+    <t>1. 贪心：记录每个苏子
+2. 暴力</t>
+  </si>
+  <si>
     <t>验证回文字符串 Ⅱ</t>
   </si>
   <si>
     <t>贪心+双指针</t>
   </si>
   <si>
+    <t>划分字母区间</t>
+  </si>
+  <si>
+    <t>哈希记录每个字符最终出现的文字，并由此来分割字符串</t>
+  </si>
+  <si>
     <t>柠檬水找零</t>
+  </si>
+  <si>
+    <t>优势洗牌</t>
+  </si>
+  <si>
+    <t>优先队列+贪心</t>
   </si>
   <si>
     <t>三角形的最大周长</t>
@@ -2186,40 +2215,19 @@
 3. 没有0翻转最小的整数即可</t>
   </si>
   <si>
+    <t>在 D 天内送达包裹的能力</t>
+  </si>
+  <si>
+    <t>二分查找法</t>
+  </si>
+  <si>
+    <t>两地调度</t>
+  </si>
+  <si>
+    <t>根据差值进行排序+贪心</t>
+  </si>
+  <si>
     <t>分割平衡字符串</t>
-  </si>
-  <si>
-    <t>卡车上的最大单元数</t>
-  </si>
-  <si>
-    <t>打折购买糖果的最小开销</t>
-  </si>
-  <si>
-    <t>排序，跳2检查</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>划分字母区间</t>
-  </si>
-  <si>
-    <t>哈希记录每个字符最终出现的文字，并由此来分割字符串</t>
-  </si>
-  <si>
-    <t>优势洗牌</t>
-  </si>
-  <si>
-    <t>优先队列+贪心</t>
-  </si>
-  <si>
-    <t>使数组唯一的最小增量</t>
-  </si>
-  <si>
-    <t>核心的思想仍然是计数法</t>
-  </si>
-  <si>
-    <t>在 D 天内送达包裹的能力</t>
   </si>
   <si>
     <t>字符频次唯一的最小删除次数</t>
@@ -2230,27 +2238,7 @@
 然后对于相同的字符次数进行递减，直到不存在相同频次的字符，统计递减的次数</t>
   </si>
   <si>
-    <t>从数组中移除最大值和最小值</t>
-  </si>
-  <si>
-    <t>比较，获取最优的删除策略</t>
-  </si>
-  <si>
-    <t>雪糕的最大数量</t>
-  </si>
-  <si>
-    <t>最大交换</t>
-  </si>
-  <si>
-    <t>1. 贪心：类似于字符的计数方式，想法不错
-2. 暴力</t>
-  </si>
-  <si>
-    <t>最长和谐子序列</t>
-  </si>
-  <si>
-    <t>1. 排序+滑动窗口+贪心
-2. 哈希统计每个数字出现的频率</t>
+    <t>卡车上的最大单元数</t>
   </si>
   <si>
     <t>满足三条件之一需改变的最少字符数</t>
@@ -2266,10 +2254,25 @@
     <t>贪心， 记录连续递增的子数组</t>
   </si>
   <si>
-    <t>两地调度</t>
-  </si>
-  <si>
-    <t>根据差值进行排序+贪心</t>
+    <t>从数组中移除最大值和最小值</t>
+  </si>
+  <si>
+    <t>比较，获取最优的删除策略</t>
+  </si>
+  <si>
+    <t>打折购买糖果的最小开销</t>
+  </si>
+  <si>
+    <t>排序，跳2检查</t>
+  </si>
+  <si>
+    <t>使数组唯一的最小增量</t>
+  </si>
+  <si>
+    <t>核心的思想仍然是计数法</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>半径为 k 的子数组平均值</t>
@@ -3849,7 +3852,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3884,6 +3887,12 @@
       <color rgb="FF88846F"/>
       <name val="Consolas"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -4092,6 +4101,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4242,12 +4257,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4322,19 +4331,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -4363,6 +4359,19 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -4472,10 +4481,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4484,32 +4493,29 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4521,98 +4527,101 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4809,26 +4818,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4845,67 +4848,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4915,16 +4918,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4978,9 +4978,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1"/>
@@ -5332,13 +5329,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="57" spans="1:4">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="133" t="s">
+      <c r="C1" s="129" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
@@ -5346,49 +5343,49 @@
       </c>
     </row>
     <row r="2" ht="85.5" customHeight="1" spans="1:4">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="128" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="129" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="96" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="96" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="130" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="130" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="130" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="130" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" ht="142.5" spans="1:3">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="130" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -5399,75 +5396,75 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="96" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="96" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="96" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="130" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="130" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="96" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="96" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="134" t="s">
+      <c r="A17" s="130" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="96" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="96" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="135" t="s">
+      <c r="A20" s="131" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="130" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="96" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="134" t="s">
+      <c r="A23" s="130" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5507,12 +5504,12 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -5531,714 +5528,774 @@
       <c r="C1" s="69"/>
       <c r="D1" s="69"/>
       <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="70" t="s">
         <v>573</v>
       </c>
-      <c r="B3" s="71">
+      <c r="B3" s="3">
         <v>397</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="71" t="s">
         <v>575</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71">
+      <c r="A4" s="72"/>
+      <c r="B4" s="3">
         <v>409</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="34" t="s">
         <v>577</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="3" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71">
+      <c r="A5" s="72"/>
+      <c r="B5" s="3">
         <v>561</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="73" t="s">
         <v>578</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="34" t="s">
         <v>579</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="3" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71">
+      <c r="A6" s="72"/>
+      <c r="B6" s="10">
+        <v>594</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="72"/>
+      <c r="B7" s="3">
         <v>1013</v>
       </c>
-      <c r="C6" s="73" t="s">
-        <v>580</v>
-      </c>
-      <c r="D6" s="71" t="s">
+      <c r="C7" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E7" s="34" t="s">
+        <v>583</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="72"/>
+      <c r="B8" s="3">
+        <v>1323</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="72"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="74"/>
+      <c r="B10" s="10">
+        <v>1833</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>587</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>45</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>589</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>55</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>589</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
+        <v>134</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>592</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <v>316</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="76" t="s">
+        <v>594</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>376</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>596</v>
+      </c>
+      <c r="F16" s="77" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
+        <v>455</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>598</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
         <v>581</v>
       </c>
-      <c r="F6" s="71" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71">
-        <v>1323</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>582</v>
-      </c>
-      <c r="D7" s="71" t="s">
+      <c r="C18" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="78" t="s">
+        <v>600</v>
+      </c>
+      <c r="F18" s="77" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
+        <v>605</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="71" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="71" t="s">
+      <c r="E19" s="76" t="s">
+        <v>598</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="71">
-        <v>11</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>583</v>
-      </c>
-      <c r="D8" s="71" t="s">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3">
+        <v>621</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="77" t="s">
-        <v>584</v>
-      </c>
-      <c r="F8" s="72" t="s">
+      <c r="E20" s="79" t="s">
+        <v>603</v>
+      </c>
+      <c r="F20" s="77" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5" spans="1:6">
+      <c r="A21" s="3"/>
+      <c r="B21" s="10">
+        <v>670</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="80" t="s">
+        <v>605</v>
+      </c>
+      <c r="F21" s="77" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3">
+        <v>680</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="76" t="s">
+        <v>607</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71">
-        <v>45</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>585</v>
-      </c>
-      <c r="D9" s="71" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="3"/>
+      <c r="B23" s="10">
+        <v>763</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="78" t="s">
-        <v>586</v>
-      </c>
-      <c r="F9" s="72" t="s">
+      <c r="E23" s="81" t="s">
+        <v>609</v>
+      </c>
+      <c r="F23" s="77" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3">
+        <v>860</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="76" t="s">
+        <v>598</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71">
-        <v>55</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>587</v>
-      </c>
-      <c r="D10" s="71" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="3"/>
+      <c r="B25" s="10">
+        <v>870</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="78" t="s">
-        <v>586</v>
-      </c>
-      <c r="F10" s="72" t="s">
+      <c r="E25" s="82" t="s">
+        <v>612</v>
+      </c>
+      <c r="F25" s="83" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3">
+        <v>976</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="76" t="s">
+        <v>614</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71">
-        <v>134</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>588</v>
-      </c>
-      <c r="D11" s="71" t="s">
+    <row r="27" ht="42.75" spans="1:6">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3"/>
+      <c r="B28" s="10">
+        <v>1011</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="75" t="s">
-        <v>589</v>
-      </c>
-      <c r="F11" s="72" t="s">
+      <c r="E28" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3"/>
+      <c r="B29" s="10">
+        <v>1029</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71">
-        <v>316</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>590</v>
-      </c>
-      <c r="D12" s="71" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3">
+        <v>1221</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" ht="57" spans="1:6">
+      <c r="A31" s="3"/>
+      <c r="B31" s="10">
+        <v>1647</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="78" t="s">
-        <v>591</v>
-      </c>
-      <c r="F12" s="72" t="s">
+      <c r="E31" s="80" t="s">
+        <v>623</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71">
-        <v>376</v>
-      </c>
-      <c r="C13" s="73" t="s">
-        <v>592</v>
-      </c>
-      <c r="D13" s="71" t="s">
+    <row r="32" spans="1:6">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3">
+        <v>1710</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="71" t="s">
+        <v>411</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" ht="28.5" spans="1:6">
+      <c r="A33" s="3"/>
+      <c r="B33" s="10">
+        <v>1737</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="74" t="s">
-        <v>593</v>
-      </c>
-      <c r="F13" s="79" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71">
-        <v>455</v>
-      </c>
-      <c r="C14" s="73" t="s">
-        <v>594</v>
-      </c>
-      <c r="D14" s="71" t="s">
+      <c r="E33" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3"/>
+      <c r="B34" s="10">
+        <v>1800</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="74" t="s">
-        <v>595</v>
-      </c>
-      <c r="F14" s="72" t="s">
+      <c r="E34" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71">
-        <v>581</v>
-      </c>
-      <c r="C15" s="73" t="s">
-        <v>596</v>
-      </c>
-      <c r="D15" s="71" t="s">
+    <row r="35" spans="1:6">
+      <c r="A35" s="3"/>
+      <c r="B35" s="10">
+        <v>2091</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="80" t="s">
-        <v>597</v>
-      </c>
-      <c r="F15" s="79" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71">
-        <v>605</v>
-      </c>
-      <c r="C16" s="73" t="s">
-        <v>598</v>
-      </c>
-      <c r="D16" s="71" t="s">
+      <c r="E35" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3">
+        <v>2144</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="78" t="s">
-        <v>595</v>
-      </c>
-      <c r="F16" s="72" t="s">
+      <c r="E36" s="71" t="s">
+        <v>632</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71">
-        <v>621</v>
-      </c>
-      <c r="C17" s="73" t="s">
-        <v>599</v>
-      </c>
-      <c r="D17" s="71" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="10">
+        <v>945</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="81" t="s">
-        <v>600</v>
-      </c>
-      <c r="F17" s="79" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71">
-        <v>680</v>
-      </c>
-      <c r="C18" s="73" t="s">
-        <v>601</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="78" t="s">
-        <v>602</v>
-      </c>
-      <c r="F18" s="72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71">
-        <v>860</v>
-      </c>
-      <c r="C19" s="73" t="s">
-        <v>603</v>
-      </c>
-      <c r="D19" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="78" t="s">
-        <v>595</v>
-      </c>
-      <c r="F19" s="72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71">
-        <v>976</v>
-      </c>
-      <c r="C20" s="73" t="s">
-        <v>604</v>
-      </c>
-      <c r="D20" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="78" t="s">
-        <v>605</v>
-      </c>
-      <c r="F20" s="72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" ht="42.75" spans="1:6">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71">
-        <v>1005</v>
-      </c>
-      <c r="C21" s="73" t="s">
-        <v>606</v>
-      </c>
-      <c r="D21" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="75" t="s">
-        <v>607</v>
-      </c>
-      <c r="F21" s="72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71">
-        <v>1221</v>
-      </c>
-      <c r="C22" s="73" t="s">
-        <v>608</v>
-      </c>
-      <c r="D22" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71">
-        <v>1710</v>
-      </c>
-      <c r="C23" s="73" t="s">
-        <v>609</v>
-      </c>
-      <c r="D23" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="74" t="s">
-        <v>411</v>
-      </c>
-      <c r="F23" s="72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71">
-        <v>2144</v>
-      </c>
-      <c r="C24" s="73" t="s">
-        <v>610</v>
-      </c>
-      <c r="D24" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="74" t="s">
-        <v>611</v>
-      </c>
-      <c r="F24" s="72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="6:6">
-      <c r="F26" s="10" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5">
-      <c r="C32"/>
-      <c r="E32"/>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="10">
-        <v>763</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>613</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="E37" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="10" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44"/>
+      <c r="E44"/>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" s="15"/>
+    </row>
+    <row r="60" s="10" customFormat="1"/>
+    <row r="62" ht="28.5" spans="2:5">
+      <c r="B62" s="10">
+        <v>2090</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="82" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="10">
-        <v>879</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="E62" s="16" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="63" ht="28.5" spans="2:5">
+      <c r="B63" s="10">
+        <v>1936</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="D63" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="31" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="10">
-        <v>945</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>617</v>
-      </c>
-      <c r="D40" s="10" t="s">
+      <c r="E63" s="16" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="19">
+        <v>2365</v>
+      </c>
+      <c r="C64" s="84" t="s">
+        <v>640</v>
+      </c>
+      <c r="D64" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="10">
-        <v>1011</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="D41" s="10" t="s">
+      <c r="E64" s="44" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="65" ht="28.5" spans="2:5">
+      <c r="B65" s="10">
+        <v>1946</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="16"/>
-    </row>
-    <row r="42" ht="57" spans="2:5">
-      <c r="B42" s="10">
-        <v>1647</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>620</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="83" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="10">
-        <v>2091</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="10">
-        <v>1833</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>624</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="16"/>
-    </row>
-    <row r="45" ht="28.5" spans="2:6">
-      <c r="B45" s="10">
-        <v>670</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>625</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="83" t="s">
-        <v>626</v>
-      </c>
-      <c r="F45" s="15"/>
-    </row>
-    <row r="46" ht="28.5" spans="2:5">
-      <c r="B46" s="10">
-        <v>594</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="47" ht="28.5" spans="2:5">
-      <c r="B47" s="10">
-        <v>1737</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>629</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="48" s="10" customFormat="1" spans="2:5">
-      <c r="B48" s="10">
-        <v>1800</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>631</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="10">
-        <v>1029</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>633</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="50" ht="28.5" spans="2:5">
-      <c r="B50" s="10">
-        <v>2090</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>635</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="51" ht="28.5" spans="2:5">
-      <c r="B51" s="10">
-        <v>1936</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="19">
-        <v>2365</v>
-      </c>
-      <c r="C52" s="84" t="s">
-        <v>639</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="44" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="53" ht="28.5" spans="2:5">
-      <c r="B53" s="10">
-        <v>1946</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>641</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="10"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="16"/>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="10"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="16"/>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="16"/>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="16"/>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="16"/>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" s="10"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="16"/>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="16"/>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="16"/>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" s="10"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="16"/>
+      <c r="E65" s="16" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="10"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="10"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="16"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="10"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="16"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="10"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="16"/>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="10"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="16"/>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="10"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="10"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="16"/>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="10"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="16"/>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="10"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A24"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="主页!A1" display="主页"/>
@@ -6287,7 +6344,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6309,7 +6366,7 @@
         <v>241</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>40</v>
@@ -6323,7 +6380,7 @@
         <v>169</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>44</v>
@@ -6334,18 +6391,18 @@
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -6362,8 +6419,8 @@
   <sheetPr/>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -6406,13 +6463,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>42</v>
@@ -6423,13 +6480,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>42</v>
@@ -6440,13 +6497,13 @@
         <v>39</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>42</v>
@@ -6457,16 +6514,16 @@
         <v>40</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6474,13 +6531,13 @@
         <v>46</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>42</v>
@@ -6491,16 +6548,16 @@
         <v>47</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6508,13 +6565,13 @@
         <v>51</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6522,13 +6579,13 @@
         <v>77</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>42</v>
@@ -6539,13 +6596,13 @@
         <v>78</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>42</v>
@@ -6556,16 +6613,16 @@
         <v>90</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6573,16 +6630,16 @@
         <v>95</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F13" s="10"/>
     </row>
@@ -6591,16 +6648,16 @@
         <v>131</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6608,7 +6665,7 @@
         <v>140</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>40</v>
@@ -6619,13 +6676,13 @@
         <v>212</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6633,13 +6690,13 @@
         <v>216</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6653,7 +6710,7 @@
         <v>44</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E18" s="27" t="s">
         <v>42</v>
@@ -6664,13 +6721,13 @@
         <v>1593</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6678,13 +6735,13 @@
         <v>1239</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="21" ht="42.75" spans="1:5">
@@ -6692,16 +6749,16 @@
         <v>473</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E21" s="66" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6709,13 +6766,13 @@
         <v>949</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="23" ht="42.75" spans="1:4">
@@ -6723,13 +6780,13 @@
         <v>2048</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:4">
@@ -6737,13 +6794,13 @@
         <v>1443</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6835,7 +6892,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E2" s="43" t="s">
         <v>36</v>
@@ -6846,13 +6903,13 @@
         <v>204</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6860,13 +6917,13 @@
         <v>1726</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6874,13 +6931,13 @@
         <v>1980</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6899,13 +6956,13 @@
         <v>2171</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6913,13 +6970,13 @@
         <v>1094</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>165</v>
@@ -6930,7 +6987,7 @@
         <v>1925</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>44</v>
@@ -6944,13 +7001,13 @@
         <v>1551</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6958,7 +7015,7 @@
         <v>1775</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>44</v>
@@ -6969,13 +7026,13 @@
         <v>179</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6983,13 +7040,13 @@
         <v>93</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6997,7 +7054,7 @@
         <v>989</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>44</v>
@@ -7008,13 +7065,13 @@
         <v>2029</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7022,13 +7079,13 @@
         <v>60</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>97</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="1:6">
@@ -7036,16 +7093,16 @@
         <v>1509</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:6">
@@ -7053,14 +7110,14 @@
         <v>1963</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="17" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F18" s="10"/>
     </row>
@@ -7069,13 +7126,13 @@
         <v>1191</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7083,13 +7140,13 @@
         <v>390</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7097,7 +7154,7 @@
         <v>1539</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>44</v>
@@ -7111,13 +7168,13 @@
         <v>1362</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7125,7 +7182,7 @@
         <v>1608</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>44</v>
@@ -7139,13 +7196,13 @@
         <v>2119</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -7196,7 +7253,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E2" s="43" t="s">
         <v>36</v>
@@ -7207,13 +7264,13 @@
         <v>1979</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7221,7 +7278,7 @@
         <v>162</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>40</v>
@@ -7232,7 +7289,7 @@
         <v>1047</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>44</v>
@@ -7243,7 +7300,7 @@
         <v>118</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>44</v>
@@ -7254,7 +7311,7 @@
         <v>648</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>40</v>
@@ -7265,7 +7322,7 @@
         <v>1781</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>40</v>
@@ -7276,7 +7333,7 @@
         <v>326</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>44</v>
@@ -7287,13 +7344,13 @@
         <v>1408</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7301,13 +7358,13 @@
         <v>462</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7315,7 +7372,7 @@
         <v>1464</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>44</v>
@@ -7326,13 +7383,13 @@
         <v>1961</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7340,13 +7397,13 @@
         <v>1894</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:5">
@@ -7354,13 +7411,13 @@
         <v>1967</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7368,13 +7425,13 @@
         <v>539</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7382,7 +7439,7 @@
         <v>539</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>40</v>
@@ -7396,7 +7453,7 @@
         <v>838</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>40</v>
@@ -7407,13 +7464,13 @@
         <v>551</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7421,13 +7478,13 @@
         <v>1025</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7435,13 +7492,13 @@
         <v>1718</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7449,7 +7506,7 @@
         <v>1909</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>44</v>
@@ -7460,13 +7517,13 @@
         <v>2178</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="24" ht="28.5" spans="1:5">
@@ -7474,13 +7531,13 @@
         <v>502</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7488,7 +7545,7 @@
         <v>1791</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>44</v>
@@ -7502,13 +7559,13 @@
         <v>1154</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="27" ht="57" spans="1:5">
@@ -7516,13 +7573,13 @@
         <v>1253</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7530,7 +7587,7 @@
         <v>1491</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>44</v>
@@ -7541,13 +7598,13 @@
         <v>1968</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7555,7 +7612,7 @@
         <v>1021</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>44</v>
@@ -7566,13 +7623,13 @@
         <v>43</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -7580,7 +7637,7 @@
         <v>2032</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>44</v>
@@ -7594,13 +7651,13 @@
         <v>1103</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:5">
@@ -7608,13 +7665,13 @@
         <v>1688</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="35" ht="28.5" spans="1:5">
@@ -7622,13 +7679,13 @@
         <v>383</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -7636,13 +7693,13 @@
         <v>357</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="37" ht="42.75" spans="1:5">
@@ -7650,13 +7707,13 @@
         <v>977</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -7664,13 +7721,13 @@
         <v>1295</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -7678,13 +7735,13 @@
         <v>1389</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -7692,7 +7749,7 @@
         <v>1503</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>40</v>
@@ -7706,7 +7763,7 @@
         <v>2200</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>40</v>
@@ -7720,13 +7777,13 @@
         <v>217</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -7734,13 +7791,13 @@
         <v>2239</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -7748,7 +7805,7 @@
         <v>941</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>44</v>
@@ -7762,13 +7819,13 @@
         <v>1619</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -7776,13 +7833,13 @@
         <v>1450</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -7790,13 +7847,13 @@
         <v>1929</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -7804,13 +7861,13 @@
         <v>1941</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="49" ht="57" spans="1:5">
@@ -7818,13 +7875,13 @@
         <v>443</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -7832,13 +7889,13 @@
         <v>1541</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -7846,13 +7903,13 @@
         <v>1832</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -7860,13 +7917,13 @@
         <v>999</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -7874,13 +7931,13 @@
         <v>1431</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -7888,13 +7945,13 @@
         <v>1475</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -7902,13 +7959,13 @@
         <v>884</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -7916,13 +7973,13 @@
         <v>1566</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7930,7 +7987,7 @@
         <v>127</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>97</v>
@@ -7941,13 +7998,13 @@
         <v>1054</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -7955,7 +8012,7 @@
         <v>2154</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>44</v>
@@ -7966,13 +8023,13 @@
         <v>1550</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -7980,7 +8037,7 @@
         <v>575</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>44</v>
@@ -7991,13 +8048,13 @@
         <v>1716</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -8005,7 +8062,7 @@
         <v>1869</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>44</v>
@@ -8019,13 +8076,13 @@
         <v>1638</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -8033,7 +8090,7 @@
         <v>2138</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>44</v>
@@ -8047,7 +8104,7 @@
         <v>2299</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>44</v>
@@ -8061,13 +8118,13 @@
         <v>1614</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -8075,13 +8132,13 @@
         <v>1689</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -8089,7 +8146,7 @@
         <v>1952</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>44</v>
@@ -8103,13 +8160,13 @@
         <v>645</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -8117,13 +8174,13 @@
         <v>2206</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -8131,7 +8188,7 @@
         <v>1436</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>44</v>
@@ -8182,7 +8239,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>36</v>
@@ -8193,7 +8250,7 @@
         <v>355</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>40</v>
@@ -8206,7 +8263,7 @@
         <v>460</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>97</v>
@@ -8219,7 +8276,7 @@
         <v>622</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>40</v>
@@ -8232,7 +8289,7 @@
         <v>641</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>40</v>
@@ -8245,7 +8302,7 @@
         <v>705</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>40</v>
@@ -8258,7 +8315,7 @@
         <v>706</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>40</v>
@@ -8271,7 +8328,7 @@
         <v>707</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>40</v>
@@ -8284,7 +8341,7 @@
         <v>1206</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>97</v>
@@ -8297,7 +8354,7 @@
         <v>1472</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>40</v>
@@ -8310,7 +8367,7 @@
         <v>1797</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>40</v>
@@ -8321,13 +8378,13 @@
         <v>307</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>
@@ -8379,7 +8436,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E2" s="50" t="s">
         <v>36</v>
@@ -8390,7 +8447,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C3" s="61" t="s">
         <v>44</v>
@@ -8404,7 +8461,7 @@
         <v>633</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C4" s="61" t="s">
         <v>44</v>
@@ -8415,7 +8472,7 @@
         <v>441</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C5" s="61" t="s">
         <v>44</v>
@@ -8426,10 +8483,10 @@
         <v>34</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:5">
@@ -8437,10 +8494,10 @@
         <v>153</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="9" ht="57" spans="1:5">
@@ -8448,13 +8505,13 @@
         <v>378</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8462,13 +8519,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="11" s="10" customFormat="1" ht="27" spans="1:6">
@@ -8476,13 +8533,13 @@
         <v>1201</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F11" s="15"/>
     </row>
@@ -8491,13 +8548,13 @@
         <v>1351</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C12" s="61" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8505,16 +8562,16 @@
         <v>275</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8522,13 +8579,13 @@
         <v>35</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C14" s="61" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8536,13 +8593,13 @@
         <v>2300</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C15" s="50" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8550,13 +8607,13 @@
         <v>240</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C16" s="50" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -8610,7 +8667,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E2" s="43" t="s">
         <v>36</v>
@@ -8621,7 +8678,7 @@
         <v>219</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>44</v>
@@ -8632,7 +8689,7 @@
         <v>643</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>44</v>
@@ -8643,13 +8700,13 @@
         <v>1876</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8657,13 +8714,13 @@
         <v>1984</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8671,7 +8728,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>40</v>
@@ -8682,7 +8739,7 @@
         <v>187</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>40</v>
@@ -8693,7 +8750,7 @@
         <v>209</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>40</v>
@@ -8704,13 +8761,13 @@
         <v>220</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="11" ht="71.25" spans="1:7">
@@ -8718,13 +8775,13 @@
         <v>395</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>165</v>
@@ -8735,13 +8792,13 @@
         <v>424</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8749,7 +8806,7 @@
         <v>438</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>40</v>
@@ -8760,13 +8817,13 @@
         <v>567</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8774,13 +8831,13 @@
         <v>930</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8788,13 +8845,13 @@
         <v>978</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8802,13 +8859,13 @@
         <v>1004</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="F17" s="15"/>
     </row>
@@ -8817,13 +8874,13 @@
         <v>1052</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8831,13 +8888,13 @@
         <v>1208</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8845,13 +8902,13 @@
         <v>1234</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8859,7 +8916,7 @@
         <v>1423</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>40</v>
@@ -8876,7 +8933,7 @@
         <v>40</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="23" ht="42.75" spans="1:5">
@@ -8884,13 +8941,13 @@
         <v>1493</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="54" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8898,13 +8955,13 @@
         <v>1658</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8912,13 +8969,13 @@
         <v>1696</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -8926,13 +8983,13 @@
         <v>1838</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8940,13 +8997,13 @@
         <v>2024</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:9">
@@ -8954,14 +9011,14 @@
         <v>2104</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="56" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -8973,13 +9030,13 @@
         <v>1525</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8987,7 +9044,7 @@
         <v>904</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>40</v>
@@ -8998,13 +9055,13 @@
         <v>643</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="42.75" spans="1:5">
@@ -9012,13 +9069,13 @@
         <v>1248</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="33" ht="42.75" spans="1:5">
@@ -9026,13 +9083,13 @@
         <v>1234</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -9040,13 +9097,13 @@
         <v>1156</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
   </sheetData>
@@ -9098,7 +9155,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E2" s="43" t="s">
         <v>36</v>
@@ -9110,7 +9167,7 @@
         <v>167</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -9121,12 +9178,12 @@
         <v>581</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="16" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F4" s="10"/>
     </row>
@@ -9135,7 +9192,7 @@
         <v>1903</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -9146,10 +9203,10 @@
         <v>1712</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:6">
@@ -9157,14 +9214,14 @@
         <v>9</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="17" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F8" s="10"/>
     </row>
@@ -9173,14 +9230,14 @@
         <v>205</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="17" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -9189,14 +9246,14 @@
         <v>881</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="17" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F10" s="10"/>
     </row>
@@ -9205,14 +9262,14 @@
         <v>475</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="17" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F11" s="10"/>
     </row>
@@ -9221,14 +9278,14 @@
         <v>825</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="17" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F12" s="10"/>
     </row>
@@ -9237,14 +9294,14 @@
         <v>713</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="17" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F13" s="10"/>
     </row>
@@ -9253,14 +9310,14 @@
         <v>923</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="17" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -9269,13 +9326,13 @@
         <v>922</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -9283,14 +9340,14 @@
         <v>345</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="17" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F16" s="10"/>
     </row>
@@ -9299,14 +9356,14 @@
         <v>1768</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="17" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="F17" s="10"/>
     </row>
@@ -9315,14 +9372,14 @@
         <v>165</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="16" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="F18" s="10"/>
     </row>
@@ -9331,14 +9388,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="16" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="F19" s="10"/>
     </row>
@@ -9347,14 +9404,14 @@
         <v>1679</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="16" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F20" s="10"/>
     </row>
@@ -9363,14 +9420,14 @@
         <v>392</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="16" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F21" s="10"/>
     </row>
@@ -9379,14 +9436,14 @@
         <v>283</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="17" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F22" s="10"/>
     </row>
@@ -9395,14 +9452,14 @@
         <v>1855</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="16" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F23" s="10"/>
     </row>
@@ -9411,14 +9468,14 @@
         <v>1662</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="16" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F24" s="10"/>
     </row>
@@ -9427,14 +9484,14 @@
         <v>849</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="17" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F25" s="10"/>
     </row>
@@ -9443,14 +9500,14 @@
         <v>80</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="16" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F26" s="10"/>
     </row>
@@ -9459,14 +9516,14 @@
         <v>16</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="16" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F27" s="10"/>
     </row>
@@ -9475,16 +9532,16 @@
         <v>986</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -9800,7 +9857,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E2" s="43" t="s">
         <v>36</v>
@@ -9814,7 +9871,7 @@
         <v>334</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>40</v>
@@ -9830,7 +9887,7 @@
         <v>1262</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -9844,14 +9901,14 @@
         <v>915</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="31" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
@@ -9862,14 +9919,14 @@
         <v>775</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="17" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
@@ -9880,7 +9937,7 @@
         <v>2177</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>40</v>
@@ -9896,7 +9953,7 @@
         <v>485</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>44</v>
@@ -9912,14 +9969,14 @@
         <v>628</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="17" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
@@ -26316,16 +26373,16 @@
         <v>495</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
@@ -26336,14 +26393,14 @@
         <v>1796</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="17" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
@@ -26354,14 +26411,14 @@
         <v>2037</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="17" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
@@ -26372,14 +26429,14 @@
         <v>1636</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="16" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
@@ -26390,7 +26447,7 @@
         <v>747</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>44</v>
@@ -27159,17 +27216,17 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="126" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="127" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="126" t="s">
         <v>18</v>
       </c>
     </row>
@@ -27222,7 +27279,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>36</v>
@@ -27233,13 +27290,13 @@
         <v>215</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="4" s="27" customFormat="1" ht="57" spans="1:5">
@@ -27247,13 +27304,13 @@
         <v>389</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:5">
@@ -27261,13 +27318,13 @@
         <v>268</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -27275,14 +27332,14 @@
         <v>1654</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="41" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -27290,7 +27347,7 @@
         <v>1752</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>44</v>
@@ -27301,13 +27358,13 @@
         <v>1812</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -27315,13 +27372,13 @@
         <v>969</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -27329,13 +27386,13 @@
         <v>89</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -27393,13 +27450,13 @@
         <v>274</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="4" ht="42.75" spans="1:4">
@@ -27407,13 +27464,13 @@
         <v>962</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -27421,13 +27478,13 @@
         <v>179</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
   </sheetData>
@@ -27467,10 +27524,10 @@
     </row>
     <row r="2" s="10" customFormat="1" ht="99" customHeight="1" spans="1:5">
       <c r="A2" s="10" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -27487,7 +27544,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>37</v>
@@ -27498,13 +27555,13 @@
         <v>990</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -27512,7 +27569,7 @@
         <v>1319</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>40</v>
@@ -27523,7 +27580,7 @@
         <v>886</v>
       </c>
       <c r="B6" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>40</v>
@@ -27534,7 +27591,7 @@
         <v>721</v>
       </c>
       <c r="B7" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>40</v>
@@ -27589,7 +27646,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>36</v>
@@ -27600,13 +27657,13 @@
         <v>1590</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -27614,13 +27671,13 @@
         <v>1991</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -27628,13 +27685,13 @@
         <v>238</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -27642,7 +27699,7 @@
         <v>1652</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>44</v>
@@ -27656,13 +27713,13 @@
         <v>1664</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
   </sheetData>
@@ -27725,7 +27782,7 @@
         <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -27736,13 +27793,13 @@
         <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -27750,7 +27807,7 @@
         <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
@@ -27761,7 +27818,7 @@
         <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>
@@ -27772,7 +27829,7 @@
         <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D7" t="s">
         <v>44</v>
@@ -27783,13 +27840,13 @@
         <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D8" t="s">
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -27797,7 +27854,7 @@
         <v>183</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D9" t="s">
         <v>44</v>
@@ -27808,7 +27865,7 @@
         <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
@@ -27819,7 +27876,7 @@
         <v>196</v>
       </c>
       <c r="C11" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -27830,7 +27887,7 @@
         <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
@@ -27841,7 +27898,7 @@
         <v>511</v>
       </c>
       <c r="C13" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D13" t="s">
         <v>44</v>
@@ -27852,7 +27909,7 @@
         <v>584</v>
       </c>
       <c r="C14" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D14" t="s">
         <v>44</v>
@@ -27863,7 +27920,7 @@
         <v>586</v>
       </c>
       <c r="C15" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -27874,7 +27931,7 @@
         <v>607</v>
       </c>
       <c r="C16" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
@@ -27885,13 +27942,13 @@
         <v>608</v>
       </c>
       <c r="C17" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D17" t="s">
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="2:3">
@@ -27899,7 +27956,7 @@
         <v>626</v>
       </c>
       <c r="C18" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -27907,7 +27964,7 @@
         <v>627</v>
       </c>
       <c r="C19" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -27915,7 +27972,7 @@
         <v>1050</v>
       </c>
       <c r="C20" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -27923,7 +27980,7 @@
         <v>1084</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -27931,7 +27988,7 @@
         <v>1141</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -27939,7 +27996,7 @@
         <v>1148</v>
       </c>
       <c r="C23" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -27947,7 +28004,7 @@
         <v>1158</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -27955,7 +28012,7 @@
         <v>1393</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -27963,7 +28020,7 @@
         <v>1407</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -27971,7 +28028,7 @@
         <v>1527</v>
       </c>
       <c r="C27" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -27979,7 +28036,7 @@
         <v>1581</v>
       </c>
       <c r="C28" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -27987,7 +28044,7 @@
         <v>1587</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -27995,7 +28052,7 @@
         <v>1667</v>
       </c>
       <c r="C30" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -28003,7 +28060,7 @@
         <v>1693</v>
       </c>
       <c r="C31" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -28011,7 +28068,7 @@
         <v>1729</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -28019,7 +28076,7 @@
         <v>1741</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -28027,7 +28084,7 @@
         <v>1757</v>
       </c>
       <c r="C34" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -28035,7 +28092,7 @@
         <v>1795</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -28043,7 +28100,7 @@
         <v>1873</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -28051,7 +28108,7 @@
         <v>1890</v>
       </c>
       <c r="C37" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -28059,7 +28116,7 @@
         <v>1965</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
@@ -28121,13 +28178,13 @@
       </c>
     </row>
     <row r="3" ht="15" spans="1:6">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="125">
+      <c r="B3" s="122">
         <v>2</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="73" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -28141,7 +28198,7 @@
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:6">
-      <c r="A4" s="100"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="4">
         <v>21</v>
       </c>
@@ -28159,7 +28216,7 @@
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:6">
-      <c r="A5" s="100"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="4">
         <v>141</v>
       </c>
@@ -28169,7 +28226,7 @@
       <c r="D5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="75" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -28177,17 +28234,17 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="100"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="4">
         <v>142</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="73" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="97" t="s">
+      <c r="E6" s="75" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -28196,7 +28253,7 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" ht="28.5" spans="1:10">
-      <c r="A7" s="101"/>
+      <c r="A7" s="99"/>
       <c r="B7" s="4">
         <v>160</v>
       </c>
@@ -28227,7 +28284,7 @@
       <c r="D8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="97" t="s">
+      <c r="E8" s="75" t="s">
         <v>55</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -28239,13 +28296,13 @@
       <c r="B9" s="4">
         <v>82</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="73" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="75" t="s">
         <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -28263,7 +28320,7 @@
       <c r="D10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="97" t="s">
+      <c r="E10" s="75" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -28281,7 +28338,7 @@
       <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="97" t="s">
+      <c r="E11" s="75" t="s">
         <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -28299,28 +28356,28 @@
       <c r="D12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="75" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" s="124" customFormat="1" ht="28.5" spans="1:6">
+    <row r="13" s="121" customFormat="1" ht="28.5" spans="1:6">
       <c r="A13" s="3"/>
-      <c r="B13" s="126">
+      <c r="B13" s="123">
         <v>92</v>
       </c>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="105" t="s">
+      <c r="E13" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="122" t="s">
+      <c r="F13" s="119" t="s">
         <v>63</v>
       </c>
     </row>
@@ -28329,7 +28386,7 @@
       <c r="B14" s="4">
         <v>109</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="73" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -28353,7 +28410,7 @@
       <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="97" t="s">
+      <c r="E15" s="75" t="s">
         <v>67</v>
       </c>
       <c r="F15" s="3"/>
@@ -28369,7 +28426,7 @@
       <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="75" t="s">
         <v>69</v>
       </c>
       <c r="F16" s="3"/>
@@ -28393,13 +28450,13 @@
       <c r="B18" s="4">
         <v>143</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="73" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="97" t="s">
+      <c r="E18" s="75" t="s">
         <v>72</v>
       </c>
       <c r="F18" s="3"/>
@@ -28409,13 +28466,13 @@
       <c r="B19" s="4">
         <v>203</v>
       </c>
-      <c r="C19" s="87" t="s">
+      <c r="C19" s="73" t="s">
         <v>73</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="97" t="s">
+      <c r="E19" s="75" t="s">
         <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
@@ -28433,7 +28490,7 @@
       <c r="D20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="127" t="s">
+      <c r="E20" s="124" t="s">
         <v>75</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -28445,13 +28502,13 @@
       <c r="B21" s="4">
         <v>237</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="73" t="s">
         <v>76</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="97" t="s">
+      <c r="E21" s="75" t="s">
         <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
@@ -28469,7 +28526,7 @@
       <c r="D22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="97" t="s">
+      <c r="E22" s="75" t="s">
         <v>78</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -28481,7 +28538,7 @@
       <c r="B23" s="4">
         <v>382</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="C23" s="73" t="s">
         <v>79</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -28497,7 +28554,7 @@
       <c r="B24" s="4">
         <v>430</v>
       </c>
-      <c r="C24" s="87" t="s">
+      <c r="C24" s="73" t="s">
         <v>80</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -28511,7 +28568,7 @@
       <c r="B25" s="4">
         <v>445</v>
       </c>
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="73" t="s">
         <v>81</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -28535,7 +28592,7 @@
       <c r="D26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="97" t="s">
+      <c r="E26" s="75" t="s">
         <v>57</v>
       </c>
       <c r="F26" s="7" t="s">
@@ -28547,13 +28604,13 @@
       <c r="B27" s="4">
         <v>817</v>
       </c>
-      <c r="C27" s="87" t="s">
+      <c r="C27" s="73" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="128" t="s">
+      <c r="E27" s="125" t="s">
         <v>84</v>
       </c>
       <c r="F27" s="7" t="s">
@@ -28571,7 +28628,7 @@
       <c r="D28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="97" t="s">
+      <c r="E28" s="75" t="s">
         <v>86</v>
       </c>
       <c r="F28" s="3"/>
@@ -28615,7 +28672,7 @@
       <c r="D31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="129"/>
+      <c r="E31" s="79"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6">
@@ -28629,7 +28686,7 @@
       <c r="D32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="129"/>
+      <c r="E32" s="79"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6">
@@ -28657,11 +28714,11 @@
       <c r="D34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="129"/>
+      <c r="E34" s="79"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="103"/>
+      <c r="A35" s="101"/>
       <c r="B35" s="4">
         <v>2181</v>
       </c>
@@ -28671,7 +28728,7 @@
       <c r="D35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="128" t="s">
+      <c r="E35" s="125" t="s">
         <v>94</v>
       </c>
       <c r="F35" s="3"/>
@@ -28858,7 +28915,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="116" t="s">
         <v>30</v>
       </c>
       <c r="C1"/>
@@ -28887,7 +28944,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="97" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="4">
@@ -28899,7 +28956,7 @@
       <c r="D3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="75" t="s">
         <v>101</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -28907,7 +28964,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="100"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="4">
         <v>144</v>
       </c>
@@ -28925,7 +28982,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="100"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="4">
         <v>145</v>
       </c>
@@ -28943,7 +29000,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="100"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="4">
         <v>102</v>
       </c>
@@ -28961,17 +29018,17 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="100"/>
+      <c r="A7" s="98"/>
       <c r="B7" s="4">
         <v>107</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="117" t="s">
         <v>107</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="75" t="s">
         <v>108</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -28979,7 +29036,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="100"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="4">
         <v>103</v>
       </c>
@@ -28997,17 +29054,17 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="100"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="4">
         <v>429</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="117" t="s">
         <v>111</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="75" t="s">
         <v>112</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -29015,11 +29072,11 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="100"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="4">
         <v>513</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="118" t="s">
         <v>113</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -29033,7 +29090,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="100"/>
+      <c r="A11" s="98"/>
       <c r="B11" s="4">
         <v>637</v>
       </c>
@@ -29051,7 +29108,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="100"/>
+      <c r="A12" s="98"/>
       <c r="B12" s="4">
         <v>653</v>
       </c>
@@ -29069,7 +29126,7 @@
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:6">
-      <c r="A13" s="100"/>
+      <c r="A13" s="98"/>
       <c r="B13" s="4">
         <v>617</v>
       </c>
@@ -29079,13 +29136,13 @@
       <c r="D13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="97" t="s">
+      <c r="E13" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="104"/>
+      <c r="F13" s="102"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="100"/>
+      <c r="A14" s="98"/>
       <c r="B14" s="4">
         <v>606</v>
       </c>
@@ -29103,7 +29160,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="100"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="4">
         <v>938</v>
       </c>
@@ -29121,17 +29178,17 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="100"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="4">
         <v>965</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="117" t="s">
         <v>125</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="75" t="s">
         <v>126</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -29139,11 +29196,11 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="100"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="4">
         <v>1104</v>
       </c>
-      <c r="C17" s="120" t="s">
+      <c r="C17" s="117" t="s">
         <v>127</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -29157,11 +29214,11 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="100"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="4">
         <v>1325</v>
       </c>
-      <c r="C18" s="121" t="s">
+      <c r="C18" s="118" t="s">
         <v>129</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -29175,11 +29232,11 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="100"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="4">
         <v>1448</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="118" t="s">
         <v>131</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -29193,11 +29250,11 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="100"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="4">
         <v>2096</v>
       </c>
-      <c r="C20" s="120" t="s">
+      <c r="C20" s="117" t="s">
         <v>133</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -29211,7 +29268,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="97" t="s">
         <v>135</v>
       </c>
       <c r="B21" s="4">
@@ -29231,7 +29288,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="100"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="4">
         <v>100</v>
       </c>
@@ -29249,7 +29306,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="100"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="4">
         <v>101</v>
       </c>
@@ -29267,7 +29324,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="100"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="4">
         <v>104</v>
       </c>
@@ -29285,7 +29342,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="100"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="4">
         <v>111</v>
       </c>
@@ -29303,7 +29360,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="100"/>
+      <c r="A26" s="98"/>
       <c r="B26" s="4">
         <v>110</v>
       </c>
@@ -29321,23 +29378,23 @@
       </c>
     </row>
     <row r="27" ht="28.5" spans="1:6">
-      <c r="A27" s="100"/>
+      <c r="A27" s="98"/>
       <c r="B27" s="4">
         <v>662</v>
       </c>
-      <c r="C27" s="87" t="s">
+      <c r="C27" s="73" t="s">
         <v>145</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="97" t="s">
+      <c r="E27" s="75" t="s">
         <v>146</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="28" ht="28.5" spans="1:6">
-      <c r="A28" s="100"/>
+      <c r="A28" s="98"/>
       <c r="B28" s="4">
         <v>99</v>
       </c>
@@ -29355,25 +29412,25 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="100"/>
+      <c r="A29" s="98"/>
       <c r="B29" s="4">
         <v>235</v>
       </c>
-      <c r="C29" s="114" t="s">
+      <c r="C29" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="122" t="s">
+      <c r="D29" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="106" t="s">
+      <c r="E29" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="113" t="s">
+      <c r="F29" s="110" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="100"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="4">
         <v>501</v>
       </c>
@@ -29383,13 +29440,13 @@
       <c r="D30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="106"/>
-      <c r="F30" s="113" t="s">
+      <c r="E30" s="76"/>
+      <c r="F30" s="110" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="100"/>
+      <c r="A31" s="98"/>
       <c r="B31" s="4">
         <v>530</v>
       </c>
@@ -29402,12 +29459,12 @@
       <c r="E31" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="F31" s="113" t="s">
+      <c r="F31" s="110" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="100"/>
+      <c r="A32" s="98"/>
       <c r="B32" s="4">
         <v>572</v>
       </c>
@@ -29420,30 +29477,30 @@
       <c r="E32" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="F32" s="113" t="s">
+      <c r="F32" s="110" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" ht="57" spans="1:6">
-      <c r="A33" s="100"/>
+      <c r="A33" s="98"/>
       <c r="B33" s="4">
         <v>236</v>
       </c>
-      <c r="C33" s="123" t="s">
+      <c r="C33" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="D33" s="122" t="s">
+      <c r="D33" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="105" t="s">
+      <c r="E33" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="113" t="s">
+      <c r="F33" s="110" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="100"/>
+      <c r="A34" s="98"/>
       <c r="B34" s="4">
         <v>671</v>
       </c>
@@ -29454,16 +29511,16 @@
         <v>44</v>
       </c>
       <c r="E34" s="34"/>
-      <c r="F34" s="113" t="s">
+      <c r="F34" s="110" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="100"/>
+      <c r="A35" s="98"/>
       <c r="B35" s="4">
         <v>687</v>
       </c>
-      <c r="C35" s="121" t="s">
+      <c r="C35" s="118" t="s">
         <v>159</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -29477,7 +29534,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="100"/>
+      <c r="A36" s="98"/>
       <c r="B36" s="4">
         <v>700</v>
       </c>
@@ -29495,7 +29552,7 @@
       </c>
     </row>
     <row r="37" ht="57" spans="1:6">
-      <c r="A37" s="100"/>
+      <c r="A37" s="98"/>
       <c r="B37" s="4">
         <v>872</v>
       </c>
@@ -29513,7 +29570,7 @@
       </c>
     </row>
     <row r="38" ht="57" spans="1:6">
-      <c r="A38" s="99" t="s">
+      <c r="A38" s="97" t="s">
         <v>53</v>
       </c>
       <c r="B38" s="4">
@@ -29531,17 +29588,17 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="100"/>
+      <c r="A39" s="98"/>
       <c r="B39" s="4">
         <v>105</v>
       </c>
-      <c r="C39" s="120" t="s">
+      <c r="C39" s="117" t="s">
         <v>168</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="97" t="s">
+      <c r="E39" s="75" t="s">
         <v>169</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -29549,11 +29606,11 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="100"/>
+      <c r="A40" s="98"/>
       <c r="B40" s="4">
         <v>106</v>
       </c>
-      <c r="C40" s="121" t="s">
+      <c r="C40" s="118" t="s">
         <v>171</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -29567,11 +29624,11 @@
       </c>
     </row>
     <row r="41" ht="42.75" spans="1:6">
-      <c r="A41" s="100"/>
+      <c r="A41" s="98"/>
       <c r="B41" s="4">
         <v>889</v>
       </c>
-      <c r="C41" s="121" t="s">
+      <c r="C41" s="118" t="s">
         <v>172</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -29583,7 +29640,7 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="100"/>
+      <c r="A42" s="98"/>
       <c r="B42" s="4">
         <v>116</v>
       </c>
@@ -29601,7 +29658,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="100"/>
+      <c r="A43" s="98"/>
       <c r="B43" s="4">
         <v>108</v>
       </c>
@@ -29617,7 +29674,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="100"/>
+      <c r="A44" s="98"/>
       <c r="B44" s="4">
         <v>226</v>
       </c>
@@ -29635,17 +29692,17 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="100"/>
+      <c r="A45" s="98"/>
       <c r="B45" s="4">
         <v>654</v>
       </c>
-      <c r="C45" s="120" t="s">
+      <c r="C45" s="117" t="s">
         <v>179</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="97" t="s">
+      <c r="E45" s="75" t="s">
         <v>180</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -29653,7 +29710,7 @@
       </c>
     </row>
     <row r="46" ht="28.5" spans="1:6">
-      <c r="A46" s="100"/>
+      <c r="A46" s="98"/>
       <c r="B46" s="4">
         <v>897</v>
       </c>
@@ -29671,17 +29728,17 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="100"/>
+      <c r="A47" s="98"/>
       <c r="B47" s="4">
         <v>1008</v>
       </c>
-      <c r="C47" s="120" t="s">
+      <c r="C47" s="117" t="s">
         <v>183</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="97" t="s">
+      <c r="E47" s="75" t="s">
         <v>184</v>
       </c>
       <c r="F47" s="3" t="s">
@@ -29689,13 +29746,13 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="99" t="s">
+      <c r="A48" s="97" t="s">
         <v>185</v>
       </c>
       <c r="B48" s="4">
         <v>669</v>
       </c>
-      <c r="C48" s="121" t="s">
+      <c r="C48" s="118" t="s">
         <v>186</v>
       </c>
       <c r="D48" s="7" t="s">
@@ -29709,7 +29766,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="100"/>
+      <c r="A49" s="98"/>
       <c r="B49" s="4">
         <v>112</v>
       </c>
@@ -29719,7 +29776,7 @@
       <c r="D49" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="97" t="s">
+      <c r="E49" s="75" t="s">
         <v>189</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -29727,7 +29784,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="101"/>
+      <c r="A50" s="99"/>
       <c r="B50" s="4">
         <v>257</v>
       </c>
@@ -29745,7 +29802,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="107" t="s">
+      <c r="A51" s="104" t="s">
         <v>192</v>
       </c>
       <c r="B51" s="4">
@@ -29757,7 +29814,7 @@
       <c r="D51" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="97" t="s">
+      <c r="E51" s="75" t="s">
         <v>194</v>
       </c>
       <c r="F51" s="10" t="s">
@@ -29765,11 +29822,11 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="109"/>
+      <c r="A52" s="106"/>
       <c r="B52" s="4">
         <v>863</v>
       </c>
-      <c r="C52" s="120" t="s">
+      <c r="C52" s="117" t="s">
         <v>195</v>
       </c>
       <c r="D52" s="7" t="s">
@@ -29780,13 +29837,13 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="108" t="s">
+      <c r="A53" s="105" t="s">
         <v>28</v>
       </c>
       <c r="B53" s="4">
         <v>958</v>
       </c>
-      <c r="C53" s="120" t="s">
+      <c r="C53" s="117" t="s">
         <v>196</v>
       </c>
       <c r="D53" s="7" t="s">
@@ -29800,27 +29857,27 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="108"/>
+      <c r="A54" s="105"/>
       <c r="B54" s="4">
         <v>331</v>
       </c>
-      <c r="C54" s="120" t="s">
+      <c r="C54" s="117" t="s">
         <v>198</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E54" s="105" t="s">
+      <c r="E54" s="103" t="s">
         <v>199</v>
       </c>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="109"/>
+      <c r="A55" s="106"/>
       <c r="B55" s="4">
         <v>655</v>
       </c>
-      <c r="C55" s="120" t="s">
+      <c r="C55" s="117" t="s">
         <v>200</v>
       </c>
       <c r="D55" s="7" t="s">
@@ -29848,7 +29905,7 @@
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="107" t="s">
+      <c r="A57" s="104" t="s">
         <v>202</v>
       </c>
       <c r="B57" s="4">
@@ -29864,11 +29921,11 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="109"/>
+      <c r="A58" s="106"/>
       <c r="B58" s="4">
         <v>2236</v>
       </c>
-      <c r="C58" s="121" t="s">
+      <c r="C58" s="118" t="s">
         <v>204</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -29927,7 +29984,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="114" t="s">
         <v>30</v>
       </c>
       <c r="C1"/>
@@ -29967,7 +30024,7 @@
       <c r="D3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="75" t="s">
         <v>208</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -29985,7 +30042,7 @@
       <c r="D4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="75" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -30003,7 +30060,7 @@
       <c r="D5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="75" t="s">
         <v>212</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -30077,7 +30134,7 @@
       <c r="D9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="75" t="s">
         <v>220</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -30086,7 +30143,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3"/>
-      <c r="B10" s="116">
+      <c r="B10" s="113">
         <v>856</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -30111,7 +30168,7 @@
       <c r="D11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="97" t="s">
+      <c r="E11" s="75" t="s">
         <v>224</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -30129,7 +30186,7 @@
       <c r="D12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="118" t="s">
+      <c r="E12" s="115" t="s">
         <v>226</v>
       </c>
       <c r="F12" s="3"/>
@@ -30163,7 +30220,7 @@
       <c r="D14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="97" t="s">
+      <c r="E14" s="75" t="s">
         <v>230</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -30183,7 +30240,7 @@
       <c r="D15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="97" t="s">
+      <c r="E15" s="75" t="s">
         <v>233</v>
       </c>
       <c r="F15" s="3"/>
@@ -30199,7 +30256,7 @@
       <c r="D16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="75" t="s">
         <v>235</v>
       </c>
       <c r="F16" s="3"/>
@@ -30243,7 +30300,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="109" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="2"/>
@@ -30278,7 +30335,7 @@
       <c r="B3" s="3">
         <v>287</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="73" t="s">
         <v>237</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -30302,7 +30359,7 @@
       <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="75" t="s">
         <v>241</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -30350,13 +30407,13 @@
       <c r="B7" s="3">
         <v>916</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="73" t="s">
         <v>246</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="75" t="s">
         <v>247</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -30392,7 +30449,7 @@
       <c r="D9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="75" t="s">
         <v>251</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -30404,13 +30461,13 @@
       <c r="B10" s="3">
         <v>1331</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="73" t="s">
         <v>252</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="97" t="s">
+      <c r="E10" s="75" t="s">
         <v>253</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -30440,13 +30497,13 @@
       <c r="B12" s="3">
         <v>1640</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="73" t="s">
         <v>256</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="75" t="s">
         <v>257</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -30473,58 +30530,58 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3"/>
-      <c r="B14" s="113">
+      <c r="B14" s="110">
         <v>1711</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="111" t="s">
         <v>260</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="110" t="s">
         <v>261</v>
       </c>
-      <c r="E14" s="106"/>
-      <c r="F14" s="113" t="s">
+      <c r="E14" s="76"/>
+      <c r="F14" s="110" t="s">
         <v>239</v>
       </c>
-      <c r="G14" s="115"/>
+      <c r="G14" s="112"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>1935</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="73" t="s">
         <v>262</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="87" t="s">
+      <c r="E15" s="73" t="s">
         <v>263</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="G15" s="115"/>
+      <c r="G15" s="112"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
         <v>2085</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="73" t="s">
         <v>264</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="75" t="s">
         <v>265</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="G16" s="115"/>
+      <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3"/>
@@ -30553,7 +30610,7 @@
       <c r="D18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="97" t="s">
+      <c r="E18" s="75" t="s">
         <v>268</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -30571,7 +30628,7 @@
       <c r="D19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="97" t="s">
+      <c r="E19" s="75" t="s">
         <v>270</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -30609,7 +30666,7 @@
       <c r="D21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="97" t="s">
+      <c r="E21" s="75" t="s">
         <v>274</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -30618,16 +30675,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3"/>
-      <c r="B22" s="116">
+      <c r="B22" s="113">
         <v>442</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="73" t="s">
         <v>276</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="97" t="s">
+      <c r="E22" s="75" t="s">
         <v>277</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -30695,7 +30752,7 @@
       <c r="D26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="97" t="s">
+      <c r="E26" s="75" t="s">
         <v>285</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -30713,7 +30770,7 @@
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="97" t="s">
+      <c r="E27" s="75" t="s">
         <v>287</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -30743,13 +30800,13 @@
       <c r="B29" s="3">
         <v>1557</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="73" t="s">
         <v>290</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="97" t="s">
+      <c r="E29" s="75" t="s">
         <v>291</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -30761,13 +30818,13 @@
       <c r="B30" s="3">
         <v>2260</v>
       </c>
-      <c r="C30" s="87" t="s">
+      <c r="C30" s="73" t="s">
         <v>292</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="97" t="s">
+      <c r="E30" s="75" t="s">
         <v>293</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -30781,7 +30838,7 @@
       <c r="B31" s="3">
         <v>781</v>
       </c>
-      <c r="C31" s="87" t="s">
+      <c r="C31" s="73" t="s">
         <v>295</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -30805,7 +30862,7 @@
       <c r="D32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="97" t="s">
+      <c r="E32" s="75" t="s">
         <v>298</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -30817,13 +30874,13 @@
       <c r="B33" s="3">
         <v>974</v>
       </c>
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="73" t="s">
         <v>299</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="97" t="s">
+      <c r="E33" s="75" t="s">
         <v>300</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -47294,13 +47351,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6">
@@ -47330,13 +47387,13 @@
       <c r="B3" s="3">
         <v>151</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="73" t="s">
         <v>302</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="75" t="s">
         <v>303</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -47348,13 +47405,13 @@
       <c r="B4" s="3">
         <v>242</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="73" t="s">
         <v>304</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="75" t="s">
         <v>305</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -47366,13 +47423,13 @@
       <c r="B5" s="3">
         <v>415</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="73" t="s">
         <v>306</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="75" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -47438,13 +47495,13 @@
       <c r="B9" s="3">
         <v>1417</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="73" t="s">
         <v>313</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="75" t="s">
         <v>314</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -47492,13 +47549,13 @@
       <c r="B12" s="3">
         <v>1668</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="73" t="s">
         <v>319</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="75" t="s">
         <v>320</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -47510,13 +47567,13 @@
       <c r="B13" s="3">
         <v>1694</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="73" t="s">
         <v>321</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="97" t="s">
+      <c r="E13" s="75" t="s">
         <v>322</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -47528,13 +47585,13 @@
       <c r="B14" s="3">
         <v>1880</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="73" t="s">
         <v>323</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="97" t="s">
+      <c r="E14" s="75" t="s">
         <v>324</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -47564,13 +47621,13 @@
       <c r="B16" s="3">
         <v>1985</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="73" t="s">
         <v>327</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="75" t="s">
         <v>328</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -47600,13 +47657,13 @@
       <c r="B18" s="3">
         <v>2109</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="73" t="s">
         <v>331</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="97" t="s">
+      <c r="E18" s="75" t="s">
         <v>205</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -47618,7 +47675,7 @@
       <c r="B19" s="3">
         <v>2129</v>
       </c>
-      <c r="C19" s="87" t="s">
+      <c r="C19" s="73" t="s">
         <v>332</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -47672,13 +47729,13 @@
       <c r="B22" s="3">
         <v>524</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="73" t="s">
         <v>338</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="97" t="s">
+      <c r="E22" s="75" t="s">
         <v>339</v>
       </c>
       <c r="F22" s="3"/>
@@ -47706,13 +47763,13 @@
       <c r="B24" s="3">
         <v>784</v>
       </c>
-      <c r="C24" s="87" t="s">
+      <c r="C24" s="73" t="s">
         <v>341</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="105" t="s">
+      <c r="E24" s="103" t="s">
         <v>342</v>
       </c>
       <c r="F24" s="7" t="s">
@@ -47742,13 +47799,13 @@
       <c r="B26" s="3">
         <v>792</v>
       </c>
-      <c r="C26" s="87" t="s">
+      <c r="C26" s="73" t="s">
         <v>346</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="97" t="s">
+      <c r="E26" s="75" t="s">
         <v>347</v>
       </c>
       <c r="F26" s="7" t="s">
@@ -47796,13 +47853,13 @@
       <c r="B29" s="3">
         <v>1400</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="73" t="s">
         <v>351</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="97" t="s">
+      <c r="E29" s="75" t="s">
         <v>352</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -47814,13 +47871,13 @@
       <c r="B30" s="3">
         <v>1446</v>
       </c>
-      <c r="C30" s="87" t="s">
+      <c r="C30" s="73" t="s">
         <v>353</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="97" t="s">
+      <c r="E30" s="75" t="s">
         <v>354</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -47906,13 +47963,13 @@
       <c r="B35" s="3">
         <v>1138</v>
       </c>
-      <c r="C35" s="87" t="s">
+      <c r="C35" s="73" t="s">
         <v>365</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="97" t="s">
+      <c r="E35" s="75" t="s">
         <v>366</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -47924,13 +47981,13 @@
       <c r="B36" s="3">
         <v>1784</v>
       </c>
-      <c r="C36" s="87" t="s">
+      <c r="C36" s="73" t="s">
         <v>367</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="97" t="s">
+      <c r="E36" s="75" t="s">
         <v>368</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -47975,7 +48032,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="96" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="2"/>
@@ -48004,19 +48061,19 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="97" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="3">
         <v>832</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="73" t="s">
         <v>369</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="75" t="s">
         <v>370</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -48024,17 +48081,17 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="100"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="3">
         <v>498</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="73" t="s">
         <v>371</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="75" t="s">
         <v>372</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -48042,7 +48099,7 @@
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:6">
-      <c r="A5" s="100"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="3">
         <v>598</v>
       </c>
@@ -48060,17 +48117,17 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="100"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="3">
         <v>997</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="73" t="s">
         <v>376</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="97" t="s">
+      <c r="E6" s="75" t="s">
         <v>377</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -48078,17 +48135,17 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="100"/>
+      <c r="A7" s="98"/>
       <c r="B7" s="3">
         <v>1424</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="73" t="s">
         <v>378</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="75" t="s">
         <v>379</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -48096,17 +48153,17 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="100"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="3">
         <v>1672</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="73" t="s">
         <v>380</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="97" t="s">
+      <c r="E8" s="75" t="s">
         <v>381</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -48114,7 +48171,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="100"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="3">
         <v>1893</v>
       </c>
@@ -48124,7 +48181,7 @@
       <c r="D9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="75" t="s">
         <v>383</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -48132,17 +48189,17 @@
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:6">
-      <c r="A10" s="101"/>
+      <c r="A10" s="99"/>
       <c r="B10" s="3">
         <v>1901</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="73" t="s">
         <v>384</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="97" t="s">
+      <c r="E10" s="75" t="s">
         <v>385</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -48150,19 +48207,19 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="100" t="s">
         <v>386</v>
       </c>
-      <c r="B11" s="103">
+      <c r="B11" s="101">
         <v>79</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="102" t="s">
         <v>387</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="104" t="s">
+      <c r="E11" s="102" t="s">
         <v>388</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -48170,17 +48227,17 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="102"/>
+      <c r="A12" s="100"/>
       <c r="B12" s="3">
         <v>519</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="73" t="s">
         <v>389</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="75" t="s">
         <v>390</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -48188,7 +48245,7 @@
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:6">
-      <c r="A13" s="102"/>
+      <c r="A13" s="100"/>
       <c r="B13" s="3">
         <v>1282</v>
       </c>
@@ -48206,7 +48263,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="102"/>
+      <c r="A14" s="100"/>
       <c r="B14" s="3">
         <v>766</v>
       </c>
@@ -48224,17 +48281,17 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="102"/>
+      <c r="A15" s="100"/>
       <c r="B15" s="3">
         <v>1041</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="73" t="s">
         <v>395</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="97" t="s">
+      <c r="E15" s="75" t="s">
         <v>396</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -48242,7 +48299,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="102"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="3">
         <v>1337</v>
       </c>
@@ -48260,17 +48317,17 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="102"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="3">
         <v>1905</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="73" t="s">
         <v>399</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="105" t="s">
+      <c r="E17" s="103" t="s">
         <v>400</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -48278,7 +48335,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="102"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="3">
         <v>840</v>
       </c>
@@ -48296,7 +48353,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="102"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="3">
         <v>1020</v>
       </c>
@@ -48314,11 +48371,11 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="102"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="3">
         <v>419</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="73" t="s">
         <v>404</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -48332,17 +48389,17 @@
       </c>
     </row>
     <row r="21" ht="28.5" spans="1:6">
-      <c r="A21" s="102"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="3">
         <v>1162</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="73" t="s">
         <v>406</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="97" t="s">
+      <c r="E21" s="75" t="s">
         <v>407</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -48350,7 +48407,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="102"/>
+      <c r="A22" s="100"/>
       <c r="B22" s="3">
         <v>36</v>
       </c>
@@ -48368,13 +48425,13 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="100" t="s">
         <v>411</v>
       </c>
       <c r="B23" s="3">
         <v>56</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="C23" s="73" t="s">
         <v>412</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -48388,7 +48445,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="102"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="3">
         <v>406</v>
       </c>
@@ -48398,7 +48455,7 @@
       <c r="D24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="106" t="s">
+      <c r="E24" s="76" t="s">
         <v>415</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -48406,7 +48463,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="102"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="3">
         <v>435</v>
       </c>
@@ -48416,7 +48473,7 @@
       <c r="D25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="106" t="s">
+      <c r="E25" s="76" t="s">
         <v>415</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -48424,7 +48481,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="102"/>
+      <c r="A26" s="100"/>
       <c r="B26" s="3">
         <v>452</v>
       </c>
@@ -48434,7 +48491,7 @@
       <c r="D26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="106" t="s">
+      <c r="E26" s="76" t="s">
         <v>418</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -48442,21 +48499,21 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="102"/>
+      <c r="A27" s="100"/>
       <c r="B27" s="3">
         <v>646</v>
       </c>
-      <c r="C27" s="87" t="s">
+      <c r="C27" s="73" t="s">
         <v>419</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="97"/>
+      <c r="E27" s="75"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="107" t="s">
+      <c r="A28" s="104" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="3">
@@ -48476,17 +48533,17 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="108"/>
+      <c r="A29" s="105"/>
       <c r="B29" s="3">
         <v>1232</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="73" t="s">
         <v>422</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="97" t="s">
+      <c r="E29" s="75" t="s">
         <v>423</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -48494,7 +48551,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="108"/>
+      <c r="A30" s="105"/>
       <c r="B30" s="3">
         <v>2022</v>
       </c>
@@ -48512,7 +48569,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="108"/>
+      <c r="A31" s="105"/>
       <c r="B31" s="3">
         <v>1854</v>
       </c>
@@ -48530,7 +48587,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="109"/>
+      <c r="A32" s="106"/>
       <c r="B32" s="3">
         <v>867</v>
       </c>
@@ -48612,13 +48669,13 @@
       <c r="A3" s="3">
         <v>44</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="73" t="s">
         <v>428</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="87" t="s">
         <v>429</v>
       </c>
       <c r="E3" s="6"/>
@@ -48629,13 +48686,13 @@
       <c r="A4" s="3">
         <v>53</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="73" t="s">
         <v>430</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="88" t="s">
         <v>431</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -48654,7 +48711,7 @@
       <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="88" t="s">
         <v>433</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -48673,7 +48730,7 @@
       <c r="C6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="88" t="s">
         <v>435</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -48692,7 +48749,7 @@
       <c r="C7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="88" t="s">
         <v>437</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -48705,7 +48762,7 @@
       <c r="A8" s="3">
         <v>70</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="73" t="s">
         <v>438</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -48724,7 +48781,7 @@
       <c r="A9" s="3">
         <v>72</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="73" t="s">
         <v>440</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -48738,7 +48795,7 @@
       <c r="A10" s="3">
         <v>746</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="73" t="s">
         <v>441</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -48763,7 +48820,7 @@
       <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="87" t="s">
         <v>444</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -48800,7 +48857,7 @@
       <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="88" t="s">
         <v>448</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -48819,7 +48876,7 @@
       <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="87" t="s">
         <v>450</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -48838,7 +48895,7 @@
       <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="88" t="s">
         <v>452</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -48857,7 +48914,7 @@
       <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="88" t="s">
         <v>454</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -48876,7 +48933,7 @@
       <c r="C17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="89" t="s">
+      <c r="D17" s="88" t="s">
         <v>456</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -48895,7 +48952,7 @@
       <c r="C18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="89" t="s">
+      <c r="D18" s="88" t="s">
         <v>458</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -48914,7 +48971,7 @@
       <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="88" t="s">
         <v>460</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -48933,7 +48990,7 @@
       <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="89" t="s">
+      <c r="D20" s="88" t="s">
         <v>462</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -48946,13 +49003,13 @@
       <c r="A21" s="3">
         <v>2106</v>
       </c>
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="73" t="s">
         <v>463</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="88" t="s">
+      <c r="D21" s="87" t="s">
         <v>464</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -48971,7 +49028,7 @@
       <c r="C22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="89" t="s">
+      <c r="D22" s="88" t="s">
         <v>466</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -48990,7 +49047,7 @@
       <c r="C23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="89" t="s">
+      <c r="D23" s="88" t="s">
         <v>468</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -49009,7 +49066,7 @@
       <c r="C24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="89" t="s">
+      <c r="D24" s="88" t="s">
         <v>470</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -49028,7 +49085,7 @@
       <c r="C25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="88" t="s">
         <v>472</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -49047,7 +49104,7 @@
       <c r="C26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="89" t="s">
+      <c r="D26" s="88" t="s">
         <v>474</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -49066,7 +49123,7 @@
       <c r="C27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="89" t="s">
+      <c r="D27" s="88" t="s">
         <v>476</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -49085,7 +49142,7 @@
       <c r="C28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="89" t="s">
+      <c r="D28" s="88" t="s">
         <v>479</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -49104,7 +49161,7 @@
       <c r="C29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="90" t="s">
+      <c r="D29" s="89" t="s">
         <v>481</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -49121,7 +49178,7 @@
       <c r="C30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="89" t="s">
+      <c r="D30" s="88" t="s">
         <v>483</v>
       </c>
       <c r="E30" s="6" t="s">
@@ -49140,7 +49197,7 @@
       <c r="C31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="89" t="s">
+      <c r="D31" s="88" t="s">
         <v>485</v>
       </c>
       <c r="E31" s="6" t="s">
@@ -49159,7 +49216,7 @@
       <c r="C32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="89" t="s">
+      <c r="D32" s="88" t="s">
         <v>487</v>
       </c>
       <c r="E32" s="6" t="s">
@@ -49172,13 +49229,13 @@
       <c r="A33" s="3">
         <v>279</v>
       </c>
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="73" t="s">
         <v>488</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="89" t="s">
+      <c r="D33" s="88" t="s">
         <v>487</v>
       </c>
       <c r="E33" s="6" t="s">
@@ -49197,7 +49254,7 @@
       <c r="C34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="89" t="s">
+      <c r="D34" s="88" t="s">
         <v>487</v>
       </c>
       <c r="E34" s="6" t="s">
@@ -49216,7 +49273,7 @@
       <c r="C35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="89" t="s">
+      <c r="D35" s="88" t="s">
         <v>487</v>
       </c>
       <c r="E35" s="6" t="s">
@@ -49235,7 +49292,7 @@
       <c r="C36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="89" t="s">
+      <c r="D36" s="88" t="s">
         <v>487</v>
       </c>
       <c r="E36" s="6" t="s">
@@ -49254,7 +49311,7 @@
       <c r="C37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="89" t="s">
+      <c r="D37" s="88" t="s">
         <v>439</v>
       </c>
       <c r="E37" s="6" t="s">
@@ -49267,13 +49324,13 @@
       <c r="A38" s="3">
         <v>416</v>
       </c>
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="73" t="s">
         <v>493</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="88" t="s">
+      <c r="D38" s="87" t="s">
         <v>494</v>
       </c>
       <c r="E38" s="6" t="s">
@@ -49286,13 +49343,13 @@
       <c r="A39" s="3">
         <v>467</v>
       </c>
-      <c r="B39" s="87" t="s">
+      <c r="B39" s="73" t="s">
         <v>495</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="91" t="s">
+      <c r="D39" s="90" t="s">
         <v>496</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -49303,13 +49360,13 @@
       <c r="A40" s="3">
         <v>474</v>
       </c>
-      <c r="B40" s="92" t="s">
+      <c r="B40" s="91" t="s">
         <v>497</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="89" t="s">
+      <c r="D40" s="88" t="s">
         <v>498</v>
       </c>
       <c r="E40" s="6" t="s">
@@ -49326,7 +49383,7 @@
       <c r="C41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="89" t="s">
+      <c r="D41" s="88" t="s">
         <v>500</v>
       </c>
       <c r="E41" s="6" t="s">
@@ -49364,7 +49421,7 @@
       <c r="C43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="89" t="s">
+      <c r="D43" s="88" t="s">
         <v>439</v>
       </c>
       <c r="E43" s="6" t="s">
@@ -49383,7 +49440,7 @@
       <c r="C44" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="89" t="s">
+      <c r="D44" s="88" t="s">
         <v>505</v>
       </c>
       <c r="E44" s="6" t="s">
@@ -49449,7 +49506,7 @@
       <c r="C48" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="89" t="s">
+      <c r="D48" s="88" t="s">
         <v>481</v>
       </c>
       <c r="E48" s="6" t="s">
@@ -49462,13 +49519,13 @@
       <c r="A49" s="3">
         <v>935</v>
       </c>
-      <c r="B49" s="87" t="s">
+      <c r="B49" s="73" t="s">
         <v>513</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="88" t="s">
+      <c r="D49" s="87" t="s">
         <v>481</v>
       </c>
       <c r="E49" s="6"/>
@@ -49485,7 +49542,7 @@
       <c r="C50" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="89" t="s">
+      <c r="D50" s="88" t="s">
         <v>515</v>
       </c>
       <c r="E50" s="6" t="s">
@@ -49523,7 +49580,7 @@
       <c r="C52" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="89" t="s">
+      <c r="D52" s="88" t="s">
         <v>518</v>
       </c>
       <c r="E52" s="6" t="s">
@@ -49536,13 +49593,13 @@
       <c r="A53" s="3">
         <v>674</v>
       </c>
-      <c r="B53" s="87" t="s">
+      <c r="B53" s="73" t="s">
         <v>519</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="89"/>
+      <c r="D53" s="88"/>
       <c r="E53" s="6"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -49551,7 +49608,7 @@
       <c r="A54" s="3">
         <v>688</v>
       </c>
-      <c r="B54" s="87" t="s">
+      <c r="B54" s="73" t="s">
         <v>520</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -49570,13 +49627,13 @@
       <c r="A55" s="3">
         <v>698</v>
       </c>
-      <c r="B55" s="87" t="s">
+      <c r="B55" s="73" t="s">
         <v>522</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="88" t="s">
+      <c r="D55" s="87" t="s">
         <v>523</v>
       </c>
       <c r="E55" s="6" t="s">
@@ -49595,7 +49652,7 @@
       <c r="C56" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D56" s="89" t="s">
+      <c r="D56" s="88" t="s">
         <v>526</v>
       </c>
       <c r="E56" s="6" t="s">
@@ -49627,13 +49684,13 @@
       <c r="A58" s="3">
         <v>795</v>
       </c>
-      <c r="B58" s="87" t="s">
+      <c r="B58" s="73" t="s">
         <v>531</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="88" t="s">
+      <c r="D58" s="87" t="s">
         <v>532</v>
       </c>
       <c r="E58" s="6" t="s">
@@ -49652,7 +49709,7 @@
       <c r="C59" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="89" t="s">
+      <c r="D59" s="88" t="s">
         <v>534</v>
       </c>
       <c r="E59" s="6"/>
@@ -49663,13 +49720,13 @@
       <c r="A60" s="3">
         <v>813</v>
       </c>
-      <c r="B60" s="87" t="s">
+      <c r="B60" s="73" t="s">
         <v>535</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="88" t="s">
+      <c r="D60" s="87" t="s">
         <v>536</v>
       </c>
       <c r="E60" s="86" t="s">
@@ -49688,7 +49745,7 @@
       <c r="C61" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D61" s="89" t="s">
+      <c r="D61" s="88" t="s">
         <v>538</v>
       </c>
       <c r="E61" s="6" t="s">
@@ -49705,20 +49762,20 @@
       <c r="C62" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D62" s="89"/>
+      <c r="D62" s="88"/>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3">
         <v>1043</v>
       </c>
-      <c r="B63" s="87" t="s">
+      <c r="B63" s="73" t="s">
         <v>540</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="89" t="s">
+      <c r="D63" s="88" t="s">
         <v>481</v>
       </c>
       <c r="E63" s="6"/>
@@ -49735,7 +49792,7 @@
       <c r="C64" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D64" s="89" t="s">
+      <c r="D64" s="88" t="s">
         <v>542</v>
       </c>
       <c r="E64" s="3" t="s">
@@ -49752,7 +49809,7 @@
       <c r="C65" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D65" s="89"/>
+      <c r="D65" s="88"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" ht="71.25" spans="1:7">
@@ -49765,7 +49822,7 @@
       <c r="C66" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="89" t="s">
+      <c r="D66" s="88" t="s">
         <v>545</v>
       </c>
       <c r="E66" s="6"/>
@@ -49782,7 +49839,7 @@
       <c r="C67" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D67" s="89" t="s">
+      <c r="D67" s="88" t="s">
         <v>547</v>
       </c>
       <c r="E67" s="6" t="s">
@@ -49801,7 +49858,7 @@
       <c r="C68" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D68" s="89" t="s">
+      <c r="D68" s="88" t="s">
         <v>549</v>
       </c>
       <c r="E68" s="3" t="s">
@@ -49818,7 +49875,7 @@
       <c r="C69" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D69" s="89" t="s">
+      <c r="D69" s="88" t="s">
         <v>551</v>
       </c>
       <c r="E69" s="6"/>
@@ -49835,7 +49892,7 @@
       <c r="C70" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D70" s="93" t="s">
+      <c r="D70" s="92" t="s">
         <v>553</v>
       </c>
       <c r="E70" s="6"/>
@@ -49846,13 +49903,13 @@
       <c r="A71" s="3">
         <v>1685</v>
       </c>
-      <c r="B71" s="87" t="s">
+      <c r="B71" s="73" t="s">
         <v>554</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D71" s="94" t="s">
+      <c r="D71" s="93" t="s">
         <v>555</v>
       </c>
       <c r="E71" s="3"/>
@@ -49867,10 +49924,10 @@
       <c r="C72" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D72" s="95" t="s">
+      <c r="D72" s="94" t="s">
         <v>557</v>
       </c>
-      <c r="E72" s="96" t="s">
+      <c r="E72" s="95" t="s">
         <v>558</v>
       </c>
       <c r="F72" s="10"/>
@@ -49886,7 +49943,7 @@
       <c r="C73" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D73" s="89" t="s">
+      <c r="D73" s="88" t="s">
         <v>560</v>
       </c>
       <c r="E73" s="6" t="s">
@@ -49899,13 +49956,13 @@
       <c r="A74" s="3">
         <v>1986</v>
       </c>
-      <c r="B74" s="87" t="s">
+      <c r="B74" s="73" t="s">
         <v>561</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D74" s="88" t="s">
+      <c r="D74" s="87" t="s">
         <v>562</v>
       </c>
       <c r="E74" s="6"/>
@@ -49922,7 +49979,7 @@
       <c r="C75" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D75" s="93" t="s">
+      <c r="D75" s="92" t="s">
         <v>564</v>
       </c>
       <c r="E75" s="86" t="s">
@@ -49935,13 +49992,13 @@
       <c r="A76" s="3">
         <v>2110</v>
       </c>
-      <c r="B76" s="87" t="s">
+      <c r="B76" s="73" t="s">
         <v>566</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D76" s="88" t="s">
+      <c r="D76" s="87" t="s">
         <v>567</v>
       </c>
       <c r="E76" s="86" t="s">
@@ -49960,7 +50017,7 @@
       <c r="C77" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="89" t="s">
+      <c r="D77" s="88" t="s">
         <v>570</v>
       </c>
       <c r="E77" s="6" t="s">
@@ -49973,13 +50030,13 @@
       <c r="A78" s="3">
         <v>1504</v>
       </c>
-      <c r="B78" s="87" t="s">
+      <c r="B78" s="73" t="s">
         <v>571</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D78" s="97" t="s">
+      <c r="D78" s="75" t="s">
         <v>572</v>
       </c>
       <c r="E78" s="3"/>

--- a/leetcode/1. statistics/leetcode.xlsx
+++ b/leetcode/1. statistics/leetcode.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="1082">
   <si>
     <t>算法大纲</t>
   </si>
@@ -2272,9 +2272,6 @@
     <t>核心的思想仍然是计数法</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>半径为 k 的子数组平均值</t>
   </si>
   <si>
@@ -2282,6 +2279,9 @@
 2. 滑动窗口： 始终维持一个窗口</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>新增的最少台阶数</t>
   </si>
   <si>
@@ -2341,28 +2341,22 @@
     <t>排序+去重+回溯</t>
   </si>
   <si>
-    <t>经典（推荐多做几遍）</t>
-  </si>
-  <si>
     <t>全排列</t>
   </si>
   <si>
     <t>回溯+剪枝</t>
   </si>
   <si>
+    <t>经典（另一类全排列）</t>
+  </si>
+  <si>
     <t>全排列 II</t>
   </si>
   <si>
     <t>回溯+剪枝+去除使用元素</t>
   </si>
   <si>
-    <t>经典（剪枝会有一定的难度）</t>
-  </si>
-  <si>
-    <t>N 皇后</t>
-  </si>
-  <si>
-    <t>暂时不想做</t>
+    <t>进阶（剪枝会有一定的难度）</t>
   </si>
   <si>
     <t>组合</t>
@@ -2460,6 +2454,15 @@
   </si>
   <si>
     <t>有些看不懂</t>
+  </si>
+  <si>
+    <t>N 皇后</t>
+  </si>
+  <si>
+    <t>苦难</t>
+  </si>
+  <si>
+    <t>暂时不想做</t>
   </si>
   <si>
     <t>状态</t>
@@ -4621,7 +4624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4808,8 +4811,42 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4896,9 +4933,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4917,15 +4951,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5329,13 +5354,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="57" spans="1:4">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="136" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="137" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
@@ -5343,49 +5368,49 @@
       </c>
     </row>
     <row r="2" ht="85.5" customHeight="1" spans="1:4">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="136" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="137" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="66" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="66" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="138" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="138" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="138" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="138" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" ht="142.5" spans="1:3">
-      <c r="A9" s="130" t="s">
+      <c r="A9" s="138" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -5396,75 +5421,75 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="66" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="66" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="138" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="138" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="66" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="66" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="138" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="66" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="66" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="131" t="s">
+      <c r="A20" s="139" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="130" t="s">
+      <c r="A21" s="138" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="130" t="s">
+      <c r="A23" s="138" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5509,25 +5534,25 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="10"/>
-    <col min="3" max="3" width="36.375" style="67" customWidth="1"/>
+    <col min="3" max="3" width="36.375" style="79" customWidth="1"/>
     <col min="5" max="5" width="48" style="44" customWidth="1"/>
     <col min="6" max="6" width="21.75" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
       <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6">
@@ -5551,7 +5576,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="82" t="s">
         <v>573</v>
       </c>
       <c r="B3" s="3">
@@ -5563,7 +5588,7 @@
       <c r="D3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="83" t="s">
         <v>575</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -5571,7 +5596,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72"/>
+      <c r="A4" s="84"/>
       <c r="B4" s="3">
         <v>409</v>
       </c>
@@ -5589,11 +5614,11 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="3">
         <v>561</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="85" t="s">
         <v>578</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -5607,7 +5632,7 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="72"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="10">
         <v>594</v>
       </c>
@@ -5625,7 +5650,7 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="72"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="3">
         <v>1013</v>
       </c>
@@ -5643,7 +5668,7 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="72"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="3">
         <v>1323</v>
       </c>
@@ -5659,10 +5684,10 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="72"/>
+      <c r="A9" s="84"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="74"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="10">
         <v>1833</v>
       </c>
@@ -5692,7 +5717,7 @@
       <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="87" t="s">
         <v>587</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -5710,7 +5735,7 @@
       <c r="D12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="88" t="s">
         <v>589</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -5728,7 +5753,7 @@
       <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="88" t="s">
         <v>589</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -5764,7 +5789,7 @@
       <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="88" t="s">
         <v>594</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -5782,10 +5807,10 @@
       <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="83" t="s">
         <v>596</v>
       </c>
-      <c r="F16" s="77" t="s">
+      <c r="F16" s="89" t="s">
         <v>477</v>
       </c>
     </row>
@@ -5800,7 +5825,7 @@
       <c r="D17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="83" t="s">
         <v>598</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -5818,10 +5843,10 @@
       <c r="D18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="90" t="s">
         <v>600</v>
       </c>
-      <c r="F18" s="77" t="s">
+      <c r="F18" s="89" t="s">
         <v>477</v>
       </c>
     </row>
@@ -5836,7 +5861,7 @@
       <c r="D19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="76" t="s">
+      <c r="E19" s="88" t="s">
         <v>598</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -5854,10 +5879,10 @@
       <c r="D20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="79" t="s">
+      <c r="E20" s="91" t="s">
         <v>603</v>
       </c>
-      <c r="F20" s="77" t="s">
+      <c r="F20" s="89" t="s">
         <v>477</v>
       </c>
     </row>
@@ -5872,10 +5897,10 @@
       <c r="D21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="80" t="s">
+      <c r="E21" s="92" t="s">
         <v>605</v>
       </c>
-      <c r="F21" s="77" t="s">
+      <c r="F21" s="89" t="s">
         <v>477</v>
       </c>
     </row>
@@ -5890,7 +5915,7 @@
       <c r="D22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="76" t="s">
+      <c r="E22" s="88" t="s">
         <v>607</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -5908,10 +5933,10 @@
       <c r="D23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="93" t="s">
         <v>609</v>
       </c>
-      <c r="F23" s="77" t="s">
+      <c r="F23" s="89" t="s">
         <v>477</v>
       </c>
     </row>
@@ -5926,7 +5951,7 @@
       <c r="D24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="76" t="s">
+      <c r="E24" s="88" t="s">
         <v>598</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -5944,10 +5969,10 @@
       <c r="D25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="82" t="s">
+      <c r="E25" s="94" t="s">
         <v>612</v>
       </c>
-      <c r="F25" s="83" t="s">
+      <c r="F25" s="95" t="s">
         <v>477</v>
       </c>
     </row>
@@ -5962,7 +5987,7 @@
       <c r="D26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="76" t="s">
+      <c r="E26" s="88" t="s">
         <v>614</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -6034,7 +6059,7 @@
       <c r="D30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="76" t="s">
+      <c r="E30" s="88" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="6" t="s">
@@ -6052,7 +6077,7 @@
       <c r="D31" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="80" t="s">
+      <c r="E31" s="92" t="s">
         <v>623</v>
       </c>
       <c r="F31" s="6" t="s">
@@ -6070,7 +6095,7 @@
       <c r="D32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="71" t="s">
+      <c r="E32" s="83" t="s">
         <v>411</v>
       </c>
       <c r="F32" s="6" t="s">
@@ -6142,7 +6167,7 @@
       <c r="D36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="71" t="s">
+      <c r="E36" s="83" t="s">
         <v>632</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -6169,9 +6194,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="6:6">
+    <row r="38" ht="28.5" spans="2:6">
+      <c r="B38" s="10">
+        <v>2090</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>636</v>
+      </c>
       <c r="F38" s="10" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="44" spans="3:5">
@@ -6182,20 +6219,6 @@
       <c r="F57" s="15"/>
     </row>
     <row r="60" s="10" customFormat="1"/>
-    <row r="62" ht="28.5" spans="2:5">
-      <c r="B62" s="10">
-        <v>2090</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>636</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>637</v>
-      </c>
-    </row>
     <row r="63" ht="28.5" spans="2:5">
       <c r="B63" s="10">
         <v>1936</v>
@@ -6214,7 +6237,7 @@
       <c r="B64" s="19">
         <v>2365</v>
       </c>
-      <c r="C64" s="84" t="s">
+      <c r="C64" s="96" t="s">
         <v>640</v>
       </c>
       <c r="D64" s="19" t="s">
@@ -6312,7 +6335,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -6417,435 +6440,479 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="35.875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="5.25" style="27" customWidth="1"/>
-    <col min="4" max="4" width="63.75" style="16" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="5.5" style="27" customWidth="1"/>
+    <col min="3" max="3" width="35.875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="27" customWidth="1"/>
+    <col min="5" max="5" width="63.75" style="16" customWidth="1"/>
+    <col min="6" max="6" width="26.875" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="46"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="E2" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="68" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="10">
+    <row r="3" spans="1:6">
+      <c r="A3" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="68">
         <v>17</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="70" t="s">
         <v>650</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="72" t="s">
         <v>651</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="68" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10">
+    <row r="4" spans="1:6">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68">
         <v>22</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="70" t="s">
         <v>652</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="72" t="s">
         <v>651</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="F4" s="68" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10">
+    <row r="5" spans="1:6">
+      <c r="A5" s="68"/>
+      <c r="B5" s="68">
         <v>39</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="70" t="s">
         <v>653</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="72" t="s">
         <v>654</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="F5" s="68" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10">
+    <row r="6" spans="1:6">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68">
         <v>40</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="73" t="s">
         <v>655</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="74" t="s">
         <v>656</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="F6" s="75" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68">
+        <v>46</v>
+      </c>
+      <c r="C7" s="73" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="10">
-        <v>46</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="D7" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="74" t="s">
         <v>658</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="F7" s="68" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68">
+        <v>47</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>660</v>
+      </c>
+      <c r="D8" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>659</v>
-      </c>
-      <c r="E7" s="27" t="s">
+      <c r="E8" s="74" t="s">
+        <v>661</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="76"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="68"/>
+      <c r="B10" s="68">
+        <v>77</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>663</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>664</v>
+      </c>
+      <c r="F10" s="68" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="10">
-        <v>47</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>660</v>
-      </c>
-      <c r="C8" s="15" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="68"/>
+      <c r="B11" s="68">
+        <v>78</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>665</v>
+      </c>
+      <c r="D11" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="10">
+      <c r="E11" s="74" t="s">
+        <v>666</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68">
+        <v>90</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>667</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="74" t="s">
+        <v>656</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="68"/>
+      <c r="B13" s="3">
+        <v>95</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="68"/>
+      <c r="B14" s="68">
+        <v>131</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>672</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="72" t="s">
+        <v>673</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="68"/>
+      <c r="B15" s="68">
+        <v>140</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>675</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="72"/>
+      <c r="F15" s="68"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68">
+        <v>212</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>676</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="72" t="s">
+        <v>677</v>
+      </c>
+      <c r="F16" s="68"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="68"/>
+      <c r="B17" s="68">
+        <v>216</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>678</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="F17" s="68"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68">
+        <v>257</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="72" t="s">
+        <v>680</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="68"/>
+      <c r="B19" s="68">
+        <v>1593</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>681</v>
+      </c>
+      <c r="D19" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="72" t="s">
+        <v>682</v>
+      </c>
+      <c r="F19" s="68"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="68"/>
+      <c r="B20" s="68">
+        <v>1239</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>683</v>
+      </c>
+      <c r="D20" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>684</v>
+      </c>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" ht="42.75" spans="1:6">
+      <c r="A21" s="68"/>
+      <c r="B21" s="68">
+        <v>473</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>685</v>
+      </c>
+      <c r="D21" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>686</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="68"/>
+      <c r="B22" s="68">
+        <v>949</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>688</v>
+      </c>
+      <c r="D22" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>689</v>
+      </c>
+      <c r="F22" s="68"/>
+    </row>
+    <row r="23" ht="42.75" spans="1:6">
+      <c r="A23" s="68"/>
+      <c r="B23" s="68">
+        <v>2048</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>690</v>
+      </c>
+      <c r="D23" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>691</v>
+      </c>
+      <c r="F23" s="68"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:6">
+      <c r="A24" s="77"/>
+      <c r="B24" s="10">
+        <v>1443</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>692</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>693</v>
+      </c>
+      <c r="F24" s="78"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="10"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="68">
         <v>51</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>663</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="10">
-        <v>77</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>665</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>666</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="10">
-        <v>78</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>667</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>668</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="10">
-        <v>90</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3">
-        <v>95</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>673</v>
-      </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="10">
-        <v>131</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>674</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>675</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="10">
-        <v>140</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>677</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="10">
-        <v>212</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>678</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="10">
-        <v>216</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>680</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="10">
-        <v>257</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="10">
-        <v>1593</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>683</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="10">
-        <v>1239</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>685</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="21" ht="42.75" spans="1:5">
-      <c r="A21" s="10">
-        <v>473</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>687</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>688</v>
-      </c>
-      <c r="E21" s="66" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="10">
-        <v>949</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>690</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="23" ht="42.75" spans="1:4">
-      <c r="A23" s="10">
-        <v>2048</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>692</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:4">
-      <c r="A24" s="10">
-        <v>1443</v>
-      </c>
-      <c r="B24" s="30" t="s">
+      <c r="C27" s="73" t="s">
         <v>694</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="D27" s="71" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="10"/>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="10"/>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="10"/>
-      <c r="C27" s="10"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="10"/>
-      <c r="C28" s="10"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="10"/>
-      <c r="C29" s="10"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="10"/>
-      <c r="C30" s="10"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="10"/>
-      <c r="C31" s="10"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="10"/>
-      <c r="C32" s="10"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="10"/>
-      <c r="C33" s="10"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="E27" s="74" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="10"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="10"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="10"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="10"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="10"/>
+      <c r="D34" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A23"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:D1" location="主页!A1" display="主页"/>
+    <hyperlink ref="A1" location="主页!A1" display="主页"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6859,7 +6926,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -6892,7 +6959,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E2" s="43" t="s">
         <v>36</v>
@@ -6903,13 +6970,13 @@
         <v>204</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6917,13 +6984,13 @@
         <v>1726</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6931,13 +6998,13 @@
         <v>1980</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6956,13 +7023,13 @@
         <v>2171</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6970,13 +7037,13 @@
         <v>1094</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>165</v>
@@ -6987,7 +7054,7 @@
         <v>1925</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>44</v>
@@ -7001,13 +7068,13 @@
         <v>1551</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7015,7 +7082,7 @@
         <v>1775</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>44</v>
@@ -7026,13 +7093,13 @@
         <v>179</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7040,13 +7107,13 @@
         <v>93</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7054,7 +7121,7 @@
         <v>989</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>44</v>
@@ -7065,13 +7132,13 @@
         <v>2029</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7079,13 +7146,13 @@
         <v>60</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>97</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="1:6">
@@ -7093,16 +7160,16 @@
         <v>1509</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:6">
@@ -7110,14 +7177,14 @@
         <v>1963</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="17" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F18" s="10"/>
     </row>
@@ -7126,13 +7193,13 @@
         <v>1191</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7140,13 +7207,13 @@
         <v>390</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7154,7 +7221,7 @@
         <v>1539</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>44</v>
@@ -7168,13 +7235,13 @@
         <v>1362</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7182,7 +7249,7 @@
         <v>1608</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>44</v>
@@ -7196,13 +7263,13 @@
         <v>2119</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -7253,7 +7320,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E2" s="43" t="s">
         <v>36</v>
@@ -7264,13 +7331,13 @@
         <v>1979</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7278,7 +7345,7 @@
         <v>162</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>40</v>
@@ -7289,7 +7356,7 @@
         <v>1047</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>44</v>
@@ -7300,7 +7367,7 @@
         <v>118</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>44</v>
@@ -7311,7 +7378,7 @@
         <v>648</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>40</v>
@@ -7322,7 +7389,7 @@
         <v>1781</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>40</v>
@@ -7333,7 +7400,7 @@
         <v>326</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>44</v>
@@ -7344,13 +7411,13 @@
         <v>1408</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7358,13 +7425,13 @@
         <v>462</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7372,7 +7439,7 @@
         <v>1464</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>44</v>
@@ -7383,13 +7450,13 @@
         <v>1961</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7397,13 +7464,13 @@
         <v>1894</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:5">
@@ -7411,13 +7478,13 @@
         <v>1967</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7425,13 +7492,13 @@
         <v>539</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7439,7 +7506,7 @@
         <v>539</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>40</v>
@@ -7453,7 +7520,7 @@
         <v>838</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>40</v>
@@ -7464,13 +7531,13 @@
         <v>551</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7478,13 +7545,13 @@
         <v>1025</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7492,13 +7559,13 @@
         <v>1718</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7506,7 +7573,7 @@
         <v>1909</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>44</v>
@@ -7517,13 +7584,13 @@
         <v>2178</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="24" ht="28.5" spans="1:5">
@@ -7531,13 +7598,13 @@
         <v>502</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7545,7 +7612,7 @@
         <v>1791</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>44</v>
@@ -7559,13 +7626,13 @@
         <v>1154</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="27" ht="57" spans="1:5">
@@ -7573,13 +7640,13 @@
         <v>1253</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7587,7 +7654,7 @@
         <v>1491</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>44</v>
@@ -7598,13 +7665,13 @@
         <v>1968</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7612,7 +7679,7 @@
         <v>1021</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>44</v>
@@ -7623,13 +7690,13 @@
         <v>43</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -7637,7 +7704,7 @@
         <v>2032</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>44</v>
@@ -7651,13 +7718,13 @@
         <v>1103</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:5">
@@ -7665,13 +7732,13 @@
         <v>1688</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="35" ht="28.5" spans="1:5">
@@ -7679,13 +7746,13 @@
         <v>383</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -7693,13 +7760,13 @@
         <v>357</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="37" ht="42.75" spans="1:5">
@@ -7707,13 +7774,13 @@
         <v>977</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -7721,13 +7788,13 @@
         <v>1295</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -7735,13 +7802,13 @@
         <v>1389</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -7749,7 +7816,7 @@
         <v>1503</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>40</v>
@@ -7763,7 +7830,7 @@
         <v>2200</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>40</v>
@@ -7777,13 +7844,13 @@
         <v>217</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -7791,13 +7858,13 @@
         <v>2239</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -7805,7 +7872,7 @@
         <v>941</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>44</v>
@@ -7819,13 +7886,13 @@
         <v>1619</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -7833,13 +7900,13 @@
         <v>1450</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -7847,13 +7914,13 @@
         <v>1929</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -7861,13 +7928,13 @@
         <v>1941</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="49" ht="57" spans="1:5">
@@ -7875,13 +7942,13 @@
         <v>443</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -7889,13 +7956,13 @@
         <v>1541</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -7903,13 +7970,13 @@
         <v>1832</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -7917,13 +7984,13 @@
         <v>999</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -7931,13 +7998,13 @@
         <v>1431</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -7945,13 +8012,13 @@
         <v>1475</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -7959,13 +8026,13 @@
         <v>884</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -7973,13 +8040,13 @@
         <v>1566</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7987,7 +8054,7 @@
         <v>127</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>97</v>
@@ -7998,13 +8065,13 @@
         <v>1054</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -8012,7 +8079,7 @@
         <v>2154</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>44</v>
@@ -8023,13 +8090,13 @@
         <v>1550</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -8037,7 +8104,7 @@
         <v>575</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>44</v>
@@ -8048,13 +8115,13 @@
         <v>1716</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -8062,7 +8129,7 @@
         <v>1869</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>44</v>
@@ -8076,13 +8143,13 @@
         <v>1638</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -8090,7 +8157,7 @@
         <v>2138</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>44</v>
@@ -8104,7 +8171,7 @@
         <v>2299</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>44</v>
@@ -8118,13 +8185,13 @@
         <v>1614</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -8132,13 +8199,13 @@
         <v>1689</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -8146,7 +8213,7 @@
         <v>1952</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>44</v>
@@ -8160,13 +8227,13 @@
         <v>645</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -8174,13 +8241,13 @@
         <v>2206</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -8188,7 +8255,7 @@
         <v>1436</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>44</v>
@@ -8239,7 +8306,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>36</v>
@@ -8250,7 +8317,7 @@
         <v>355</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>40</v>
@@ -8263,7 +8330,7 @@
         <v>460</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>97</v>
@@ -8276,7 +8343,7 @@
         <v>622</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>40</v>
@@ -8289,7 +8356,7 @@
         <v>641</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>40</v>
@@ -8302,7 +8369,7 @@
         <v>705</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>40</v>
@@ -8315,7 +8382,7 @@
         <v>706</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>40</v>
@@ -8328,7 +8395,7 @@
         <v>707</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>40</v>
@@ -8341,7 +8408,7 @@
         <v>1206</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>97</v>
@@ -8354,7 +8421,7 @@
         <v>1472</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>40</v>
@@ -8367,7 +8434,7 @@
         <v>1797</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>40</v>
@@ -8378,13 +8445,13 @@
         <v>307</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -8436,7 +8503,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E2" s="50" t="s">
         <v>36</v>
@@ -8447,7 +8514,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C3" s="61" t="s">
         <v>44</v>
@@ -8461,7 +8528,7 @@
         <v>633</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C4" s="61" t="s">
         <v>44</v>
@@ -8472,7 +8539,7 @@
         <v>441</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C5" s="61" t="s">
         <v>44</v>
@@ -8483,10 +8550,10 @@
         <v>34</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:5">
@@ -8494,10 +8561,10 @@
         <v>153</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="9" ht="57" spans="1:5">
@@ -8505,13 +8572,13 @@
         <v>378</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8519,13 +8586,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="11" s="10" customFormat="1" ht="27" spans="1:6">
@@ -8533,13 +8600,13 @@
         <v>1201</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F11" s="15"/>
     </row>
@@ -8548,13 +8615,13 @@
         <v>1351</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C12" s="61" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8562,16 +8629,16 @@
         <v>275</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8579,13 +8646,13 @@
         <v>35</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C14" s="61" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8593,13 +8660,13 @@
         <v>2300</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C15" s="50" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8607,13 +8674,13 @@
         <v>240</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C16" s="50" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
   </sheetData>
@@ -8667,7 +8734,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E2" s="43" t="s">
         <v>36</v>
@@ -8678,7 +8745,7 @@
         <v>219</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>44</v>
@@ -8689,7 +8756,7 @@
         <v>643</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>44</v>
@@ -8700,13 +8767,13 @@
         <v>1876</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8714,13 +8781,13 @@
         <v>1984</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8728,7 +8795,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>40</v>
@@ -8739,7 +8806,7 @@
         <v>187</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>40</v>
@@ -8750,7 +8817,7 @@
         <v>209</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>40</v>
@@ -8761,13 +8828,13 @@
         <v>220</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="11" ht="71.25" spans="1:7">
@@ -8775,13 +8842,13 @@
         <v>395</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>165</v>
@@ -8792,13 +8859,13 @@
         <v>424</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8806,7 +8873,7 @@
         <v>438</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>40</v>
@@ -8817,13 +8884,13 @@
         <v>567</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8831,13 +8898,13 @@
         <v>930</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8845,13 +8912,13 @@
         <v>978</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8859,13 +8926,13 @@
         <v>1004</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F17" s="15"/>
     </row>
@@ -8874,13 +8941,13 @@
         <v>1052</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8888,13 +8955,13 @@
         <v>1208</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8902,13 +8969,13 @@
         <v>1234</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8916,7 +8983,7 @@
         <v>1423</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>40</v>
@@ -8933,7 +9000,7 @@
         <v>40</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="23" ht="42.75" spans="1:5">
@@ -8941,13 +9008,13 @@
         <v>1493</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="54" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8955,13 +9022,13 @@
         <v>1658</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8969,13 +9036,13 @@
         <v>1696</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -8983,13 +9050,13 @@
         <v>1838</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8997,13 +9064,13 @@
         <v>2024</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:9">
@@ -9011,14 +9078,14 @@
         <v>2104</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="56" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -9030,13 +9097,13 @@
         <v>1525</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9044,7 +9111,7 @@
         <v>904</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>40</v>
@@ -9055,13 +9122,13 @@
         <v>643</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="42.75" spans="1:5">
@@ -9069,13 +9136,13 @@
         <v>1248</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="33" ht="42.75" spans="1:5">
@@ -9083,13 +9150,13 @@
         <v>1234</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -9097,13 +9164,13 @@
         <v>1156</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
   </sheetData>
@@ -9155,7 +9222,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E2" s="43" t="s">
         <v>36</v>
@@ -9167,7 +9234,7 @@
         <v>167</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -9183,7 +9250,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="16" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F4" s="10"/>
     </row>
@@ -9192,7 +9259,7 @@
         <v>1903</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -9203,10 +9270,10 @@
         <v>1712</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:6">
@@ -9214,14 +9281,14 @@
         <v>9</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="17" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F8" s="10"/>
     </row>
@@ -9230,14 +9297,14 @@
         <v>205</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="17" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -9246,14 +9313,14 @@
         <v>881</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="17" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F10" s="10"/>
     </row>
@@ -9262,14 +9329,14 @@
         <v>475</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="17" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F11" s="10"/>
     </row>
@@ -9278,14 +9345,14 @@
         <v>825</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="17" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F12" s="10"/>
     </row>
@@ -9294,14 +9361,14 @@
         <v>713</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="17" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F13" s="10"/>
     </row>
@@ -9310,14 +9377,14 @@
         <v>923</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="17" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -9326,13 +9393,13 @@
         <v>922</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -9340,14 +9407,14 @@
         <v>345</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="17" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="F16" s="10"/>
     </row>
@@ -9356,14 +9423,14 @@
         <v>1768</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="17" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F17" s="10"/>
     </row>
@@ -9372,14 +9439,14 @@
         <v>165</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="16" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="F18" s="10"/>
     </row>
@@ -9388,14 +9455,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="16" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="F19" s="10"/>
     </row>
@@ -9404,14 +9471,14 @@
         <v>1679</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="16" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F20" s="10"/>
     </row>
@@ -9420,14 +9487,14 @@
         <v>392</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="16" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F21" s="10"/>
     </row>
@@ -9436,14 +9503,14 @@
         <v>283</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="17" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F22" s="10"/>
     </row>
@@ -9452,14 +9519,14 @@
         <v>1855</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="16" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F23" s="10"/>
     </row>
@@ -9468,14 +9535,14 @@
         <v>1662</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="16" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F24" s="10"/>
     </row>
@@ -9484,14 +9551,14 @@
         <v>849</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="17" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F25" s="10"/>
     </row>
@@ -9500,14 +9567,14 @@
         <v>80</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="16" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F26" s="10"/>
     </row>
@@ -9516,14 +9583,14 @@
         <v>16</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="16" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="F27" s="10"/>
     </row>
@@ -9532,16 +9599,16 @@
         <v>986</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -9857,7 +9924,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E2" s="43" t="s">
         <v>36</v>
@@ -9871,7 +9938,7 @@
         <v>334</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>40</v>
@@ -9887,7 +9954,7 @@
         <v>1262</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -9901,14 +9968,14 @@
         <v>915</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="31" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
@@ -9919,14 +9986,14 @@
         <v>775</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="17" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
@@ -9937,7 +10004,7 @@
         <v>2177</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>40</v>
@@ -9953,7 +10020,7 @@
         <v>485</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>44</v>
@@ -9969,14 +10036,14 @@
         <v>628</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="17" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
@@ -26373,16 +26440,16 @@
         <v>495</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
@@ -26393,14 +26460,14 @@
         <v>1796</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="17" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
@@ -26411,14 +26478,14 @@
         <v>2037</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="17" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
@@ -26429,14 +26496,14 @@
         <v>1636</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="16" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
@@ -26447,7 +26514,7 @@
         <v>747</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>44</v>
@@ -27216,17 +27283,17 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="134" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="135" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="134" t="s">
         <v>18</v>
       </c>
     </row>
@@ -27279,7 +27346,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>36</v>
@@ -27290,13 +27357,13 @@
         <v>215</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="4" s="27" customFormat="1" ht="57" spans="1:5">
@@ -27304,13 +27371,13 @@
         <v>389</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:5">
@@ -27318,13 +27385,13 @@
         <v>268</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -27332,14 +27399,14 @@
         <v>1654</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="41" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -27347,7 +27414,7 @@
         <v>1752</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>44</v>
@@ -27358,13 +27425,13 @@
         <v>1812</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -27372,13 +27439,13 @@
         <v>969</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -27386,13 +27453,13 @@
         <v>89</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
   </sheetData>
@@ -27411,7 +27478,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -27450,13 +27517,13 @@
         <v>274</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="4" ht="42.75" spans="1:4">
@@ -27464,13 +27531,13 @@
         <v>962</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -27478,13 +27545,13 @@
         <v>179</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -27524,10 +27591,10 @@
     </row>
     <row r="2" s="10" customFormat="1" ht="99" customHeight="1" spans="1:5">
       <c r="A2" s="10" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -27544,7 +27611,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>37</v>
@@ -27555,13 +27622,13 @@
         <v>990</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -27569,7 +27636,7 @@
         <v>1319</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>40</v>
@@ -27580,7 +27647,7 @@
         <v>886</v>
       </c>
       <c r="B6" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>40</v>
@@ -27591,7 +27658,7 @@
         <v>721</v>
       </c>
       <c r="B7" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>40</v>
@@ -27646,7 +27713,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>36</v>
@@ -27657,13 +27724,13 @@
         <v>1590</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -27671,13 +27738,13 @@
         <v>1991</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -27685,13 +27752,13 @@
         <v>238</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -27699,7 +27766,7 @@
         <v>1652</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>44</v>
@@ -27713,13 +27780,13 @@
         <v>1664</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
   </sheetData>
@@ -27782,7 +27849,7 @@
         <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -27793,13 +27860,13 @@
         <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -27807,7 +27874,7 @@
         <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
@@ -27818,7 +27885,7 @@
         <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>
@@ -27829,7 +27896,7 @@
         <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D7" t="s">
         <v>44</v>
@@ -27840,13 +27907,13 @@
         <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D8" t="s">
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -27854,7 +27921,7 @@
         <v>183</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D9" t="s">
         <v>44</v>
@@ -27865,7 +27932,7 @@
         <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
@@ -27876,7 +27943,7 @@
         <v>196</v>
       </c>
       <c r="C11" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -27887,7 +27954,7 @@
         <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
@@ -27898,7 +27965,7 @@
         <v>511</v>
       </c>
       <c r="C13" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D13" t="s">
         <v>44</v>
@@ -27909,7 +27976,7 @@
         <v>584</v>
       </c>
       <c r="C14" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D14" t="s">
         <v>44</v>
@@ -27920,7 +27987,7 @@
         <v>586</v>
       </c>
       <c r="C15" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -27931,7 +27998,7 @@
         <v>607</v>
       </c>
       <c r="C16" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
@@ -27942,13 +28009,13 @@
         <v>608</v>
       </c>
       <c r="C17" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D17" t="s">
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="2:3">
@@ -27956,7 +28023,7 @@
         <v>626</v>
       </c>
       <c r="C18" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -27964,7 +28031,7 @@
         <v>627</v>
       </c>
       <c r="C19" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -27972,7 +28039,7 @@
         <v>1050</v>
       </c>
       <c r="C20" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -27980,7 +28047,7 @@
         <v>1084</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -27988,7 +28055,7 @@
         <v>1141</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -27996,7 +28063,7 @@
         <v>1148</v>
       </c>
       <c r="C23" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -28004,7 +28071,7 @@
         <v>1158</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -28012,7 +28079,7 @@
         <v>1393</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -28020,7 +28087,7 @@
         <v>1407</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -28028,7 +28095,7 @@
         <v>1527</v>
       </c>
       <c r="C27" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -28036,7 +28103,7 @@
         <v>1581</v>
       </c>
       <c r="C28" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -28044,7 +28111,7 @@
         <v>1587</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -28052,7 +28119,7 @@
         <v>1667</v>
       </c>
       <c r="C30" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -28060,7 +28127,7 @@
         <v>1693</v>
       </c>
       <c r="C31" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -28068,7 +28135,7 @@
         <v>1729</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -28076,7 +28143,7 @@
         <v>1741</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -28084,7 +28151,7 @@
         <v>1757</v>
       </c>
       <c r="C34" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -28092,7 +28159,7 @@
         <v>1795</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -28100,7 +28167,7 @@
         <v>1873</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -28108,7 +28175,7 @@
         <v>1890</v>
       </c>
       <c r="C37" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -28116,7 +28183,7 @@
         <v>1965</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
   </sheetData>
@@ -28135,14 +28202,14 @@
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="50"/>
     <col min="2" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="35.5" style="67" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="79" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="38.875" style="44" customWidth="1"/>
     <col min="6" max="6" width="5.25" style="10" customWidth="1"/>
@@ -28178,13 +28245,13 @@
       </c>
     </row>
     <row r="3" ht="15" spans="1:6">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="122">
+      <c r="B3" s="130">
         <v>2</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="85" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -28198,7 +28265,7 @@
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:6">
-      <c r="A4" s="98"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="4">
         <v>21</v>
       </c>
@@ -28216,7 +28283,7 @@
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:6">
-      <c r="A5" s="98"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="4">
         <v>141</v>
       </c>
@@ -28226,7 +28293,7 @@
       <c r="D5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="87" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -28234,17 +28301,17 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="98"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="4">
         <v>142</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="85" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="87" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -28253,7 +28320,7 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" ht="28.5" spans="1:10">
-      <c r="A7" s="99"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="4">
         <v>160</v>
       </c>
@@ -28284,7 +28351,7 @@
       <c r="D8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="87" t="s">
         <v>55</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -28296,13 +28363,13 @@
       <c r="B9" s="4">
         <v>82</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="85" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="87" t="s">
         <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -28320,7 +28387,7 @@
       <c r="D10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="87" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -28338,7 +28405,7 @@
       <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="87" t="s">
         <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -28356,28 +28423,28 @@
       <c r="D12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="87" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" s="121" customFormat="1" ht="28.5" spans="1:6">
+    <row r="13" s="129" customFormat="1" ht="28.5" spans="1:6">
       <c r="A13" s="3"/>
-      <c r="B13" s="123">
+      <c r="B13" s="131">
         <v>92</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="110" t="s">
+      <c r="D13" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="103" t="s">
+      <c r="E13" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="119" t="s">
+      <c r="F13" s="127" t="s">
         <v>63</v>
       </c>
     </row>
@@ -28386,7 +28453,7 @@
       <c r="B14" s="4">
         <v>109</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="85" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -28410,7 +28477,7 @@
       <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="75" t="s">
+      <c r="E15" s="87" t="s">
         <v>67</v>
       </c>
       <c r="F15" s="3"/>
@@ -28426,7 +28493,7 @@
       <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="75" t="s">
+      <c r="E16" s="87" t="s">
         <v>69</v>
       </c>
       <c r="F16" s="3"/>
@@ -28450,13 +28517,13 @@
       <c r="B18" s="4">
         <v>143</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="85" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="87" t="s">
         <v>72</v>
       </c>
       <c r="F18" s="3"/>
@@ -28466,13 +28533,13 @@
       <c r="B19" s="4">
         <v>203</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="85" t="s">
         <v>73</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="75" t="s">
+      <c r="E19" s="87" t="s">
         <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
@@ -28490,10 +28557,10 @@
       <c r="D20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="124" t="s">
+      <c r="E20" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="86" t="s">
+      <c r="F20" s="98" t="s">
         <v>50</v>
       </c>
     </row>
@@ -28502,13 +28569,13 @@
       <c r="B21" s="4">
         <v>237</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="85" t="s">
         <v>76</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="75" t="s">
+      <c r="E21" s="87" t="s">
         <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
@@ -28526,7 +28593,7 @@
       <c r="D22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="75" t="s">
+      <c r="E22" s="87" t="s">
         <v>78</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -28538,7 +28605,7 @@
       <c r="B23" s="4">
         <v>382</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="85" t="s">
         <v>79</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -28554,7 +28621,7 @@
       <c r="B24" s="4">
         <v>430</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="85" t="s">
         <v>80</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -28568,7 +28635,7 @@
       <c r="B25" s="4">
         <v>445</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="85" t="s">
         <v>81</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -28592,7 +28659,7 @@
       <c r="D26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="75" t="s">
+      <c r="E26" s="87" t="s">
         <v>57</v>
       </c>
       <c r="F26" s="7" t="s">
@@ -28604,13 +28671,13 @@
       <c r="B27" s="4">
         <v>817</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="85" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="125" t="s">
+      <c r="E27" s="133" t="s">
         <v>84</v>
       </c>
       <c r="F27" s="7" t="s">
@@ -28628,7 +28695,7 @@
       <c r="D28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="75" t="s">
+      <c r="E28" s="87" t="s">
         <v>86</v>
       </c>
       <c r="F28" s="3"/>
@@ -28672,7 +28739,7 @@
       <c r="D31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="79"/>
+      <c r="E31" s="91"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6">
@@ -28686,7 +28753,7 @@
       <c r="D32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="79"/>
+      <c r="E32" s="91"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6">
@@ -28714,11 +28781,11 @@
       <c r="D34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="79"/>
+      <c r="E34" s="91"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="101"/>
+      <c r="A35" s="112"/>
       <c r="B35" s="4">
         <v>2181</v>
       </c>
@@ -28728,7 +28795,7 @@
       <c r="D35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="125" t="s">
+      <c r="E35" s="133" t="s">
         <v>94</v>
       </c>
       <c r="F35" s="3"/>
@@ -28900,7 +28967,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:A47"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -28915,7 +28982,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="124" t="s">
         <v>30</v>
       </c>
       <c r="C1"/>
@@ -28944,7 +29011,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="108" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="4">
@@ -28956,7 +29023,7 @@
       <c r="D3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="87" t="s">
         <v>101</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -28964,7 +29031,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="98"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="4">
         <v>144</v>
       </c>
@@ -28982,7 +29049,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="98"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="4">
         <v>145</v>
       </c>
@@ -29000,7 +29067,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="98"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="4">
         <v>102</v>
       </c>
@@ -29018,17 +29085,17 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="98"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="4">
         <v>107</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="125" t="s">
         <v>107</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="87" t="s">
         <v>108</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -29036,7 +29103,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="98"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="4">
         <v>103</v>
       </c>
@@ -29054,17 +29121,17 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="98"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="4">
         <v>429</v>
       </c>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="125" t="s">
         <v>111</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="87" t="s">
         <v>112</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -29072,11 +29139,11 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="98"/>
+      <c r="A10" s="109"/>
       <c r="B10" s="4">
         <v>513</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="126" t="s">
         <v>113</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -29090,7 +29157,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="98"/>
+      <c r="A11" s="109"/>
       <c r="B11" s="4">
         <v>637</v>
       </c>
@@ -29108,7 +29175,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="98"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="4">
         <v>653</v>
       </c>
@@ -29126,7 +29193,7 @@
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:6">
-      <c r="A13" s="98"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="4">
         <v>617</v>
       </c>
@@ -29136,13 +29203,13 @@
       <c r="D13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="75" t="s">
+      <c r="E13" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="102"/>
+      <c r="F13" s="113"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="98"/>
+      <c r="A14" s="109"/>
       <c r="B14" s="4">
         <v>606</v>
       </c>
@@ -29160,7 +29227,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="98"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="4">
         <v>938</v>
       </c>
@@ -29178,17 +29245,17 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="98"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="4">
         <v>965</v>
       </c>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="125" t="s">
         <v>125</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="75" t="s">
+      <c r="E16" s="87" t="s">
         <v>126</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -29196,11 +29263,11 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="98"/>
+      <c r="A17" s="109"/>
       <c r="B17" s="4">
         <v>1104</v>
       </c>
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="125" t="s">
         <v>127</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -29214,11 +29281,11 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="98"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="4">
         <v>1325</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="126" t="s">
         <v>129</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -29232,11 +29299,11 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="98"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="4">
         <v>1448</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="126" t="s">
         <v>131</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -29250,11 +29317,11 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="98"/>
+      <c r="A20" s="109"/>
       <c r="B20" s="4">
         <v>2096</v>
       </c>
-      <c r="C20" s="117" t="s">
+      <c r="C20" s="125" t="s">
         <v>133</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -29268,7 +29335,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="108" t="s">
         <v>135</v>
       </c>
       <c r="B21" s="4">
@@ -29288,7 +29355,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="98"/>
+      <c r="A22" s="109"/>
       <c r="B22" s="4">
         <v>100</v>
       </c>
@@ -29306,7 +29373,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="98"/>
+      <c r="A23" s="109"/>
       <c r="B23" s="4">
         <v>101</v>
       </c>
@@ -29324,7 +29391,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="98"/>
+      <c r="A24" s="109"/>
       <c r="B24" s="4">
         <v>104</v>
       </c>
@@ -29342,7 +29409,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="98"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="4">
         <v>111</v>
       </c>
@@ -29360,7 +29427,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="98"/>
+      <c r="A26" s="109"/>
       <c r="B26" s="4">
         <v>110</v>
       </c>
@@ -29378,23 +29445,23 @@
       </c>
     </row>
     <row r="27" ht="28.5" spans="1:6">
-      <c r="A27" s="98"/>
+      <c r="A27" s="109"/>
       <c r="B27" s="4">
         <v>662</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="85" t="s">
         <v>145</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="75" t="s">
+      <c r="E27" s="87" t="s">
         <v>146</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="28" ht="28.5" spans="1:6">
-      <c r="A28" s="98"/>
+      <c r="A28" s="109"/>
       <c r="B28" s="4">
         <v>99</v>
       </c>
@@ -29412,25 +29479,25 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="98"/>
+      <c r="A29" s="109"/>
       <c r="B29" s="4">
         <v>235</v>
       </c>
-      <c r="C29" s="111" t="s">
+      <c r="C29" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="119" t="s">
+      <c r="D29" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="76" t="s">
+      <c r="E29" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="110" t="s">
+      <c r="F29" s="118" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="98"/>
+      <c r="A30" s="109"/>
       <c r="B30" s="4">
         <v>501</v>
       </c>
@@ -29440,13 +29507,13 @@
       <c r="D30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="76"/>
-      <c r="F30" s="110" t="s">
+      <c r="E30" s="88"/>
+      <c r="F30" s="118" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="98"/>
+      <c r="A31" s="109"/>
       <c r="B31" s="4">
         <v>530</v>
       </c>
@@ -29459,12 +29526,12 @@
       <c r="E31" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="F31" s="110" t="s">
+      <c r="F31" s="118" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="98"/>
+      <c r="A32" s="109"/>
       <c r="B32" s="4">
         <v>572</v>
       </c>
@@ -29477,30 +29544,30 @@
       <c r="E32" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="F32" s="110" t="s">
+      <c r="F32" s="118" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" ht="57" spans="1:6">
-      <c r="A33" s="98"/>
+      <c r="A33" s="109"/>
       <c r="B33" s="4">
         <v>236</v>
       </c>
-      <c r="C33" s="120" t="s">
+      <c r="C33" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="D33" s="119" t="s">
+      <c r="D33" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="103" t="s">
+      <c r="E33" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="110" t="s">
+      <c r="F33" s="118" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="98"/>
+      <c r="A34" s="109"/>
       <c r="B34" s="4">
         <v>671</v>
       </c>
@@ -29511,16 +29578,16 @@
         <v>44</v>
       </c>
       <c r="E34" s="34"/>
-      <c r="F34" s="110" t="s">
+      <c r="F34" s="118" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="98"/>
+      <c r="A35" s="109"/>
       <c r="B35" s="4">
         <v>687</v>
       </c>
-      <c r="C35" s="118" t="s">
+      <c r="C35" s="126" t="s">
         <v>159</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -29534,7 +29601,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="98"/>
+      <c r="A36" s="109"/>
       <c r="B36" s="4">
         <v>700</v>
       </c>
@@ -29552,7 +29619,7 @@
       </c>
     </row>
     <row r="37" ht="57" spans="1:6">
-      <c r="A37" s="98"/>
+      <c r="A37" s="109"/>
       <c r="B37" s="4">
         <v>872</v>
       </c>
@@ -29570,7 +29637,7 @@
       </c>
     </row>
     <row r="38" ht="57" spans="1:6">
-      <c r="A38" s="97" t="s">
+      <c r="A38" s="108" t="s">
         <v>53</v>
       </c>
       <c r="B38" s="4">
@@ -29588,17 +29655,17 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="98"/>
+      <c r="A39" s="109"/>
       <c r="B39" s="4">
         <v>105</v>
       </c>
-      <c r="C39" s="117" t="s">
+      <c r="C39" s="125" t="s">
         <v>168</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="75" t="s">
+      <c r="E39" s="87" t="s">
         <v>169</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -29606,11 +29673,11 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="98"/>
+      <c r="A40" s="109"/>
       <c r="B40" s="4">
         <v>106</v>
       </c>
-      <c r="C40" s="118" t="s">
+      <c r="C40" s="126" t="s">
         <v>171</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -29624,11 +29691,11 @@
       </c>
     </row>
     <row r="41" ht="42.75" spans="1:6">
-      <c r="A41" s="98"/>
+      <c r="A41" s="109"/>
       <c r="B41" s="4">
         <v>889</v>
       </c>
-      <c r="C41" s="118" t="s">
+      <c r="C41" s="126" t="s">
         <v>172</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -29640,7 +29707,7 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="98"/>
+      <c r="A42" s="109"/>
       <c r="B42" s="4">
         <v>116</v>
       </c>
@@ -29658,7 +29725,7 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="98"/>
+      <c r="A43" s="109"/>
       <c r="B43" s="4">
         <v>108</v>
       </c>
@@ -29674,7 +29741,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="98"/>
+      <c r="A44" s="109"/>
       <c r="B44" s="4">
         <v>226</v>
       </c>
@@ -29692,17 +29759,17 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="98"/>
+      <c r="A45" s="109"/>
       <c r="B45" s="4">
         <v>654</v>
       </c>
-      <c r="C45" s="117" t="s">
+      <c r="C45" s="125" t="s">
         <v>179</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="75" t="s">
+      <c r="E45" s="87" t="s">
         <v>180</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -29710,7 +29777,7 @@
       </c>
     </row>
     <row r="46" ht="28.5" spans="1:6">
-      <c r="A46" s="98"/>
+      <c r="A46" s="109"/>
       <c r="B46" s="4">
         <v>897</v>
       </c>
@@ -29728,17 +29795,17 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="98"/>
+      <c r="A47" s="109"/>
       <c r="B47" s="4">
         <v>1008</v>
       </c>
-      <c r="C47" s="117" t="s">
+      <c r="C47" s="125" t="s">
         <v>183</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="75" t="s">
+      <c r="E47" s="87" t="s">
         <v>184</v>
       </c>
       <c r="F47" s="3" t="s">
@@ -29746,13 +29813,13 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="97" t="s">
+      <c r="A48" s="108" t="s">
         <v>185</v>
       </c>
       <c r="B48" s="4">
         <v>669</v>
       </c>
-      <c r="C48" s="118" t="s">
+      <c r="C48" s="126" t="s">
         <v>186</v>
       </c>
       <c r="D48" s="7" t="s">
@@ -29766,7 +29833,7 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="98"/>
+      <c r="A49" s="109"/>
       <c r="B49" s="4">
         <v>112</v>
       </c>
@@ -29776,7 +29843,7 @@
       <c r="D49" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="75" t="s">
+      <c r="E49" s="87" t="s">
         <v>189</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -29784,7 +29851,7 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="99"/>
+      <c r="A50" s="110"/>
       <c r="B50" s="4">
         <v>257</v>
       </c>
@@ -29802,7 +29869,7 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="104" t="s">
+      <c r="A51" s="82" t="s">
         <v>192</v>
       </c>
       <c r="B51" s="4">
@@ -29814,7 +29881,7 @@
       <c r="D51" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="75" t="s">
+      <c r="E51" s="87" t="s">
         <v>194</v>
       </c>
       <c r="F51" s="10" t="s">
@@ -29822,11 +29889,11 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="106"/>
+      <c r="A52" s="86"/>
       <c r="B52" s="4">
         <v>863</v>
       </c>
-      <c r="C52" s="117" t="s">
+      <c r="C52" s="125" t="s">
         <v>195</v>
       </c>
       <c r="D52" s="7" t="s">
@@ -29837,13 +29904,13 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="105" t="s">
+      <c r="A53" s="84" t="s">
         <v>28</v>
       </c>
       <c r="B53" s="4">
         <v>958</v>
       </c>
-      <c r="C53" s="117" t="s">
+      <c r="C53" s="125" t="s">
         <v>196</v>
       </c>
       <c r="D53" s="7" t="s">
@@ -29857,27 +29924,27 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="105"/>
+      <c r="A54" s="84"/>
       <c r="B54" s="4">
         <v>331</v>
       </c>
-      <c r="C54" s="117" t="s">
+      <c r="C54" s="125" t="s">
         <v>198</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E54" s="103" t="s">
+      <c r="E54" s="114" t="s">
         <v>199</v>
       </c>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="106"/>
+      <c r="A55" s="86"/>
       <c r="B55" s="4">
         <v>655</v>
       </c>
-      <c r="C55" s="117" t="s">
+      <c r="C55" s="125" t="s">
         <v>200</v>
       </c>
       <c r="D55" s="7" t="s">
@@ -29905,7 +29972,7 @@
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="104" t="s">
+      <c r="A57" s="82" t="s">
         <v>202</v>
       </c>
       <c r="B57" s="4">
@@ -29921,11 +29988,11 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="106"/>
+      <c r="A58" s="86"/>
       <c r="B58" s="4">
         <v>2236</v>
       </c>
-      <c r="C58" s="118" t="s">
+      <c r="C58" s="126" t="s">
         <v>204</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -29984,7 +30051,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="122" t="s">
         <v>30</v>
       </c>
       <c r="C1"/>
@@ -30004,7 +30071,7 @@
       <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="98" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -30024,7 +30091,7 @@
       <c r="D3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="87" t="s">
         <v>208</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -30042,7 +30109,7 @@
       <c r="D4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -30060,7 +30127,7 @@
       <c r="D5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="87" t="s">
         <v>212</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -30134,7 +30201,7 @@
       <c r="D9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="87" t="s">
         <v>220</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -30143,7 +30210,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3"/>
-      <c r="B10" s="113">
+      <c r="B10" s="121">
         <v>856</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -30168,7 +30235,7 @@
       <c r="D11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="87" t="s">
         <v>224</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -30186,7 +30253,7 @@
       <c r="D12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="115" t="s">
+      <c r="E12" s="123" t="s">
         <v>226</v>
       </c>
       <c r="F12" s="3"/>
@@ -30220,7 +30287,7 @@
       <c r="D14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="75" t="s">
+      <c r="E14" s="87" t="s">
         <v>230</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -30240,7 +30307,7 @@
       <c r="D15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="75" t="s">
+      <c r="E15" s="87" t="s">
         <v>233</v>
       </c>
       <c r="F15" s="3"/>
@@ -30256,7 +30323,7 @@
       <c r="D16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="75" t="s">
+      <c r="E16" s="87" t="s">
         <v>235</v>
       </c>
       <c r="F16" s="3"/>
@@ -30300,7 +30367,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="117" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="2"/>
@@ -30335,7 +30402,7 @@
       <c r="B3" s="3">
         <v>287</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="85" t="s">
         <v>237</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -30359,7 +30426,7 @@
       <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="87" t="s">
         <v>241</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -30407,13 +30474,13 @@
       <c r="B7" s="3">
         <v>916</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="85" t="s">
         <v>246</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="87" t="s">
         <v>247</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -30449,7 +30516,7 @@
       <c r="D9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="87" t="s">
         <v>251</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -30461,13 +30528,13 @@
       <c r="B10" s="3">
         <v>1331</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="85" t="s">
         <v>252</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="87" t="s">
         <v>253</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -30497,13 +30564,13 @@
       <c r="B12" s="3">
         <v>1640</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="85" t="s">
         <v>256</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="87" t="s">
         <v>257</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -30530,58 +30597,58 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3"/>
-      <c r="B14" s="110">
+      <c r="B14" s="118">
         <v>1711</v>
       </c>
-      <c r="C14" s="111" t="s">
+      <c r="C14" s="119" t="s">
         <v>260</v>
       </c>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="118" t="s">
         <v>261</v>
       </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="110" t="s">
+      <c r="E14" s="88"/>
+      <c r="F14" s="118" t="s">
         <v>239</v>
       </c>
-      <c r="G14" s="112"/>
+      <c r="G14" s="120"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>1935</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="85" t="s">
         <v>262</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="73" t="s">
+      <c r="E15" s="85" t="s">
         <v>263</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="G15" s="112"/>
+      <c r="G15" s="120"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
         <v>2085</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="85" t="s">
         <v>264</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="75" t="s">
+      <c r="E16" s="87" t="s">
         <v>265</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="G16" s="112"/>
+      <c r="G16" s="120"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3"/>
@@ -30610,7 +30677,7 @@
       <c r="D18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="87" t="s">
         <v>268</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -30628,7 +30695,7 @@
       <c r="D19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="75" t="s">
+      <c r="E19" s="87" t="s">
         <v>270</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -30666,7 +30733,7 @@
       <c r="D21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="75" t="s">
+      <c r="E21" s="87" t="s">
         <v>274</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -30675,16 +30742,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3"/>
-      <c r="B22" s="113">
+      <c r="B22" s="121">
         <v>442</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="85" t="s">
         <v>276</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="75" t="s">
+      <c r="E22" s="87" t="s">
         <v>277</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -30752,7 +30819,7 @@
       <c r="D26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="75" t="s">
+      <c r="E26" s="87" t="s">
         <v>285</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -30770,7 +30837,7 @@
       <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="75" t="s">
+      <c r="E27" s="87" t="s">
         <v>287</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -30800,13 +30867,13 @@
       <c r="B29" s="3">
         <v>1557</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="85" t="s">
         <v>290</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="75" t="s">
+      <c r="E29" s="87" t="s">
         <v>291</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -30818,13 +30885,13 @@
       <c r="B30" s="3">
         <v>2260</v>
       </c>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="85" t="s">
         <v>292</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="75" t="s">
+      <c r="E30" s="87" t="s">
         <v>293</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -30838,7 +30905,7 @@
       <c r="B31" s="3">
         <v>781</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="85" t="s">
         <v>295</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -30862,7 +30929,7 @@
       <c r="D32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="75" t="s">
+      <c r="E32" s="87" t="s">
         <v>298</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -30874,13 +30941,13 @@
       <c r="B33" s="3">
         <v>974</v>
       </c>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="85" t="s">
         <v>299</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="75" t="s">
+      <c r="E33" s="87" t="s">
         <v>300</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -47335,8 +47402,8 @@
   <sheetPr/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -47351,13 +47418,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6">
@@ -47387,13 +47454,13 @@
       <c r="B3" s="3">
         <v>151</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="85" t="s">
         <v>302</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="87" t="s">
         <v>303</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -47405,13 +47472,13 @@
       <c r="B4" s="3">
         <v>242</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="85" t="s">
         <v>304</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="87" t="s">
         <v>305</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -47423,13 +47490,13 @@
       <c r="B5" s="3">
         <v>415</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="85" t="s">
         <v>306</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="87" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -47495,13 +47562,13 @@
       <c r="B9" s="3">
         <v>1417</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="85" t="s">
         <v>313</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="87" t="s">
         <v>314</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -47549,13 +47616,13 @@
       <c r="B12" s="3">
         <v>1668</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="85" t="s">
         <v>319</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="87" t="s">
         <v>320</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -47567,13 +47634,13 @@
       <c r="B13" s="3">
         <v>1694</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="85" t="s">
         <v>321</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="75" t="s">
+      <c r="E13" s="87" t="s">
         <v>322</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -47585,13 +47652,13 @@
       <c r="B14" s="3">
         <v>1880</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="85" t="s">
         <v>323</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="75" t="s">
+      <c r="E14" s="87" t="s">
         <v>324</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -47621,13 +47688,13 @@
       <c r="B16" s="3">
         <v>1985</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="85" t="s">
         <v>327</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="75" t="s">
+      <c r="E16" s="87" t="s">
         <v>328</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -47657,13 +47724,13 @@
       <c r="B18" s="3">
         <v>2109</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="85" t="s">
         <v>331</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="75" t="s">
+      <c r="E18" s="87" t="s">
         <v>205</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -47675,7 +47742,7 @@
       <c r="B19" s="3">
         <v>2129</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="85" t="s">
         <v>332</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -47729,13 +47796,13 @@
       <c r="B22" s="3">
         <v>524</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="85" t="s">
         <v>338</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="75" t="s">
+      <c r="E22" s="87" t="s">
         <v>339</v>
       </c>
       <c r="F22" s="3"/>
@@ -47763,13 +47830,13 @@
       <c r="B24" s="3">
         <v>784</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="85" t="s">
         <v>341</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="103" t="s">
+      <c r="E24" s="114" t="s">
         <v>342</v>
       </c>
       <c r="F24" s="7" t="s">
@@ -47799,13 +47866,13 @@
       <c r="B26" s="3">
         <v>792</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="85" t="s">
         <v>346</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="75" t="s">
+      <c r="E26" s="87" t="s">
         <v>347</v>
       </c>
       <c r="F26" s="7" t="s">
@@ -47853,13 +47920,13 @@
       <c r="B29" s="3">
         <v>1400</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="85" t="s">
         <v>351</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="75" t="s">
+      <c r="E29" s="87" t="s">
         <v>352</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -47871,13 +47938,13 @@
       <c r="B30" s="3">
         <v>1446</v>
       </c>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="85" t="s">
         <v>353</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="75" t="s">
+      <c r="E30" s="87" t="s">
         <v>354</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -47963,13 +48030,13 @@
       <c r="B35" s="3">
         <v>1138</v>
       </c>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="85" t="s">
         <v>365</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="75" t="s">
+      <c r="E35" s="87" t="s">
         <v>366</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -47981,13 +48048,13 @@
       <c r="B36" s="3">
         <v>1784</v>
       </c>
-      <c r="C36" s="73" t="s">
+      <c r="C36" s="85" t="s">
         <v>367</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="75" t="s">
+      <c r="E36" s="87" t="s">
         <v>368</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -48032,7 +48099,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="66" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="2"/>
@@ -48061,19 +48128,19 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="108" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="3">
         <v>832</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="85" t="s">
         <v>369</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="87" t="s">
         <v>370</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -48081,17 +48148,17 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="98"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="3">
         <v>498</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="85" t="s">
         <v>371</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="87" t="s">
         <v>372</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -48099,7 +48166,7 @@
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:6">
-      <c r="A5" s="98"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="3">
         <v>598</v>
       </c>
@@ -48117,17 +48184,17 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="98"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="3">
         <v>997</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="85" t="s">
         <v>376</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="87" t="s">
         <v>377</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -48135,17 +48202,17 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="98"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="3">
         <v>1424</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="85" t="s">
         <v>378</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="87" t="s">
         <v>379</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -48153,17 +48220,17 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="98"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="3">
         <v>1672</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="85" t="s">
         <v>380</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="87" t="s">
         <v>381</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -48171,7 +48238,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="98"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="3">
         <v>1893</v>
       </c>
@@ -48181,7 +48248,7 @@
       <c r="D9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="87" t="s">
         <v>383</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -48189,17 +48256,17 @@
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:6">
-      <c r="A10" s="99"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="3">
         <v>1901</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="85" t="s">
         <v>384</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="87" t="s">
         <v>385</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -48207,19 +48274,19 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="111" t="s">
         <v>386</v>
       </c>
-      <c r="B11" s="101">
+      <c r="B11" s="112">
         <v>79</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="113" t="s">
         <v>387</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="102" t="s">
+      <c r="E11" s="113" t="s">
         <v>388</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -48227,17 +48294,17 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="100"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="3">
         <v>519</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="85" t="s">
         <v>389</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="87" t="s">
         <v>390</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -48245,7 +48312,7 @@
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:6">
-      <c r="A13" s="100"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="3">
         <v>1282</v>
       </c>
@@ -48263,7 +48330,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="100"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="3">
         <v>766</v>
       </c>
@@ -48281,17 +48348,17 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="100"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="3">
         <v>1041</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="85" t="s">
         <v>395</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="75" t="s">
+      <c r="E15" s="87" t="s">
         <v>396</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -48299,7 +48366,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="100"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="3">
         <v>1337</v>
       </c>
@@ -48317,17 +48384,17 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="100"/>
+      <c r="A17" s="111"/>
       <c r="B17" s="3">
         <v>1905</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="85" t="s">
         <v>399</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="103" t="s">
+      <c r="E17" s="114" t="s">
         <v>400</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -48335,7 +48402,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="100"/>
+      <c r="A18" s="111"/>
       <c r="B18" s="3">
         <v>840</v>
       </c>
@@ -48353,7 +48420,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="100"/>
+      <c r="A19" s="111"/>
       <c r="B19" s="3">
         <v>1020</v>
       </c>
@@ -48371,11 +48438,11 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="100"/>
+      <c r="A20" s="111"/>
       <c r="B20" s="3">
         <v>419</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="85" t="s">
         <v>404</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -48389,17 +48456,17 @@
       </c>
     </row>
     <row r="21" ht="28.5" spans="1:6">
-      <c r="A21" s="100"/>
+      <c r="A21" s="111"/>
       <c r="B21" s="3">
         <v>1162</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="85" t="s">
         <v>406</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="75" t="s">
+      <c r="E21" s="87" t="s">
         <v>407</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -48407,7 +48474,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="100"/>
+      <c r="A22" s="111"/>
       <c r="B22" s="3">
         <v>36</v>
       </c>
@@ -48425,13 +48492,13 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="111" t="s">
         <v>411</v>
       </c>
       <c r="B23" s="3">
         <v>56</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="85" t="s">
         <v>412</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -48445,7 +48512,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="100"/>
+      <c r="A24" s="111"/>
       <c r="B24" s="3">
         <v>406</v>
       </c>
@@ -48455,7 +48522,7 @@
       <c r="D24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="76" t="s">
+      <c r="E24" s="88" t="s">
         <v>415</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -48463,7 +48530,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="100"/>
+      <c r="A25" s="111"/>
       <c r="B25" s="3">
         <v>435</v>
       </c>
@@ -48473,7 +48540,7 @@
       <c r="D25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="76" t="s">
+      <c r="E25" s="88" t="s">
         <v>415</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -48481,7 +48548,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="100"/>
+      <c r="A26" s="111"/>
       <c r="B26" s="3">
         <v>452</v>
       </c>
@@ -48491,7 +48558,7 @@
       <c r="D26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="76" t="s">
+      <c r="E26" s="88" t="s">
         <v>418</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -48499,21 +48566,21 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="100"/>
+      <c r="A27" s="111"/>
       <c r="B27" s="3">
         <v>646</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="85" t="s">
         <v>419</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="75"/>
+      <c r="E27" s="87"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="104" t="s">
+      <c r="A28" s="82" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="3">
@@ -48533,17 +48600,17 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="105"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="3">
         <v>1232</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="85" t="s">
         <v>422</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="75" t="s">
+      <c r="E29" s="87" t="s">
         <v>423</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -48551,7 +48618,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="105"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="3">
         <v>2022</v>
       </c>
@@ -48569,7 +48636,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="105"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="3">
         <v>1854</v>
       </c>
@@ -48587,7 +48654,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="106"/>
+      <c r="A32" s="86"/>
       <c r="B32" s="3">
         <v>867</v>
       </c>
@@ -48625,13 +48692,13 @@
   <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="19"/>
-    <col min="2" max="2" width="32.625" style="67" customWidth="1"/>
+    <col min="2" max="2" width="32.625" style="79" customWidth="1"/>
     <col min="3" max="3" width="9" style="19"/>
     <col min="4" max="4" width="68.125" style="44" customWidth="1"/>
     <col min="5" max="5" width="40.875" style="43" customWidth="1"/>
@@ -48656,10 +48723,10 @@
       <c r="C2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="98" t="s">
         <v>37</v>
       </c>
       <c r="F2" s="10"/>
@@ -48669,13 +48736,13 @@
       <c r="A3" s="3">
         <v>44</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="85" t="s">
         <v>428</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="99" t="s">
         <v>429</v>
       </c>
       <c r="E3" s="6"/>
@@ -48686,13 +48753,13 @@
       <c r="A4" s="3">
         <v>53</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="85" t="s">
         <v>430</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="100" t="s">
         <v>431</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -48711,7 +48778,7 @@
       <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="100" t="s">
         <v>433</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -48730,7 +48797,7 @@
       <c r="C6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="100" t="s">
         <v>435</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -48749,7 +48816,7 @@
       <c r="C7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="100" t="s">
         <v>437</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -48762,7 +48829,7 @@
       <c r="A8" s="3">
         <v>70</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="85" t="s">
         <v>438</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -48781,7 +48848,7 @@
       <c r="A9" s="3">
         <v>72</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="85" t="s">
         <v>440</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -48795,7 +48862,7 @@
       <c r="A10" s="3">
         <v>746</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="85" t="s">
         <v>441</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -48820,7 +48887,7 @@
       <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="99" t="s">
         <v>444</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -48857,7 +48924,7 @@
       <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="100" t="s">
         <v>448</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -48876,7 +48943,7 @@
       <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="99" t="s">
         <v>450</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -48895,7 +48962,7 @@
       <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="100" t="s">
         <v>452</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -48914,7 +48981,7 @@
       <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="100" t="s">
         <v>454</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -48933,7 +49000,7 @@
       <c r="C17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="100" t="s">
         <v>456</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -48952,7 +49019,7 @@
       <c r="C18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="100" t="s">
         <v>458</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -48971,7 +49038,7 @@
       <c r="C19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="88" t="s">
+      <c r="D19" s="100" t="s">
         <v>460</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -48990,7 +49057,7 @@
       <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="88" t="s">
+      <c r="D20" s="100" t="s">
         <v>462</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -49003,13 +49070,13 @@
       <c r="A21" s="3">
         <v>2106</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="85" t="s">
         <v>463</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="87" t="s">
+      <c r="D21" s="99" t="s">
         <v>464</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -49028,7 +49095,7 @@
       <c r="C22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="88" t="s">
+      <c r="D22" s="100" t="s">
         <v>466</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -49047,7 +49114,7 @@
       <c r="C23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="88" t="s">
+      <c r="D23" s="100" t="s">
         <v>468</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -49066,7 +49133,7 @@
       <c r="C24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="88" t="s">
+      <c r="D24" s="100" t="s">
         <v>470</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -49085,7 +49152,7 @@
       <c r="C25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="88" t="s">
+      <c r="D25" s="100" t="s">
         <v>472</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -49104,7 +49171,7 @@
       <c r="C26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="88" t="s">
+      <c r="D26" s="100" t="s">
         <v>474</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -49123,7 +49190,7 @@
       <c r="C27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="88" t="s">
+      <c r="D27" s="100" t="s">
         <v>476</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -49142,7 +49209,7 @@
       <c r="C28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="88" t="s">
+      <c r="D28" s="100" t="s">
         <v>479</v>
       </c>
       <c r="E28" s="6" t="s">
@@ -49161,7 +49228,7 @@
       <c r="C29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="89" t="s">
+      <c r="D29" s="101" t="s">
         <v>481</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -49178,7 +49245,7 @@
       <c r="C30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="88" t="s">
+      <c r="D30" s="100" t="s">
         <v>483</v>
       </c>
       <c r="E30" s="6" t="s">
@@ -49197,7 +49264,7 @@
       <c r="C31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="88" t="s">
+      <c r="D31" s="100" t="s">
         <v>485</v>
       </c>
       <c r="E31" s="6" t="s">
@@ -49216,7 +49283,7 @@
       <c r="C32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="88" t="s">
+      <c r="D32" s="100" t="s">
         <v>487</v>
       </c>
       <c r="E32" s="6" t="s">
@@ -49229,13 +49296,13 @@
       <c r="A33" s="3">
         <v>279</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="85" t="s">
         <v>488</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="88" t="s">
+      <c r="D33" s="100" t="s">
         <v>487</v>
       </c>
       <c r="E33" s="6" t="s">
@@ -49254,7 +49321,7 @@
       <c r="C34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="88" t="s">
+      <c r="D34" s="100" t="s">
         <v>487</v>
       </c>
       <c r="E34" s="6" t="s">
@@ -49273,7 +49340,7 @@
       <c r="C35" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="88" t="s">
+      <c r="D35" s="100" t="s">
         <v>487</v>
       </c>
       <c r="E35" s="6" t="s">
@@ -49292,7 +49359,7 @@
       <c r="C36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="88" t="s">
+      <c r="D36" s="100" t="s">
         <v>487</v>
       </c>
       <c r="E36" s="6" t="s">
@@ -49311,7 +49378,7 @@
       <c r="C37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="88" t="s">
+      <c r="D37" s="100" t="s">
         <v>439</v>
       </c>
       <c r="E37" s="6" t="s">
@@ -49324,13 +49391,13 @@
       <c r="A38" s="3">
         <v>416</v>
       </c>
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="85" t="s">
         <v>493</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="87" t="s">
+      <c r="D38" s="99" t="s">
         <v>494</v>
       </c>
       <c r="E38" s="6" t="s">
@@ -49343,13 +49410,13 @@
       <c r="A39" s="3">
         <v>467</v>
       </c>
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="85" t="s">
         <v>495</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="90" t="s">
+      <c r="D39" s="102" t="s">
         <v>496</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -49360,13 +49427,13 @@
       <c r="A40" s="3">
         <v>474</v>
       </c>
-      <c r="B40" s="91" t="s">
+      <c r="B40" s="103" t="s">
         <v>497</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="88" t="s">
+      <c r="D40" s="100" t="s">
         <v>498</v>
       </c>
       <c r="E40" s="6" t="s">
@@ -49383,7 +49450,7 @@
       <c r="C41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="88" t="s">
+      <c r="D41" s="100" t="s">
         <v>500</v>
       </c>
       <c r="E41" s="6" t="s">
@@ -49421,7 +49488,7 @@
       <c r="C43" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="88" t="s">
+      <c r="D43" s="100" t="s">
         <v>439</v>
       </c>
       <c r="E43" s="6" t="s">
@@ -49440,7 +49507,7 @@
       <c r="C44" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="88" t="s">
+      <c r="D44" s="100" t="s">
         <v>505</v>
       </c>
       <c r="E44" s="6" t="s">
@@ -49506,7 +49573,7 @@
       <c r="C48" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="88" t="s">
+      <c r="D48" s="100" t="s">
         <v>481</v>
       </c>
       <c r="E48" s="6" t="s">
@@ -49519,13 +49586,13 @@
       <c r="A49" s="3">
         <v>935</v>
       </c>
-      <c r="B49" s="73" t="s">
+      <c r="B49" s="85" t="s">
         <v>513</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="87" t="s">
+      <c r="D49" s="99" t="s">
         <v>481</v>
       </c>
       <c r="E49" s="6"/>
@@ -49542,7 +49609,7 @@
       <c r="C50" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="88" t="s">
+      <c r="D50" s="100" t="s">
         <v>515</v>
       </c>
       <c r="E50" s="6" t="s">
@@ -49580,7 +49647,7 @@
       <c r="C52" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="88" t="s">
+      <c r="D52" s="100" t="s">
         <v>518</v>
       </c>
       <c r="E52" s="6" t="s">
@@ -49593,13 +49660,13 @@
       <c r="A53" s="3">
         <v>674</v>
       </c>
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="85" t="s">
         <v>519</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="88"/>
+      <c r="D53" s="100"/>
       <c r="E53" s="6"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -49608,7 +49675,7 @@
       <c r="A54" s="3">
         <v>688</v>
       </c>
-      <c r="B54" s="73" t="s">
+      <c r="B54" s="85" t="s">
         <v>520</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -49627,13 +49694,13 @@
       <c r="A55" s="3">
         <v>698</v>
       </c>
-      <c r="B55" s="73" t="s">
+      <c r="B55" s="85" t="s">
         <v>522</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="87" t="s">
+      <c r="D55" s="99" t="s">
         <v>523</v>
       </c>
       <c r="E55" s="6" t="s">
@@ -49652,7 +49719,7 @@
       <c r="C56" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D56" s="88" t="s">
+      <c r="D56" s="100" t="s">
         <v>526</v>
       </c>
       <c r="E56" s="6" t="s">
@@ -49684,13 +49751,13 @@
       <c r="A58" s="3">
         <v>795</v>
       </c>
-      <c r="B58" s="73" t="s">
+      <c r="B58" s="85" t="s">
         <v>531</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="87" t="s">
+      <c r="D58" s="99" t="s">
         <v>532</v>
       </c>
       <c r="E58" s="6" t="s">
@@ -49709,7 +49776,7 @@
       <c r="C59" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="88" t="s">
+      <c r="D59" s="100" t="s">
         <v>534</v>
       </c>
       <c r="E59" s="6"/>
@@ -49720,16 +49787,16 @@
       <c r="A60" s="3">
         <v>813</v>
       </c>
-      <c r="B60" s="73" t="s">
+      <c r="B60" s="85" t="s">
         <v>535</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="87" t="s">
+      <c r="D60" s="99" t="s">
         <v>536</v>
       </c>
-      <c r="E60" s="86" t="s">
+      <c r="E60" s="98" t="s">
         <v>63</v>
       </c>
       <c r="F60" s="10"/>
@@ -49742,10 +49809,10 @@
       <c r="B61" s="34" t="s">
         <v>537</v>
       </c>
-      <c r="C61" s="86" t="s">
+      <c r="C61" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="D61" s="88" t="s">
+      <c r="D61" s="100" t="s">
         <v>538</v>
       </c>
       <c r="E61" s="6" t="s">
@@ -49759,23 +49826,23 @@
       <c r="B62" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="C62" s="86" t="s">
+      <c r="C62" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="D62" s="88"/>
+      <c r="D62" s="100"/>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3">
         <v>1043</v>
       </c>
-      <c r="B63" s="73" t="s">
+      <c r="B63" s="85" t="s">
         <v>540</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D63" s="88" t="s">
+      <c r="D63" s="100" t="s">
         <v>481</v>
       </c>
       <c r="E63" s="6"/>
@@ -49792,7 +49859,7 @@
       <c r="C64" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D64" s="88" t="s">
+      <c r="D64" s="100" t="s">
         <v>542</v>
       </c>
       <c r="E64" s="3" t="s">
@@ -49809,7 +49876,7 @@
       <c r="C65" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D65" s="88"/>
+      <c r="D65" s="100"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" ht="71.25" spans="1:7">
@@ -49822,7 +49889,7 @@
       <c r="C66" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="88" t="s">
+      <c r="D66" s="100" t="s">
         <v>545</v>
       </c>
       <c r="E66" s="6"/>
@@ -49839,7 +49906,7 @@
       <c r="C67" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D67" s="88" t="s">
+      <c r="D67" s="100" t="s">
         <v>547</v>
       </c>
       <c r="E67" s="6" t="s">
@@ -49858,7 +49925,7 @@
       <c r="C68" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D68" s="88" t="s">
+      <c r="D68" s="100" t="s">
         <v>549</v>
       </c>
       <c r="E68" s="3" t="s">
@@ -49875,7 +49942,7 @@
       <c r="C69" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D69" s="88" t="s">
+      <c r="D69" s="100" t="s">
         <v>551</v>
       </c>
       <c r="E69" s="6"/>
@@ -49892,7 +49959,7 @@
       <c r="C70" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D70" s="92" t="s">
+      <c r="D70" s="104" t="s">
         <v>553</v>
       </c>
       <c r="E70" s="6"/>
@@ -49903,13 +49970,13 @@
       <c r="A71" s="3">
         <v>1685</v>
       </c>
-      <c r="B71" s="73" t="s">
+      <c r="B71" s="85" t="s">
         <v>554</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D71" s="93" t="s">
+      <c r="D71" s="105" t="s">
         <v>555</v>
       </c>
       <c r="E71" s="3"/>
@@ -49924,10 +49991,10 @@
       <c r="C72" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D72" s="94" t="s">
+      <c r="D72" s="106" t="s">
         <v>557</v>
       </c>
-      <c r="E72" s="95" t="s">
+      <c r="E72" s="107" t="s">
         <v>558</v>
       </c>
       <c r="F72" s="10"/>
@@ -49943,7 +50010,7 @@
       <c r="C73" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D73" s="88" t="s">
+      <c r="D73" s="100" t="s">
         <v>560</v>
       </c>
       <c r="E73" s="6" t="s">
@@ -49956,13 +50023,13 @@
       <c r="A74" s="3">
         <v>1986</v>
       </c>
-      <c r="B74" s="73" t="s">
+      <c r="B74" s="85" t="s">
         <v>561</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D74" s="87" t="s">
+      <c r="D74" s="99" t="s">
         <v>562</v>
       </c>
       <c r="E74" s="6"/>
@@ -49979,10 +50046,10 @@
       <c r="C75" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D75" s="92" t="s">
+      <c r="D75" s="104" t="s">
         <v>564</v>
       </c>
-      <c r="E75" s="86" t="s">
+      <c r="E75" s="98" t="s">
         <v>565</v>
       </c>
       <c r="F75" s="10"/>
@@ -49992,16 +50059,16 @@
       <c r="A76" s="3">
         <v>2110</v>
       </c>
-      <c r="B76" s="73" t="s">
+      <c r="B76" s="85" t="s">
         <v>566</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D76" s="87" t="s">
+      <c r="D76" s="99" t="s">
         <v>567</v>
       </c>
-      <c r="E76" s="86" t="s">
+      <c r="E76" s="98" t="s">
         <v>568</v>
       </c>
       <c r="F76" s="10"/>
@@ -50014,10 +50081,10 @@
       <c r="B77" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="C77" s="86" t="s">
+      <c r="C77" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="88" t="s">
+      <c r="D77" s="100" t="s">
         <v>570</v>
       </c>
       <c r="E77" s="6" t="s">
@@ -50030,13 +50097,13 @@
       <c r="A78" s="3">
         <v>1504</v>
       </c>
-      <c r="B78" s="73" t="s">
+      <c r="B78" s="85" t="s">
         <v>571</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D78" s="75" t="s">
+      <c r="D78" s="87" t="s">
         <v>572</v>
       </c>
       <c r="E78" s="3"/>

--- a/leetcode/1. statistics/leetcode.xlsx
+++ b/leetcode/1. statistics/leetcode.xlsx
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="1081">
   <si>
     <t>算法大纲</t>
   </si>
@@ -2395,6 +2395,15 @@
     <t>牛逼</t>
   </si>
   <si>
+    <t>组合总和 III</t>
+  </si>
+  <si>
+    <t>9个数字凑成目标和的不同组合</t>
+  </si>
+  <si>
+    <t>回溯，但整体与树的深度优先便利十分相似</t>
+  </si>
+  <si>
     <t>单词拆分 II</t>
   </si>
   <si>
@@ -2402,27 +2411,6 @@
   </si>
   <si>
     <t>还没有仔细看</t>
-  </si>
-  <si>
-    <t>组合总和 III</t>
-  </si>
-  <si>
-    <t>9个数字凑成目标和的不同组合</t>
-  </si>
-  <si>
-    <t>回溯，但整体与树的深度优先便利十分相似</t>
-  </si>
-  <si>
-    <t>拆分字符串使唯一子字符串的数目最大</t>
-  </si>
-  <si>
-    <t>回溯+字符串，动态获取结果</t>
-  </si>
-  <si>
-    <t>串联字符串的最大长度</t>
-  </si>
-  <si>
-    <t>虽然用自己的回溯解出来了，但是效率相對有一點點低</t>
   </si>
   <si>
     <t>火柴拼正方形</t>
@@ -2436,6 +2424,18 @@
     <t>很重要的一种回溯类型</t>
   </si>
   <si>
+    <t>串联字符串的最大长度</t>
+  </si>
+  <si>
+    <t>虽然用自己的回溯解出来了，但是效率相對有一點點低</t>
+  </si>
+  <si>
+    <t>拆分字符串使唯一子字符串的数目最大</t>
+  </si>
+  <si>
+    <t>回溯+字符串，动态获取结果</t>
+  </si>
+  <si>
     <t>给定数字能组成的最大时间</t>
   </si>
   <si>
@@ -2457,9 +2457,6 @@
   </si>
   <si>
     <t>N 皇后</t>
-  </si>
-  <si>
-    <t>苦难</t>
   </si>
   <si>
     <t>暂时不想做</t>
@@ -4066,12 +4063,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4624,7 +4621,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4814,21 +4811,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4839,14 +4823,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4864,14 +4852,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4966,9 +4948,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
@@ -5354,13 +5333,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="57" spans="1:4">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="131" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
@@ -5368,13 +5347,13 @@
       </c>
     </row>
     <row r="2" ht="85.5" customHeight="1" spans="1:4">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="130" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="137" t="s">
+      <c r="C2" s="131" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="11"/>
@@ -5390,27 +5369,27 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="132" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="132" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="132" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="132" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" ht="142.5" spans="1:3">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="132" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -5439,12 +5418,12 @@
       <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="132" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="132" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5459,7 +5438,7 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="132" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5474,12 +5453,12 @@
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="139" t="s">
+      <c r="A20" s="133" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="138" t="s">
+      <c r="A21" s="132" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5489,7 +5468,7 @@
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="138" t="s">
+      <c r="A23" s="132" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5540,19 +5519,19 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="10"/>
-    <col min="3" max="3" width="36.375" style="79" customWidth="1"/>
+    <col min="3" max="3" width="36.375" style="76" customWidth="1"/>
     <col min="5" max="5" width="48" style="44" customWidth="1"/>
     <col min="6" max="6" width="21.75" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
       <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6">
@@ -5576,7 +5555,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="79" t="s">
         <v>573</v>
       </c>
       <c r="B3" s="3">
@@ -5588,7 +5567,7 @@
       <c r="D3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="80" t="s">
         <v>575</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -5596,7 +5575,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="84"/>
+      <c r="A4" s="81"/>
       <c r="B4" s="3">
         <v>409</v>
       </c>
@@ -5614,11 +5593,11 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="84"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="3">
         <v>561</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="68" t="s">
         <v>578</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -5632,7 +5611,7 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="84"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="10">
         <v>594</v>
       </c>
@@ -5650,7 +5629,7 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="84"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="3">
         <v>1013</v>
       </c>
@@ -5668,7 +5647,7 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="84"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="3">
         <v>1323</v>
       </c>
@@ -5684,10 +5663,10 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="84"/>
+      <c r="A9" s="81"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="86"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="10">
         <v>1833</v>
       </c>
@@ -5717,7 +5696,7 @@
       <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="87" t="s">
+      <c r="E11" s="69" t="s">
         <v>587</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -5735,7 +5714,7 @@
       <c r="D12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="83" t="s">
         <v>589</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -5753,7 +5732,7 @@
       <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="83" t="s">
         <v>589</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -5789,7 +5768,7 @@
       <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="88" t="s">
+      <c r="E15" s="83" t="s">
         <v>594</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -5807,10 +5786,10 @@
       <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="80" t="s">
         <v>596</v>
       </c>
-      <c r="F16" s="89" t="s">
+      <c r="F16" s="84" t="s">
         <v>477</v>
       </c>
     </row>
@@ -5825,7 +5804,7 @@
       <c r="D17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="83" t="s">
+      <c r="E17" s="80" t="s">
         <v>598</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -5843,10 +5822,10 @@
       <c r="D18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="90" t="s">
+      <c r="E18" s="85" t="s">
         <v>600</v>
       </c>
-      <c r="F18" s="89" t="s">
+      <c r="F18" s="84" t="s">
         <v>477</v>
       </c>
     </row>
@@ -5861,7 +5840,7 @@
       <c r="D19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="E19" s="83" t="s">
         <v>598</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -5879,10 +5858,10 @@
       <c r="D20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="91" t="s">
+      <c r="E20" s="86" t="s">
         <v>603</v>
       </c>
-      <c r="F20" s="89" t="s">
+      <c r="F20" s="84" t="s">
         <v>477</v>
       </c>
     </row>
@@ -5897,10 +5876,10 @@
       <c r="D21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="92" t="s">
+      <c r="E21" s="87" t="s">
         <v>605</v>
       </c>
-      <c r="F21" s="89" t="s">
+      <c r="F21" s="84" t="s">
         <v>477</v>
       </c>
     </row>
@@ -5915,7 +5894,7 @@
       <c r="D22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="88" t="s">
+      <c r="E22" s="83" t="s">
         <v>607</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -5933,10 +5912,10 @@
       <c r="D23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="93" t="s">
+      <c r="E23" s="88" t="s">
         <v>609</v>
       </c>
-      <c r="F23" s="89" t="s">
+      <c r="F23" s="84" t="s">
         <v>477</v>
       </c>
     </row>
@@ -5951,7 +5930,7 @@
       <c r="D24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="88" t="s">
+      <c r="E24" s="83" t="s">
         <v>598</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -5969,10 +5948,10 @@
       <c r="D25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="94" t="s">
+      <c r="E25" s="89" t="s">
         <v>612</v>
       </c>
-      <c r="F25" s="95" t="s">
+      <c r="F25" s="90" t="s">
         <v>477</v>
       </c>
     </row>
@@ -5987,7 +5966,7 @@
       <c r="D26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="88" t="s">
+      <c r="E26" s="83" t="s">
         <v>614</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -6059,7 +6038,7 @@
       <c r="D30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="88" t="s">
+      <c r="E30" s="83" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="6" t="s">
@@ -6077,7 +6056,7 @@
       <c r="D31" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="92" t="s">
+      <c r="E31" s="87" t="s">
         <v>623</v>
       </c>
       <c r="F31" s="6" t="s">
@@ -6095,7 +6074,7 @@
       <c r="D32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="83" t="s">
+      <c r="E32" s="80" t="s">
         <v>411</v>
       </c>
       <c r="F32" s="6" t="s">
@@ -6167,7 +6146,7 @@
       <c r="D36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="83" t="s">
+      <c r="E36" s="80" t="s">
         <v>632</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -6237,7 +6216,7 @@
       <c r="B64" s="19">
         <v>2365</v>
       </c>
-      <c r="C64" s="96" t="s">
+      <c r="C64" s="91" t="s">
         <v>640</v>
       </c>
       <c r="D64" s="19" t="s">
@@ -6440,10 +6419,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -6461,432 +6440,440 @@
       <c r="A1" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="2"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="68">
+      <c r="B3" s="3">
         <v>17</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="34" t="s">
         <v>651</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68">
+      <c r="A4" s="67"/>
+      <c r="B4" s="3">
         <v>22</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="34" t="s">
         <v>651</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68">
+      <c r="A5" s="67"/>
+      <c r="B5" s="3">
         <v>39</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="34" t="s">
         <v>654</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68">
+      <c r="A6" s="67"/>
+      <c r="B6" s="3">
         <v>40</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="68" t="s">
         <v>655</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="69" t="s">
         <v>656</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="70" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68">
+      <c r="A7" s="67"/>
+      <c r="B7" s="3">
         <v>46</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="68" t="s">
         <v>657</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="69" t="s">
         <v>658</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="3" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68">
+      <c r="A8" s="67"/>
+      <c r="B8" s="3">
         <v>47</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="68" t="s">
         <v>660</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="69" t="s">
         <v>661</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="70" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="76"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="3">
+        <v>77</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>664</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68">
-        <v>77</v>
-      </c>
-      <c r="C10" s="70" t="s">
-        <v>663</v>
-      </c>
-      <c r="D10" s="71" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="3">
+        <v>78</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>665</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="72" t="s">
-        <v>664</v>
-      </c>
-      <c r="F10" s="68" t="s">
+      <c r="E10" s="69" t="s">
+        <v>666</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68">
-        <v>78</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>665</v>
-      </c>
-      <c r="D11" s="71" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="3">
+        <v>90</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="74" t="s">
-        <v>666</v>
-      </c>
-      <c r="F11" s="68" t="s">
+      <c r="E11" s="69" t="s">
+        <v>656</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="67"/>
+      <c r="B12" s="3">
+        <v>95</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="67"/>
+      <c r="B13" s="3">
+        <v>131</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>673</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>674</v>
+      </c>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="67"/>
+      <c r="B14" s="3">
+        <v>216</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>675</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>676</v>
+      </c>
+      <c r="F14" s="70" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68">
-        <v>90</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>667</v>
-      </c>
-      <c r="D12" s="71" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="67"/>
+      <c r="B15" s="3">
+        <v>257</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>677</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="67"/>
+      <c r="B16" s="3">
+        <v>140</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="67"/>
+      <c r="B17" s="3">
+        <v>212</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>680</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" ht="42.75" spans="1:6">
+      <c r="A18" s="67"/>
+      <c r="B18" s="3">
+        <v>473</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="74" t="s">
-        <v>656</v>
-      </c>
-      <c r="F12" s="68" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="68"/>
-      <c r="B13" s="3">
-        <v>95</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E18" s="34" t="s">
+        <v>682</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="67"/>
+      <c r="B19" s="3">
+        <v>1239</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>684</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68">
-        <v>131</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>672</v>
-      </c>
-      <c r="D14" s="71" t="s">
+      <c r="E19" s="69" t="s">
+        <v>685</v>
+      </c>
+      <c r="F19" s="67"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="67"/>
+      <c r="B20" s="3">
+        <v>1593</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="72" t="s">
-        <v>673</v>
-      </c>
-      <c r="F14" s="68" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68">
-        <v>140</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>675</v>
-      </c>
-      <c r="D15" s="71" t="s">
+      <c r="E20" s="34" t="s">
+        <v>687</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="67"/>
+      <c r="B21" s="3">
+        <v>949</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>688</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="68"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68">
-        <v>212</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>676</v>
-      </c>
-      <c r="D16" s="71" t="s">
+      <c r="E21" s="69" t="s">
+        <v>689</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" ht="42.75" spans="1:6">
+      <c r="A22" s="67"/>
+      <c r="B22" s="3">
+        <v>2048</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>690</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="72" t="s">
-        <v>677</v>
-      </c>
-      <c r="F16" s="68"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68">
-        <v>216</v>
-      </c>
-      <c r="C17" s="73" t="s">
-        <v>678</v>
-      </c>
-      <c r="D17" s="71" t="s">
+      <c r="E22" s="69" t="s">
+        <v>691</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="67"/>
+      <c r="B23" s="67">
+        <v>1443</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>692</v>
+      </c>
+      <c r="D23" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="74" t="s">
-        <v>679</v>
-      </c>
-      <c r="F17" s="68"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="68"/>
-      <c r="B18" s="68">
-        <v>257</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>680</v>
-      </c>
-      <c r="F18" s="68" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68">
-        <v>1593</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>681</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="72" t="s">
-        <v>682</v>
-      </c>
-      <c r="F19" s="68"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68">
-        <v>1239</v>
-      </c>
-      <c r="C20" s="73" t="s">
-        <v>683</v>
-      </c>
-      <c r="D20" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="74" t="s">
-        <v>684</v>
-      </c>
-      <c r="F20" s="68"/>
-    </row>
-    <row r="21" ht="42.75" spans="1:6">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68">
-        <v>473</v>
-      </c>
-      <c r="C21" s="70" t="s">
-        <v>685</v>
-      </c>
-      <c r="D21" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="72" t="s">
-        <v>686</v>
-      </c>
-      <c r="F21" s="71" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68">
-        <v>949</v>
-      </c>
-      <c r="C22" s="73" t="s">
-        <v>688</v>
-      </c>
-      <c r="D22" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="74" t="s">
-        <v>689</v>
-      </c>
-      <c r="F22" s="68"/>
-    </row>
-    <row r="23" ht="42.75" spans="1:6">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68">
-        <v>2048</v>
-      </c>
-      <c r="C23" s="73" t="s">
-        <v>690</v>
-      </c>
-      <c r="D23" s="71" t="s">
-        <v>40</v>
-      </c>
       <c r="E23" s="74" t="s">
-        <v>691</v>
-      </c>
-      <c r="F23" s="68"/>
-    </row>
-    <row r="24" customFormat="1" spans="1:6">
-      <c r="A24" s="77"/>
-      <c r="B24" s="10">
-        <v>1443</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" t="s">
         <v>693</v>
       </c>
-      <c r="F24" s="78"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="10"/>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="10"/>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="68">
+      <c r="F23" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="67"/>
+      <c r="B24" s="3">
         <v>51</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C24" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="D27" s="71" t="s">
+      <c r="D24" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="69" t="s">
         <v>695</v>
       </c>
-      <c r="E27" s="74" t="s">
-        <v>696</v>
-      </c>
+      <c r="F24" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="75"/>
+    </row>
+    <row r="26" customFormat="1" spans="1:1">
+      <c r="A26" s="10"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="10"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="10"/>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="10"/>
-      <c r="D29" s="10"/>
-    </row>
     <row r="30" spans="2:4">
       <c r="B30" s="10"/>
       <c r="D30" s="10"/>
@@ -6907,9 +6894,17 @@
       <c r="B34" s="10"/>
       <c r="D34" s="10"/>
     </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="10"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="10"/>
+      <c r="D36" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:A23"/>
+    <mergeCell ref="A3:A24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="主页!A1" display="主页"/>
@@ -6959,7 +6954,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E2" s="43" t="s">
         <v>36</v>
@@ -6970,13 +6965,13 @@
         <v>204</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6984,13 +6979,13 @@
         <v>1726</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6998,13 +6993,13 @@
         <v>1980</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7023,13 +7018,13 @@
         <v>2171</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7037,13 +7032,13 @@
         <v>1094</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>165</v>
@@ -7054,7 +7049,7 @@
         <v>1925</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>44</v>
@@ -7068,13 +7063,13 @@
         <v>1551</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7082,7 +7077,7 @@
         <v>1775</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>44</v>
@@ -7093,13 +7088,13 @@
         <v>179</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7107,13 +7102,13 @@
         <v>93</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7121,7 +7116,7 @@
         <v>989</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>44</v>
@@ -7132,13 +7127,13 @@
         <v>2029</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7146,13 +7141,13 @@
         <v>60</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>97</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="1:6">
@@ -7160,16 +7155,16 @@
         <v>1509</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>722</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:6">
@@ -7177,14 +7172,14 @@
         <v>1963</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="17" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F18" s="10"/>
     </row>
@@ -7193,13 +7188,13 @@
         <v>1191</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7207,13 +7202,13 @@
         <v>390</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7221,7 +7216,7 @@
         <v>1539</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>44</v>
@@ -7235,13 +7230,13 @@
         <v>1362</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7249,7 +7244,7 @@
         <v>1608</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>44</v>
@@ -7263,13 +7258,13 @@
         <v>2119</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -7320,7 +7315,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E2" s="43" t="s">
         <v>36</v>
@@ -7331,13 +7326,13 @@
         <v>1979</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7345,7 +7340,7 @@
         <v>162</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>40</v>
@@ -7356,7 +7351,7 @@
         <v>1047</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>44</v>
@@ -7367,7 +7362,7 @@
         <v>118</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>44</v>
@@ -7378,7 +7373,7 @@
         <v>648</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>40</v>
@@ -7389,7 +7384,7 @@
         <v>1781</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>40</v>
@@ -7400,7 +7395,7 @@
         <v>326</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>44</v>
@@ -7411,13 +7406,13 @@
         <v>1408</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7425,13 +7420,13 @@
         <v>462</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7439,7 +7434,7 @@
         <v>1464</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>44</v>
@@ -7450,13 +7445,13 @@
         <v>1961</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7464,13 +7459,13 @@
         <v>1894</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:5">
@@ -7478,13 +7473,13 @@
         <v>1967</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7492,13 +7487,13 @@
         <v>539</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7506,7 +7501,7 @@
         <v>539</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>40</v>
@@ -7520,7 +7515,7 @@
         <v>838</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>40</v>
@@ -7531,13 +7526,13 @@
         <v>551</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7545,13 +7540,13 @@
         <v>1025</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7559,13 +7554,13 @@
         <v>1718</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7573,7 +7568,7 @@
         <v>1909</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>44</v>
@@ -7584,13 +7579,13 @@
         <v>2178</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="24" ht="28.5" spans="1:5">
@@ -7598,13 +7593,13 @@
         <v>502</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7612,7 +7607,7 @@
         <v>1791</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>44</v>
@@ -7626,13 +7621,13 @@
         <v>1154</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="27" ht="57" spans="1:5">
@@ -7640,13 +7635,13 @@
         <v>1253</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7654,7 +7649,7 @@
         <v>1491</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>44</v>
@@ -7665,13 +7660,13 @@
         <v>1968</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7679,7 +7674,7 @@
         <v>1021</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>44</v>
@@ -7690,13 +7685,13 @@
         <v>43</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -7704,7 +7699,7 @@
         <v>2032</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>44</v>
@@ -7718,13 +7713,13 @@
         <v>1103</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:5">
@@ -7732,13 +7727,13 @@
         <v>1688</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="35" ht="28.5" spans="1:5">
@@ -7746,13 +7741,13 @@
         <v>383</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -7760,13 +7755,13 @@
         <v>357</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="37" ht="42.75" spans="1:5">
@@ -7774,13 +7769,13 @@
         <v>977</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -7788,13 +7783,13 @@
         <v>1295</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -7802,13 +7797,13 @@
         <v>1389</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -7816,7 +7811,7 @@
         <v>1503</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>40</v>
@@ -7830,7 +7825,7 @@
         <v>2200</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>40</v>
@@ -7844,13 +7839,13 @@
         <v>217</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -7858,13 +7853,13 @@
         <v>2239</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -7872,7 +7867,7 @@
         <v>941</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>44</v>
@@ -7886,13 +7881,13 @@
         <v>1619</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -7900,13 +7895,13 @@
         <v>1450</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -7914,13 +7909,13 @@
         <v>1929</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -7928,13 +7923,13 @@
         <v>1941</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="49" ht="57" spans="1:5">
@@ -7942,13 +7937,13 @@
         <v>443</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -7956,13 +7951,13 @@
         <v>1541</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -7970,13 +7965,13 @@
         <v>1832</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -7984,13 +7979,13 @@
         <v>999</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -7998,13 +7993,13 @@
         <v>1431</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -8012,13 +8007,13 @@
         <v>1475</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -8026,13 +8021,13 @@
         <v>884</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -8040,13 +8035,13 @@
         <v>1566</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -8054,7 +8049,7 @@
         <v>127</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>97</v>
@@ -8065,13 +8060,13 @@
         <v>1054</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -8079,7 +8074,7 @@
         <v>2154</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>44</v>
@@ -8090,13 +8085,13 @@
         <v>1550</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -8104,7 +8099,7 @@
         <v>575</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>44</v>
@@ -8115,13 +8110,13 @@
         <v>1716</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -8129,7 +8124,7 @@
         <v>1869</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>44</v>
@@ -8143,13 +8138,13 @@
         <v>1638</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -8157,7 +8152,7 @@
         <v>2138</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>44</v>
@@ -8171,7 +8166,7 @@
         <v>2299</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>44</v>
@@ -8185,13 +8180,13 @@
         <v>1614</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -8199,13 +8194,13 @@
         <v>1689</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -8213,7 +8208,7 @@
         <v>1952</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>44</v>
@@ -8227,13 +8222,13 @@
         <v>645</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -8241,13 +8236,13 @@
         <v>2206</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -8255,7 +8250,7 @@
         <v>1436</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>44</v>
@@ -8306,7 +8301,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>36</v>
@@ -8317,7 +8312,7 @@
         <v>355</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>40</v>
@@ -8330,7 +8325,7 @@
         <v>460</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>97</v>
@@ -8343,7 +8338,7 @@
         <v>622</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>40</v>
@@ -8356,7 +8351,7 @@
         <v>641</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>40</v>
@@ -8369,7 +8364,7 @@
         <v>705</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>40</v>
@@ -8382,7 +8377,7 @@
         <v>706</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>40</v>
@@ -8395,7 +8390,7 @@
         <v>707</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>40</v>
@@ -8408,7 +8403,7 @@
         <v>1206</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>97</v>
@@ -8421,7 +8416,7 @@
         <v>1472</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>40</v>
@@ -8434,7 +8429,7 @@
         <v>1797</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>40</v>
@@ -8445,13 +8440,13 @@
         <v>307</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>
@@ -8503,7 +8498,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E2" s="50" t="s">
         <v>36</v>
@@ -8514,7 +8509,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C3" s="61" t="s">
         <v>44</v>
@@ -8528,7 +8523,7 @@
         <v>633</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C4" s="61" t="s">
         <v>44</v>
@@ -8539,7 +8534,7 @@
         <v>441</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C5" s="61" t="s">
         <v>44</v>
@@ -8550,10 +8545,10 @@
         <v>34</v>
       </c>
       <c r="B7" s="50" t="s">
+        <v>865</v>
+      </c>
+      <c r="E7" s="51" t="s">
         <v>866</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="8" ht="42.75" spans="1:5">
@@ -8561,10 +8556,10 @@
         <v>153</v>
       </c>
       <c r="B8" s="50" t="s">
+        <v>867</v>
+      </c>
+      <c r="E8" s="52" t="s">
         <v>868</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="9" ht="57" spans="1:5">
@@ -8572,13 +8567,13 @@
         <v>378</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8586,13 +8581,13 @@
         <v>33</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="11" s="10" customFormat="1" ht="27" spans="1:6">
@@ -8600,13 +8595,13 @@
         <v>1201</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F11" s="15"/>
     </row>
@@ -8615,13 +8610,13 @@
         <v>1351</v>
       </c>
       <c r="B12" s="61" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C12" s="61" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8629,16 +8624,16 @@
         <v>275</v>
       </c>
       <c r="B13" s="61" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8646,13 +8641,13 @@
         <v>35</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C14" s="61" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8660,13 +8655,13 @@
         <v>2300</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C15" s="50" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8674,13 +8669,13 @@
         <v>240</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C16" s="50" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -8734,7 +8729,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E2" s="43" t="s">
         <v>36</v>
@@ -8745,7 +8740,7 @@
         <v>219</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>44</v>
@@ -8756,7 +8751,7 @@
         <v>643</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>44</v>
@@ -8767,13 +8762,13 @@
         <v>1876</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8781,13 +8776,13 @@
         <v>1984</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8795,7 +8790,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>40</v>
@@ -8806,7 +8801,7 @@
         <v>187</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>40</v>
@@ -8817,7 +8812,7 @@
         <v>209</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>40</v>
@@ -8828,13 +8823,13 @@
         <v>220</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="11" ht="71.25" spans="1:7">
@@ -8842,13 +8837,13 @@
         <v>395</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>165</v>
@@ -8859,13 +8854,13 @@
         <v>424</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8873,7 +8868,7 @@
         <v>438</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>40</v>
@@ -8884,13 +8879,13 @@
         <v>567</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8898,13 +8893,13 @@
         <v>930</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8912,13 +8907,13 @@
         <v>978</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8926,13 +8921,13 @@
         <v>1004</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F17" s="15"/>
     </row>
@@ -8941,13 +8936,13 @@
         <v>1052</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8955,13 +8950,13 @@
         <v>1208</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8969,13 +8964,13 @@
         <v>1234</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8983,7 +8978,7 @@
         <v>1423</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>40</v>
@@ -9000,7 +8995,7 @@
         <v>40</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="23" ht="42.75" spans="1:5">
@@ -9008,13 +9003,13 @@
         <v>1493</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="54" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -9022,13 +9017,13 @@
         <v>1658</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -9036,13 +9031,13 @@
         <v>1696</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:5">
@@ -9050,13 +9045,13 @@
         <v>1838</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -9064,13 +9059,13 @@
         <v>2024</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:9">
@@ -9078,14 +9073,14 @@
         <v>2104</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="56" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -9097,13 +9092,13 @@
         <v>1525</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9111,7 +9106,7 @@
         <v>904</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>40</v>
@@ -9122,13 +9117,13 @@
         <v>643</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="42.75" spans="1:5">
@@ -9136,13 +9131,13 @@
         <v>1248</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="33" ht="42.75" spans="1:5">
@@ -9150,13 +9145,13 @@
         <v>1234</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -9164,13 +9159,13 @@
         <v>1156</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
   </sheetData>
@@ -9222,7 +9217,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E2" s="43" t="s">
         <v>36</v>
@@ -9234,7 +9229,7 @@
         <v>167</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -9250,7 +9245,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="16" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F4" s="10"/>
     </row>
@@ -9259,7 +9254,7 @@
         <v>1903</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -9270,10 +9265,10 @@
         <v>1712</v>
       </c>
       <c r="B7" s="51" t="s">
+        <v>941</v>
+      </c>
+      <c r="E7" s="52" t="s">
         <v>942</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:6">
@@ -9281,14 +9276,14 @@
         <v>9</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="17" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F8" s="10"/>
     </row>
@@ -9297,14 +9292,14 @@
         <v>205</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="17" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -9313,14 +9308,14 @@
         <v>881</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="17" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F10" s="10"/>
     </row>
@@ -9329,14 +9324,14 @@
         <v>475</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="17" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F11" s="10"/>
     </row>
@@ -9345,14 +9340,14 @@
         <v>825</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="17" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F12" s="10"/>
     </row>
@@ -9361,14 +9356,14 @@
         <v>713</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="17" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F13" s="10"/>
     </row>
@@ -9377,14 +9372,14 @@
         <v>923</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="17" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -9393,13 +9388,13 @@
         <v>922</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -9407,14 +9402,14 @@
         <v>345</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="17" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F16" s="10"/>
     </row>
@@ -9423,14 +9418,14 @@
         <v>1768</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="17" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F17" s="10"/>
     </row>
@@ -9439,14 +9434,14 @@
         <v>165</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="16" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F18" s="10"/>
     </row>
@@ -9455,14 +9450,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="16" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F19" s="10"/>
     </row>
@@ -9471,14 +9466,14 @@
         <v>1679</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="16" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F20" s="10"/>
     </row>
@@ -9487,14 +9482,14 @@
         <v>392</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="16" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F21" s="10"/>
     </row>
@@ -9503,14 +9498,14 @@
         <v>283</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="17" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F22" s="10"/>
     </row>
@@ -9519,14 +9514,14 @@
         <v>1855</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="16" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F23" s="10"/>
     </row>
@@ -9535,14 +9530,14 @@
         <v>1662</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="16" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F24" s="10"/>
     </row>
@@ -9551,14 +9546,14 @@
         <v>849</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="17" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F25" s="10"/>
     </row>
@@ -9567,14 +9562,14 @@
         <v>80</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="16" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F26" s="10"/>
     </row>
@@ -9583,14 +9578,14 @@
         <v>16</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="16" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F27" s="10"/>
     </row>
@@ -9599,16 +9594,16 @@
         <v>986</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E28" s="17" t="s">
+        <v>984</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>985</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -9924,7 +9919,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E2" s="43" t="s">
         <v>36</v>
@@ -9938,7 +9933,7 @@
         <v>334</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>40</v>
@@ -9954,7 +9949,7 @@
         <v>1262</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -9968,14 +9963,14 @@
         <v>915</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="31" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
@@ -9986,14 +9981,14 @@
         <v>775</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="17" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
@@ -10004,7 +9999,7 @@
         <v>2177</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>40</v>
@@ -10020,7 +10015,7 @@
         <v>485</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>44</v>
@@ -10036,14 +10031,14 @@
         <v>628</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
@@ -26440,16 +26435,16 @@
         <v>495</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="43" t="s">
+        <v>997</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>998</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>999</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
@@ -26460,14 +26455,14 @@
         <v>1796</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
@@ -26478,14 +26473,14 @@
         <v>2037</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="17" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
@@ -26496,14 +26491,14 @@
         <v>1636</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
@@ -26514,7 +26509,7 @@
         <v>747</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>44</v>
@@ -27283,17 +27278,17 @@
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="128" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="129" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="128" t="s">
         <v>18</v>
       </c>
     </row>
@@ -27346,7 +27341,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>36</v>
@@ -27357,13 +27352,13 @@
         <v>215</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="4" s="27" customFormat="1" ht="57" spans="1:5">
@@ -27371,13 +27366,13 @@
         <v>389</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:5">
@@ -27385,13 +27380,13 @@
         <v>268</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -27399,14 +27394,14 @@
         <v>1654</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="41" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -27414,7 +27409,7 @@
         <v>1752</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>44</v>
@@ -27425,13 +27420,13 @@
         <v>1812</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -27439,13 +27434,13 @@
         <v>969</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -27453,13 +27448,13 @@
         <v>89</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -27517,13 +27512,13 @@
         <v>274</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="4" ht="42.75" spans="1:4">
@@ -27531,13 +27526,13 @@
         <v>962</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -27545,13 +27540,13 @@
         <v>179</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
   </sheetData>
@@ -27591,10 +27586,10 @@
     </row>
     <row r="2" s="10" customFormat="1" ht="99" customHeight="1" spans="1:5">
       <c r="A2" s="10" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>1027</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>1028</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -27611,7 +27606,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>37</v>
@@ -27622,13 +27617,13 @@
         <v>990</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -27636,7 +27631,7 @@
         <v>1319</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>40</v>
@@ -27647,7 +27642,7 @@
         <v>886</v>
       </c>
       <c r="B6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>40</v>
@@ -27658,7 +27653,7 @@
         <v>721</v>
       </c>
       <c r="B7" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>40</v>
@@ -27713,7 +27708,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>36</v>
@@ -27724,13 +27719,13 @@
         <v>1590</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -27738,13 +27733,13 @@
         <v>1991</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -27752,13 +27747,13 @@
         <v>238</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -27766,7 +27761,7 @@
         <v>1652</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>44</v>
@@ -27780,13 +27775,13 @@
         <v>1664</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
   </sheetData>
@@ -27849,7 +27844,7 @@
         <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -27860,13 +27855,13 @@
         <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -27874,7 +27869,7 @@
         <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
@@ -27885,7 +27880,7 @@
         <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>
@@ -27896,7 +27891,7 @@
         <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D7" t="s">
         <v>44</v>
@@ -27907,13 +27902,13 @@
         <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D8" t="s">
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -27921,7 +27916,7 @@
         <v>183</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D9" t="s">
         <v>44</v>
@@ -27932,7 +27927,7 @@
         <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
@@ -27943,7 +27938,7 @@
         <v>196</v>
       </c>
       <c r="C11" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
@@ -27954,7 +27949,7 @@
         <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
@@ -27965,7 +27960,7 @@
         <v>511</v>
       </c>
       <c r="C13" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D13" t="s">
         <v>44</v>
@@ -27976,7 +27971,7 @@
         <v>584</v>
       </c>
       <c r="C14" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D14" t="s">
         <v>44</v>
@@ -27987,7 +27982,7 @@
         <v>586</v>
       </c>
       <c r="C15" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -27998,7 +27993,7 @@
         <v>607</v>
       </c>
       <c r="C16" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
@@ -28009,13 +28004,13 @@
         <v>608</v>
       </c>
       <c r="C17" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D17" t="s">
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="18" ht="15.75" spans="2:3">
@@ -28023,7 +28018,7 @@
         <v>626</v>
       </c>
       <c r="C18" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -28031,7 +28026,7 @@
         <v>627</v>
       </c>
       <c r="C19" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -28039,7 +28034,7 @@
         <v>1050</v>
       </c>
       <c r="C20" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -28047,7 +28042,7 @@
         <v>1084</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -28055,7 +28050,7 @@
         <v>1141</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -28063,7 +28058,7 @@
         <v>1148</v>
       </c>
       <c r="C23" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -28071,7 +28066,7 @@
         <v>1158</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -28079,7 +28074,7 @@
         <v>1393</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -28087,7 +28082,7 @@
         <v>1407</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -28095,7 +28090,7 @@
         <v>1527</v>
       </c>
       <c r="C27" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="28" spans="2:3">
@@ -28103,7 +28098,7 @@
         <v>1581</v>
       </c>
       <c r="C28" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -28111,7 +28106,7 @@
         <v>1587</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -28119,7 +28114,7 @@
         <v>1667</v>
       </c>
       <c r="C30" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="31" spans="2:3">
@@ -28127,7 +28122,7 @@
         <v>1693</v>
       </c>
       <c r="C31" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="32" spans="2:3">
@@ -28135,7 +28130,7 @@
         <v>1729</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -28143,7 +28138,7 @@
         <v>1741</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -28151,7 +28146,7 @@
         <v>1757</v>
       </c>
       <c r="C34" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -28159,7 +28154,7 @@
         <v>1795</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -28167,7 +28162,7 @@
         <v>1873</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -28175,7 +28170,7 @@
         <v>1890</v>
       </c>
       <c r="C37" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -28183,7 +28178,7 @@
         <v>1965</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
@@ -28209,7 +28204,7 @@
   <cols>
     <col min="1" max="1" width="9" style="50"/>
     <col min="2" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="35.5" style="79" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="76" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="38.875" style="44" customWidth="1"/>
     <col min="6" max="6" width="5.25" style="10" customWidth="1"/>
@@ -28245,13 +28240,13 @@
       </c>
     </row>
     <row r="3" ht="15" spans="1:6">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="130">
+      <c r="B3" s="124">
         <v>2</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="68" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -28265,7 +28260,7 @@
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:6">
-      <c r="A4" s="109"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="4">
         <v>21</v>
       </c>
@@ -28283,7 +28278,7 @@
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:6">
-      <c r="A5" s="109"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="4">
         <v>141</v>
       </c>
@@ -28293,7 +28288,7 @@
       <c r="D5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="69" t="s">
         <v>47</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -28301,17 +28296,17 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="109"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="4">
         <v>142</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="68" t="s">
         <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="69" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -28320,7 +28315,7 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" ht="28.5" spans="1:10">
-      <c r="A7" s="110"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="4">
         <v>160</v>
       </c>
@@ -28351,7 +28346,7 @@
       <c r="D8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="69" t="s">
         <v>55</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -28363,13 +28358,13 @@
       <c r="B9" s="4">
         <v>82</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="68" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="69" t="s">
         <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -28387,7 +28382,7 @@
       <c r="D10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="69" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -28405,7 +28400,7 @@
       <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="87" t="s">
+      <c r="E11" s="69" t="s">
         <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -28423,28 +28418,28 @@
       <c r="D12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="69" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" s="129" customFormat="1" ht="28.5" spans="1:6">
+    <row r="13" s="123" customFormat="1" ht="28.5" spans="1:6">
       <c r="A13" s="3"/>
-      <c r="B13" s="131">
+      <c r="B13" s="125">
         <v>92</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="118" t="s">
+      <c r="D13" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="114" t="s">
+      <c r="E13" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="127" t="s">
+      <c r="F13" s="121" t="s">
         <v>63</v>
       </c>
     </row>
@@ -28453,7 +28448,7 @@
       <c r="B14" s="4">
         <v>109</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="68" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -28477,7 +28472,7 @@
       <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="87" t="s">
+      <c r="E15" s="69" t="s">
         <v>67</v>
       </c>
       <c r="F15" s="3"/>
@@ -28493,7 +28488,7 @@
       <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="87" t="s">
+      <c r="E16" s="69" t="s">
         <v>69</v>
       </c>
       <c r="F16" s="3"/>
@@ -28517,13 +28512,13 @@
       <c r="B18" s="4">
         <v>143</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="68" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="87" t="s">
+      <c r="E18" s="69" t="s">
         <v>72</v>
       </c>
       <c r="F18" s="3"/>
@@ -28533,13 +28528,13 @@
       <c r="B19" s="4">
         <v>203</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="68" t="s">
         <v>73</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="87" t="s">
+      <c r="E19" s="69" t="s">
         <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
@@ -28557,10 +28552,10 @@
       <c r="D20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="132" t="s">
+      <c r="E20" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="98" t="s">
+      <c r="F20" s="93" t="s">
         <v>50</v>
       </c>
     </row>
@@ -28569,13 +28564,13 @@
       <c r="B21" s="4">
         <v>237</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="68" t="s">
         <v>76</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="87" t="s">
+      <c r="E21" s="69" t="s">
         <v>57</v>
